--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
@@ -16,6 +16,7 @@
     <sheet name="VERS_0_Docubase_Pages" sheetId="6" state="visible" r:id="rId8"/>
     <sheet name="VERS_4_Docubase_Pages" sheetId="7" state="hidden" r:id="rId9"/>
     <sheet name="VIEW_0_Docubase_Page_Views" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="VELI_0_Docubase_Page_Styles" sheetId="9" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="AREA" vbProcedure="false">VINE!$A$1:$CI$46</definedName>
@@ -87,6 +88,13 @@
     <definedName function="false" hidden="false" localSheetId="7" name="MOD_0" vbProcedure="false">VIEW_0_Docubase_Page_Views!$A$1:$AV$56</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="MOD_0_COM" vbProcedure="false">VIEW_0_Docubase_Page_Views!$A$5:$AV$56</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="MOD_0_SUP" vbProcedure="false">VIEW_0_Docubase_Page_Views!$A$1:$AV$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="AREA" vbProcedure="false">VELI_0_Docubase_Page_Styles!$A$1:$X$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="LMN_0" vbProcedure="false">VELI_0_Docubase_Page_Styles!$F$1:$M$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="LMN_0_SUBSET" vbProcedure="false">VELI_0_Docubase_Page_Styles!$D$1:$D$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="LMN_0_SUPSET" vbProcedure="false">VELI_0_Docubase_Page_Styles!$C$1:$C$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="MOD_0" vbProcedure="false">VELI_0_Docubase_Page_Styles!$A$1:$X$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="MOD_0_COM" vbProcedure="false">VELI_0_Docubase_Page_Styles!$A$5:$X$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="MOD_0_SUP" vbProcedure="false">VELI_0_Docubase_Page_Styles!$A$1:$X$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -98,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="461">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -4557,7 +4565,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L35" activeCellId="0" sqref="L35"/>
+      <selection pane="bottomRight" activeCell="I49" activeCellId="0" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18381,11 +18389,11 @@
   <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="XEP40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="XEP1" activeCellId="0" sqref="XEP1"/>
-      <selection pane="bottomLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
-      <selection pane="bottomRight" activeCell="XFD49" activeCellId="0" sqref="XFD49"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="M35" activeCellId="0" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -22439,7 +22447,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -24113,12 +24121,12 @@
   </sheetPr>
   <dimension ref="A1:AK83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S36" activeCellId="0" sqref="S36"/>
+      <selection pane="bottomRight" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -28298,12 +28306,12 @@
   </sheetPr>
   <dimension ref="A1:AW57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="13" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J34" activeCellId="0" sqref="J34"/>
+      <selection pane="bottomRight" activeCell="AF21" activeCellId="0" sqref="AF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31988,4 +31996,478 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF01579B"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A11" activeCellId="0" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="65" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="1" width="4.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="31.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="7.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="2" width="3.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="42.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="21" style="1" width="3.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="3" width="4.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="26" min="26" style="1" width="50.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="35.99"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="C1" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA1" s="72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="165" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="168" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="168" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="166" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="165" t="s">
+        <v>112</v>
+      </c>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="165"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="166" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="165" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="O3" s="166" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166" t="s">
+        <v>117</v>
+      </c>
+      <c r="R3" s="168" t="s">
+        <v>113</v>
+      </c>
+      <c r="S3" s="165" t="s">
+        <v>114</v>
+      </c>
+      <c r="T3" s="165" t="s">
+        <v>115</v>
+      </c>
+      <c r="U3" s="165" t="s">
+        <v>116</v>
+      </c>
+      <c r="V3" s="165"/>
+      <c r="W3" s="165" t="s">
+        <v>117</v>
+      </c>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="165"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" s="166" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="168"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="165" t="s">
+        <v>118</v>
+      </c>
+      <c r="V4" s="165" t="s">
+        <v>119</v>
+      </c>
+      <c r="W4" s="165"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="169"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="171"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="174"/>
+      <c r="Q6" s="175"/>
+      <c r="R6" s="170"/>
+      <c r="S6" s="176"/>
+      <c r="T6" s="172"/>
+      <c r="U6" s="173"/>
+      <c r="V6" s="174"/>
+      <c r="W6" s="172"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="93"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="285"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="59"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="123" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="123" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" s="123" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" s="123" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" s="123" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="Z1:Z4"/>
+    <mergeCell ref="AA1:AA4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:W4"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -28311,7 +28311,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AF21" activeCellId="0" sqref="AF21"/>
+      <selection pane="bottomRight" activeCell="AI22" activeCellId="0" sqref="AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3778" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="535">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -15159,11 +15159,11 @@
   <dimension ref="A1:AA185"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E157" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
-      <selection pane="bottomRight" activeCell="L24" activeCellId="0" sqref="L24"/>
+      <selection pane="bottomLeft" activeCell="A157" activeCellId="0" sqref="A157"/>
+      <selection pane="bottomRight" activeCell="D179" activeCellId="0" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -22356,7 +22356,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R90" activeCellId="0" sqref="R90"/>
+      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -32655,11 +32655,11 @@
   <dimension ref="A1:AW65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="4" topLeftCell="N38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="C64" activeCellId="0" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33125,8 +33125,12 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="396"/>
       <c r="B7" s="396"/>
-      <c r="C7" s="397"/>
-      <c r="D7" s="398"/>
+      <c r="C7" s="397" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="398" t="s">
+        <v>458</v>
+      </c>
       <c r="E7" s="399"/>
       <c r="F7" s="399"/>
       <c r="G7" s="399"/>
@@ -33180,8 +33184,12 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="396"/>
       <c r="B8" s="396"/>
-      <c r="C8" s="397"/>
-      <c r="D8" s="398"/>
+      <c r="C8" s="397" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="398" t="s">
+        <v>458</v>
+      </c>
       <c r="E8" s="399"/>
       <c r="F8" s="399"/>
       <c r="G8" s="399"/>
@@ -33418,8 +33426,12 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="396"/>
       <c r="B12" s="396"/>
-      <c r="C12" s="397"/>
-      <c r="D12" s="398"/>
+      <c r="C12" s="397" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="398" t="s">
+        <v>458</v>
+      </c>
       <c r="E12" s="399"/>
       <c r="F12" s="399"/>
       <c r="G12" s="399"/>
@@ -33473,8 +33485,12 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="396"/>
       <c r="B13" s="396"/>
-      <c r="C13" s="397"/>
-      <c r="D13" s="398"/>
+      <c r="C13" s="397" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="398" t="s">
+        <v>458</v>
+      </c>
       <c r="E13" s="399"/>
       <c r="F13" s="399"/>
       <c r="G13" s="399"/>
@@ -33530,8 +33546,12 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="396"/>
       <c r="B14" s="396"/>
-      <c r="C14" s="397"/>
-      <c r="D14" s="398"/>
+      <c r="C14" s="397" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="398" t="s">
+        <v>458</v>
+      </c>
       <c r="E14" s="399"/>
       <c r="F14" s="399"/>
       <c r="G14" s="399"/>
@@ -33589,8 +33609,12 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="396"/>
       <c r="B15" s="396"/>
-      <c r="C15" s="397"/>
-      <c r="D15" s="398"/>
+      <c r="C15" s="397" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="398" t="s">
+        <v>458</v>
+      </c>
       <c r="E15" s="399"/>
       <c r="F15" s="399"/>
       <c r="G15" s="399"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
@@ -67,15 +67,15 @@
     <definedName function="false" hidden="false" localSheetId="5" name="MOD_0" vbProcedure="false">VERS_0_Docubase_Pages!$A$1:$X$42</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="MOD_0_COM" vbProcedure="false">VERS_0_Docubase_Pages!$A$5:$X$42</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="MOD_0_SUP" vbProcedure="false">VERS_0_Docubase_Pages!$A$1:$X$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="AREA" vbProcedure="false">VIEW_0_Docubase_Page_Views!$A$1:$AV$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="LMN_0" vbProcedure="false">VIEW_0_Docubase_Page_Views!$W$1:$AE$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="LMN_0_SUBSET" vbProcedure="false">VIEW_0_Docubase_Page_Views!$D$1:$D$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="LMN_0_SUPSET" vbProcedure="false">VIEW_0_Docubase_Page_Views!$C$1:$C$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="LMN_1" vbProcedure="false">VIEW_0_Docubase_Page_Views!$E$1:$M$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="LMN_1_SUBSET" vbProcedure="false">VIEW_0_Docubase_Page_Views!$D$1:$D$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="LMN_1_SUPSET" vbProcedure="false">VIEW_0_Docubase_Page_Views!$C$1:$C$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="MOD_0" vbProcedure="false">VIEW_0_Docubase_Page_Views!$A$1:$AV$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="MOD_0_COM" vbProcedure="false">VIEW_0_Docubase_Page_Views!$A$5:$AV$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="AREA" vbProcedure="false">VIEW_0_Docubase_Page_Views!$A$1:$AV$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="LMN_0" vbProcedure="false">VIEW_0_Docubase_Page_Views!$W$1:$AE$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="LMN_0_SUBSET" vbProcedure="false">VIEW_0_Docubase_Page_Views!$D$1:$D$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="LMN_0_SUPSET" vbProcedure="false">VIEW_0_Docubase_Page_Views!$C$1:$C$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="LMN_1" vbProcedure="false">VIEW_0_Docubase_Page_Views!$E$1:$M$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="LMN_1_SUBSET" vbProcedure="false">VIEW_0_Docubase_Page_Views!$D$1:$D$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="LMN_1_SUPSET" vbProcedure="false">VIEW_0_Docubase_Page_Views!$C$1:$C$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="MOD_0" vbProcedure="false">VIEW_0_Docubase_Page_Views!$A$1:$AV$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="MOD_0_COM" vbProcedure="false">VIEW_0_Docubase_Page_Views!$A$5:$AV$68</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="MOD_0_SUP" vbProcedure="false">VIEW_0_Docubase_Page_Views!$A$1:$AV$4</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="AREA" vbProcedure="false">VELI_0_Docubase_Page_Styles!$A$1:$X$11</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="LMN_0" vbProcedure="false">VELI_0_Docubase_Page_Styles!$F$1:$M$11</definedName>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3802" uniqueCount="537">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -1490,13 +1490,65 @@
     <t xml:space="preserve">'/html/html5'</t>
   </si>
   <si>
-    <t xml:space="preserve">Object.assign</t>
-  </si>
-  <si>
     <t xml:space="preserve">$data</t>
   </si>
   <si>
-    <t xml:space="preserve">Docubase | HTML Templates - HTML5</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Docubase | </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">HTML5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Template</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">!DOCTYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"en"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#Head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'head/index'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docubase | HTML5 Template - Head</t>
   </si>
   <si>
     <t xml:space="preserve">:#Variable Declarations</t>
@@ -1506,24 +1558,6 @@
   </si>
   <si>
     <t xml:space="preserve">$data.content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!DOCTYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"en"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;/</t>
   </si>
   <si>
     <t xml:space="preserve">title</t>
@@ -1713,7 +1747,7 @@
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1894,6 +1928,12 @@
       <name val="FreeMono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="61">
@@ -2234,15 +2274,15 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB480A"/>
+        <bgColor rgb="FFFC530F"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="darkGray">
         <fgColor rgb="FF83B539"/>
         <bgColor rgb="FF99CC61"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFB480A"/>
-        <bgColor rgb="FFFC530F"/>
       </patternFill>
     </fill>
     <fill>
@@ -4325,12 +4365,120 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="57" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="57" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="58" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="58" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="57" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="50" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="57" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="23" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="23" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="52" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="52" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="57" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="57" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="52" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="53" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="51" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="54" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="54" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="54" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="54" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="56" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="50" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="48" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="49" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="52" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="52" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="53" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="53" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="53" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="53" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -4339,114 +4487,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="53" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="58" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="50" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="58" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="23" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="23" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="52" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="52" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="20" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="58" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="58" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="52" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="53" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="51" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="54" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="54" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="54" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="54" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="56" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="50" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="48" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="49" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="52" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="52" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="53" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="53" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="53" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="52" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -4746,12 +4786,12 @@
   </sheetPr>
   <dimension ref="A1:CY64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="V1" activeCellId="0" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X27" activeCellId="0" sqref="X27"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="N56" activeCellId="0" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15159,11 +15199,11 @@
   <dimension ref="A1:AA185"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E143" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A157" activeCellId="0" sqref="A157"/>
-      <selection pane="bottomRight" activeCell="D179" activeCellId="0" sqref="D179"/>
+      <selection pane="bottomLeft" activeCell="A143" activeCellId="0" sqref="A143"/>
+      <selection pane="bottomRight" activeCell="M167" activeCellId="0" sqref="M167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -22352,11 +22392,11 @@
   <dimension ref="A1:AA186"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E128" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="A128" activeCellId="0" sqref="A128"/>
+      <selection pane="bottomRight" activeCell="I156" activeCellId="0" sqref="I156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -29113,11 +29153,11 @@
   <dimension ref="A1:AK53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S15" activeCellId="0" sqref="S15"/>
+      <selection pane="bottomRight" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30781,7 +30821,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="Q15" activeCellId="0" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32652,14 +32692,14 @@
     <tabColor rgb="FFED4C05"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AW65"/>
+  <dimension ref="A1:AW69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="4" topLeftCell="N38" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="13" ySplit="4" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="C64" activeCellId="0" sqref="C64"/>
+      <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="AF7" activeCellId="0" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33424,62 +33464,59 @@
       <c r="AW11" s="395"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="396"/>
-      <c r="B12" s="396"/>
-      <c r="C12" s="397" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="398" t="s">
-        <v>458</v>
-      </c>
-      <c r="E12" s="399"/>
-      <c r="F12" s="399"/>
-      <c r="G12" s="399"/>
-      <c r="H12" s="399"/>
-      <c r="I12" s="399"/>
-      <c r="J12" s="399"/>
-      <c r="K12" s="399"/>
-      <c r="L12" s="399"/>
-      <c r="M12" s="399"/>
-      <c r="N12" s="400"/>
-      <c r="O12" s="401"/>
-      <c r="P12" s="402"/>
-      <c r="Q12" s="403"/>
-      <c r="R12" s="402"/>
-      <c r="S12" s="400"/>
-      <c r="T12" s="401"/>
-      <c r="U12" s="404"/>
-      <c r="V12" s="405"/>
-      <c r="W12" s="406"/>
-      <c r="X12" s="406"/>
-      <c r="Y12" s="406"/>
-      <c r="Z12" s="406" t="s">
+      <c r="A12" s="387" t="n">
+        <f aca="false">VINE!$A$53</f>
+        <v>49</v>
+      </c>
+      <c r="B12" s="388" t="s">
         <v>465</v>
       </c>
-      <c r="AA12" s="406"/>
-      <c r="AB12" s="406"/>
-      <c r="AC12" s="406"/>
-      <c r="AD12" s="406"/>
-      <c r="AE12" s="406"/>
-      <c r="AF12" s="407"/>
-      <c r="AG12" s="408"/>
-      <c r="AH12" s="409"/>
-      <c r="AI12" s="410" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ12" s="411"/>
-      <c r="AK12" s="209"/>
-      <c r="AL12" s="412"/>
-      <c r="AM12" s="413"/>
-      <c r="AN12" s="413"/>
-      <c r="AO12" s="413"/>
-      <c r="AP12" s="414"/>
-      <c r="AQ12" s="415"/>
-      <c r="AR12" s="414"/>
-      <c r="AS12" s="415"/>
-      <c r="AT12" s="414"/>
-      <c r="AU12" s="415"/>
-      <c r="AV12" s="416"/>
+      <c r="C12" s="389"/>
+      <c r="D12" s="389"/>
+      <c r="E12" s="389"/>
+      <c r="F12" s="389"/>
+      <c r="G12" s="389"/>
+      <c r="H12" s="389"/>
+      <c r="I12" s="389"/>
+      <c r="J12" s="389"/>
+      <c r="K12" s="389"/>
+      <c r="L12" s="389"/>
+      <c r="M12" s="389"/>
+      <c r="N12" s="390"/>
+      <c r="O12" s="391"/>
+      <c r="P12" s="389"/>
+      <c r="Q12" s="392"/>
+      <c r="R12" s="389"/>
+      <c r="S12" s="390"/>
+      <c r="T12" s="389"/>
+      <c r="U12" s="389"/>
+      <c r="V12" s="389"/>
+      <c r="W12" s="389"/>
+      <c r="X12" s="389"/>
+      <c r="Y12" s="389"/>
+      <c r="Z12" s="389"/>
+      <c r="AA12" s="389"/>
+      <c r="AB12" s="391"/>
+      <c r="AC12" s="391"/>
+      <c r="AD12" s="391"/>
+      <c r="AE12" s="391"/>
+      <c r="AF12" s="389"/>
+      <c r="AG12" s="390"/>
+      <c r="AH12" s="391"/>
+      <c r="AI12" s="391"/>
+      <c r="AJ12" s="393"/>
+      <c r="AK12" s="391"/>
+      <c r="AL12" s="389"/>
+      <c r="AM12" s="389"/>
+      <c r="AN12" s="389"/>
+      <c r="AO12" s="389"/>
+      <c r="AP12" s="389"/>
+      <c r="AQ12" s="389"/>
+      <c r="AR12" s="389"/>
+      <c r="AS12" s="389"/>
+      <c r="AT12" s="389"/>
+      <c r="AU12" s="389"/>
+      <c r="AV12" s="394"/>
       <c r="AW12" s="395"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33491,42 +33528,44 @@
       <c r="D13" s="398" t="s">
         <v>458</v>
       </c>
-      <c r="E13" s="399"/>
-      <c r="F13" s="399"/>
-      <c r="G13" s="399"/>
-      <c r="H13" s="399"/>
-      <c r="I13" s="399"/>
-      <c r="J13" s="399"/>
-      <c r="K13" s="399"/>
-      <c r="L13" s="399"/>
-      <c r="M13" s="399"/>
-      <c r="N13" s="400"/>
-      <c r="O13" s="401"/>
+      <c r="E13" s="417" t="s">
+        <v>466</v>
+      </c>
+      <c r="F13" s="417"/>
+      <c r="G13" s="417"/>
+      <c r="H13" s="417"/>
+      <c r="I13" s="417"/>
+      <c r="J13" s="417"/>
+      <c r="K13" s="417"/>
+      <c r="L13" s="417"/>
+      <c r="M13" s="417"/>
+      <c r="N13" s="400" t="s">
+        <v>467</v>
+      </c>
+      <c r="O13" s="401" t="s">
+        <v>468</v>
+      </c>
       <c r="P13" s="402"/>
       <c r="Q13" s="403"/>
-      <c r="R13" s="402"/>
+      <c r="R13" s="402" t="s">
+        <v>106</v>
+      </c>
       <c r="S13" s="400"/>
       <c r="T13" s="401"/>
       <c r="U13" s="404"/>
       <c r="V13" s="405"/>
-      <c r="W13" s="406"/>
-      <c r="X13" s="406"/>
-      <c r="Y13" s="406"/>
-      <c r="Z13" s="406" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA13" s="406"/>
-      <c r="AB13" s="406"/>
-      <c r="AC13" s="406"/>
-      <c r="AD13" s="406"/>
-      <c r="AE13" s="406"/>
+      <c r="W13" s="418"/>
+      <c r="X13" s="418"/>
+      <c r="Y13" s="418"/>
+      <c r="Z13" s="418"/>
+      <c r="AA13" s="418"/>
+      <c r="AB13" s="418"/>
+      <c r="AC13" s="418"/>
+      <c r="AD13" s="418"/>
+      <c r="AE13" s="418"/>
       <c r="AF13" s="407"/>
-      <c r="AG13" s="408" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH13" s="409" t="s">
-        <v>135</v>
-      </c>
+      <c r="AG13" s="408"/>
+      <c r="AH13" s="409"/>
       <c r="AI13" s="410"/>
       <c r="AJ13" s="411"/>
       <c r="AK13" s="209"/>
@@ -33552,44 +33591,52 @@
       <c r="D14" s="398" t="s">
         <v>458</v>
       </c>
-      <c r="E14" s="399"/>
-      <c r="F14" s="399"/>
-      <c r="G14" s="399"/>
-      <c r="H14" s="399"/>
-      <c r="I14" s="399"/>
-      <c r="J14" s="399"/>
-      <c r="K14" s="399"/>
-      <c r="L14" s="399"/>
-      <c r="M14" s="399"/>
-      <c r="N14" s="400"/>
-      <c r="O14" s="401"/>
-      <c r="P14" s="402"/>
-      <c r="Q14" s="403"/>
-      <c r="R14" s="402"/>
-      <c r="S14" s="400"/>
-      <c r="T14" s="401"/>
+      <c r="E14" s="419" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="419"/>
+      <c r="G14" s="419"/>
+      <c r="H14" s="419"/>
+      <c r="I14" s="419"/>
+      <c r="J14" s="419"/>
+      <c r="K14" s="419"/>
+      <c r="L14" s="419"/>
+      <c r="M14" s="419"/>
+      <c r="N14" s="400" t="s">
+        <v>467</v>
+      </c>
+      <c r="O14" s="401" t="s">
+        <v>468</v>
+      </c>
+      <c r="P14" s="402" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q14" s="403" t="s">
+        <v>194</v>
+      </c>
+      <c r="R14" s="402" t="s">
+        <v>470</v>
+      </c>
+      <c r="S14" s="400" t="s">
+        <v>471</v>
+      </c>
+      <c r="T14" s="401" t="s">
+        <v>468</v>
+      </c>
       <c r="U14" s="404"/>
       <c r="V14" s="405"/>
-      <c r="W14" s="406"/>
-      <c r="X14" s="406"/>
-      <c r="Y14" s="406"/>
-      <c r="Z14" s="406"/>
-      <c r="AA14" s="406" t="s">
-        <v>391</v>
-      </c>
-      <c r="AB14" s="406"/>
-      <c r="AC14" s="406"/>
-      <c r="AD14" s="406"/>
-      <c r="AE14" s="406"/>
-      <c r="AF14" s="407" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG14" s="408" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH14" s="409" t="s">
-        <v>135</v>
-      </c>
+      <c r="W14" s="418"/>
+      <c r="X14" s="418"/>
+      <c r="Y14" s="418"/>
+      <c r="Z14" s="418"/>
+      <c r="AA14" s="418"/>
+      <c r="AB14" s="418"/>
+      <c r="AC14" s="418"/>
+      <c r="AD14" s="418"/>
+      <c r="AE14" s="418"/>
+      <c r="AF14" s="407"/>
+      <c r="AG14" s="408"/>
+      <c r="AH14" s="409"/>
       <c r="AI14" s="410"/>
       <c r="AJ14" s="411"/>
       <c r="AK14" s="209"/>
@@ -33615,15 +33662,15 @@
       <c r="D15" s="398" t="s">
         <v>458</v>
       </c>
-      <c r="E15" s="399"/>
-      <c r="F15" s="399"/>
-      <c r="G15" s="399"/>
-      <c r="H15" s="399"/>
-      <c r="I15" s="399"/>
-      <c r="J15" s="399"/>
-      <c r="K15" s="399"/>
-      <c r="L15" s="399"/>
-      <c r="M15" s="399"/>
+      <c r="E15" s="419"/>
+      <c r="F15" s="419"/>
+      <c r="G15" s="419"/>
+      <c r="H15" s="419"/>
+      <c r="I15" s="419"/>
+      <c r="J15" s="419"/>
+      <c r="K15" s="419"/>
+      <c r="L15" s="419"/>
+      <c r="M15" s="419"/>
       <c r="N15" s="400"/>
       <c r="O15" s="401"/>
       <c r="P15" s="402"/>
@@ -33633,20 +33680,24 @@
       <c r="T15" s="401"/>
       <c r="U15" s="404"/>
       <c r="V15" s="405"/>
-      <c r="W15" s="406"/>
-      <c r="X15" s="406"/>
-      <c r="Y15" s="406"/>
-      <c r="Z15" s="406"/>
-      <c r="AA15" s="406"/>
-      <c r="AB15" s="406" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC15" s="406"/>
-      <c r="AD15" s="406"/>
-      <c r="AE15" s="406"/>
+      <c r="W15" s="418"/>
+      <c r="X15" s="418" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y15" s="418"/>
+      <c r="Z15" s="418"/>
+      <c r="AA15" s="418"/>
+      <c r="AB15" s="418"/>
+      <c r="AC15" s="418"/>
+      <c r="AD15" s="418"/>
+      <c r="AE15" s="418"/>
       <c r="AF15" s="407"/>
-      <c r="AG15" s="408"/>
-      <c r="AH15" s="409"/>
+      <c r="AG15" s="408" t="s">
+        <v>461</v>
+      </c>
+      <c r="AH15" s="409" t="s">
+        <v>460</v>
+      </c>
       <c r="AI15" s="410"/>
       <c r="AJ15" s="411"/>
       <c r="AK15" s="209"/>
@@ -33664,59 +33715,64 @@
       <c r="AW15" s="395"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="387" t="n">
-        <f aca="false">VINE!$A$53</f>
-        <v>49</v>
-      </c>
-      <c r="B16" s="388" t="s">
-        <v>466</v>
-      </c>
-      <c r="C16" s="389"/>
-      <c r="D16" s="389"/>
-      <c r="E16" s="389"/>
-      <c r="F16" s="389"/>
-      <c r="G16" s="389"/>
-      <c r="H16" s="389"/>
-      <c r="I16" s="389"/>
-      <c r="J16" s="389"/>
-      <c r="K16" s="389"/>
-      <c r="L16" s="389"/>
-      <c r="M16" s="389"/>
-      <c r="N16" s="390"/>
-      <c r="O16" s="391"/>
-      <c r="P16" s="389"/>
-      <c r="Q16" s="392"/>
-      <c r="R16" s="389"/>
-      <c r="S16" s="390"/>
-      <c r="T16" s="389"/>
-      <c r="U16" s="389"/>
-      <c r="V16" s="389"/>
-      <c r="W16" s="389"/>
-      <c r="X16" s="389"/>
-      <c r="Y16" s="389"/>
-      <c r="Z16" s="389"/>
-      <c r="AA16" s="389"/>
-      <c r="AB16" s="391"/>
-      <c r="AC16" s="391"/>
-      <c r="AD16" s="391"/>
-      <c r="AE16" s="391"/>
-      <c r="AF16" s="389"/>
-      <c r="AG16" s="390"/>
-      <c r="AH16" s="391"/>
-      <c r="AI16" s="391"/>
-      <c r="AJ16" s="393"/>
-      <c r="AK16" s="391"/>
-      <c r="AL16" s="389"/>
-      <c r="AM16" s="389"/>
-      <c r="AN16" s="389"/>
-      <c r="AO16" s="389"/>
-      <c r="AP16" s="389"/>
-      <c r="AQ16" s="389"/>
-      <c r="AR16" s="389"/>
-      <c r="AS16" s="389"/>
-      <c r="AT16" s="389"/>
-      <c r="AU16" s="389"/>
-      <c r="AV16" s="394"/>
+      <c r="A16" s="396"/>
+      <c r="B16" s="396"/>
+      <c r="C16" s="397" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="398" t="s">
+        <v>458</v>
+      </c>
+      <c r="E16" s="419"/>
+      <c r="F16" s="419"/>
+      <c r="G16" s="419"/>
+      <c r="H16" s="419"/>
+      <c r="I16" s="419"/>
+      <c r="J16" s="419"/>
+      <c r="K16" s="419"/>
+      <c r="L16" s="419"/>
+      <c r="M16" s="419"/>
+      <c r="N16" s="400"/>
+      <c r="O16" s="401"/>
+      <c r="P16" s="402"/>
+      <c r="Q16" s="403"/>
+      <c r="R16" s="402"/>
+      <c r="S16" s="400"/>
+      <c r="T16" s="401"/>
+      <c r="U16" s="404"/>
+      <c r="V16" s="405"/>
+      <c r="W16" s="418"/>
+      <c r="X16" s="418"/>
+      <c r="Y16" s="418" t="s">
+        <v>462</v>
+      </c>
+      <c r="Z16" s="418"/>
+      <c r="AA16" s="418"/>
+      <c r="AB16" s="418"/>
+      <c r="AC16" s="418"/>
+      <c r="AD16" s="418"/>
+      <c r="AE16" s="418"/>
+      <c r="AF16" s="407"/>
+      <c r="AG16" s="408" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH16" s="409" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI16" s="410"/>
+      <c r="AJ16" s="411"/>
+      <c r="AK16" s="209"/>
+      <c r="AL16" s="412"/>
+      <c r="AM16" s="413"/>
+      <c r="AN16" s="413"/>
+      <c r="AO16" s="413"/>
+      <c r="AP16" s="414"/>
+      <c r="AQ16" s="415"/>
+      <c r="AR16" s="414"/>
+      <c r="AS16" s="415"/>
+      <c r="AT16" s="414"/>
+      <c r="AU16" s="415"/>
+      <c r="AV16" s="416"/>
       <c r="AW16" s="395"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33728,15 +33784,15 @@
       <c r="D17" s="398" t="s">
         <v>458</v>
       </c>
-      <c r="E17" s="399"/>
-      <c r="F17" s="399"/>
-      <c r="G17" s="399"/>
-      <c r="H17" s="399"/>
-      <c r="I17" s="399"/>
-      <c r="J17" s="399"/>
-      <c r="K17" s="399"/>
-      <c r="L17" s="399"/>
-      <c r="M17" s="399"/>
+      <c r="E17" s="419"/>
+      <c r="F17" s="419"/>
+      <c r="G17" s="419"/>
+      <c r="H17" s="419"/>
+      <c r="I17" s="419"/>
+      <c r="J17" s="419"/>
+      <c r="K17" s="419"/>
+      <c r="L17" s="419"/>
+      <c r="M17" s="419"/>
       <c r="N17" s="400"/>
       <c r="O17" s="401"/>
       <c r="P17" s="402"/>
@@ -33746,25 +33802,23 @@
       <c r="T17" s="401"/>
       <c r="U17" s="404"/>
       <c r="V17" s="405"/>
-      <c r="W17" s="406" t="s">
-        <v>467</v>
-      </c>
-      <c r="X17" s="406"/>
-      <c r="Y17" s="406"/>
-      <c r="Z17" s="406"/>
-      <c r="AA17" s="406"/>
-      <c r="AB17" s="406"/>
-      <c r="AC17" s="406"/>
-      <c r="AD17" s="406"/>
-      <c r="AE17" s="406"/>
+      <c r="W17" s="418"/>
+      <c r="X17" s="418"/>
+      <c r="Y17" s="418"/>
+      <c r="Z17" s="418" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA17" s="418"/>
+      <c r="AB17" s="418"/>
+      <c r="AC17" s="418"/>
+      <c r="AD17" s="418"/>
+      <c r="AE17" s="418"/>
       <c r="AF17" s="407"/>
-      <c r="AG17" s="408" t="s">
-        <v>459</v>
-      </c>
-      <c r="AH17" s="409" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI17" s="410"/>
+      <c r="AG17" s="408"/>
+      <c r="AH17" s="409"/>
+      <c r="AI17" s="410" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ17" s="411"/>
       <c r="AK17" s="209"/>
       <c r="AL17" s="412"/>
@@ -33789,15 +33843,15 @@
       <c r="D18" s="398" t="s">
         <v>458</v>
       </c>
-      <c r="E18" s="399"/>
-      <c r="F18" s="399"/>
-      <c r="G18" s="399"/>
-      <c r="H18" s="399"/>
-      <c r="I18" s="399"/>
-      <c r="J18" s="399"/>
-      <c r="K18" s="399"/>
-      <c r="L18" s="399"/>
-      <c r="M18" s="399"/>
+      <c r="E18" s="419"/>
+      <c r="F18" s="419"/>
+      <c r="G18" s="419"/>
+      <c r="H18" s="419"/>
+      <c r="I18" s="419"/>
+      <c r="J18" s="419"/>
+      <c r="K18" s="419"/>
+      <c r="L18" s="419"/>
+      <c r="M18" s="419"/>
       <c r="N18" s="400"/>
       <c r="O18" s="401"/>
       <c r="P18" s="402"/>
@@ -33806,30 +33860,24 @@
       <c r="S18" s="400"/>
       <c r="T18" s="401"/>
       <c r="U18" s="404"/>
-      <c r="V18" s="405" t="s">
-        <v>193</v>
-      </c>
-      <c r="W18" s="417"/>
-      <c r="X18" s="406" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y18" s="406"/>
-      <c r="Z18" s="406"/>
-      <c r="AA18" s="406"/>
-      <c r="AB18" s="406"/>
-      <c r="AC18" s="406"/>
-      <c r="AD18" s="406"/>
-      <c r="AE18" s="406"/>
-      <c r="AF18" s="407" t="s">
-        <v>194</v>
-      </c>
+      <c r="V18" s="405"/>
+      <c r="W18" s="418"/>
+      <c r="X18" s="418"/>
+      <c r="Y18" s="418"/>
+      <c r="Z18" s="418" t="s">
+        <v>464</v>
+      </c>
+      <c r="AA18" s="418"/>
+      <c r="AB18" s="418"/>
+      <c r="AC18" s="418"/>
+      <c r="AD18" s="418"/>
+      <c r="AE18" s="418"/>
+      <c r="AF18" s="407"/>
       <c r="AG18" s="408"/>
       <c r="AH18" s="409"/>
       <c r="AI18" s="410"/>
       <c r="AJ18" s="411"/>
-      <c r="AK18" s="209" t="s">
-        <v>469</v>
-      </c>
+      <c r="AK18" s="209"/>
       <c r="AL18" s="412"/>
       <c r="AM18" s="413"/>
       <c r="AN18" s="413"/>
@@ -33844,66 +33892,59 @@
       <c r="AW18" s="395"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="396"/>
-      <c r="B19" s="396"/>
-      <c r="C19" s="397" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="398" t="s">
-        <v>458</v>
-      </c>
-      <c r="E19" s="418" t="s">
-        <v>470</v>
-      </c>
-      <c r="F19" s="418"/>
-      <c r="G19" s="418"/>
-      <c r="H19" s="418"/>
-      <c r="I19" s="418"/>
-      <c r="J19" s="418"/>
-      <c r="K19" s="418"/>
-      <c r="L19" s="418"/>
-      <c r="M19" s="418"/>
-      <c r="N19" s="400" t="s">
-        <v>471</v>
-      </c>
-      <c r="O19" s="401" t="s">
-        <v>472</v>
-      </c>
-      <c r="P19" s="419"/>
-      <c r="Q19" s="420"/>
-      <c r="R19" s="419" t="s">
-        <v>106</v>
-      </c>
-      <c r="S19" s="400"/>
-      <c r="T19" s="401"/>
-      <c r="U19" s="404"/>
-      <c r="V19" s="405"/>
-      <c r="W19" s="417"/>
-      <c r="X19" s="417"/>
-      <c r="Y19" s="417"/>
-      <c r="Z19" s="417"/>
-      <c r="AA19" s="417"/>
-      <c r="AB19" s="417"/>
-      <c r="AC19" s="417"/>
-      <c r="AD19" s="417"/>
-      <c r="AE19" s="417"/>
-      <c r="AF19" s="407"/>
-      <c r="AG19" s="408"/>
-      <c r="AH19" s="409"/>
-      <c r="AI19" s="410"/>
-      <c r="AJ19" s="411"/>
-      <c r="AK19" s="209"/>
-      <c r="AL19" s="412"/>
-      <c r="AM19" s="413"/>
-      <c r="AN19" s="413"/>
-      <c r="AO19" s="413"/>
-      <c r="AP19" s="414"/>
-      <c r="AQ19" s="415"/>
-      <c r="AR19" s="414"/>
-      <c r="AS19" s="415"/>
-      <c r="AT19" s="414"/>
-      <c r="AU19" s="415"/>
-      <c r="AV19" s="416"/>
+      <c r="A19" s="387" t="n">
+        <f aca="false">VINE!$A$47</f>
+        <v>43</v>
+      </c>
+      <c r="B19" s="388" t="s">
+        <v>474</v>
+      </c>
+      <c r="C19" s="389"/>
+      <c r="D19" s="389"/>
+      <c r="E19" s="389"/>
+      <c r="F19" s="389"/>
+      <c r="G19" s="389"/>
+      <c r="H19" s="389"/>
+      <c r="I19" s="389"/>
+      <c r="J19" s="389"/>
+      <c r="K19" s="389"/>
+      <c r="L19" s="389"/>
+      <c r="M19" s="389"/>
+      <c r="N19" s="390"/>
+      <c r="O19" s="391"/>
+      <c r="P19" s="389"/>
+      <c r="Q19" s="392"/>
+      <c r="R19" s="389"/>
+      <c r="S19" s="390"/>
+      <c r="T19" s="389"/>
+      <c r="U19" s="389"/>
+      <c r="V19" s="389"/>
+      <c r="W19" s="389"/>
+      <c r="X19" s="389"/>
+      <c r="Y19" s="389"/>
+      <c r="Z19" s="389"/>
+      <c r="AA19" s="389"/>
+      <c r="AB19" s="391"/>
+      <c r="AC19" s="391"/>
+      <c r="AD19" s="391"/>
+      <c r="AE19" s="391"/>
+      <c r="AF19" s="389"/>
+      <c r="AG19" s="390"/>
+      <c r="AH19" s="391"/>
+      <c r="AI19" s="391"/>
+      <c r="AJ19" s="393"/>
+      <c r="AK19" s="391"/>
+      <c r="AL19" s="389"/>
+      <c r="AM19" s="389"/>
+      <c r="AN19" s="389"/>
+      <c r="AO19" s="389"/>
+      <c r="AP19" s="389"/>
+      <c r="AQ19" s="389"/>
+      <c r="AR19" s="389"/>
+      <c r="AS19" s="389"/>
+      <c r="AT19" s="389"/>
+      <c r="AU19" s="389"/>
+      <c r="AV19" s="394"/>
       <c r="AW19" s="395"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33915,52 +33956,42 @@
       <c r="D20" s="398" t="s">
         <v>458</v>
       </c>
-      <c r="E20" s="421" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="421"/>
-      <c r="G20" s="421"/>
-      <c r="H20" s="421"/>
-      <c r="I20" s="421"/>
-      <c r="J20" s="421"/>
-      <c r="K20" s="421"/>
-      <c r="L20" s="421"/>
-      <c r="M20" s="421"/>
-      <c r="N20" s="400" t="s">
-        <v>471</v>
-      </c>
-      <c r="O20" s="401" t="s">
-        <v>472</v>
-      </c>
-      <c r="P20" s="419" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q20" s="420" t="s">
-        <v>194</v>
-      </c>
-      <c r="R20" s="419" t="s">
-        <v>474</v>
-      </c>
-      <c r="S20" s="400" t="s">
-        <v>475</v>
-      </c>
-      <c r="T20" s="401" t="s">
-        <v>472</v>
-      </c>
+      <c r="E20" s="399"/>
+      <c r="F20" s="399"/>
+      <c r="G20" s="399"/>
+      <c r="H20" s="399"/>
+      <c r="I20" s="399"/>
+      <c r="J20" s="399"/>
+      <c r="K20" s="399"/>
+      <c r="L20" s="399"/>
+      <c r="M20" s="399"/>
+      <c r="N20" s="400"/>
+      <c r="O20" s="401"/>
+      <c r="P20" s="402"/>
+      <c r="Q20" s="403"/>
+      <c r="R20" s="402"/>
+      <c r="S20" s="400"/>
+      <c r="T20" s="401"/>
       <c r="U20" s="404"/>
       <c r="V20" s="405"/>
-      <c r="W20" s="417"/>
-      <c r="X20" s="417"/>
-      <c r="Y20" s="417"/>
-      <c r="Z20" s="417"/>
-      <c r="AA20" s="417"/>
-      <c r="AB20" s="417"/>
-      <c r="AC20" s="417"/>
-      <c r="AD20" s="417"/>
-      <c r="AE20" s="417"/>
+      <c r="W20" s="406" t="s">
+        <v>475</v>
+      </c>
+      <c r="X20" s="406"/>
+      <c r="Y20" s="406"/>
+      <c r="Z20" s="406"/>
+      <c r="AA20" s="406"/>
+      <c r="AB20" s="406"/>
+      <c r="AC20" s="406"/>
+      <c r="AD20" s="406"/>
+      <c r="AE20" s="406"/>
       <c r="AF20" s="407"/>
-      <c r="AG20" s="408"/>
-      <c r="AH20" s="409"/>
+      <c r="AG20" s="408" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH20" s="409" t="s">
+        <v>476</v>
+      </c>
       <c r="AI20" s="410"/>
       <c r="AJ20" s="411"/>
       <c r="AK20" s="209"/>
@@ -33987,48 +34018,46 @@
         <v>458</v>
       </c>
       <c r="E21" s="399"/>
-      <c r="F21" s="421" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="421"/>
-      <c r="H21" s="421"/>
-      <c r="I21" s="421"/>
-      <c r="J21" s="421"/>
-      <c r="K21" s="421"/>
-      <c r="L21" s="421"/>
-      <c r="M21" s="421"/>
-      <c r="N21" s="400" t="s">
-        <v>471</v>
-      </c>
-      <c r="O21" s="401" t="s">
-        <v>472</v>
-      </c>
+      <c r="F21" s="399"/>
+      <c r="G21" s="399"/>
+      <c r="H21" s="399"/>
+      <c r="I21" s="399"/>
+      <c r="J21" s="399"/>
+      <c r="K21" s="399"/>
+      <c r="L21" s="399"/>
+      <c r="M21" s="399"/>
+      <c r="N21" s="400"/>
+      <c r="O21" s="401"/>
       <c r="P21" s="402"/>
       <c r="Q21" s="403"/>
       <c r="R21" s="402"/>
-      <c r="S21" s="400" t="s">
-        <v>475</v>
-      </c>
-      <c r="T21" s="401" t="s">
-        <v>472</v>
-      </c>
+      <c r="S21" s="400"/>
+      <c r="T21" s="401"/>
       <c r="U21" s="404"/>
-      <c r="V21" s="405"/>
-      <c r="W21" s="417"/>
-      <c r="X21" s="417"/>
-      <c r="Y21" s="417"/>
-      <c r="Z21" s="417"/>
-      <c r="AA21" s="417"/>
-      <c r="AB21" s="417"/>
-      <c r="AC21" s="417"/>
-      <c r="AD21" s="417"/>
-      <c r="AE21" s="417"/>
-      <c r="AF21" s="407"/>
+      <c r="V21" s="405" t="s">
+        <v>193</v>
+      </c>
+      <c r="W21" s="418"/>
+      <c r="X21" s="406" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y21" s="406"/>
+      <c r="Z21" s="406"/>
+      <c r="AA21" s="406"/>
+      <c r="AB21" s="406"/>
+      <c r="AC21" s="406"/>
+      <c r="AD21" s="406"/>
+      <c r="AE21" s="406"/>
+      <c r="AF21" s="407" t="s">
+        <v>194</v>
+      </c>
       <c r="AG21" s="408"/>
       <c r="AH21" s="409"/>
       <c r="AI21" s="410"/>
       <c r="AJ21" s="411"/>
-      <c r="AK21" s="209"/>
+      <c r="AK21" s="209" t="s">
+        <v>477</v>
+      </c>
       <c r="AL21" s="412"/>
       <c r="AM21" s="413"/>
       <c r="AN21" s="413"/>
@@ -34052,42 +34081,42 @@
         <v>458</v>
       </c>
       <c r="E22" s="399"/>
-      <c r="F22" s="399"/>
-      <c r="G22" s="421" t="s">
-        <v>476</v>
-      </c>
-      <c r="H22" s="421"/>
-      <c r="I22" s="421"/>
-      <c r="J22" s="421"/>
-      <c r="K22" s="421"/>
-      <c r="L22" s="421"/>
-      <c r="M22" s="421"/>
+      <c r="F22" s="419" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="419"/>
+      <c r="H22" s="419"/>
+      <c r="I22" s="419"/>
+      <c r="J22" s="419"/>
+      <c r="K22" s="419"/>
+      <c r="L22" s="419"/>
+      <c r="M22" s="419"/>
       <c r="N22" s="400" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="O22" s="401" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="P22" s="402"/>
       <c r="Q22" s="403"/>
       <c r="R22" s="402"/>
       <c r="S22" s="400" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="T22" s="401" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="U22" s="404"/>
       <c r="V22" s="405"/>
-      <c r="W22" s="417"/>
-      <c r="X22" s="417"/>
-      <c r="Y22" s="417"/>
-      <c r="Z22" s="417"/>
-      <c r="AA22" s="417"/>
-      <c r="AB22" s="417"/>
-      <c r="AC22" s="417"/>
-      <c r="AD22" s="417"/>
-      <c r="AE22" s="417"/>
+      <c r="W22" s="418"/>
+      <c r="X22" s="418"/>
+      <c r="Y22" s="418"/>
+      <c r="Z22" s="418"/>
+      <c r="AA22" s="418"/>
+      <c r="AB22" s="418"/>
+      <c r="AC22" s="418"/>
+      <c r="AD22" s="418"/>
+      <c r="AE22" s="418"/>
       <c r="AF22" s="407"/>
       <c r="AG22" s="408"/>
       <c r="AH22" s="409"/>
@@ -34118,35 +34147,41 @@
       </c>
       <c r="E23" s="399"/>
       <c r="F23" s="399"/>
-      <c r="G23" s="422"/>
-      <c r="H23" s="422" t="s">
-        <v>477</v>
-      </c>
-      <c r="I23" s="422"/>
-      <c r="J23" s="422"/>
-      <c r="K23" s="422"/>
-      <c r="L23" s="422"/>
-      <c r="M23" s="422"/>
-      <c r="N23" s="400"/>
-      <c r="O23" s="401"/>
+      <c r="G23" s="419" t="s">
+        <v>478</v>
+      </c>
+      <c r="H23" s="419"/>
+      <c r="I23" s="419"/>
+      <c r="J23" s="419"/>
+      <c r="K23" s="419"/>
+      <c r="L23" s="419"/>
+      <c r="M23" s="419"/>
+      <c r="N23" s="400" t="s">
+        <v>467</v>
+      </c>
+      <c r="O23" s="401" t="s">
+        <v>468</v>
+      </c>
       <c r="P23" s="402"/>
       <c r="Q23" s="403"/>
       <c r="R23" s="402"/>
-      <c r="S23" s="400"/>
-      <c r="T23" s="401"/>
-      <c r="U23" s="423" t="s">
-        <v>478</v>
-      </c>
+      <c r="S23" s="400" t="s">
+        <v>471</v>
+      </c>
+      <c r="T23" s="401" t="s">
+        <v>468</v>
+      </c>
+      <c r="U23" s="404"/>
       <c r="V23" s="405"/>
-      <c r="W23" s="417"/>
-      <c r="X23" s="417"/>
-      <c r="Y23" s="417"/>
-      <c r="Z23" s="417"/>
-      <c r="AA23" s="417"/>
-      <c r="AB23" s="417"/>
-      <c r="AC23" s="417"/>
-      <c r="AD23" s="417"/>
-      <c r="AE23" s="417"/>
+      <c r="W23" s="418"/>
+      <c r="X23" s="418"/>
+      <c r="Y23" s="418"/>
+      <c r="Z23" s="418"/>
+      <c r="AA23" s="418"/>
+      <c r="AB23" s="418"/>
+      <c r="AC23" s="418"/>
+      <c r="AD23" s="418"/>
+      <c r="AE23" s="418"/>
       <c r="AF23" s="407"/>
       <c r="AG23" s="408"/>
       <c r="AH23" s="409"/>
@@ -34177,13 +34212,15 @@
       </c>
       <c r="E24" s="399"/>
       <c r="F24" s="399"/>
-      <c r="G24" s="399"/>
-      <c r="H24" s="399"/>
-      <c r="I24" s="399"/>
-      <c r="J24" s="399"/>
-      <c r="K24" s="399"/>
-      <c r="L24" s="399"/>
-      <c r="M24" s="399"/>
+      <c r="G24" s="420"/>
+      <c r="H24" s="420" t="s">
+        <v>479</v>
+      </c>
+      <c r="I24" s="420"/>
+      <c r="J24" s="420"/>
+      <c r="K24" s="420"/>
+      <c r="L24" s="420"/>
+      <c r="M24" s="420"/>
       <c r="N24" s="400"/>
       <c r="O24" s="401"/>
       <c r="P24" s="402"/>
@@ -34191,26 +34228,22 @@
       <c r="R24" s="402"/>
       <c r="S24" s="400"/>
       <c r="T24" s="401"/>
-      <c r="U24" s="404"/>
+      <c r="U24" s="421" t="s">
+        <v>480</v>
+      </c>
       <c r="V24" s="405"/>
-      <c r="W24" s="417"/>
-      <c r="X24" s="417"/>
-      <c r="Y24" s="406" t="s">
-        <v>479</v>
-      </c>
-      <c r="Z24" s="406"/>
-      <c r="AA24" s="406"/>
-      <c r="AB24" s="406"/>
-      <c r="AC24" s="406"/>
-      <c r="AD24" s="406"/>
-      <c r="AE24" s="406"/>
+      <c r="W24" s="418"/>
+      <c r="X24" s="418"/>
+      <c r="Y24" s="418"/>
+      <c r="Z24" s="418"/>
+      <c r="AA24" s="418"/>
+      <c r="AB24" s="418"/>
+      <c r="AC24" s="418"/>
+      <c r="AD24" s="418"/>
+      <c r="AE24" s="418"/>
       <c r="AF24" s="407"/>
-      <c r="AG24" s="408" t="s">
-        <v>459</v>
-      </c>
-      <c r="AH24" s="409" t="s">
-        <v>468</v>
-      </c>
+      <c r="AG24" s="408"/>
+      <c r="AH24" s="409"/>
       <c r="AI24" s="410"/>
       <c r="AJ24" s="411"/>
       <c r="AK24" s="209"/>
@@ -34253,15 +34286,13 @@
       <c r="S25" s="400"/>
       <c r="T25" s="401"/>
       <c r="U25" s="404"/>
-      <c r="V25" s="405" t="s">
-        <v>326</v>
-      </c>
-      <c r="W25" s="417"/>
-      <c r="X25" s="417"/>
-      <c r="Y25" s="417"/>
-      <c r="Z25" s="406" t="s">
-        <v>480</v>
-      </c>
+      <c r="V25" s="405"/>
+      <c r="W25" s="418"/>
+      <c r="X25" s="418"/>
+      <c r="Y25" s="406" t="s">
+        <v>481</v>
+      </c>
+      <c r="Z25" s="406"/>
       <c r="AA25" s="406"/>
       <c r="AB25" s="406"/>
       <c r="AC25" s="406"/>
@@ -34269,10 +34300,10 @@
       <c r="AE25" s="406"/>
       <c r="AF25" s="407"/>
       <c r="AG25" s="408" t="s">
-        <v>229</v>
+        <v>459</v>
       </c>
       <c r="AH25" s="409" t="s">
-        <v>230</v>
+        <v>476</v>
       </c>
       <c r="AI25" s="410"/>
       <c r="AJ25" s="411"/>
@@ -34316,21 +34347,27 @@
       <c r="S26" s="400"/>
       <c r="T26" s="401"/>
       <c r="U26" s="404"/>
-      <c r="V26" s="405"/>
-      <c r="W26" s="417"/>
-      <c r="X26" s="417"/>
-      <c r="Y26" s="417"/>
-      <c r="Z26" s="417"/>
-      <c r="AA26" s="406" t="s">
-        <v>481</v>
-      </c>
+      <c r="V26" s="405" t="s">
+        <v>326</v>
+      </c>
+      <c r="W26" s="418"/>
+      <c r="X26" s="418"/>
+      <c r="Y26" s="418"/>
+      <c r="Z26" s="406" t="s">
+        <v>482</v>
+      </c>
+      <c r="AA26" s="406"/>
       <c r="AB26" s="406"/>
       <c r="AC26" s="406"/>
       <c r="AD26" s="406"/>
       <c r="AE26" s="406"/>
       <c r="AF26" s="407"/>
-      <c r="AG26" s="408"/>
-      <c r="AH26" s="409"/>
+      <c r="AG26" s="408" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH26" s="409" t="s">
+        <v>230</v>
+      </c>
       <c r="AI26" s="410"/>
       <c r="AJ26" s="411"/>
       <c r="AK26" s="209"/>
@@ -34374,24 +34411,20 @@
       <c r="T27" s="401"/>
       <c r="U27" s="404"/>
       <c r="V27" s="405"/>
-      <c r="W27" s="417"/>
-      <c r="X27" s="417"/>
-      <c r="Y27" s="417"/>
-      <c r="Z27" s="406" t="s">
-        <v>482</v>
-      </c>
-      <c r="AA27" s="406"/>
+      <c r="W27" s="418"/>
+      <c r="X27" s="418"/>
+      <c r="Y27" s="418"/>
+      <c r="Z27" s="418"/>
+      <c r="AA27" s="406" t="s">
+        <v>483</v>
+      </c>
       <c r="AB27" s="406"/>
       <c r="AC27" s="406"/>
       <c r="AD27" s="406"/>
       <c r="AE27" s="406"/>
       <c r="AF27" s="407"/>
-      <c r="AG27" s="408" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH27" s="409" t="s">
-        <v>135</v>
-      </c>
+      <c r="AG27" s="408"/>
+      <c r="AH27" s="409"/>
       <c r="AI27" s="410"/>
       <c r="AJ27" s="411"/>
       <c r="AK27" s="209"/>
@@ -34434,26 +34467,24 @@
       <c r="S28" s="400"/>
       <c r="T28" s="401"/>
       <c r="U28" s="404"/>
-      <c r="V28" s="405" t="s">
-        <v>235</v>
-      </c>
-      <c r="W28" s="417"/>
-      <c r="X28" s="417"/>
-      <c r="Y28" s="417"/>
-      <c r="Z28" s="417"/>
-      <c r="AA28" s="406" t="s">
-        <v>483</v>
-      </c>
+      <c r="V28" s="405"/>
+      <c r="W28" s="418"/>
+      <c r="X28" s="418"/>
+      <c r="Y28" s="418"/>
+      <c r="Z28" s="406" t="s">
+        <v>484</v>
+      </c>
+      <c r="AA28" s="406"/>
       <c r="AB28" s="406"/>
       <c r="AC28" s="406"/>
       <c r="AD28" s="406"/>
       <c r="AE28" s="406"/>
       <c r="AF28" s="407"/>
       <c r="AG28" s="408" t="s">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="AH28" s="409" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="AI28" s="410"/>
       <c r="AJ28" s="411"/>
@@ -34498,29 +34529,29 @@
       <c r="T29" s="401"/>
       <c r="U29" s="404"/>
       <c r="V29" s="405" t="s">
-        <v>193</v>
-      </c>
-      <c r="W29" s="417"/>
-      <c r="X29" s="417"/>
-      <c r="Y29" s="417"/>
-      <c r="Z29" s="417"/>
-      <c r="AA29" s="417"/>
-      <c r="AB29" s="406" t="s">
-        <v>484</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="W29" s="418"/>
+      <c r="X29" s="418"/>
+      <c r="Y29" s="418"/>
+      <c r="Z29" s="418"/>
+      <c r="AA29" s="406" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB29" s="406"/>
       <c r="AC29" s="406"/>
       <c r="AD29" s="406"/>
       <c r="AE29" s="406"/>
       <c r="AF29" s="407"/>
-      <c r="AG29" s="408"/>
-      <c r="AH29" s="409"/>
+      <c r="AG29" s="408" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH29" s="409" t="s">
+        <v>230</v>
+      </c>
       <c r="AI29" s="410"/>
-      <c r="AJ29" s="411" t="s">
-        <v>238</v>
-      </c>
-      <c r="AK29" s="209" t="s">
-        <v>481</v>
-      </c>
+      <c r="AJ29" s="411"/>
+      <c r="AK29" s="209"/>
       <c r="AL29" s="412"/>
       <c r="AM29" s="413"/>
       <c r="AN29" s="413"/>
@@ -34560,28 +34591,30 @@
       <c r="S30" s="400"/>
       <c r="T30" s="401"/>
       <c r="U30" s="404"/>
-      <c r="V30" s="405"/>
-      <c r="W30" s="417"/>
-      <c r="X30" s="417"/>
-      <c r="Y30" s="417"/>
-      <c r="Z30" s="417"/>
-      <c r="AA30" s="406" t="s">
-        <v>485</v>
-      </c>
-      <c r="AB30" s="406"/>
+      <c r="V30" s="405" t="s">
+        <v>193</v>
+      </c>
+      <c r="W30" s="418"/>
+      <c r="X30" s="418"/>
+      <c r="Y30" s="418"/>
+      <c r="Z30" s="418"/>
+      <c r="AA30" s="418"/>
+      <c r="AB30" s="406" t="s">
+        <v>486</v>
+      </c>
       <c r="AC30" s="406"/>
       <c r="AD30" s="406"/>
       <c r="AE30" s="406"/>
       <c r="AF30" s="407"/>
-      <c r="AG30" s="424" t="s">
-        <v>486</v>
-      </c>
-      <c r="AH30" s="425" t="s">
-        <v>487</v>
-      </c>
+      <c r="AG30" s="408"/>
+      <c r="AH30" s="409"/>
       <c r="AI30" s="410"/>
-      <c r="AJ30" s="411"/>
-      <c r="AK30" s="209"/>
+      <c r="AJ30" s="411" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK30" s="209" t="s">
+        <v>483</v>
+      </c>
       <c r="AL30" s="412"/>
       <c r="AM30" s="413"/>
       <c r="AN30" s="413"/>
@@ -34609,51 +34642,51 @@
       <c r="G31" s="399"/>
       <c r="H31" s="399"/>
       <c r="I31" s="399"/>
-      <c r="J31" s="421" t="s">
+      <c r="J31" s="399"/>
+      <c r="K31" s="399"/>
+      <c r="L31" s="399"/>
+      <c r="M31" s="399"/>
+      <c r="N31" s="400"/>
+      <c r="O31" s="401"/>
+      <c r="P31" s="402"/>
+      <c r="Q31" s="403"/>
+      <c r="R31" s="402"/>
+      <c r="S31" s="400"/>
+      <c r="T31" s="401"/>
+      <c r="U31" s="404"/>
+      <c r="V31" s="405"/>
+      <c r="W31" s="418"/>
+      <c r="X31" s="418"/>
+      <c r="Y31" s="418"/>
+      <c r="Z31" s="418"/>
+      <c r="AA31" s="406" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB31" s="406"/>
+      <c r="AC31" s="406"/>
+      <c r="AD31" s="406"/>
+      <c r="AE31" s="406"/>
+      <c r="AF31" s="407"/>
+      <c r="AG31" s="422" t="s">
         <v>488</v>
       </c>
-      <c r="K31" s="421"/>
-      <c r="L31" s="421"/>
-      <c r="M31" s="421"/>
-      <c r="N31" s="426" t="s">
-        <v>471</v>
-      </c>
-      <c r="O31" s="427" t="s">
-        <v>472</v>
-      </c>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="428"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="429"/>
-      <c r="T31" s="430"/>
-      <c r="U31" s="431"/>
-      <c r="V31" s="432"/>
-      <c r="W31" s="433"/>
-      <c r="X31" s="433"/>
-      <c r="Y31" s="433"/>
-      <c r="Z31" s="433"/>
-      <c r="AA31" s="433"/>
-      <c r="AB31" s="433"/>
-      <c r="AC31" s="433"/>
-      <c r="AD31" s="433"/>
-      <c r="AE31" s="433"/>
-      <c r="AF31" s="434"/>
-      <c r="AG31" s="435"/>
-      <c r="AH31" s="436"/>
-      <c r="AI31" s="437"/>
-      <c r="AJ31" s="438"/>
-      <c r="AK31" s="270"/>
+      <c r="AH31" s="423" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI31" s="410"/>
+      <c r="AJ31" s="411"/>
+      <c r="AK31" s="209"/>
       <c r="AL31" s="412"/>
-      <c r="AM31" s="439"/>
-      <c r="AN31" s="439"/>
-      <c r="AO31" s="439"/>
-      <c r="AP31" s="440"/>
-      <c r="AQ31" s="414"/>
-      <c r="AR31" s="440"/>
-      <c r="AS31" s="414"/>
-      <c r="AT31" s="440"/>
-      <c r="AU31" s="414"/>
-      <c r="AV31" s="441"/>
+      <c r="AM31" s="413"/>
+      <c r="AN31" s="413"/>
+      <c r="AO31" s="413"/>
+      <c r="AP31" s="414"/>
+      <c r="AQ31" s="415"/>
+      <c r="AR31" s="414"/>
+      <c r="AS31" s="415"/>
+      <c r="AT31" s="414"/>
+      <c r="AU31" s="415"/>
+      <c r="AV31" s="416"/>
       <c r="AW31" s="395"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34670,51 +34703,51 @@
       <c r="G32" s="399"/>
       <c r="H32" s="399"/>
       <c r="I32" s="399"/>
-      <c r="J32" s="442"/>
-      <c r="K32" s="442"/>
-      <c r="L32" s="442"/>
-      <c r="M32" s="442"/>
-      <c r="N32" s="443"/>
-      <c r="O32" s="444"/>
+      <c r="J32" s="419" t="s">
+        <v>490</v>
+      </c>
+      <c r="K32" s="419"/>
+      <c r="L32" s="419"/>
+      <c r="M32" s="419"/>
+      <c r="N32" s="424" t="s">
+        <v>467</v>
+      </c>
+      <c r="O32" s="425" t="s">
+        <v>468</v>
+      </c>
       <c r="P32" s="32"/>
-      <c r="Q32" s="428"/>
+      <c r="Q32" s="426"/>
       <c r="R32" s="32"/>
-      <c r="S32" s="429"/>
-      <c r="T32" s="430"/>
-      <c r="U32" s="431"/>
-      <c r="V32" s="432"/>
-      <c r="W32" s="433"/>
-      <c r="X32" s="433"/>
-      <c r="Y32" s="433"/>
-      <c r="Z32" s="433"/>
-      <c r="AA32" s="433"/>
-      <c r="AB32" s="433"/>
-      <c r="AC32" s="406" t="s">
-        <v>489</v>
-      </c>
-      <c r="AD32" s="406"/>
-      <c r="AE32" s="406"/>
-      <c r="AF32" s="434"/>
-      <c r="AG32" s="435" t="s">
-        <v>459</v>
-      </c>
-      <c r="AH32" s="436" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI32" s="437"/>
-      <c r="AJ32" s="438"/>
+      <c r="S32" s="427"/>
+      <c r="T32" s="428"/>
+      <c r="U32" s="429"/>
+      <c r="V32" s="430"/>
+      <c r="W32" s="431"/>
+      <c r="X32" s="431"/>
+      <c r="Y32" s="431"/>
+      <c r="Z32" s="431"/>
+      <c r="AA32" s="431"/>
+      <c r="AB32" s="431"/>
+      <c r="AC32" s="431"/>
+      <c r="AD32" s="431"/>
+      <c r="AE32" s="431"/>
+      <c r="AF32" s="432"/>
+      <c r="AG32" s="433"/>
+      <c r="AH32" s="434"/>
+      <c r="AI32" s="435"/>
+      <c r="AJ32" s="436"/>
       <c r="AK32" s="270"/>
       <c r="AL32" s="412"/>
-      <c r="AM32" s="439"/>
-      <c r="AN32" s="439"/>
-      <c r="AO32" s="439"/>
-      <c r="AP32" s="440"/>
+      <c r="AM32" s="437"/>
+      <c r="AN32" s="437"/>
+      <c r="AO32" s="437"/>
+      <c r="AP32" s="438"/>
       <c r="AQ32" s="414"/>
-      <c r="AR32" s="440"/>
+      <c r="AR32" s="438"/>
       <c r="AS32" s="414"/>
-      <c r="AT32" s="440"/>
+      <c r="AT32" s="438"/>
       <c r="AU32" s="414"/>
-      <c r="AV32" s="441"/>
+      <c r="AV32" s="439"/>
       <c r="AW32" s="395"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34731,53 +34764,51 @@
       <c r="G33" s="399"/>
       <c r="H33" s="399"/>
       <c r="I33" s="399"/>
-      <c r="J33" s="442"/>
-      <c r="K33" s="442"/>
-      <c r="L33" s="442"/>
-      <c r="M33" s="442"/>
-      <c r="N33" s="443"/>
-      <c r="O33" s="444"/>
+      <c r="J33" s="440"/>
+      <c r="K33" s="440"/>
+      <c r="L33" s="440"/>
+      <c r="M33" s="440"/>
+      <c r="N33" s="441"/>
+      <c r="O33" s="442"/>
       <c r="P33" s="32"/>
-      <c r="Q33" s="428"/>
+      <c r="Q33" s="426"/>
       <c r="R33" s="32"/>
-      <c r="S33" s="429"/>
-      <c r="T33" s="430"/>
-      <c r="U33" s="431"/>
-      <c r="V33" s="432" t="s">
-        <v>235</v>
-      </c>
-      <c r="W33" s="433"/>
-      <c r="X33" s="433"/>
-      <c r="Y33" s="433"/>
-      <c r="Z33" s="433"/>
-      <c r="AA33" s="433"/>
-      <c r="AB33" s="433"/>
-      <c r="AC33" s="433"/>
-      <c r="AD33" s="406" t="s">
-        <v>490</v>
-      </c>
+      <c r="S33" s="427"/>
+      <c r="T33" s="428"/>
+      <c r="U33" s="429"/>
+      <c r="V33" s="430"/>
+      <c r="W33" s="431"/>
+      <c r="X33" s="431"/>
+      <c r="Y33" s="431"/>
+      <c r="Z33" s="431"/>
+      <c r="AA33" s="431"/>
+      <c r="AB33" s="431"/>
+      <c r="AC33" s="406" t="s">
+        <v>491</v>
+      </c>
+      <c r="AD33" s="406"/>
       <c r="AE33" s="406"/>
-      <c r="AF33" s="434"/>
-      <c r="AG33" s="435" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH33" s="436" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI33" s="437"/>
-      <c r="AJ33" s="438"/>
+      <c r="AF33" s="432"/>
+      <c r="AG33" s="433" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH33" s="434" t="s">
+        <v>476</v>
+      </c>
+      <c r="AI33" s="435"/>
+      <c r="AJ33" s="436"/>
       <c r="AK33" s="270"/>
       <c r="AL33" s="412"/>
-      <c r="AM33" s="439"/>
-      <c r="AN33" s="439"/>
-      <c r="AO33" s="439"/>
-      <c r="AP33" s="440"/>
+      <c r="AM33" s="437"/>
+      <c r="AN33" s="437"/>
+      <c r="AO33" s="437"/>
+      <c r="AP33" s="438"/>
       <c r="AQ33" s="414"/>
-      <c r="AR33" s="440"/>
+      <c r="AR33" s="438"/>
       <c r="AS33" s="414"/>
-      <c r="AT33" s="440"/>
+      <c r="AT33" s="438"/>
       <c r="AU33" s="414"/>
-      <c r="AV33" s="441"/>
+      <c r="AV33" s="439"/>
       <c r="AW33" s="395"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34794,53 +34825,53 @@
       <c r="G34" s="399"/>
       <c r="H34" s="399"/>
       <c r="I34" s="399"/>
-      <c r="J34" s="442"/>
-      <c r="K34" s="442"/>
-      <c r="L34" s="442"/>
-      <c r="M34" s="442"/>
-      <c r="N34" s="443"/>
-      <c r="O34" s="444"/>
+      <c r="J34" s="440"/>
+      <c r="K34" s="440"/>
+      <c r="L34" s="440"/>
+      <c r="M34" s="440"/>
+      <c r="N34" s="441"/>
+      <c r="O34" s="442"/>
       <c r="P34" s="32"/>
-      <c r="Q34" s="428"/>
+      <c r="Q34" s="426"/>
       <c r="R34" s="32"/>
-      <c r="S34" s="429"/>
-      <c r="T34" s="430"/>
-      <c r="U34" s="431"/>
-      <c r="V34" s="432" t="s">
-        <v>193</v>
-      </c>
-      <c r="W34" s="433"/>
-      <c r="X34" s="433"/>
-      <c r="Y34" s="433"/>
-      <c r="Z34" s="433"/>
-      <c r="AA34" s="433"/>
-      <c r="AB34" s="433"/>
-      <c r="AC34" s="433"/>
-      <c r="AD34" s="433"/>
-      <c r="AE34" s="406" t="s">
-        <v>491</v>
-      </c>
-      <c r="AF34" s="434"/>
-      <c r="AG34" s="435"/>
-      <c r="AH34" s="436"/>
-      <c r="AI34" s="437"/>
-      <c r="AJ34" s="438" t="s">
-        <v>238</v>
-      </c>
-      <c r="AK34" s="270" t="s">
+      <c r="S34" s="427"/>
+      <c r="T34" s="428"/>
+      <c r="U34" s="429"/>
+      <c r="V34" s="430" t="s">
+        <v>235</v>
+      </c>
+      <c r="W34" s="431"/>
+      <c r="X34" s="431"/>
+      <c r="Y34" s="431"/>
+      <c r="Z34" s="431"/>
+      <c r="AA34" s="431"/>
+      <c r="AB34" s="431"/>
+      <c r="AC34" s="431"/>
+      <c r="AD34" s="406" t="s">
         <v>492</v>
       </c>
+      <c r="AE34" s="406"/>
+      <c r="AF34" s="432"/>
+      <c r="AG34" s="433" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH34" s="434" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI34" s="435"/>
+      <c r="AJ34" s="436"/>
+      <c r="AK34" s="270"/>
       <c r="AL34" s="412"/>
-      <c r="AM34" s="439"/>
-      <c r="AN34" s="439"/>
-      <c r="AO34" s="439"/>
-      <c r="AP34" s="440"/>
+      <c r="AM34" s="437"/>
+      <c r="AN34" s="437"/>
+      <c r="AO34" s="437"/>
+      <c r="AP34" s="438"/>
       <c r="AQ34" s="414"/>
-      <c r="AR34" s="440"/>
+      <c r="AR34" s="438"/>
       <c r="AS34" s="414"/>
-      <c r="AT34" s="440"/>
+      <c r="AT34" s="438"/>
       <c r="AU34" s="414"/>
-      <c r="AV34" s="441"/>
+      <c r="AV34" s="439"/>
       <c r="AW34" s="395"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34857,51 +34888,53 @@
       <c r="G35" s="399"/>
       <c r="H35" s="399"/>
       <c r="I35" s="399"/>
-      <c r="J35" s="442"/>
-      <c r="K35" s="442"/>
-      <c r="L35" s="442"/>
-      <c r="M35" s="442"/>
-      <c r="N35" s="443"/>
-      <c r="O35" s="444"/>
+      <c r="J35" s="440"/>
+      <c r="K35" s="440"/>
+      <c r="L35" s="440"/>
+      <c r="M35" s="440"/>
+      <c r="N35" s="441"/>
+      <c r="O35" s="442"/>
       <c r="P35" s="32"/>
-      <c r="Q35" s="428"/>
+      <c r="Q35" s="426"/>
       <c r="R35" s="32"/>
-      <c r="S35" s="429"/>
-      <c r="T35" s="430"/>
-      <c r="U35" s="431"/>
-      <c r="V35" s="432"/>
-      <c r="W35" s="433"/>
-      <c r="X35" s="433"/>
-      <c r="Y35" s="433"/>
-      <c r="Z35" s="433"/>
-      <c r="AA35" s="433"/>
-      <c r="AB35" s="433"/>
-      <c r="AC35" s="433"/>
-      <c r="AD35" s="406" t="s">
+      <c r="S35" s="427"/>
+      <c r="T35" s="428"/>
+      <c r="U35" s="429"/>
+      <c r="V35" s="430" t="s">
+        <v>193</v>
+      </c>
+      <c r="W35" s="431"/>
+      <c r="X35" s="431"/>
+      <c r="Y35" s="431"/>
+      <c r="Z35" s="431"/>
+      <c r="AA35" s="431"/>
+      <c r="AB35" s="431"/>
+      <c r="AC35" s="431"/>
+      <c r="AD35" s="431"/>
+      <c r="AE35" s="406" t="s">
         <v>493</v>
       </c>
-      <c r="AE35" s="406"/>
-      <c r="AF35" s="434"/>
-      <c r="AG35" s="424" t="s">
-        <v>486</v>
-      </c>
-      <c r="AH35" s="425" t="s">
-        <v>487</v>
-      </c>
-      <c r="AI35" s="437"/>
-      <c r="AJ35" s="438"/>
-      <c r="AK35" s="270"/>
+      <c r="AF35" s="432"/>
+      <c r="AG35" s="433"/>
+      <c r="AH35" s="434"/>
+      <c r="AI35" s="435"/>
+      <c r="AJ35" s="436" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK35" s="270" t="s">
+        <v>494</v>
+      </c>
       <c r="AL35" s="412"/>
-      <c r="AM35" s="439"/>
-      <c r="AN35" s="439"/>
-      <c r="AO35" s="439"/>
-      <c r="AP35" s="440"/>
+      <c r="AM35" s="437"/>
+      <c r="AN35" s="437"/>
+      <c r="AO35" s="437"/>
+      <c r="AP35" s="438"/>
       <c r="AQ35" s="414"/>
-      <c r="AR35" s="440"/>
+      <c r="AR35" s="438"/>
       <c r="AS35" s="414"/>
-      <c r="AT35" s="440"/>
+      <c r="AT35" s="438"/>
       <c r="AU35" s="414"/>
-      <c r="AV35" s="441"/>
+      <c r="AV35" s="439"/>
       <c r="AW35" s="395"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34918,53 +34951,51 @@
       <c r="G36" s="399"/>
       <c r="H36" s="399"/>
       <c r="I36" s="399"/>
-      <c r="J36" s="442"/>
-      <c r="K36" s="442"/>
-      <c r="L36" s="442"/>
-      <c r="M36" s="445" t="s">
+      <c r="J36" s="440"/>
+      <c r="K36" s="440"/>
+      <c r="L36" s="440"/>
+      <c r="M36" s="440"/>
+      <c r="N36" s="441"/>
+      <c r="O36" s="442"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="426"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="427"/>
+      <c r="T36" s="428"/>
+      <c r="U36" s="429"/>
+      <c r="V36" s="430"/>
+      <c r="W36" s="431"/>
+      <c r="X36" s="431"/>
+      <c r="Y36" s="431"/>
+      <c r="Z36" s="431"/>
+      <c r="AA36" s="431"/>
+      <c r="AB36" s="431"/>
+      <c r="AC36" s="431"/>
+      <c r="AD36" s="406" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE36" s="406"/>
+      <c r="AF36" s="432"/>
+      <c r="AG36" s="422" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH36" s="423" t="s">
         <v>489</v>
       </c>
-      <c r="N36" s="446"/>
-      <c r="O36" s="447"/>
-      <c r="P36" s="419" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q36" s="420" t="s">
-        <v>194</v>
-      </c>
-      <c r="R36" s="419" t="s">
-        <v>495</v>
-      </c>
-      <c r="S36" s="429"/>
-      <c r="T36" s="430"/>
-      <c r="U36" s="431"/>
-      <c r="V36" s="432"/>
-      <c r="W36" s="433"/>
-      <c r="X36" s="433"/>
-      <c r="Y36" s="433"/>
-      <c r="Z36" s="433"/>
-      <c r="AA36" s="433"/>
-      <c r="AB36" s="433"/>
-      <c r="AC36" s="433"/>
-      <c r="AD36" s="433"/>
-      <c r="AE36" s="433"/>
-      <c r="AF36" s="434"/>
-      <c r="AG36" s="435"/>
-      <c r="AH36" s="436"/>
-      <c r="AI36" s="437"/>
-      <c r="AJ36" s="438"/>
+      <c r="AI36" s="435"/>
+      <c r="AJ36" s="436"/>
       <c r="AK36" s="270"/>
       <c r="AL36" s="412"/>
-      <c r="AM36" s="439"/>
-      <c r="AN36" s="439"/>
-      <c r="AO36" s="439"/>
-      <c r="AP36" s="440"/>
+      <c r="AM36" s="437"/>
+      <c r="AN36" s="437"/>
+      <c r="AO36" s="437"/>
+      <c r="AP36" s="438"/>
       <c r="AQ36" s="414"/>
-      <c r="AR36" s="440"/>
+      <c r="AR36" s="438"/>
       <c r="AS36" s="414"/>
-      <c r="AT36" s="440"/>
+      <c r="AT36" s="438"/>
       <c r="AU36" s="414"/>
-      <c r="AV36" s="441"/>
+      <c r="AV36" s="439"/>
       <c r="AW36" s="395"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34981,51 +35012,53 @@
       <c r="G37" s="399"/>
       <c r="H37" s="399"/>
       <c r="I37" s="399"/>
-      <c r="J37" s="399"/>
-      <c r="K37" s="399"/>
-      <c r="L37" s="399"/>
-      <c r="M37" s="399"/>
-      <c r="N37" s="400"/>
-      <c r="O37" s="401"/>
-      <c r="P37" s="402"/>
-      <c r="Q37" s="403"/>
-      <c r="R37" s="402"/>
-      <c r="S37" s="400"/>
-      <c r="T37" s="401"/>
-      <c r="U37" s="404"/>
-      <c r="V37" s="405"/>
-      <c r="W37" s="417"/>
-      <c r="X37" s="417"/>
-      <c r="Y37" s="406" t="s">
+      <c r="J37" s="440"/>
+      <c r="K37" s="440"/>
+      <c r="L37" s="440"/>
+      <c r="M37" s="443" t="s">
+        <v>491</v>
+      </c>
+      <c r="N37" s="444"/>
+      <c r="O37" s="445"/>
+      <c r="P37" s="446" t="s">
         <v>496</v>
       </c>
-      <c r="Z37" s="406"/>
-      <c r="AA37" s="406"/>
-      <c r="AB37" s="406"/>
-      <c r="AC37" s="406"/>
-      <c r="AD37" s="406"/>
-      <c r="AE37" s="406"/>
-      <c r="AF37" s="407"/>
-      <c r="AG37" s="408" t="s">
-        <v>459</v>
-      </c>
-      <c r="AH37" s="409" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI37" s="410"/>
-      <c r="AJ37" s="411"/>
-      <c r="AK37" s="209"/>
+      <c r="Q37" s="447" t="s">
+        <v>194</v>
+      </c>
+      <c r="R37" s="446" t="s">
+        <v>497</v>
+      </c>
+      <c r="S37" s="427"/>
+      <c r="T37" s="428"/>
+      <c r="U37" s="429"/>
+      <c r="V37" s="430"/>
+      <c r="W37" s="431"/>
+      <c r="X37" s="431"/>
+      <c r="Y37" s="431"/>
+      <c r="Z37" s="431"/>
+      <c r="AA37" s="431"/>
+      <c r="AB37" s="431"/>
+      <c r="AC37" s="431"/>
+      <c r="AD37" s="431"/>
+      <c r="AE37" s="431"/>
+      <c r="AF37" s="432"/>
+      <c r="AG37" s="433"/>
+      <c r="AH37" s="434"/>
+      <c r="AI37" s="435"/>
+      <c r="AJ37" s="436"/>
+      <c r="AK37" s="270"/>
       <c r="AL37" s="412"/>
-      <c r="AM37" s="413"/>
-      <c r="AN37" s="413"/>
-      <c r="AO37" s="413"/>
-      <c r="AP37" s="414"/>
-      <c r="AQ37" s="415"/>
-      <c r="AR37" s="414"/>
-      <c r="AS37" s="415"/>
-      <c r="AT37" s="414"/>
-      <c r="AU37" s="415"/>
-      <c r="AV37" s="416"/>
+      <c r="AM37" s="437"/>
+      <c r="AN37" s="437"/>
+      <c r="AO37" s="437"/>
+      <c r="AP37" s="438"/>
+      <c r="AQ37" s="414"/>
+      <c r="AR37" s="438"/>
+      <c r="AS37" s="414"/>
+      <c r="AT37" s="438"/>
+      <c r="AU37" s="414"/>
+      <c r="AV37" s="439"/>
       <c r="AW37" s="395"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35054,15 +35087,13 @@
       <c r="S38" s="400"/>
       <c r="T38" s="401"/>
       <c r="U38" s="404"/>
-      <c r="V38" s="405" t="s">
-        <v>326</v>
-      </c>
-      <c r="W38" s="417"/>
-      <c r="X38" s="417"/>
-      <c r="Y38" s="417"/>
-      <c r="Z38" s="406" t="s">
-        <v>497</v>
-      </c>
+      <c r="V38" s="405"/>
+      <c r="W38" s="418"/>
+      <c r="X38" s="418"/>
+      <c r="Y38" s="406" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z38" s="406"/>
       <c r="AA38" s="406"/>
       <c r="AB38" s="406"/>
       <c r="AC38" s="406"/>
@@ -35070,10 +35101,10 @@
       <c r="AE38" s="406"/>
       <c r="AF38" s="407"/>
       <c r="AG38" s="408" t="s">
-        <v>229</v>
+        <v>459</v>
       </c>
       <c r="AH38" s="409" t="s">
-        <v>230</v>
+        <v>476</v>
       </c>
       <c r="AI38" s="410"/>
       <c r="AJ38" s="411"/>
@@ -35117,21 +35148,27 @@
       <c r="S39" s="400"/>
       <c r="T39" s="401"/>
       <c r="U39" s="404"/>
-      <c r="V39" s="405"/>
-      <c r="W39" s="417"/>
-      <c r="X39" s="417"/>
-      <c r="Y39" s="417"/>
-      <c r="Z39" s="417"/>
-      <c r="AA39" s="406" t="s">
-        <v>498</v>
-      </c>
+      <c r="V39" s="405" t="s">
+        <v>326</v>
+      </c>
+      <c r="W39" s="418"/>
+      <c r="X39" s="418"/>
+      <c r="Y39" s="418"/>
+      <c r="Z39" s="406" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA39" s="406"/>
       <c r="AB39" s="406"/>
       <c r="AC39" s="406"/>
       <c r="AD39" s="406"/>
       <c r="AE39" s="406"/>
       <c r="AF39" s="407"/>
-      <c r="AG39" s="408"/>
-      <c r="AH39" s="409"/>
+      <c r="AG39" s="408" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH39" s="409" t="s">
+        <v>230</v>
+      </c>
       <c r="AI39" s="410"/>
       <c r="AJ39" s="411"/>
       <c r="AK39" s="209"/>
@@ -35175,24 +35212,20 @@
       <c r="T40" s="401"/>
       <c r="U40" s="404"/>
       <c r="V40" s="405"/>
-      <c r="W40" s="417"/>
-      <c r="X40" s="417"/>
-      <c r="Y40" s="417"/>
-      <c r="Z40" s="406" t="s">
-        <v>499</v>
-      </c>
-      <c r="AA40" s="406"/>
+      <c r="W40" s="418"/>
+      <c r="X40" s="418"/>
+      <c r="Y40" s="418"/>
+      <c r="Z40" s="418"/>
+      <c r="AA40" s="406" t="s">
+        <v>500</v>
+      </c>
       <c r="AB40" s="406"/>
       <c r="AC40" s="406"/>
       <c r="AD40" s="406"/>
       <c r="AE40" s="406"/>
       <c r="AF40" s="407"/>
-      <c r="AG40" s="408" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH40" s="409" t="s">
-        <v>135</v>
-      </c>
+      <c r="AG40" s="408"/>
+      <c r="AH40" s="409"/>
       <c r="AI40" s="410"/>
       <c r="AJ40" s="411"/>
       <c r="AK40" s="209"/>
@@ -35235,26 +35268,24 @@
       <c r="S41" s="400"/>
       <c r="T41" s="401"/>
       <c r="U41" s="404"/>
-      <c r="V41" s="405" t="s">
-        <v>235</v>
-      </c>
-      <c r="W41" s="417"/>
-      <c r="X41" s="417"/>
-      <c r="Y41" s="417"/>
-      <c r="Z41" s="417"/>
-      <c r="AA41" s="406" t="s">
-        <v>500</v>
-      </c>
+      <c r="V41" s="405"/>
+      <c r="W41" s="418"/>
+      <c r="X41" s="418"/>
+      <c r="Y41" s="418"/>
+      <c r="Z41" s="406" t="s">
+        <v>501</v>
+      </c>
+      <c r="AA41" s="406"/>
       <c r="AB41" s="406"/>
       <c r="AC41" s="406"/>
       <c r="AD41" s="406"/>
       <c r="AE41" s="406"/>
       <c r="AF41" s="407"/>
       <c r="AG41" s="408" t="s">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="AH41" s="409" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="AI41" s="410"/>
       <c r="AJ41" s="411"/>
@@ -35299,29 +35330,29 @@
       <c r="T42" s="401"/>
       <c r="U42" s="404"/>
       <c r="V42" s="405" t="s">
-        <v>193</v>
-      </c>
-      <c r="W42" s="417"/>
-      <c r="X42" s="417"/>
-      <c r="Y42" s="417"/>
-      <c r="Z42" s="417"/>
-      <c r="AA42" s="417"/>
-      <c r="AB42" s="406" t="s">
-        <v>501</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="W42" s="418"/>
+      <c r="X42" s="418"/>
+      <c r="Y42" s="418"/>
+      <c r="Z42" s="418"/>
+      <c r="AA42" s="406" t="s">
+        <v>502</v>
+      </c>
+      <c r="AB42" s="406"/>
       <c r="AC42" s="406"/>
       <c r="AD42" s="406"/>
       <c r="AE42" s="406"/>
       <c r="AF42" s="407"/>
-      <c r="AG42" s="408"/>
-      <c r="AH42" s="409"/>
+      <c r="AG42" s="408" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH42" s="409" t="s">
+        <v>230</v>
+      </c>
       <c r="AI42" s="410"/>
-      <c r="AJ42" s="411" t="s">
-        <v>238</v>
-      </c>
-      <c r="AK42" s="209" t="s">
-        <v>498</v>
-      </c>
+      <c r="AJ42" s="411"/>
+      <c r="AK42" s="209"/>
       <c r="AL42" s="412"/>
       <c r="AM42" s="413"/>
       <c r="AN42" s="413"/>
@@ -35361,28 +35392,30 @@
       <c r="S43" s="400"/>
       <c r="T43" s="401"/>
       <c r="U43" s="404"/>
-      <c r="V43" s="405"/>
-      <c r="W43" s="417"/>
-      <c r="X43" s="417"/>
-      <c r="Y43" s="417"/>
-      <c r="Z43" s="417"/>
-      <c r="AA43" s="406" t="s">
-        <v>502</v>
-      </c>
-      <c r="AB43" s="406"/>
+      <c r="V43" s="405" t="s">
+        <v>193</v>
+      </c>
+      <c r="W43" s="418"/>
+      <c r="X43" s="418"/>
+      <c r="Y43" s="418"/>
+      <c r="Z43" s="418"/>
+      <c r="AA43" s="418"/>
+      <c r="AB43" s="406" t="s">
+        <v>503</v>
+      </c>
       <c r="AC43" s="406"/>
       <c r="AD43" s="406"/>
       <c r="AE43" s="406"/>
       <c r="AF43" s="407"/>
-      <c r="AG43" s="424" t="s">
-        <v>486</v>
-      </c>
-      <c r="AH43" s="425" t="s">
-        <v>487</v>
-      </c>
+      <c r="AG43" s="408"/>
+      <c r="AH43" s="409"/>
       <c r="AI43" s="410"/>
-      <c r="AJ43" s="411"/>
-      <c r="AK43" s="209"/>
+      <c r="AJ43" s="411" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK43" s="209" t="s">
+        <v>500</v>
+      </c>
       <c r="AL43" s="412"/>
       <c r="AM43" s="413"/>
       <c r="AN43" s="413"/>
@@ -35410,51 +35443,51 @@
       <c r="G44" s="399"/>
       <c r="H44" s="399"/>
       <c r="I44" s="399"/>
-      <c r="J44" s="421" t="s">
-        <v>503</v>
-      </c>
-      <c r="K44" s="421"/>
-      <c r="L44" s="421"/>
-      <c r="M44" s="421"/>
-      <c r="N44" s="426" t="s">
-        <v>471</v>
-      </c>
-      <c r="O44" s="427" t="s">
-        <v>472</v>
-      </c>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="428"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="429"/>
-      <c r="T44" s="430"/>
-      <c r="U44" s="431"/>
-      <c r="V44" s="432"/>
-      <c r="W44" s="433"/>
-      <c r="X44" s="433"/>
-      <c r="Y44" s="433"/>
-      <c r="Z44" s="433"/>
-      <c r="AA44" s="433"/>
-      <c r="AB44" s="433"/>
-      <c r="AC44" s="433"/>
-      <c r="AD44" s="433"/>
-      <c r="AE44" s="433"/>
-      <c r="AF44" s="434"/>
-      <c r="AG44" s="435"/>
-      <c r="AH44" s="436"/>
-      <c r="AI44" s="437"/>
-      <c r="AJ44" s="438"/>
-      <c r="AK44" s="270"/>
+      <c r="J44" s="399"/>
+      <c r="K44" s="399"/>
+      <c r="L44" s="399"/>
+      <c r="M44" s="399"/>
+      <c r="N44" s="400"/>
+      <c r="O44" s="401"/>
+      <c r="P44" s="402"/>
+      <c r="Q44" s="403"/>
+      <c r="R44" s="402"/>
+      <c r="S44" s="400"/>
+      <c r="T44" s="401"/>
+      <c r="U44" s="404"/>
+      <c r="V44" s="405"/>
+      <c r="W44" s="418"/>
+      <c r="X44" s="418"/>
+      <c r="Y44" s="418"/>
+      <c r="Z44" s="418"/>
+      <c r="AA44" s="406" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB44" s="406"/>
+      <c r="AC44" s="406"/>
+      <c r="AD44" s="406"/>
+      <c r="AE44" s="406"/>
+      <c r="AF44" s="407"/>
+      <c r="AG44" s="422" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH44" s="423" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI44" s="410"/>
+      <c r="AJ44" s="411"/>
+      <c r="AK44" s="209"/>
       <c r="AL44" s="412"/>
-      <c r="AM44" s="439"/>
-      <c r="AN44" s="439"/>
-      <c r="AO44" s="439"/>
-      <c r="AP44" s="440"/>
-      <c r="AQ44" s="414"/>
-      <c r="AR44" s="440"/>
-      <c r="AS44" s="414"/>
-      <c r="AT44" s="440"/>
-      <c r="AU44" s="414"/>
-      <c r="AV44" s="441"/>
+      <c r="AM44" s="413"/>
+      <c r="AN44" s="413"/>
+      <c r="AO44" s="413"/>
+      <c r="AP44" s="414"/>
+      <c r="AQ44" s="415"/>
+      <c r="AR44" s="414"/>
+      <c r="AS44" s="415"/>
+      <c r="AT44" s="414"/>
+      <c r="AU44" s="415"/>
+      <c r="AV44" s="416"/>
       <c r="AW44" s="395"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35471,51 +35504,51 @@
       <c r="G45" s="399"/>
       <c r="H45" s="399"/>
       <c r="I45" s="399"/>
-      <c r="J45" s="442"/>
-      <c r="K45" s="442"/>
-      <c r="L45" s="442"/>
-      <c r="M45" s="442"/>
-      <c r="N45" s="443"/>
-      <c r="O45" s="444"/>
+      <c r="J45" s="419" t="s">
+        <v>505</v>
+      </c>
+      <c r="K45" s="419"/>
+      <c r="L45" s="419"/>
+      <c r="M45" s="419"/>
+      <c r="N45" s="424" t="s">
+        <v>467</v>
+      </c>
+      <c r="O45" s="425" t="s">
+        <v>468</v>
+      </c>
       <c r="P45" s="32"/>
-      <c r="Q45" s="428"/>
+      <c r="Q45" s="426"/>
       <c r="R45" s="32"/>
-      <c r="S45" s="429"/>
-      <c r="T45" s="430"/>
-      <c r="U45" s="431"/>
-      <c r="V45" s="432"/>
-      <c r="W45" s="433"/>
-      <c r="X45" s="433"/>
-      <c r="Y45" s="433"/>
-      <c r="Z45" s="433"/>
-      <c r="AA45" s="433"/>
-      <c r="AB45" s="433"/>
-      <c r="AC45" s="406" t="s">
-        <v>504</v>
-      </c>
-      <c r="AD45" s="406"/>
-      <c r="AE45" s="406"/>
-      <c r="AF45" s="434"/>
-      <c r="AG45" s="435" t="s">
-        <v>459</v>
-      </c>
-      <c r="AH45" s="436" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI45" s="437"/>
-      <c r="AJ45" s="438"/>
+      <c r="S45" s="427"/>
+      <c r="T45" s="428"/>
+      <c r="U45" s="429"/>
+      <c r="V45" s="430"/>
+      <c r="W45" s="431"/>
+      <c r="X45" s="431"/>
+      <c r="Y45" s="431"/>
+      <c r="Z45" s="431"/>
+      <c r="AA45" s="431"/>
+      <c r="AB45" s="431"/>
+      <c r="AC45" s="431"/>
+      <c r="AD45" s="431"/>
+      <c r="AE45" s="431"/>
+      <c r="AF45" s="432"/>
+      <c r="AG45" s="433"/>
+      <c r="AH45" s="434"/>
+      <c r="AI45" s="435"/>
+      <c r="AJ45" s="436"/>
       <c r="AK45" s="270"/>
       <c r="AL45" s="412"/>
-      <c r="AM45" s="439"/>
-      <c r="AN45" s="439"/>
-      <c r="AO45" s="439"/>
-      <c r="AP45" s="440"/>
+      <c r="AM45" s="437"/>
+      <c r="AN45" s="437"/>
+      <c r="AO45" s="437"/>
+      <c r="AP45" s="438"/>
       <c r="AQ45" s="414"/>
-      <c r="AR45" s="440"/>
+      <c r="AR45" s="438"/>
       <c r="AS45" s="414"/>
-      <c r="AT45" s="440"/>
+      <c r="AT45" s="438"/>
       <c r="AU45" s="414"/>
-      <c r="AV45" s="441"/>
+      <c r="AV45" s="439"/>
       <c r="AW45" s="395"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35532,53 +35565,51 @@
       <c r="G46" s="399"/>
       <c r="H46" s="399"/>
       <c r="I46" s="399"/>
-      <c r="J46" s="442"/>
-      <c r="K46" s="442"/>
-      <c r="L46" s="442"/>
-      <c r="M46" s="442"/>
-      <c r="N46" s="443"/>
-      <c r="O46" s="444"/>
+      <c r="J46" s="440"/>
+      <c r="K46" s="440"/>
+      <c r="L46" s="440"/>
+      <c r="M46" s="440"/>
+      <c r="N46" s="441"/>
+      <c r="O46" s="442"/>
       <c r="P46" s="32"/>
-      <c r="Q46" s="428"/>
+      <c r="Q46" s="426"/>
       <c r="R46" s="32"/>
-      <c r="S46" s="429"/>
-      <c r="T46" s="430"/>
-      <c r="U46" s="431"/>
-      <c r="V46" s="432" t="s">
-        <v>235</v>
-      </c>
-      <c r="W46" s="433"/>
-      <c r="X46" s="433"/>
-      <c r="Y46" s="433"/>
-      <c r="Z46" s="433"/>
-      <c r="AA46" s="433"/>
-      <c r="AB46" s="433"/>
-      <c r="AC46" s="433"/>
-      <c r="AD46" s="406" t="s">
-        <v>505</v>
-      </c>
+      <c r="S46" s="427"/>
+      <c r="T46" s="428"/>
+      <c r="U46" s="429"/>
+      <c r="V46" s="430"/>
+      <c r="W46" s="431"/>
+      <c r="X46" s="431"/>
+      <c r="Y46" s="431"/>
+      <c r="Z46" s="431"/>
+      <c r="AA46" s="431"/>
+      <c r="AB46" s="431"/>
+      <c r="AC46" s="406" t="s">
+        <v>506</v>
+      </c>
+      <c r="AD46" s="406"/>
       <c r="AE46" s="406"/>
-      <c r="AF46" s="434"/>
-      <c r="AG46" s="435" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH46" s="436" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI46" s="437"/>
-      <c r="AJ46" s="438"/>
+      <c r="AF46" s="432"/>
+      <c r="AG46" s="433" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH46" s="434" t="s">
+        <v>476</v>
+      </c>
+      <c r="AI46" s="435"/>
+      <c r="AJ46" s="436"/>
       <c r="AK46" s="270"/>
       <c r="AL46" s="412"/>
-      <c r="AM46" s="439"/>
-      <c r="AN46" s="439"/>
-      <c r="AO46" s="439"/>
-      <c r="AP46" s="440"/>
+      <c r="AM46" s="437"/>
+      <c r="AN46" s="437"/>
+      <c r="AO46" s="437"/>
+      <c r="AP46" s="438"/>
       <c r="AQ46" s="414"/>
-      <c r="AR46" s="440"/>
+      <c r="AR46" s="438"/>
       <c r="AS46" s="414"/>
-      <c r="AT46" s="440"/>
+      <c r="AT46" s="438"/>
       <c r="AU46" s="414"/>
-      <c r="AV46" s="441"/>
+      <c r="AV46" s="439"/>
       <c r="AW46" s="395"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35595,53 +35626,53 @@
       <c r="G47" s="399"/>
       <c r="H47" s="399"/>
       <c r="I47" s="399"/>
-      <c r="J47" s="442"/>
-      <c r="K47" s="442"/>
-      <c r="L47" s="442"/>
-      <c r="M47" s="442"/>
-      <c r="N47" s="443"/>
-      <c r="O47" s="444"/>
+      <c r="J47" s="440"/>
+      <c r="K47" s="440"/>
+      <c r="L47" s="440"/>
+      <c r="M47" s="440"/>
+      <c r="N47" s="441"/>
+      <c r="O47" s="442"/>
       <c r="P47" s="32"/>
-      <c r="Q47" s="428"/>
+      <c r="Q47" s="426"/>
       <c r="R47" s="32"/>
-      <c r="S47" s="429"/>
-      <c r="T47" s="430"/>
-      <c r="U47" s="431"/>
-      <c r="V47" s="432" t="s">
-        <v>193</v>
-      </c>
-      <c r="W47" s="433"/>
-      <c r="X47" s="433"/>
-      <c r="Y47" s="433"/>
-      <c r="Z47" s="433"/>
-      <c r="AA47" s="433"/>
-      <c r="AB47" s="433"/>
-      <c r="AC47" s="433"/>
-      <c r="AD47" s="433"/>
-      <c r="AE47" s="406" t="s">
-        <v>506</v>
-      </c>
-      <c r="AF47" s="434"/>
-      <c r="AG47" s="435"/>
-      <c r="AH47" s="436"/>
-      <c r="AI47" s="437"/>
-      <c r="AJ47" s="438" t="s">
-        <v>238</v>
-      </c>
-      <c r="AK47" s="270" t="s">
+      <c r="S47" s="427"/>
+      <c r="T47" s="428"/>
+      <c r="U47" s="429"/>
+      <c r="V47" s="430" t="s">
+        <v>235</v>
+      </c>
+      <c r="W47" s="431"/>
+      <c r="X47" s="431"/>
+      <c r="Y47" s="431"/>
+      <c r="Z47" s="431"/>
+      <c r="AA47" s="431"/>
+      <c r="AB47" s="431"/>
+      <c r="AC47" s="431"/>
+      <c r="AD47" s="406" t="s">
         <v>507</v>
       </c>
+      <c r="AE47" s="406"/>
+      <c r="AF47" s="432"/>
+      <c r="AG47" s="433" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH47" s="434" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI47" s="435"/>
+      <c r="AJ47" s="436"/>
+      <c r="AK47" s="270"/>
       <c r="AL47" s="412"/>
-      <c r="AM47" s="439"/>
-      <c r="AN47" s="439"/>
-      <c r="AO47" s="439"/>
-      <c r="AP47" s="440"/>
+      <c r="AM47" s="437"/>
+      <c r="AN47" s="437"/>
+      <c r="AO47" s="437"/>
+      <c r="AP47" s="438"/>
       <c r="AQ47" s="414"/>
-      <c r="AR47" s="440"/>
+      <c r="AR47" s="438"/>
       <c r="AS47" s="414"/>
-      <c r="AT47" s="440"/>
+      <c r="AT47" s="438"/>
       <c r="AU47" s="414"/>
-      <c r="AV47" s="441"/>
+      <c r="AV47" s="439"/>
       <c r="AW47" s="395"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35658,51 +35689,53 @@
       <c r="G48" s="399"/>
       <c r="H48" s="399"/>
       <c r="I48" s="399"/>
-      <c r="J48" s="442"/>
-      <c r="K48" s="442"/>
-      <c r="L48" s="442"/>
-      <c r="M48" s="442"/>
-      <c r="N48" s="443"/>
-      <c r="O48" s="444"/>
+      <c r="J48" s="440"/>
+      <c r="K48" s="440"/>
+      <c r="L48" s="440"/>
+      <c r="M48" s="440"/>
+      <c r="N48" s="441"/>
+      <c r="O48" s="442"/>
       <c r="P48" s="32"/>
-      <c r="Q48" s="428"/>
+      <c r="Q48" s="426"/>
       <c r="R48" s="32"/>
-      <c r="S48" s="429"/>
-      <c r="T48" s="430"/>
-      <c r="U48" s="431"/>
-      <c r="V48" s="432"/>
-      <c r="W48" s="433"/>
-      <c r="X48" s="433"/>
-      <c r="Y48" s="433"/>
-      <c r="Z48" s="433"/>
-      <c r="AA48" s="433"/>
-      <c r="AB48" s="433"/>
-      <c r="AC48" s="433"/>
-      <c r="AD48" s="406" t="s">
+      <c r="S48" s="427"/>
+      <c r="T48" s="428"/>
+      <c r="U48" s="429"/>
+      <c r="V48" s="430" t="s">
+        <v>193</v>
+      </c>
+      <c r="W48" s="431"/>
+      <c r="X48" s="431"/>
+      <c r="Y48" s="431"/>
+      <c r="Z48" s="431"/>
+      <c r="AA48" s="431"/>
+      <c r="AB48" s="431"/>
+      <c r="AC48" s="431"/>
+      <c r="AD48" s="431"/>
+      <c r="AE48" s="406" t="s">
         <v>508</v>
       </c>
-      <c r="AE48" s="406"/>
-      <c r="AF48" s="434"/>
-      <c r="AG48" s="424" t="s">
-        <v>486</v>
-      </c>
-      <c r="AH48" s="425" t="s">
-        <v>487</v>
-      </c>
-      <c r="AI48" s="437"/>
-      <c r="AJ48" s="438"/>
-      <c r="AK48" s="270"/>
+      <c r="AF48" s="432"/>
+      <c r="AG48" s="433"/>
+      <c r="AH48" s="434"/>
+      <c r="AI48" s="435"/>
+      <c r="AJ48" s="436" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK48" s="270" t="s">
+        <v>509</v>
+      </c>
       <c r="AL48" s="412"/>
-      <c r="AM48" s="439"/>
-      <c r="AN48" s="439"/>
-      <c r="AO48" s="439"/>
-      <c r="AP48" s="440"/>
+      <c r="AM48" s="437"/>
+      <c r="AN48" s="437"/>
+      <c r="AO48" s="437"/>
+      <c r="AP48" s="438"/>
       <c r="AQ48" s="414"/>
-      <c r="AR48" s="440"/>
+      <c r="AR48" s="438"/>
       <c r="AS48" s="414"/>
-      <c r="AT48" s="440"/>
+      <c r="AT48" s="438"/>
       <c r="AU48" s="414"/>
-      <c r="AV48" s="441"/>
+      <c r="AV48" s="439"/>
       <c r="AW48" s="395"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35719,53 +35752,51 @@
       <c r="G49" s="399"/>
       <c r="H49" s="399"/>
       <c r="I49" s="399"/>
-      <c r="J49" s="442"/>
-      <c r="K49" s="442"/>
-      <c r="L49" s="442"/>
-      <c r="M49" s="445" t="s">
-        <v>504</v>
-      </c>
-      <c r="N49" s="446"/>
-      <c r="O49" s="447"/>
-      <c r="P49" s="419" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q49" s="420" t="s">
-        <v>194</v>
-      </c>
-      <c r="R49" s="419" t="s">
+      <c r="J49" s="440"/>
+      <c r="K49" s="440"/>
+      <c r="L49" s="440"/>
+      <c r="M49" s="440"/>
+      <c r="N49" s="441"/>
+      <c r="O49" s="442"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="426"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="427"/>
+      <c r="T49" s="428"/>
+      <c r="U49" s="429"/>
+      <c r="V49" s="430"/>
+      <c r="W49" s="431"/>
+      <c r="X49" s="431"/>
+      <c r="Y49" s="431"/>
+      <c r="Z49" s="431"/>
+      <c r="AA49" s="431"/>
+      <c r="AB49" s="431"/>
+      <c r="AC49" s="431"/>
+      <c r="AD49" s="406" t="s">
         <v>510</v>
       </c>
-      <c r="S49" s="429"/>
-      <c r="T49" s="430"/>
-      <c r="U49" s="431"/>
-      <c r="V49" s="432"/>
-      <c r="W49" s="433"/>
-      <c r="X49" s="433"/>
-      <c r="Y49" s="433"/>
-      <c r="Z49" s="433"/>
-      <c r="AA49" s="433"/>
-      <c r="AB49" s="433"/>
-      <c r="AC49" s="433"/>
-      <c r="AD49" s="433"/>
-      <c r="AE49" s="433"/>
-      <c r="AF49" s="434"/>
-      <c r="AG49" s="435"/>
-      <c r="AH49" s="436"/>
-      <c r="AI49" s="437"/>
-      <c r="AJ49" s="438"/>
+      <c r="AE49" s="406"/>
+      <c r="AF49" s="432"/>
+      <c r="AG49" s="422" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH49" s="423" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI49" s="435"/>
+      <c r="AJ49" s="436"/>
       <c r="AK49" s="270"/>
       <c r="AL49" s="412"/>
-      <c r="AM49" s="439"/>
-      <c r="AN49" s="439"/>
-      <c r="AO49" s="439"/>
-      <c r="AP49" s="440"/>
+      <c r="AM49" s="437"/>
+      <c r="AN49" s="437"/>
+      <c r="AO49" s="437"/>
+      <c r="AP49" s="438"/>
       <c r="AQ49" s="414"/>
-      <c r="AR49" s="440"/>
+      <c r="AR49" s="438"/>
       <c r="AS49" s="414"/>
-      <c r="AT49" s="440"/>
+      <c r="AT49" s="438"/>
       <c r="AU49" s="414"/>
-      <c r="AV49" s="441"/>
+      <c r="AV49" s="439"/>
       <c r="AW49" s="395"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35778,120 +35809,113 @@
         <v>458</v>
       </c>
       <c r="E50" s="399"/>
-      <c r="F50" s="421" t="s">
-        <v>108</v>
-      </c>
-      <c r="G50" s="421"/>
-      <c r="H50" s="421"/>
-      <c r="I50" s="421"/>
-      <c r="J50" s="421"/>
-      <c r="K50" s="421"/>
-      <c r="L50" s="421"/>
-      <c r="M50" s="421"/>
-      <c r="N50" s="400" t="s">
-        <v>471</v>
-      </c>
-      <c r="O50" s="401" t="s">
-        <v>472</v>
-      </c>
-      <c r="P50" s="402"/>
-      <c r="Q50" s="403"/>
-      <c r="R50" s="402"/>
-      <c r="S50" s="400" t="s">
-        <v>475</v>
-      </c>
-      <c r="T50" s="401" t="s">
-        <v>472</v>
-      </c>
-      <c r="U50" s="404"/>
-      <c r="V50" s="405"/>
-      <c r="W50" s="417"/>
-      <c r="X50" s="417"/>
-      <c r="Y50" s="417"/>
-      <c r="Z50" s="417"/>
-      <c r="AA50" s="417"/>
-      <c r="AB50" s="417"/>
-      <c r="AC50" s="417"/>
-      <c r="AD50" s="417"/>
-      <c r="AE50" s="417"/>
-      <c r="AF50" s="407"/>
-      <c r="AG50" s="408"/>
-      <c r="AH50" s="409"/>
-      <c r="AI50" s="410"/>
-      <c r="AJ50" s="411"/>
-      <c r="AK50" s="209"/>
+      <c r="F50" s="399"/>
+      <c r="G50" s="399"/>
+      <c r="H50" s="399"/>
+      <c r="I50" s="399"/>
+      <c r="J50" s="440"/>
+      <c r="K50" s="440"/>
+      <c r="L50" s="440"/>
+      <c r="M50" s="443" t="s">
+        <v>506</v>
+      </c>
+      <c r="N50" s="444"/>
+      <c r="O50" s="445"/>
+      <c r="P50" s="446" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q50" s="447" t="s">
+        <v>194</v>
+      </c>
+      <c r="R50" s="446" t="s">
+        <v>512</v>
+      </c>
+      <c r="S50" s="427"/>
+      <c r="T50" s="428"/>
+      <c r="U50" s="429"/>
+      <c r="V50" s="430"/>
+      <c r="W50" s="431"/>
+      <c r="X50" s="431"/>
+      <c r="Y50" s="431"/>
+      <c r="Z50" s="431"/>
+      <c r="AA50" s="431"/>
+      <c r="AB50" s="431"/>
+      <c r="AC50" s="431"/>
+      <c r="AD50" s="431"/>
+      <c r="AE50" s="431"/>
+      <c r="AF50" s="432"/>
+      <c r="AG50" s="433"/>
+      <c r="AH50" s="434"/>
+      <c r="AI50" s="435"/>
+      <c r="AJ50" s="436"/>
+      <c r="AK50" s="270"/>
       <c r="AL50" s="412"/>
-      <c r="AM50" s="413"/>
-      <c r="AN50" s="413"/>
-      <c r="AO50" s="413"/>
-      <c r="AP50" s="414"/>
-      <c r="AQ50" s="415"/>
-      <c r="AR50" s="414"/>
-      <c r="AS50" s="415"/>
-      <c r="AT50" s="414"/>
-      <c r="AU50" s="415"/>
-      <c r="AV50" s="416"/>
+      <c r="AM50" s="437"/>
+      <c r="AN50" s="437"/>
+      <c r="AO50" s="437"/>
+      <c r="AP50" s="438"/>
+      <c r="AQ50" s="414"/>
+      <c r="AR50" s="438"/>
+      <c r="AS50" s="414"/>
+      <c r="AT50" s="438"/>
+      <c r="AU50" s="414"/>
+      <c r="AV50" s="439"/>
       <c r="AW50" s="395"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="396"/>
-      <c r="B51" s="396"/>
-      <c r="C51" s="397" t="s">
-        <v>131</v>
-      </c>
-      <c r="D51" s="398" t="s">
-        <v>458</v>
-      </c>
-      <c r="E51" s="399"/>
-      <c r="F51" s="399"/>
-      <c r="G51" s="399"/>
-      <c r="H51" s="399"/>
-      <c r="I51" s="399"/>
-      <c r="J51" s="399"/>
-      <c r="K51" s="399"/>
-      <c r="L51" s="399"/>
-      <c r="M51" s="399"/>
-      <c r="N51" s="400"/>
-      <c r="O51" s="401"/>
-      <c r="P51" s="402"/>
-      <c r="Q51" s="403"/>
-      <c r="R51" s="402"/>
-      <c r="S51" s="400"/>
-      <c r="T51" s="401"/>
-      <c r="U51" s="404"/>
-      <c r="V51" s="405"/>
-      <c r="W51" s="417"/>
-      <c r="X51" s="417"/>
-      <c r="Y51" s="406" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z51" s="406"/>
-      <c r="AA51" s="406"/>
-      <c r="AB51" s="406"/>
-      <c r="AC51" s="406"/>
-      <c r="AD51" s="406"/>
-      <c r="AE51" s="406"/>
-      <c r="AF51" s="407"/>
-      <c r="AG51" s="408" t="s">
-        <v>459</v>
-      </c>
-      <c r="AH51" s="409" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI51" s="410"/>
-      <c r="AJ51" s="411"/>
-      <c r="AK51" s="209"/>
-      <c r="AL51" s="412"/>
-      <c r="AM51" s="413"/>
-      <c r="AN51" s="413"/>
-      <c r="AO51" s="413"/>
-      <c r="AP51" s="414"/>
-      <c r="AQ51" s="415"/>
-      <c r="AR51" s="414"/>
-      <c r="AS51" s="415"/>
-      <c r="AT51" s="414"/>
-      <c r="AU51" s="415"/>
-      <c r="AV51" s="416"/>
+      <c r="A51" s="387" t="n">
+        <f aca="false">VINE!$A$47</f>
+        <v>43</v>
+      </c>
+      <c r="B51" s="388" t="s">
+        <v>474</v>
+      </c>
+      <c r="C51" s="389"/>
+      <c r="D51" s="389"/>
+      <c r="E51" s="389"/>
+      <c r="F51" s="389"/>
+      <c r="G51" s="389"/>
+      <c r="H51" s="389"/>
+      <c r="I51" s="389"/>
+      <c r="J51" s="389"/>
+      <c r="K51" s="389"/>
+      <c r="L51" s="389"/>
+      <c r="M51" s="389"/>
+      <c r="N51" s="390"/>
+      <c r="O51" s="391"/>
+      <c r="P51" s="389"/>
+      <c r="Q51" s="392"/>
+      <c r="R51" s="389"/>
+      <c r="S51" s="390"/>
+      <c r="T51" s="389"/>
+      <c r="U51" s="389"/>
+      <c r="V51" s="389"/>
+      <c r="W51" s="389"/>
+      <c r="X51" s="389"/>
+      <c r="Y51" s="389"/>
+      <c r="Z51" s="389"/>
+      <c r="AA51" s="389"/>
+      <c r="AB51" s="391"/>
+      <c r="AC51" s="391"/>
+      <c r="AD51" s="391"/>
+      <c r="AE51" s="391"/>
+      <c r="AF51" s="389"/>
+      <c r="AG51" s="390"/>
+      <c r="AH51" s="391"/>
+      <c r="AI51" s="391"/>
+      <c r="AJ51" s="393"/>
+      <c r="AK51" s="391"/>
+      <c r="AL51" s="389"/>
+      <c r="AM51" s="389"/>
+      <c r="AN51" s="389"/>
+      <c r="AO51" s="389"/>
+      <c r="AP51" s="389"/>
+      <c r="AQ51" s="389"/>
+      <c r="AR51" s="389"/>
+      <c r="AS51" s="389"/>
+      <c r="AT51" s="389"/>
+      <c r="AU51" s="389"/>
+      <c r="AV51" s="394"/>
       <c r="AW51" s="395"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35920,15 +35944,13 @@
       <c r="S52" s="400"/>
       <c r="T52" s="401"/>
       <c r="U52" s="404"/>
-      <c r="V52" s="405" t="s">
-        <v>326</v>
-      </c>
-      <c r="W52" s="417"/>
-      <c r="X52" s="417"/>
-      <c r="Y52" s="417"/>
-      <c r="Z52" s="406" t="s">
-        <v>512</v>
-      </c>
+      <c r="V52" s="405"/>
+      <c r="W52" s="406" t="s">
+        <v>475</v>
+      </c>
+      <c r="X52" s="406"/>
+      <c r="Y52" s="406"/>
+      <c r="Z52" s="406"/>
       <c r="AA52" s="406"/>
       <c r="AB52" s="406"/>
       <c r="AC52" s="406"/>
@@ -35936,10 +35958,10 @@
       <c r="AE52" s="406"/>
       <c r="AF52" s="407"/>
       <c r="AG52" s="408" t="s">
-        <v>229</v>
+        <v>459</v>
       </c>
       <c r="AH52" s="409" t="s">
-        <v>230</v>
+        <v>476</v>
       </c>
       <c r="AI52" s="410"/>
       <c r="AJ52" s="411"/>
@@ -35983,24 +36005,30 @@
       <c r="S53" s="400"/>
       <c r="T53" s="401"/>
       <c r="U53" s="404"/>
-      <c r="V53" s="405"/>
-      <c r="W53" s="417"/>
-      <c r="X53" s="417"/>
-      <c r="Y53" s="417"/>
-      <c r="Z53" s="417"/>
-      <c r="AA53" s="406" t="s">
-        <v>513</v>
-      </c>
+      <c r="V53" s="405" t="s">
+        <v>193</v>
+      </c>
+      <c r="W53" s="418"/>
+      <c r="X53" s="406" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y53" s="406"/>
+      <c r="Z53" s="406"/>
+      <c r="AA53" s="406"/>
       <c r="AB53" s="406"/>
       <c r="AC53" s="406"/>
       <c r="AD53" s="406"/>
       <c r="AE53" s="406"/>
-      <c r="AF53" s="407"/>
+      <c r="AF53" s="407" t="s">
+        <v>194</v>
+      </c>
       <c r="AG53" s="408"/>
       <c r="AH53" s="409"/>
       <c r="AI53" s="410"/>
       <c r="AJ53" s="411"/>
-      <c r="AK53" s="209"/>
+      <c r="AK53" s="209" t="s">
+        <v>477</v>
+      </c>
       <c r="AL53" s="412"/>
       <c r="AM53" s="413"/>
       <c r="AN53" s="413"/>
@@ -36024,41 +36052,45 @@
         <v>458</v>
       </c>
       <c r="E54" s="399"/>
-      <c r="F54" s="399"/>
-      <c r="G54" s="399"/>
-      <c r="H54" s="399"/>
-      <c r="I54" s="399"/>
-      <c r="J54" s="399"/>
-      <c r="K54" s="399"/>
-      <c r="L54" s="399"/>
-      <c r="M54" s="399"/>
-      <c r="N54" s="400"/>
-      <c r="O54" s="401"/>
+      <c r="F54" s="419" t="s">
+        <v>108</v>
+      </c>
+      <c r="G54" s="419"/>
+      <c r="H54" s="419"/>
+      <c r="I54" s="419"/>
+      <c r="J54" s="419"/>
+      <c r="K54" s="419"/>
+      <c r="L54" s="419"/>
+      <c r="M54" s="419"/>
+      <c r="N54" s="400" t="s">
+        <v>467</v>
+      </c>
+      <c r="O54" s="401" t="s">
+        <v>468</v>
+      </c>
       <c r="P54" s="402"/>
       <c r="Q54" s="403"/>
       <c r="R54" s="402"/>
-      <c r="S54" s="400"/>
-      <c r="T54" s="401"/>
+      <c r="S54" s="400" t="s">
+        <v>471</v>
+      </c>
+      <c r="T54" s="401" t="s">
+        <v>468</v>
+      </c>
       <c r="U54" s="404"/>
       <c r="V54" s="405"/>
-      <c r="W54" s="417"/>
-      <c r="X54" s="417"/>
-      <c r="Y54" s="417"/>
-      <c r="Z54" s="406" t="s">
-        <v>514</v>
-      </c>
-      <c r="AA54" s="406"/>
-      <c r="AB54" s="406"/>
-      <c r="AC54" s="406"/>
-      <c r="AD54" s="406"/>
-      <c r="AE54" s="406"/>
+      <c r="W54" s="418"/>
+      <c r="X54" s="418"/>
+      <c r="Y54" s="418"/>
+      <c r="Z54" s="418"/>
+      <c r="AA54" s="418"/>
+      <c r="AB54" s="418"/>
+      <c r="AC54" s="418"/>
+      <c r="AD54" s="418"/>
+      <c r="AE54" s="418"/>
       <c r="AF54" s="407"/>
-      <c r="AG54" s="408" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH54" s="409" t="s">
-        <v>135</v>
-      </c>
+      <c r="AG54" s="408"/>
+      <c r="AH54" s="409"/>
       <c r="AI54" s="410"/>
       <c r="AJ54" s="411"/>
       <c r="AK54" s="209"/>
@@ -36101,26 +36133,24 @@
       <c r="S55" s="400"/>
       <c r="T55" s="401"/>
       <c r="U55" s="404"/>
-      <c r="V55" s="405" t="s">
-        <v>235</v>
-      </c>
-      <c r="W55" s="417"/>
-      <c r="X55" s="417"/>
-      <c r="Y55" s="417"/>
-      <c r="Z55" s="417"/>
-      <c r="AA55" s="406" t="s">
-        <v>515</v>
-      </c>
+      <c r="V55" s="405"/>
+      <c r="W55" s="418"/>
+      <c r="X55" s="418"/>
+      <c r="Y55" s="406" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z55" s="406"/>
+      <c r="AA55" s="406"/>
       <c r="AB55" s="406"/>
       <c r="AC55" s="406"/>
       <c r="AD55" s="406"/>
       <c r="AE55" s="406"/>
       <c r="AF55" s="407"/>
       <c r="AG55" s="408" t="s">
-        <v>229</v>
+        <v>459</v>
       </c>
       <c r="AH55" s="409" t="s">
-        <v>230</v>
+        <v>476</v>
       </c>
       <c r="AI55" s="410"/>
       <c r="AJ55" s="411"/>
@@ -36165,29 +36195,29 @@
       <c r="T56" s="401"/>
       <c r="U56" s="404"/>
       <c r="V56" s="405" t="s">
-        <v>193</v>
-      </c>
-      <c r="W56" s="417"/>
-      <c r="X56" s="417"/>
-      <c r="Y56" s="417"/>
-      <c r="Z56" s="417"/>
-      <c r="AA56" s="417"/>
-      <c r="AB56" s="406" t="s">
-        <v>516</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="W56" s="418"/>
+      <c r="X56" s="418"/>
+      <c r="Y56" s="418"/>
+      <c r="Z56" s="406" t="s">
+        <v>514</v>
+      </c>
+      <c r="AA56" s="406"/>
+      <c r="AB56" s="406"/>
       <c r="AC56" s="406"/>
       <c r="AD56" s="406"/>
       <c r="AE56" s="406"/>
       <c r="AF56" s="407"/>
-      <c r="AG56" s="408"/>
-      <c r="AH56" s="409"/>
+      <c r="AG56" s="408" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH56" s="409" t="s">
+        <v>230</v>
+      </c>
       <c r="AI56" s="410"/>
-      <c r="AJ56" s="411" t="s">
-        <v>238</v>
-      </c>
-      <c r="AK56" s="209" t="s">
-        <v>513</v>
-      </c>
+      <c r="AJ56" s="411"/>
+      <c r="AK56" s="209"/>
       <c r="AL56" s="412"/>
       <c r="AM56" s="413"/>
       <c r="AN56" s="413"/>
@@ -36228,24 +36258,20 @@
       <c r="T57" s="401"/>
       <c r="U57" s="404"/>
       <c r="V57" s="405"/>
-      <c r="W57" s="417"/>
-      <c r="X57" s="417"/>
-      <c r="Y57" s="417"/>
-      <c r="Z57" s="417"/>
+      <c r="W57" s="418"/>
+      <c r="X57" s="418"/>
+      <c r="Y57" s="418"/>
+      <c r="Z57" s="418"/>
       <c r="AA57" s="406" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AB57" s="406"/>
       <c r="AC57" s="406"/>
       <c r="AD57" s="406"/>
       <c r="AE57" s="406"/>
       <c r="AF57" s="407"/>
-      <c r="AG57" s="424" t="s">
-        <v>486</v>
-      </c>
-      <c r="AH57" s="425" t="s">
-        <v>487</v>
-      </c>
+      <c r="AG57" s="408"/>
+      <c r="AH57" s="409"/>
       <c r="AI57" s="410"/>
       <c r="AJ57" s="411"/>
       <c r="AK57" s="209"/>
@@ -36276,51 +36302,51 @@
       <c r="G58" s="399"/>
       <c r="H58" s="399"/>
       <c r="I58" s="399"/>
-      <c r="J58" s="421" t="s">
-        <v>200</v>
-      </c>
-      <c r="K58" s="421"/>
-      <c r="L58" s="421"/>
-      <c r="M58" s="421"/>
-      <c r="N58" s="426" t="s">
-        <v>471</v>
-      </c>
-      <c r="O58" s="448" t="s">
-        <v>472</v>
-      </c>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="428"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="429"/>
-      <c r="T58" s="430"/>
-      <c r="U58" s="431"/>
-      <c r="V58" s="432"/>
-      <c r="W58" s="433"/>
-      <c r="X58" s="433"/>
-      <c r="Y58" s="433"/>
-      <c r="Z58" s="433"/>
-      <c r="AA58" s="433"/>
-      <c r="AB58" s="433"/>
-      <c r="AC58" s="433"/>
-      <c r="AD58" s="433"/>
-      <c r="AE58" s="433"/>
-      <c r="AF58" s="434"/>
-      <c r="AG58" s="435"/>
-      <c r="AH58" s="436"/>
-      <c r="AI58" s="437"/>
-      <c r="AJ58" s="438"/>
-      <c r="AK58" s="270"/>
+      <c r="J58" s="399"/>
+      <c r="K58" s="399"/>
+      <c r="L58" s="399"/>
+      <c r="M58" s="399"/>
+      <c r="N58" s="400"/>
+      <c r="O58" s="401"/>
+      <c r="P58" s="402"/>
+      <c r="Q58" s="403"/>
+      <c r="R58" s="402"/>
+      <c r="S58" s="400"/>
+      <c r="T58" s="401"/>
+      <c r="U58" s="404"/>
+      <c r="V58" s="405"/>
+      <c r="W58" s="418"/>
+      <c r="X58" s="418"/>
+      <c r="Y58" s="418"/>
+      <c r="Z58" s="406" t="s">
+        <v>516</v>
+      </c>
+      <c r="AA58" s="406"/>
+      <c r="AB58" s="406"/>
+      <c r="AC58" s="406"/>
+      <c r="AD58" s="406"/>
+      <c r="AE58" s="406"/>
+      <c r="AF58" s="407"/>
+      <c r="AG58" s="408" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH58" s="409" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI58" s="410"/>
+      <c r="AJ58" s="411"/>
+      <c r="AK58" s="209"/>
       <c r="AL58" s="412"/>
-      <c r="AM58" s="439"/>
-      <c r="AN58" s="439"/>
-      <c r="AO58" s="439"/>
-      <c r="AP58" s="440"/>
-      <c r="AQ58" s="414"/>
-      <c r="AR58" s="440"/>
-      <c r="AS58" s="414"/>
-      <c r="AT58" s="440"/>
-      <c r="AU58" s="414"/>
-      <c r="AV58" s="441"/>
+      <c r="AM58" s="413"/>
+      <c r="AN58" s="413"/>
+      <c r="AO58" s="413"/>
+      <c r="AP58" s="414"/>
+      <c r="AQ58" s="415"/>
+      <c r="AR58" s="414"/>
+      <c r="AS58" s="415"/>
+      <c r="AT58" s="414"/>
+      <c r="AU58" s="415"/>
+      <c r="AV58" s="416"/>
       <c r="AW58" s="395"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36337,51 +36363,53 @@
       <c r="G59" s="399"/>
       <c r="H59" s="399"/>
       <c r="I59" s="399"/>
-      <c r="J59" s="442"/>
-      <c r="K59" s="442"/>
-      <c r="L59" s="442"/>
-      <c r="M59" s="442"/>
-      <c r="N59" s="443"/>
-      <c r="O59" s="444"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="428"/>
-      <c r="R59" s="32"/>
-      <c r="S59" s="429"/>
-      <c r="T59" s="430"/>
-      <c r="U59" s="431"/>
-      <c r="V59" s="432"/>
-      <c r="W59" s="433"/>
-      <c r="X59" s="433"/>
-      <c r="Y59" s="433"/>
-      <c r="Z59" s="433"/>
-      <c r="AA59" s="433"/>
-      <c r="AB59" s="433"/>
-      <c r="AC59" s="406" t="s">
-        <v>518</v>
-      </c>
+      <c r="J59" s="399"/>
+      <c r="K59" s="399"/>
+      <c r="L59" s="399"/>
+      <c r="M59" s="399"/>
+      <c r="N59" s="400"/>
+      <c r="O59" s="401"/>
+      <c r="P59" s="402"/>
+      <c r="Q59" s="403"/>
+      <c r="R59" s="402"/>
+      <c r="S59" s="400"/>
+      <c r="T59" s="401"/>
+      <c r="U59" s="404"/>
+      <c r="V59" s="405" t="s">
+        <v>235</v>
+      </c>
+      <c r="W59" s="418"/>
+      <c r="X59" s="418"/>
+      <c r="Y59" s="418"/>
+      <c r="Z59" s="418"/>
+      <c r="AA59" s="406" t="s">
+        <v>517</v>
+      </c>
+      <c r="AB59" s="406"/>
+      <c r="AC59" s="406"/>
       <c r="AD59" s="406"/>
       <c r="AE59" s="406"/>
-      <c r="AF59" s="434"/>
-      <c r="AG59" s="435" t="s">
-        <v>459</v>
-      </c>
-      <c r="AH59" s="436" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI59" s="437"/>
-      <c r="AJ59" s="438"/>
-      <c r="AK59" s="270"/>
+      <c r="AF59" s="407"/>
+      <c r="AG59" s="408" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH59" s="409" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI59" s="410"/>
+      <c r="AJ59" s="411"/>
+      <c r="AK59" s="209"/>
       <c r="AL59" s="412"/>
-      <c r="AM59" s="439"/>
-      <c r="AN59" s="439"/>
-      <c r="AO59" s="439"/>
-      <c r="AP59" s="440"/>
-      <c r="AQ59" s="414"/>
-      <c r="AR59" s="440"/>
-      <c r="AS59" s="414"/>
-      <c r="AT59" s="440"/>
-      <c r="AU59" s="414"/>
-      <c r="AV59" s="441"/>
+      <c r="AM59" s="413"/>
+      <c r="AN59" s="413"/>
+      <c r="AO59" s="413"/>
+      <c r="AP59" s="414"/>
+      <c r="AQ59" s="415"/>
+      <c r="AR59" s="414"/>
+      <c r="AS59" s="415"/>
+      <c r="AT59" s="414"/>
+      <c r="AU59" s="415"/>
+      <c r="AV59" s="416"/>
       <c r="AW59" s="395"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36398,53 +36426,53 @@
       <c r="G60" s="399"/>
       <c r="H60" s="399"/>
       <c r="I60" s="399"/>
-      <c r="J60" s="442"/>
-      <c r="K60" s="442"/>
-      <c r="L60" s="442"/>
-      <c r="M60" s="442"/>
-      <c r="N60" s="443"/>
-      <c r="O60" s="444"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="428"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="429"/>
-      <c r="T60" s="430"/>
-      <c r="U60" s="431"/>
-      <c r="V60" s="432" t="s">
-        <v>235</v>
-      </c>
-      <c r="W60" s="433"/>
-      <c r="X60" s="433"/>
-      <c r="Y60" s="433"/>
-      <c r="Z60" s="433"/>
-      <c r="AA60" s="433"/>
-      <c r="AB60" s="433"/>
-      <c r="AC60" s="433"/>
-      <c r="AD60" s="406" t="s">
-        <v>519</v>
-      </c>
+      <c r="J60" s="399"/>
+      <c r="K60" s="399"/>
+      <c r="L60" s="399"/>
+      <c r="M60" s="399"/>
+      <c r="N60" s="400"/>
+      <c r="O60" s="401"/>
+      <c r="P60" s="402"/>
+      <c r="Q60" s="403"/>
+      <c r="R60" s="402"/>
+      <c r="S60" s="400"/>
+      <c r="T60" s="401"/>
+      <c r="U60" s="404"/>
+      <c r="V60" s="405" t="s">
+        <v>193</v>
+      </c>
+      <c r="W60" s="418"/>
+      <c r="X60" s="418"/>
+      <c r="Y60" s="418"/>
+      <c r="Z60" s="418"/>
+      <c r="AA60" s="418"/>
+      <c r="AB60" s="406" t="s">
+        <v>518</v>
+      </c>
+      <c r="AC60" s="406"/>
+      <c r="AD60" s="406"/>
       <c r="AE60" s="406"/>
-      <c r="AF60" s="434"/>
-      <c r="AG60" s="435" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH60" s="436" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI60" s="437"/>
-      <c r="AJ60" s="438"/>
-      <c r="AK60" s="270"/>
+      <c r="AF60" s="407"/>
+      <c r="AG60" s="408"/>
+      <c r="AH60" s="409"/>
+      <c r="AI60" s="410"/>
+      <c r="AJ60" s="411" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK60" s="209" t="s">
+        <v>515</v>
+      </c>
       <c r="AL60" s="412"/>
-      <c r="AM60" s="439"/>
-      <c r="AN60" s="439"/>
-      <c r="AO60" s="439"/>
-      <c r="AP60" s="440"/>
-      <c r="AQ60" s="414"/>
-      <c r="AR60" s="440"/>
-      <c r="AS60" s="414"/>
-      <c r="AT60" s="440"/>
-      <c r="AU60" s="414"/>
-      <c r="AV60" s="441"/>
+      <c r="AM60" s="413"/>
+      <c r="AN60" s="413"/>
+      <c r="AO60" s="413"/>
+      <c r="AP60" s="414"/>
+      <c r="AQ60" s="415"/>
+      <c r="AR60" s="414"/>
+      <c r="AS60" s="415"/>
+      <c r="AT60" s="414"/>
+      <c r="AU60" s="415"/>
+      <c r="AV60" s="416"/>
       <c r="AW60" s="395"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36461,53 +36489,51 @@
       <c r="G61" s="399"/>
       <c r="H61" s="399"/>
       <c r="I61" s="399"/>
-      <c r="J61" s="442"/>
-      <c r="K61" s="442"/>
-      <c r="L61" s="442"/>
-      <c r="M61" s="442"/>
-      <c r="N61" s="443"/>
-      <c r="O61" s="444"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="428"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="429"/>
-      <c r="T61" s="430"/>
-      <c r="U61" s="431"/>
-      <c r="V61" s="432" t="s">
-        <v>193</v>
-      </c>
-      <c r="W61" s="433"/>
-      <c r="X61" s="433"/>
-      <c r="Y61" s="433"/>
-      <c r="Z61" s="433"/>
-      <c r="AA61" s="433"/>
-      <c r="AB61" s="433"/>
-      <c r="AC61" s="433"/>
-      <c r="AD61" s="433"/>
-      <c r="AE61" s="406" t="s">
-        <v>520</v>
-      </c>
-      <c r="AF61" s="434"/>
-      <c r="AG61" s="435"/>
-      <c r="AH61" s="436"/>
-      <c r="AI61" s="437"/>
-      <c r="AJ61" s="438" t="s">
-        <v>238</v>
-      </c>
-      <c r="AK61" s="270" t="s">
-        <v>521</v>
-      </c>
+      <c r="J61" s="399"/>
+      <c r="K61" s="399"/>
+      <c r="L61" s="399"/>
+      <c r="M61" s="399"/>
+      <c r="N61" s="400"/>
+      <c r="O61" s="401"/>
+      <c r="P61" s="402"/>
+      <c r="Q61" s="403"/>
+      <c r="R61" s="402"/>
+      <c r="S61" s="400"/>
+      <c r="T61" s="401"/>
+      <c r="U61" s="404"/>
+      <c r="V61" s="405"/>
+      <c r="W61" s="418"/>
+      <c r="X61" s="418"/>
+      <c r="Y61" s="418"/>
+      <c r="Z61" s="418"/>
+      <c r="AA61" s="406" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB61" s="406"/>
+      <c r="AC61" s="406"/>
+      <c r="AD61" s="406"/>
+      <c r="AE61" s="406"/>
+      <c r="AF61" s="407"/>
+      <c r="AG61" s="422" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH61" s="423" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI61" s="410"/>
+      <c r="AJ61" s="411"/>
+      <c r="AK61" s="209"/>
       <c r="AL61" s="412"/>
-      <c r="AM61" s="439"/>
-      <c r="AN61" s="439"/>
-      <c r="AO61" s="439"/>
-      <c r="AP61" s="440"/>
-      <c r="AQ61" s="414"/>
-      <c r="AR61" s="440"/>
-      <c r="AS61" s="414"/>
-      <c r="AT61" s="440"/>
-      <c r="AU61" s="414"/>
-      <c r="AV61" s="441"/>
+      <c r="AM61" s="413"/>
+      <c r="AN61" s="413"/>
+      <c r="AO61" s="413"/>
+      <c r="AP61" s="414"/>
+      <c r="AQ61" s="415"/>
+      <c r="AR61" s="414"/>
+      <c r="AS61" s="415"/>
+      <c r="AT61" s="414"/>
+      <c r="AU61" s="415"/>
+      <c r="AV61" s="416"/>
       <c r="AW61" s="395"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36524,51 +36550,51 @@
       <c r="G62" s="399"/>
       <c r="H62" s="399"/>
       <c r="I62" s="399"/>
-      <c r="J62" s="442"/>
-      <c r="K62" s="442"/>
-      <c r="L62" s="442"/>
-      <c r="M62" s="442"/>
-      <c r="N62" s="443"/>
-      <c r="O62" s="444"/>
+      <c r="J62" s="419" t="s">
+        <v>200</v>
+      </c>
+      <c r="K62" s="419"/>
+      <c r="L62" s="419"/>
+      <c r="M62" s="419"/>
+      <c r="N62" s="424" t="s">
+        <v>467</v>
+      </c>
+      <c r="O62" s="448" t="s">
+        <v>468</v>
+      </c>
       <c r="P62" s="32"/>
-      <c r="Q62" s="428"/>
+      <c r="Q62" s="426"/>
       <c r="R62" s="32"/>
-      <c r="S62" s="429"/>
-      <c r="T62" s="430"/>
-      <c r="U62" s="431"/>
-      <c r="V62" s="432"/>
-      <c r="W62" s="433"/>
-      <c r="X62" s="433"/>
-      <c r="Y62" s="433"/>
-      <c r="Z62" s="433"/>
-      <c r="AA62" s="433"/>
-      <c r="AB62" s="433"/>
-      <c r="AC62" s="433"/>
-      <c r="AD62" s="406" t="s">
-        <v>522</v>
-      </c>
-      <c r="AE62" s="406"/>
-      <c r="AF62" s="434"/>
-      <c r="AG62" s="424" t="s">
-        <v>486</v>
-      </c>
-      <c r="AH62" s="425" t="s">
-        <v>487</v>
-      </c>
-      <c r="AI62" s="437"/>
-      <c r="AJ62" s="438"/>
+      <c r="S62" s="427"/>
+      <c r="T62" s="428"/>
+      <c r="U62" s="429"/>
+      <c r="V62" s="430"/>
+      <c r="W62" s="431"/>
+      <c r="X62" s="431"/>
+      <c r="Y62" s="431"/>
+      <c r="Z62" s="431"/>
+      <c r="AA62" s="431"/>
+      <c r="AB62" s="431"/>
+      <c r="AC62" s="431"/>
+      <c r="AD62" s="431"/>
+      <c r="AE62" s="431"/>
+      <c r="AF62" s="432"/>
+      <c r="AG62" s="433"/>
+      <c r="AH62" s="434"/>
+      <c r="AI62" s="435"/>
+      <c r="AJ62" s="436"/>
       <c r="AK62" s="270"/>
       <c r="AL62" s="412"/>
-      <c r="AM62" s="439"/>
-      <c r="AN62" s="439"/>
-      <c r="AO62" s="439"/>
-      <c r="AP62" s="440"/>
+      <c r="AM62" s="437"/>
+      <c r="AN62" s="437"/>
+      <c r="AO62" s="437"/>
+      <c r="AP62" s="438"/>
       <c r="AQ62" s="414"/>
-      <c r="AR62" s="440"/>
+      <c r="AR62" s="438"/>
       <c r="AS62" s="414"/>
-      <c r="AT62" s="440"/>
+      <c r="AT62" s="438"/>
       <c r="AU62" s="414"/>
-      <c r="AV62" s="441"/>
+      <c r="AV62" s="439"/>
       <c r="AW62" s="395"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36585,53 +36611,51 @@
       <c r="G63" s="399"/>
       <c r="H63" s="399"/>
       <c r="I63" s="399"/>
-      <c r="J63" s="442"/>
-      <c r="K63" s="442"/>
-      <c r="L63" s="442"/>
-      <c r="M63" s="445" t="s">
-        <v>518</v>
-      </c>
-      <c r="N63" s="446"/>
-      <c r="O63" s="447"/>
-      <c r="P63" s="419" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q63" s="420" t="s">
-        <v>194</v>
-      </c>
-      <c r="R63" s="419" t="s">
-        <v>524</v>
-      </c>
-      <c r="S63" s="429"/>
-      <c r="T63" s="430"/>
-      <c r="U63" s="431"/>
-      <c r="V63" s="432"/>
-      <c r="W63" s="433"/>
-      <c r="X63" s="433"/>
-      <c r="Y63" s="433"/>
-      <c r="Z63" s="433"/>
-      <c r="AA63" s="433"/>
-      <c r="AB63" s="433"/>
-      <c r="AC63" s="433"/>
-      <c r="AD63" s="433"/>
-      <c r="AE63" s="433"/>
-      <c r="AF63" s="434"/>
-      <c r="AG63" s="435"/>
-      <c r="AH63" s="436"/>
-      <c r="AI63" s="437"/>
-      <c r="AJ63" s="438"/>
+      <c r="J63" s="440"/>
+      <c r="K63" s="440"/>
+      <c r="L63" s="440"/>
+      <c r="M63" s="440"/>
+      <c r="N63" s="441"/>
+      <c r="O63" s="442"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="426"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="427"/>
+      <c r="T63" s="428"/>
+      <c r="U63" s="429"/>
+      <c r="V63" s="430"/>
+      <c r="W63" s="431"/>
+      <c r="X63" s="431"/>
+      <c r="Y63" s="431"/>
+      <c r="Z63" s="431"/>
+      <c r="AA63" s="431"/>
+      <c r="AB63" s="431"/>
+      <c r="AC63" s="406" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD63" s="406"/>
+      <c r="AE63" s="406"/>
+      <c r="AF63" s="432"/>
+      <c r="AG63" s="433" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH63" s="434" t="s">
+        <v>476</v>
+      </c>
+      <c r="AI63" s="435"/>
+      <c r="AJ63" s="436"/>
       <c r="AK63" s="270"/>
       <c r="AL63" s="412"/>
-      <c r="AM63" s="439"/>
-      <c r="AN63" s="439"/>
-      <c r="AO63" s="439"/>
-      <c r="AP63" s="440"/>
+      <c r="AM63" s="437"/>
+      <c r="AN63" s="437"/>
+      <c r="AO63" s="437"/>
+      <c r="AP63" s="438"/>
       <c r="AQ63" s="414"/>
-      <c r="AR63" s="440"/>
+      <c r="AR63" s="438"/>
       <c r="AS63" s="414"/>
-      <c r="AT63" s="440"/>
+      <c r="AT63" s="438"/>
       <c r="AU63" s="414"/>
-      <c r="AV63" s="441"/>
+      <c r="AV63" s="439"/>
       <c r="AW63" s="395"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36648,139 +36672,389 @@
       <c r="G64" s="399"/>
       <c r="H64" s="399"/>
       <c r="I64" s="399"/>
-      <c r="J64" s="442" t="s">
-        <v>200</v>
-      </c>
-      <c r="K64" s="442"/>
-      <c r="L64" s="442"/>
-      <c r="M64" s="442"/>
-      <c r="N64" s="449"/>
-      <c r="O64" s="427"/>
+      <c r="J64" s="440"/>
+      <c r="K64" s="440"/>
+      <c r="L64" s="440"/>
+      <c r="M64" s="440"/>
+      <c r="N64" s="441"/>
+      <c r="O64" s="442"/>
       <c r="P64" s="32"/>
-      <c r="Q64" s="428"/>
+      <c r="Q64" s="426"/>
       <c r="R64" s="32"/>
-      <c r="S64" s="429" t="s">
-        <v>475</v>
-      </c>
-      <c r="T64" s="430" t="s">
-        <v>472</v>
-      </c>
-      <c r="U64" s="431"/>
-      <c r="V64" s="432"/>
-      <c r="W64" s="433"/>
-      <c r="X64" s="433"/>
-      <c r="Y64" s="433"/>
-      <c r="Z64" s="433"/>
-      <c r="AA64" s="433"/>
-      <c r="AB64" s="433"/>
-      <c r="AC64" s="433"/>
-      <c r="AD64" s="433"/>
-      <c r="AE64" s="433"/>
-      <c r="AF64" s="434"/>
-      <c r="AG64" s="435"/>
-      <c r="AH64" s="436"/>
-      <c r="AI64" s="437"/>
-      <c r="AJ64" s="438"/>
+      <c r="S64" s="427"/>
+      <c r="T64" s="428"/>
+      <c r="U64" s="429"/>
+      <c r="V64" s="430" t="s">
+        <v>235</v>
+      </c>
+      <c r="W64" s="431"/>
+      <c r="X64" s="431"/>
+      <c r="Y64" s="431"/>
+      <c r="Z64" s="431"/>
+      <c r="AA64" s="431"/>
+      <c r="AB64" s="431"/>
+      <c r="AC64" s="431"/>
+      <c r="AD64" s="406" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE64" s="406"/>
+      <c r="AF64" s="432"/>
+      <c r="AG64" s="433" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH64" s="434" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI64" s="435"/>
+      <c r="AJ64" s="436"/>
       <c r="AK64" s="270"/>
       <c r="AL64" s="412"/>
-      <c r="AM64" s="439"/>
-      <c r="AN64" s="439"/>
-      <c r="AO64" s="439"/>
-      <c r="AP64" s="440"/>
+      <c r="AM64" s="437"/>
+      <c r="AN64" s="437"/>
+      <c r="AO64" s="437"/>
+      <c r="AP64" s="438"/>
       <c r="AQ64" s="414"/>
-      <c r="AR64" s="440"/>
+      <c r="AR64" s="438"/>
       <c r="AS64" s="414"/>
-      <c r="AT64" s="440"/>
+      <c r="AT64" s="438"/>
       <c r="AU64" s="414"/>
-      <c r="AV64" s="441"/>
+      <c r="AV64" s="439"/>
       <c r="AW64" s="395"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="292"/>
-      <c r="B65" s="292"/>
-      <c r="C65" s="351"/>
-      <c r="D65" s="351"/>
-      <c r="E65" s="450" t="n">
+      <c r="A65" s="396"/>
+      <c r="B65" s="396"/>
+      <c r="C65" s="397" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="398" t="s">
+        <v>458</v>
+      </c>
+      <c r="E65" s="399"/>
+      <c r="F65" s="399"/>
+      <c r="G65" s="399"/>
+      <c r="H65" s="399"/>
+      <c r="I65" s="399"/>
+      <c r="J65" s="440"/>
+      <c r="K65" s="440"/>
+      <c r="L65" s="440"/>
+      <c r="M65" s="440"/>
+      <c r="N65" s="441"/>
+      <c r="O65" s="442"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="426"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="427"/>
+      <c r="T65" s="428"/>
+      <c r="U65" s="429"/>
+      <c r="V65" s="430" t="s">
+        <v>193</v>
+      </c>
+      <c r="W65" s="431"/>
+      <c r="X65" s="431"/>
+      <c r="Y65" s="431"/>
+      <c r="Z65" s="431"/>
+      <c r="AA65" s="431"/>
+      <c r="AB65" s="431"/>
+      <c r="AC65" s="431"/>
+      <c r="AD65" s="431"/>
+      <c r="AE65" s="406" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF65" s="432"/>
+      <c r="AG65" s="433"/>
+      <c r="AH65" s="434"/>
+      <c r="AI65" s="435"/>
+      <c r="AJ65" s="436" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK65" s="270" t="s">
+        <v>523</v>
+      </c>
+      <c r="AL65" s="412"/>
+      <c r="AM65" s="437"/>
+      <c r="AN65" s="437"/>
+      <c r="AO65" s="437"/>
+      <c r="AP65" s="438"/>
+      <c r="AQ65" s="414"/>
+      <c r="AR65" s="438"/>
+      <c r="AS65" s="414"/>
+      <c r="AT65" s="438"/>
+      <c r="AU65" s="414"/>
+      <c r="AV65" s="439"/>
+      <c r="AW65" s="395"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="396"/>
+      <c r="B66" s="396"/>
+      <c r="C66" s="397" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="398" t="s">
+        <v>458</v>
+      </c>
+      <c r="E66" s="399"/>
+      <c r="F66" s="399"/>
+      <c r="G66" s="399"/>
+      <c r="H66" s="399"/>
+      <c r="I66" s="399"/>
+      <c r="J66" s="440"/>
+      <c r="K66" s="440"/>
+      <c r="L66" s="440"/>
+      <c r="M66" s="440"/>
+      <c r="N66" s="441"/>
+      <c r="O66" s="442"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="426"/>
+      <c r="R66" s="32"/>
+      <c r="S66" s="427"/>
+      <c r="T66" s="428"/>
+      <c r="U66" s="429"/>
+      <c r="V66" s="430"/>
+      <c r="W66" s="431"/>
+      <c r="X66" s="431"/>
+      <c r="Y66" s="431"/>
+      <c r="Z66" s="431"/>
+      <c r="AA66" s="431"/>
+      <c r="AB66" s="431"/>
+      <c r="AC66" s="431"/>
+      <c r="AD66" s="406" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE66" s="406"/>
+      <c r="AF66" s="432"/>
+      <c r="AG66" s="422" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH66" s="423" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI66" s="435"/>
+      <c r="AJ66" s="436"/>
+      <c r="AK66" s="270"/>
+      <c r="AL66" s="412"/>
+      <c r="AM66" s="437"/>
+      <c r="AN66" s="437"/>
+      <c r="AO66" s="437"/>
+      <c r="AP66" s="438"/>
+      <c r="AQ66" s="414"/>
+      <c r="AR66" s="438"/>
+      <c r="AS66" s="414"/>
+      <c r="AT66" s="438"/>
+      <c r="AU66" s="414"/>
+      <c r="AV66" s="439"/>
+      <c r="AW66" s="395"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="396"/>
+      <c r="B67" s="396"/>
+      <c r="C67" s="397" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="398" t="s">
+        <v>458</v>
+      </c>
+      <c r="E67" s="399"/>
+      <c r="F67" s="399"/>
+      <c r="G67" s="399"/>
+      <c r="H67" s="399"/>
+      <c r="I67" s="399"/>
+      <c r="J67" s="440"/>
+      <c r="K67" s="440"/>
+      <c r="L67" s="440"/>
+      <c r="M67" s="443" t="s">
+        <v>520</v>
+      </c>
+      <c r="N67" s="444"/>
+      <c r="O67" s="445"/>
+      <c r="P67" s="446" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q67" s="447" t="s">
+        <v>194</v>
+      </c>
+      <c r="R67" s="446" t="s">
+        <v>526</v>
+      </c>
+      <c r="S67" s="427"/>
+      <c r="T67" s="428"/>
+      <c r="U67" s="429"/>
+      <c r="V67" s="430"/>
+      <c r="W67" s="431"/>
+      <c r="X67" s="431"/>
+      <c r="Y67" s="431"/>
+      <c r="Z67" s="431"/>
+      <c r="AA67" s="431"/>
+      <c r="AB67" s="431"/>
+      <c r="AC67" s="431"/>
+      <c r="AD67" s="431"/>
+      <c r="AE67" s="431"/>
+      <c r="AF67" s="432"/>
+      <c r="AG67" s="433"/>
+      <c r="AH67" s="434"/>
+      <c r="AI67" s="435"/>
+      <c r="AJ67" s="436"/>
+      <c r="AK67" s="270"/>
+      <c r="AL67" s="412"/>
+      <c r="AM67" s="437"/>
+      <c r="AN67" s="437"/>
+      <c r="AO67" s="437"/>
+      <c r="AP67" s="438"/>
+      <c r="AQ67" s="414"/>
+      <c r="AR67" s="438"/>
+      <c r="AS67" s="414"/>
+      <c r="AT67" s="438"/>
+      <c r="AU67" s="414"/>
+      <c r="AV67" s="439"/>
+      <c r="AW67" s="395"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="396"/>
+      <c r="B68" s="396"/>
+      <c r="C68" s="397" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="398" t="s">
+        <v>458</v>
+      </c>
+      <c r="E68" s="399"/>
+      <c r="F68" s="399"/>
+      <c r="G68" s="399"/>
+      <c r="H68" s="399"/>
+      <c r="I68" s="399"/>
+      <c r="J68" s="440" t="s">
+        <v>200</v>
+      </c>
+      <c r="K68" s="440"/>
+      <c r="L68" s="440"/>
+      <c r="M68" s="440"/>
+      <c r="N68" s="449"/>
+      <c r="O68" s="425"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="426"/>
+      <c r="R68" s="32"/>
+      <c r="S68" s="427" t="s">
+        <v>471</v>
+      </c>
+      <c r="T68" s="428" t="s">
+        <v>468</v>
+      </c>
+      <c r="U68" s="429"/>
+      <c r="V68" s="430"/>
+      <c r="W68" s="431"/>
+      <c r="X68" s="431"/>
+      <c r="Y68" s="431"/>
+      <c r="Z68" s="431"/>
+      <c r="AA68" s="431"/>
+      <c r="AB68" s="431"/>
+      <c r="AC68" s="431"/>
+      <c r="AD68" s="431"/>
+      <c r="AE68" s="431"/>
+      <c r="AF68" s="432"/>
+      <c r="AG68" s="433"/>
+      <c r="AH68" s="434"/>
+      <c r="AI68" s="435"/>
+      <c r="AJ68" s="436"/>
+      <c r="AK68" s="270"/>
+      <c r="AL68" s="412"/>
+      <c r="AM68" s="437"/>
+      <c r="AN68" s="437"/>
+      <c r="AO68" s="437"/>
+      <c r="AP68" s="438"/>
+      <c r="AQ68" s="414"/>
+      <c r="AR68" s="438"/>
+      <c r="AS68" s="414"/>
+      <c r="AT68" s="438"/>
+      <c r="AU68" s="414"/>
+      <c r="AV68" s="439"/>
+      <c r="AW68" s="395"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="292"/>
+      <c r="B69" s="292"/>
+      <c r="C69" s="351"/>
+      <c r="D69" s="351"/>
+      <c r="E69" s="450" t="n">
         <v>0</v>
       </c>
-      <c r="F65" s="450" t="n">
+      <c r="F69" s="450" t="n">
         <v>1</v>
       </c>
-      <c r="G65" s="450" t="n">
+      <c r="G69" s="450" t="n">
         <v>2</v>
       </c>
-      <c r="H65" s="450" t="n">
+      <c r="H69" s="450" t="n">
         <v>3</v>
       </c>
-      <c r="I65" s="450" t="n">
+      <c r="I69" s="450" t="n">
         <v>4</v>
       </c>
-      <c r="J65" s="450" t="n">
+      <c r="J69" s="450" t="n">
         <v>5</v>
       </c>
-      <c r="K65" s="450" t="n">
+      <c r="K69" s="450" t="n">
         <v>6</v>
       </c>
-      <c r="L65" s="450" t="n">
+      <c r="L69" s="450" t="n">
         <v>7</v>
       </c>
-      <c r="M65" s="450" t="n">
+      <c r="M69" s="450" t="n">
         <v>8</v>
       </c>
-      <c r="N65" s="451"/>
-      <c r="O65" s="452"/>
-      <c r="P65" s="292"/>
-      <c r="Q65" s="453"/>
-      <c r="R65" s="292"/>
-      <c r="S65" s="352"/>
-      <c r="T65" s="352"/>
-      <c r="U65" s="354"/>
-      <c r="V65" s="351"/>
-      <c r="W65" s="454" t="n">
+      <c r="N69" s="451"/>
+      <c r="O69" s="452"/>
+      <c r="P69" s="292"/>
+      <c r="Q69" s="453"/>
+      <c r="R69" s="292"/>
+      <c r="S69" s="352"/>
+      <c r="T69" s="352"/>
+      <c r="U69" s="354"/>
+      <c r="V69" s="351"/>
+      <c r="W69" s="454" t="n">
         <v>0</v>
       </c>
-      <c r="X65" s="454" t="n">
+      <c r="X69" s="454" t="n">
         <v>1</v>
       </c>
-      <c r="Y65" s="454" t="n">
+      <c r="Y69" s="454" t="n">
         <v>2</v>
       </c>
-      <c r="Z65" s="454" t="n">
+      <c r="Z69" s="454" t="n">
         <v>3</v>
       </c>
-      <c r="AA65" s="454" t="n">
+      <c r="AA69" s="454" t="n">
         <v>4</v>
       </c>
-      <c r="AB65" s="454" t="n">
+      <c r="AB69" s="454" t="n">
         <v>5</v>
       </c>
-      <c r="AC65" s="454" t="n">
+      <c r="AC69" s="454" t="n">
         <v>6</v>
       </c>
-      <c r="AD65" s="454" t="n">
+      <c r="AD69" s="454" t="n">
         <v>7</v>
       </c>
-      <c r="AE65" s="454" t="n">
+      <c r="AE69" s="454" t="n">
         <v>8</v>
       </c>
-      <c r="AF65" s="455"/>
-      <c r="AG65" s="456"/>
-      <c r="AH65" s="455"/>
-      <c r="AI65" s="455"/>
-      <c r="AJ65" s="351"/>
-      <c r="AK65" s="292"/>
-      <c r="AL65" s="457"/>
-      <c r="AM65" s="457"/>
-      <c r="AN65" s="457"/>
-      <c r="AO65" s="457"/>
-      <c r="AP65" s="354"/>
-      <c r="AQ65" s="354"/>
-      <c r="AR65" s="354"/>
-      <c r="AS65" s="354"/>
-      <c r="AT65" s="354"/>
-      <c r="AU65" s="354"/>
-      <c r="AV65" s="458"/>
-      <c r="AW65" s="458"/>
+      <c r="AF69" s="455"/>
+      <c r="AG69" s="456"/>
+      <c r="AH69" s="455"/>
+      <c r="AI69" s="455"/>
+      <c r="AJ69" s="351"/>
+      <c r="AK69" s="292"/>
+      <c r="AL69" s="457"/>
+      <c r="AM69" s="457"/>
+      <c r="AN69" s="457"/>
+      <c r="AO69" s="457"/>
+      <c r="AP69" s="354"/>
+      <c r="AQ69" s="354"/>
+      <c r="AR69" s="354"/>
+      <c r="AS69" s="354"/>
+      <c r="AT69" s="354"/>
+      <c r="AU69" s="354"/>
+      <c r="AV69" s="458"/>
+      <c r="AW69" s="458"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -36851,7 +37125,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O8" activeCellId="0" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="N8" activeCellId="0" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -37049,7 +37323,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
@@ -37084,7 +37358,7 @@
         <v>131</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E6" s="459"/>
       <c r="F6" s="460" t="s">
@@ -37123,12 +37397,12 @@
         <v>131</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E7" s="466"/>
       <c r="F7" s="467"/>
       <c r="G7" s="467" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H7" s="467"/>
       <c r="I7" s="467"/>
@@ -37144,13 +37418,13 @@
       <c r="Q7" s="471"/>
       <c r="R7" s="466"/>
       <c r="S7" s="472" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="T7" s="468"/>
       <c r="U7" s="469"/>
       <c r="V7" s="470"/>
       <c r="W7" s="468" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="X7" s="68"/>
       <c r="Y7" s="57"/>
@@ -37164,12 +37438,12 @@
         <v>131</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E8" s="466"/>
       <c r="F8" s="467"/>
       <c r="G8" s="467" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H8" s="467"/>
       <c r="I8" s="467"/>
@@ -37185,13 +37459,13 @@
       <c r="Q8" s="471"/>
       <c r="R8" s="466"/>
       <c r="S8" s="472" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="T8" s="468"/>
       <c r="U8" s="469"/>
       <c r="V8" s="470"/>
       <c r="W8" s="468" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="X8" s="68"/>
       <c r="Y8" s="57"/>
@@ -37205,12 +37479,12 @@
         <v>131</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E9" s="466"/>
       <c r="F9" s="467"/>
       <c r="G9" s="467" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H9" s="467"/>
       <c r="I9" s="467"/>
@@ -37226,13 +37500,13 @@
       <c r="Q9" s="471"/>
       <c r="R9" s="466"/>
       <c r="S9" s="472" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="T9" s="468"/>
       <c r="U9" s="469"/>
       <c r="V9" s="470"/>
       <c r="W9" s="468" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="X9" s="68"/>
       <c r="Y9" s="57"/>
@@ -37246,12 +37520,12 @@
         <v>131</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E10" s="466"/>
       <c r="F10" s="467"/>
       <c r="G10" s="467" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H10" s="467"/>
       <c r="I10" s="467"/>
@@ -37267,13 +37541,13 @@
       <c r="Q10" s="471"/>
       <c r="R10" s="466"/>
       <c r="S10" s="472" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="T10" s="468"/>
       <c r="U10" s="469"/>
       <c r="V10" s="470"/>
       <c r="W10" s="468" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="X10" s="68"/>
       <c r="Y10" s="57"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">root</t>
   </si>
   <si>
-    <t xml:space="preserve">'/home/thomaspatrickwelborn/Development/Digital-Flux-Capacitor/demonstrament/projects/001/docubase/develop/templates/'</t>
+    <t xml:space="preserve">'develop/templates/'</t>
   </si>
   <si>
     <t xml:space="preserve">localsName</t>
@@ -14237,12 +14237,12 @@
   </sheetPr>
   <dimension ref="A1:AA185"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E136" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E156" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A136" activeCellId="0" sqref="A136"/>
-      <selection pane="bottomRight" activeCell="H158" activeCellId="0" sqref="H158"/>
+      <selection pane="bottomLeft" activeCell="A156" activeCellId="0" sqref="A156"/>
+      <selection pane="bottomRight" activeCell="J176" activeCellId="0" sqref="J176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -31733,7 +31733,7 @@
   </sheetPr>
   <dimension ref="A1:AW60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="13" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
@@ -58,15 +58,15 @@
     <definedName function="false" hidden="false" localSheetId="4" name="MOD_0" vbProcedure="false">VERS_0_Docubase_Application!$A$1:$X$35</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="MOD_0_COM" vbProcedure="false">VERS_0_Docubase_Application!$A$5:$X$35</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="MOD_0_SUP" vbProcedure="false">VERS_0_Docubase_Application!$A$1:$X$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="AREA" vbProcedure="false">VERS_0_Docubase_Pages!$A$1:$X$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="LMN_0" vbProcedure="false">VERS_0_Docubase_Pages!$F$1:$M$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="LMN_0_SUBSET" vbProcedure="false">VERS_0_Docubase_Pages!$D$1:$D$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="LMN_0_SUPSET" vbProcedure="false">VERS_0_Docubase_Pages!$C$1:$C$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="AREA" vbProcedure="false">VERS_0_Docubase_Pages!$A$1:$X$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="LMN_0" vbProcedure="false">VERS_0_Docubase_Pages!$F$1:$M$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="LMN_0_SUBSET" vbProcedure="false">VERS_0_Docubase_Pages!$D$1:$D$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="LMN_0_SUPSET" vbProcedure="false">VERS_0_Docubase_Pages!$C$1:$C$45</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="LMN_1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="LMN_1_SUBSET" vbProcedure="false">VERS_0_Docubase_Pages!$D$1:$D$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="LMN_1_SUPSET" vbProcedure="false">VERS_0_Docubase_Pages!$C$1:$C$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="MOD_0" vbProcedure="false">VERS_0_Docubase_Pages!$A$1:$X$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="MOD_0_COM" vbProcedure="false">VERS_0_Docubase_Pages!$A$5:$X$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="LMN_1_SUBSET" vbProcedure="false">VERS_0_Docubase_Pages!$D$1:$D$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="LMN_1_SUPSET" vbProcedure="false">VERS_0_Docubase_Pages!$C$1:$C$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="MOD_0" vbProcedure="false">VERS_0_Docubase_Pages!$A$1:$X$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="MOD_0_COM" vbProcedure="false">VERS_0_Docubase_Pages!$A$5:$X$45</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="MOD_0_SUP" vbProcedure="false">VERS_0_Docubase_Pages!$A$1:$X$4</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="AREA" vbProcedure="false">VIEW_0_Docubase_Page_Templates!$A$1:$AV$55</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="LMN_0" vbProcedure="false">VIEW_0_Docubase_Page_Templates!$W$1:$AE$55</definedName>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3873" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3884" uniqueCount="539">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -982,25 +982,7 @@
     <t xml:space="preserve">'develop/templates/html/html5'</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">'</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">index'</t>
-    </r>
+    <t xml:space="preserve">'index'</t>
   </si>
   <si>
     <t xml:space="preserve">outputName</t>
@@ -1411,6 +1393,9 @@
     <t xml:space="preserve">Pages | Index - JSON</t>
   </si>
   <si>
+    <t xml:space="preserve">"app"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"meta"</t>
   </si>
   <si>
@@ -1705,7 +1690,7 @@
     <t xml:space="preserve">Docubase | Pages - Index</t>
   </si>
   <si>
-    <t xml:space="preserve">div</t>
+    <t xml:space="preserve">app</t>
   </si>
   <si>
     <t xml:space="preserve">"Hello All Dogs"</t>
@@ -1751,7 +1736,7 @@
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1888,12 +1873,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="FreeMono"/>
-      <family val="3"/>
     </font>
     <font>
       <b val="true"/>
@@ -2040,7 +2019,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFC530F"/>
-        <bgColor rgb="FFFA4808"/>
+        <bgColor rgb="FFF84807"/>
       </patternFill>
     </fill>
     <fill>
@@ -2117,7 +2096,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFEE1A3"/>
+        <fgColor rgb="FFFEE1A6"/>
         <bgColor rgb="FFFFD63B"/>
       </patternFill>
     </fill>
@@ -2201,7 +2180,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF85B739"/>
+        <fgColor rgb="FF85B839"/>
         <bgColor rgb="FF99CC61"/>
       </patternFill>
     </fill>
@@ -2255,7 +2234,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFEE1A3"/>
+        <fgColor rgb="FFFEE1A6"/>
         <bgColor rgb="FFF3E5F5"/>
       </patternFill>
     </fill>
@@ -2279,13 +2258,13 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF85B739"/>
+        <fgColor rgb="FF85B839"/>
         <bgColor rgb="FF99CC61"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFA4808"/>
+        <fgColor rgb="FFF84807"/>
         <bgColor rgb="FFFC530F"/>
       </patternFill>
     </fill>
@@ -2420,14 +2399,14 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF85B739"/>
+        <color rgb="FF85B839"/>
       </left>
       <right style="thin">
-        <color rgb="FF85B739"/>
+        <color rgb="FF85B839"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF85B739"/>
+        <color rgb="FF85B839"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2499,16 +2478,16 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FFFA4808"/>
+        <color rgb="FFF84807"/>
       </left>
       <right style="thin">
-        <color rgb="FFFA4808"/>
+        <color rgb="FFF84807"/>
       </right>
       <top style="thin">
-        <color rgb="FFFA4808"/>
+        <color rgb="FFF84807"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFA4808"/>
+        <color rgb="FFF84807"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2531,10 +2510,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFFA4808"/>
+        <color rgb="FFF84807"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFA4808"/>
+        <color rgb="FFF84807"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2569,16 +2548,16 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF85B739"/>
+        <color rgb="FF85B839"/>
       </left>
       <right style="thin">
-        <color rgb="FF85B739"/>
+        <color rgb="FF85B839"/>
       </right>
       <top style="thin">
-        <color rgb="FF85B739"/>
+        <color rgb="FF85B839"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF85B739"/>
+        <color rgb="FF85B839"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2591,16 +2570,16 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FFFEE1A3"/>
+        <color rgb="FFFEE1A6"/>
       </left>
       <right style="thin">
-        <color rgb="FFFEE1A3"/>
+        <color rgb="FFFEE1A6"/>
       </right>
       <top style="thin">
-        <color rgb="FFFEE1A3"/>
+        <color rgb="FFFEE1A6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFEE1A3"/>
+        <color rgb="FFFEE1A6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3413,7 +3392,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="34" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="34" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3577,22 +3556,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3609,22 +3588,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="22" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="23" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3773,7 +3752,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4357,7 +4336,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="56" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="56" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4461,7 +4440,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4621,7 +4600,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFA4808"/>
+      <rgbColor rgb="FFF84807"/>
       <rgbColor rgb="FF99CC61"/>
       <rgbColor rgb="FF014E52"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -4658,10 +4637,10 @@
       <rgbColor rgb="FF80DEEA"/>
       <rgbColor rgb="FFC5E1A5"/>
       <rgbColor rgb="FFCE93D8"/>
-      <rgbColor rgb="FFFEE1A3"/>
+      <rgbColor rgb="FFFEE1A6"/>
       <rgbColor rgb="FF1D639D"/>
       <rgbColor rgb="FF27C2EF"/>
-      <rgbColor rgb="FF85B739"/>
+      <rgbColor rgb="FF85B839"/>
       <rgbColor rgb="FFFFD63B"/>
       <rgbColor rgb="FFFFA000"/>
       <rgbColor rgb="FFFF6201"/>
@@ -21719,7 +21698,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
-      <selection pane="bottomRight" activeCell="H174" activeCellId="0" sqref="H174"/>
+      <selection pane="bottomRight" activeCell="I163" activeCellId="0" sqref="I163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -30765,14 +30744,14 @@
     <tabColor rgb="FF33691E"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK60"/>
+  <dimension ref="A1:AK63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="X27" activeCellId="0" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31052,10 +31031,10 @@
         <v>29</v>
       </c>
       <c r="O7" s="365" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="P7" s="365" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="366" t="s">
         <v>135</v>
@@ -31083,24 +31062,16 @@
       <c r="E8" s="360"/>
       <c r="F8" s="361"/>
       <c r="G8" s="362"/>
-      <c r="H8" s="362" t="s">
-        <v>429</v>
-      </c>
+      <c r="H8" s="362"/>
       <c r="I8" s="362"/>
       <c r="J8" s="362"/>
       <c r="K8" s="362"/>
       <c r="L8" s="362"/>
       <c r="M8" s="363"/>
       <c r="N8" s="364"/>
-      <c r="O8" s="365" t="s">
-        <v>130</v>
-      </c>
-      <c r="P8" s="365" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q8" s="366" t="s">
-        <v>135</v>
-      </c>
+      <c r="O8" s="365"/>
+      <c r="P8" s="365"/>
+      <c r="Q8" s="366"/>
       <c r="R8" s="367"/>
       <c r="S8" s="367"/>
       <c r="T8" s="364"/>
@@ -31125,22 +31096,14 @@
       <c r="F9" s="361"/>
       <c r="G9" s="362"/>
       <c r="H9" s="362"/>
-      <c r="I9" s="362" t="s">
-        <v>430</v>
-      </c>
+      <c r="I9" s="362"/>
       <c r="J9" s="362"/>
       <c r="K9" s="362"/>
       <c r="L9" s="362"/>
       <c r="M9" s="363"/>
-      <c r="N9" s="364" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="365" t="s">
-        <v>192</v>
-      </c>
-      <c r="P9" s="365" t="s">
-        <v>193</v>
-      </c>
+      <c r="N9" s="364"/>
+      <c r="O9" s="365"/>
+      <c r="P9" s="365"/>
       <c r="Q9" s="366"/>
       <c r="R9" s="367"/>
       <c r="S9" s="367"/>
@@ -31164,23 +31127,27 @@
       </c>
       <c r="E10" s="360"/>
       <c r="F10" s="361"/>
-      <c r="G10" s="362"/>
+      <c r="G10" s="362" t="s">
+        <v>429</v>
+      </c>
       <c r="H10" s="362"/>
       <c r="I10" s="362"/>
-      <c r="J10" s="362" t="s">
-        <v>431</v>
-      </c>
+      <c r="J10" s="362"/>
       <c r="K10" s="362"/>
       <c r="L10" s="362"/>
       <c r="M10" s="363"/>
-      <c r="N10" s="364"/>
+      <c r="N10" s="364" t="s">
+        <v>29</v>
+      </c>
       <c r="O10" s="365" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="P10" s="365" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q10" s="366"/>
+        <v>193</v>
+      </c>
+      <c r="Q10" s="366" t="s">
+        <v>135</v>
+      </c>
       <c r="R10" s="367"/>
       <c r="S10" s="367"/>
       <c r="T10" s="364"/>
@@ -31204,27 +31171,27 @@
       <c r="E11" s="360"/>
       <c r="F11" s="361"/>
       <c r="G11" s="362"/>
-      <c r="H11" s="362"/>
+      <c r="H11" s="362" t="s">
+        <v>430</v>
+      </c>
       <c r="I11" s="362"/>
       <c r="J11" s="362"/>
-      <c r="K11" s="362" t="s">
-        <v>432</v>
-      </c>
+      <c r="K11" s="362"/>
       <c r="L11" s="362"/>
       <c r="M11" s="363"/>
-      <c r="N11" s="364" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="365"/>
-      <c r="P11" s="365"/>
-      <c r="Q11" s="366"/>
+      <c r="N11" s="364"/>
+      <c r="O11" s="365" t="s">
+        <v>130</v>
+      </c>
+      <c r="P11" s="365" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q11" s="366" t="s">
+        <v>135</v>
+      </c>
       <c r="R11" s="367"/>
-      <c r="S11" s="367" t="s">
-        <v>433</v>
-      </c>
-      <c r="T11" s="364" t="s">
-        <v>135</v>
-      </c>
+      <c r="S11" s="367"/>
+      <c r="T11" s="364"/>
       <c r="U11" s="368"/>
       <c r="V11" s="369"/>
       <c r="W11" s="366"/>
@@ -31246,23 +31213,25 @@
       <c r="F12" s="361"/>
       <c r="G12" s="362"/>
       <c r="H12" s="362"/>
-      <c r="I12" s="362"/>
+      <c r="I12" s="362" t="s">
+        <v>431</v>
+      </c>
       <c r="J12" s="362"/>
-      <c r="K12" s="362" t="s">
-        <v>434</v>
-      </c>
+      <c r="K12" s="362"/>
       <c r="L12" s="362"/>
       <c r="M12" s="363"/>
       <c r="N12" s="364" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="365"/>
-      <c r="P12" s="365"/>
+      <c r="O12" s="365" t="s">
+        <v>192</v>
+      </c>
+      <c r="P12" s="365" t="s">
+        <v>193</v>
+      </c>
       <c r="Q12" s="366"/>
       <c r="R12" s="367"/>
-      <c r="S12" s="367" t="s">
-        <v>435</v>
-      </c>
+      <c r="S12" s="367"/>
       <c r="T12" s="364"/>
       <c r="U12" s="368"/>
       <c r="V12" s="369"/>
@@ -31284,11 +31253,11 @@
       <c r="E13" s="360"/>
       <c r="F13" s="361"/>
       <c r="G13" s="362"/>
-      <c r="H13" s="362" t="s">
-        <v>429</v>
-      </c>
+      <c r="H13" s="362"/>
       <c r="I13" s="362"/>
-      <c r="J13" s="362"/>
+      <c r="J13" s="362" t="s">
+        <v>432</v>
+      </c>
       <c r="K13" s="362"/>
       <c r="L13" s="362"/>
       <c r="M13" s="363"/>
@@ -31324,26 +31293,26 @@
       <c r="F14" s="361"/>
       <c r="G14" s="362"/>
       <c r="H14" s="362"/>
-      <c r="I14" s="362" t="s">
-        <v>430</v>
-      </c>
+      <c r="I14" s="362"/>
       <c r="J14" s="362"/>
-      <c r="K14" s="362"/>
+      <c r="K14" s="362" t="s">
+        <v>433</v>
+      </c>
       <c r="L14" s="362"/>
       <c r="M14" s="363"/>
       <c r="N14" s="364" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="365" t="s">
-        <v>192</v>
-      </c>
-      <c r="P14" s="365" t="s">
-        <v>193</v>
-      </c>
+      <c r="O14" s="365"/>
+      <c r="P14" s="365"/>
       <c r="Q14" s="366"/>
       <c r="R14" s="367"/>
-      <c r="S14" s="367"/>
-      <c r="T14" s="364"/>
+      <c r="S14" s="367" t="s">
+        <v>434</v>
+      </c>
+      <c r="T14" s="364" t="s">
+        <v>135</v>
+      </c>
       <c r="U14" s="368"/>
       <c r="V14" s="369"/>
       <c r="W14" s="366"/>
@@ -31366,24 +31335,22 @@
       <c r="G15" s="362"/>
       <c r="H15" s="362"/>
       <c r="I15" s="362"/>
-      <c r="J15" s="362" t="s">
-        <v>431</v>
-      </c>
-      <c r="K15" s="362"/>
+      <c r="J15" s="362"/>
+      <c r="K15" s="362" t="s">
+        <v>435</v>
+      </c>
       <c r="L15" s="362"/>
       <c r="M15" s="363"/>
-      <c r="N15" s="364"/>
-      <c r="O15" s="365" t="s">
-        <v>130</v>
-      </c>
-      <c r="P15" s="365" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q15" s="366" t="s">
-        <v>135</v>
-      </c>
+      <c r="N15" s="364" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="365"/>
+      <c r="P15" s="365"/>
+      <c r="Q15" s="366"/>
       <c r="R15" s="367"/>
-      <c r="S15" s="367"/>
+      <c r="S15" s="367" t="s">
+        <v>436</v>
+      </c>
       <c r="T15" s="364"/>
       <c r="U15" s="368"/>
       <c r="V15" s="369"/>
@@ -31405,27 +31372,25 @@
       <c r="E16" s="360"/>
       <c r="F16" s="361"/>
       <c r="G16" s="362"/>
-      <c r="H16" s="362"/>
+      <c r="H16" s="362" t="s">
+        <v>430</v>
+      </c>
       <c r="I16" s="362"/>
       <c r="J16" s="362"/>
-      <c r="K16" s="362" t="s">
-        <v>432</v>
-      </c>
+      <c r="K16" s="362"/>
       <c r="L16" s="362"/>
       <c r="M16" s="363"/>
-      <c r="N16" s="364" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" s="365"/>
-      <c r="P16" s="365"/>
+      <c r="N16" s="364"/>
+      <c r="O16" s="365" t="s">
+        <v>130</v>
+      </c>
+      <c r="P16" s="365" t="s">
+        <v>131</v>
+      </c>
       <c r="Q16" s="366"/>
       <c r="R16" s="367"/>
-      <c r="S16" s="367" t="s">
-        <v>133</v>
-      </c>
-      <c r="T16" s="364" t="s">
-        <v>135</v>
-      </c>
+      <c r="S16" s="367"/>
+      <c r="T16" s="364"/>
       <c r="U16" s="368"/>
       <c r="V16" s="369"/>
       <c r="W16" s="366"/>
@@ -31447,23 +31412,25 @@
       <c r="F17" s="361"/>
       <c r="G17" s="362"/>
       <c r="H17" s="362"/>
-      <c r="I17" s="362"/>
+      <c r="I17" s="362" t="s">
+        <v>431</v>
+      </c>
       <c r="J17" s="362"/>
-      <c r="K17" s="362" t="s">
-        <v>434</v>
-      </c>
+      <c r="K17" s="362"/>
       <c r="L17" s="362"/>
       <c r="M17" s="363"/>
       <c r="N17" s="364" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="365"/>
-      <c r="P17" s="365"/>
+      <c r="O17" s="365" t="s">
+        <v>192</v>
+      </c>
+      <c r="P17" s="365" t="s">
+        <v>193</v>
+      </c>
       <c r="Q17" s="366"/>
       <c r="R17" s="367"/>
-      <c r="S17" s="367" t="s">
-        <v>436</v>
-      </c>
+      <c r="S17" s="367"/>
       <c r="T17" s="364"/>
       <c r="U17" s="368"/>
       <c r="V17" s="369"/>
@@ -31488,7 +31455,7 @@
       <c r="H18" s="362"/>
       <c r="I18" s="362"/>
       <c r="J18" s="362" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K18" s="362"/>
       <c r="L18" s="362"/>
@@ -31500,7 +31467,9 @@
       <c r="P18" s="365" t="s">
         <v>131</v>
       </c>
-      <c r="Q18" s="366"/>
+      <c r="Q18" s="366" t="s">
+        <v>135</v>
+      </c>
       <c r="R18" s="367"/>
       <c r="S18" s="367"/>
       <c r="T18" s="364"/>
@@ -31528,7 +31497,7 @@
       <c r="I19" s="362"/>
       <c r="J19" s="362"/>
       <c r="K19" s="362" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L19" s="362"/>
       <c r="M19" s="363"/>
@@ -31540,7 +31509,7 @@
       <c r="Q19" s="366"/>
       <c r="R19" s="367"/>
       <c r="S19" s="367" t="s">
-        <v>437</v>
+        <v>133</v>
       </c>
       <c r="T19" s="364" t="s">
         <v>135</v>
@@ -31569,7 +31538,7 @@
       <c r="I20" s="362"/>
       <c r="J20" s="362"/>
       <c r="K20" s="362" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L20" s="362"/>
       <c r="M20" s="363"/>
@@ -31581,7 +31550,7 @@
       <c r="Q20" s="366"/>
       <c r="R20" s="367"/>
       <c r="S20" s="367" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="T20" s="364"/>
       <c r="U20" s="368"/>
@@ -31603,27 +31572,23 @@
       </c>
       <c r="E21" s="360"/>
       <c r="F21" s="361"/>
-      <c r="G21" s="362" t="s">
-        <v>439</v>
-      </c>
+      <c r="G21" s="362"/>
       <c r="H21" s="362"/>
       <c r="I21" s="362"/>
-      <c r="J21" s="362"/>
+      <c r="J21" s="362" t="s">
+        <v>432</v>
+      </c>
       <c r="K21" s="362"/>
       <c r="L21" s="362"/>
       <c r="M21" s="363"/>
-      <c r="N21" s="364" t="s">
-        <v>29</v>
-      </c>
+      <c r="N21" s="364"/>
       <c r="O21" s="365" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="P21" s="365" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q21" s="366" t="s">
-        <v>135</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="Q21" s="366"/>
       <c r="R21" s="367"/>
       <c r="S21" s="367"/>
       <c r="T21" s="364"/>
@@ -31647,25 +31612,27 @@
       <c r="E22" s="360"/>
       <c r="F22" s="361"/>
       <c r="G22" s="362"/>
-      <c r="H22" s="362" t="s">
-        <v>440</v>
-      </c>
+      <c r="H22" s="362"/>
       <c r="I22" s="362"/>
       <c r="J22" s="362"/>
-      <c r="K22" s="362"/>
+      <c r="K22" s="362" t="s">
+        <v>433</v>
+      </c>
       <c r="L22" s="362"/>
       <c r="M22" s="363"/>
-      <c r="N22" s="364"/>
-      <c r="O22" s="365" t="s">
-        <v>130</v>
-      </c>
-      <c r="P22" s="365" t="s">
-        <v>131</v>
-      </c>
+      <c r="N22" s="364" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="365"/>
+      <c r="P22" s="365"/>
       <c r="Q22" s="366"/>
       <c r="R22" s="367"/>
-      <c r="S22" s="367"/>
-      <c r="T22" s="364"/>
+      <c r="S22" s="367" t="s">
+        <v>438</v>
+      </c>
+      <c r="T22" s="364" t="s">
+        <v>135</v>
+      </c>
       <c r="U22" s="368"/>
       <c r="V22" s="369"/>
       <c r="W22" s="366"/>
@@ -31687,25 +31654,23 @@
       <c r="F23" s="361"/>
       <c r="G23" s="362"/>
       <c r="H23" s="362"/>
-      <c r="I23" s="362" t="s">
-        <v>430</v>
-      </c>
+      <c r="I23" s="362"/>
       <c r="J23" s="362"/>
-      <c r="K23" s="362"/>
+      <c r="K23" s="362" t="s">
+        <v>435</v>
+      </c>
       <c r="L23" s="362"/>
       <c r="M23" s="363"/>
       <c r="N23" s="364" t="s">
         <v>29</v>
       </c>
-      <c r="O23" s="365" t="s">
-        <v>192</v>
-      </c>
-      <c r="P23" s="365" t="s">
-        <v>193</v>
-      </c>
+      <c r="O23" s="365"/>
+      <c r="P23" s="365"/>
       <c r="Q23" s="366"/>
       <c r="R23" s="367"/>
-      <c r="S23" s="367"/>
+      <c r="S23" s="367" t="s">
+        <v>439</v>
+      </c>
       <c r="T23" s="364"/>
       <c r="U23" s="368"/>
       <c r="V23" s="369"/>
@@ -31726,21 +31691,23 @@
       </c>
       <c r="E24" s="360"/>
       <c r="F24" s="361"/>
-      <c r="G24" s="362"/>
+      <c r="G24" s="362" t="s">
+        <v>440</v>
+      </c>
       <c r="H24" s="362"/>
       <c r="I24" s="362"/>
-      <c r="J24" s="362" t="s">
-        <v>441</v>
-      </c>
+      <c r="J24" s="362"/>
       <c r="K24" s="362"/>
       <c r="L24" s="362"/>
       <c r="M24" s="363"/>
-      <c r="N24" s="364"/>
+      <c r="N24" s="364" t="s">
+        <v>29</v>
+      </c>
       <c r="O24" s="365" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="P24" s="365" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="Q24" s="366" t="s">
         <v>135</v>
@@ -31768,27 +31735,25 @@
       <c r="E25" s="360"/>
       <c r="F25" s="361"/>
       <c r="G25" s="362"/>
-      <c r="H25" s="362"/>
+      <c r="H25" s="362" t="s">
+        <v>441</v>
+      </c>
       <c r="I25" s="362"/>
       <c r="J25" s="362"/>
-      <c r="K25" s="362" t="s">
-        <v>432</v>
-      </c>
+      <c r="K25" s="362"/>
       <c r="L25" s="362"/>
       <c r="M25" s="363"/>
-      <c r="N25" s="364" t="s">
-        <v>29</v>
-      </c>
-      <c r="O25" s="365"/>
-      <c r="P25" s="365"/>
+      <c r="N25" s="364"/>
+      <c r="O25" s="365" t="s">
+        <v>130</v>
+      </c>
+      <c r="P25" s="365" t="s">
+        <v>131</v>
+      </c>
       <c r="Q25" s="366"/>
       <c r="R25" s="367"/>
-      <c r="S25" s="367" t="s">
-        <v>442</v>
-      </c>
-      <c r="T25" s="364" t="s">
-        <v>135</v>
-      </c>
+      <c r="S25" s="367"/>
+      <c r="T25" s="364"/>
       <c r="U25" s="368"/>
       <c r="V25" s="369"/>
       <c r="W25" s="366"/>
@@ -31810,23 +31775,25 @@
       <c r="F26" s="361"/>
       <c r="G26" s="362"/>
       <c r="H26" s="362"/>
-      <c r="I26" s="362"/>
+      <c r="I26" s="362" t="s">
+        <v>431</v>
+      </c>
       <c r="J26" s="362"/>
-      <c r="K26" s="362" t="s">
-        <v>434</v>
-      </c>
+      <c r="K26" s="362"/>
       <c r="L26" s="362"/>
       <c r="M26" s="363"/>
       <c r="N26" s="364" t="s">
         <v>29</v>
       </c>
-      <c r="O26" s="365"/>
-      <c r="P26" s="365"/>
+      <c r="O26" s="365" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" s="365" t="s">
+        <v>193</v>
+      </c>
       <c r="Q26" s="366"/>
       <c r="R26" s="367"/>
-      <c r="S26" s="367" t="s">
-        <v>443</v>
-      </c>
+      <c r="S26" s="367"/>
       <c r="T26" s="364"/>
       <c r="U26" s="368"/>
       <c r="V26" s="369"/>
@@ -31851,7 +31818,7 @@
       <c r="H27" s="362"/>
       <c r="I27" s="362"/>
       <c r="J27" s="362" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K27" s="362"/>
       <c r="L27" s="362"/>
@@ -31863,7 +31830,9 @@
       <c r="P27" s="365" t="s">
         <v>131</v>
       </c>
-      <c r="Q27" s="366"/>
+      <c r="Q27" s="366" t="s">
+        <v>135</v>
+      </c>
       <c r="R27" s="367"/>
       <c r="S27" s="367"/>
       <c r="T27" s="364"/>
@@ -31891,7 +31860,7 @@
       <c r="I28" s="362"/>
       <c r="J28" s="362"/>
       <c r="K28" s="362" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L28" s="362"/>
       <c r="M28" s="363"/>
@@ -31903,7 +31872,7 @@
       <c r="Q28" s="366"/>
       <c r="R28" s="367"/>
       <c r="S28" s="367" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T28" s="364" t="s">
         <v>135</v>
@@ -31932,7 +31901,7 @@
       <c r="I29" s="362"/>
       <c r="J29" s="362"/>
       <c r="K29" s="362" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L29" s="362"/>
       <c r="M29" s="363"/>
@@ -31944,7 +31913,7 @@
       <c r="Q29" s="366"/>
       <c r="R29" s="367"/>
       <c r="S29" s="367" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="T29" s="364"/>
       <c r="U29" s="368"/>
@@ -31966,23 +31935,21 @@
       </c>
       <c r="E30" s="360"/>
       <c r="F30" s="361"/>
-      <c r="G30" s="362" t="s">
-        <v>446</v>
-      </c>
+      <c r="G30" s="362"/>
       <c r="H30" s="362"/>
       <c r="I30" s="362"/>
-      <c r="J30" s="362"/>
+      <c r="J30" s="362" t="s">
+        <v>442</v>
+      </c>
       <c r="K30" s="362"/>
       <c r="L30" s="362"/>
       <c r="M30" s="363"/>
-      <c r="N30" s="364" t="s">
-        <v>29</v>
-      </c>
+      <c r="N30" s="364"/>
       <c r="O30" s="365" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="P30" s="365" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="Q30" s="366"/>
       <c r="R30" s="367"/>
@@ -32008,25 +31975,27 @@
       <c r="E31" s="360"/>
       <c r="F31" s="361"/>
       <c r="G31" s="362"/>
-      <c r="H31" s="362" t="s">
-        <v>447</v>
-      </c>
+      <c r="H31" s="362"/>
       <c r="I31" s="362"/>
       <c r="J31" s="362"/>
-      <c r="K31" s="362"/>
+      <c r="K31" s="362" t="s">
+        <v>433</v>
+      </c>
       <c r="L31" s="362"/>
       <c r="M31" s="363"/>
-      <c r="N31" s="364"/>
-      <c r="O31" s="365" t="s">
-        <v>130</v>
-      </c>
-      <c r="P31" s="365" t="s">
-        <v>131</v>
-      </c>
+      <c r="N31" s="364" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="365"/>
+      <c r="P31" s="365"/>
       <c r="Q31" s="366"/>
       <c r="R31" s="367"/>
-      <c r="S31" s="367"/>
-      <c r="T31" s="364"/>
+      <c r="S31" s="367" t="s">
+        <v>445</v>
+      </c>
+      <c r="T31" s="364" t="s">
+        <v>135</v>
+      </c>
       <c r="U31" s="368"/>
       <c r="V31" s="369"/>
       <c r="W31" s="366"/>
@@ -32048,25 +32017,23 @@
       <c r="F32" s="361"/>
       <c r="G32" s="362"/>
       <c r="H32" s="362"/>
-      <c r="I32" s="362" t="s">
-        <v>430</v>
-      </c>
+      <c r="I32" s="362"/>
       <c r="J32" s="362"/>
-      <c r="K32" s="362"/>
+      <c r="K32" s="362" t="s">
+        <v>435</v>
+      </c>
       <c r="L32" s="362"/>
       <c r="M32" s="363"/>
       <c r="N32" s="364" t="s">
         <v>29</v>
       </c>
-      <c r="O32" s="365" t="s">
-        <v>192</v>
-      </c>
-      <c r="P32" s="365" t="s">
-        <v>193</v>
-      </c>
+      <c r="O32" s="365"/>
+      <c r="P32" s="365"/>
       <c r="Q32" s="366"/>
       <c r="R32" s="367"/>
-      <c r="S32" s="367"/>
+      <c r="S32" s="367" t="s">
+        <v>446</v>
+      </c>
       <c r="T32" s="364"/>
       <c r="U32" s="368"/>
       <c r="V32" s="369"/>
@@ -32087,25 +32054,25 @@
       </c>
       <c r="E33" s="360"/>
       <c r="F33" s="361"/>
-      <c r="G33" s="362"/>
+      <c r="G33" s="362" t="s">
+        <v>447</v>
+      </c>
       <c r="H33" s="362"/>
       <c r="I33" s="362"/>
-      <c r="J33" s="362" t="s">
-        <v>448</v>
-      </c>
+      <c r="J33" s="362"/>
       <c r="K33" s="362"/>
       <c r="L33" s="362"/>
       <c r="M33" s="363"/>
-      <c r="N33" s="364"/>
+      <c r="N33" s="364" t="s">
+        <v>29</v>
+      </c>
       <c r="O33" s="365" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="P33" s="365" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q33" s="366" t="s">
-        <v>135</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Q33" s="366"/>
       <c r="R33" s="367"/>
       <c r="S33" s="367"/>
       <c r="T33" s="364"/>
@@ -32129,27 +32096,25 @@
       <c r="E34" s="360"/>
       <c r="F34" s="361"/>
       <c r="G34" s="362"/>
-      <c r="H34" s="362"/>
+      <c r="H34" s="362" t="s">
+        <v>448</v>
+      </c>
       <c r="I34" s="362"/>
       <c r="J34" s="362"/>
-      <c r="K34" s="362" t="s">
-        <v>432</v>
-      </c>
+      <c r="K34" s="362"/>
       <c r="L34" s="362"/>
       <c r="M34" s="363"/>
-      <c r="N34" s="364" t="s">
-        <v>29</v>
-      </c>
-      <c r="O34" s="365"/>
-      <c r="P34" s="365"/>
+      <c r="N34" s="364"/>
+      <c r="O34" s="365" t="s">
+        <v>130</v>
+      </c>
+      <c r="P34" s="365" t="s">
+        <v>131</v>
+      </c>
       <c r="Q34" s="366"/>
       <c r="R34" s="367"/>
-      <c r="S34" s="367" t="s">
-        <v>142</v>
-      </c>
-      <c r="T34" s="364" t="s">
-        <v>135</v>
-      </c>
+      <c r="S34" s="367"/>
+      <c r="T34" s="364"/>
       <c r="U34" s="368"/>
       <c r="V34" s="369"/>
       <c r="W34" s="366"/>
@@ -32171,23 +32136,25 @@
       <c r="F35" s="361"/>
       <c r="G35" s="362"/>
       <c r="H35" s="362"/>
-      <c r="I35" s="362"/>
+      <c r="I35" s="362" t="s">
+        <v>431</v>
+      </c>
       <c r="J35" s="362"/>
-      <c r="K35" s="362" t="s">
-        <v>434</v>
-      </c>
+      <c r="K35" s="362"/>
       <c r="L35" s="362"/>
       <c r="M35" s="363"/>
       <c r="N35" s="364" t="s">
         <v>29</v>
       </c>
-      <c r="O35" s="365"/>
-      <c r="P35" s="365"/>
+      <c r="O35" s="365" t="s">
+        <v>192</v>
+      </c>
+      <c r="P35" s="365" t="s">
+        <v>193</v>
+      </c>
       <c r="Q35" s="366"/>
       <c r="R35" s="367"/>
-      <c r="S35" s="367" t="s">
-        <v>143</v>
-      </c>
+      <c r="S35" s="367"/>
       <c r="T35" s="364"/>
       <c r="U35" s="368"/>
       <c r="V35" s="369"/>
@@ -32212,7 +32179,7 @@
       <c r="H36" s="362"/>
       <c r="I36" s="362"/>
       <c r="J36" s="362" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K36" s="362"/>
       <c r="L36" s="362"/>
@@ -32224,7 +32191,9 @@
       <c r="P36" s="365" t="s">
         <v>131</v>
       </c>
-      <c r="Q36" s="366"/>
+      <c r="Q36" s="366" t="s">
+        <v>135</v>
+      </c>
       <c r="R36" s="367"/>
       <c r="S36" s="367"/>
       <c r="T36" s="364"/>
@@ -32252,7 +32221,7 @@
       <c r="I37" s="362"/>
       <c r="J37" s="362"/>
       <c r="K37" s="362" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L37" s="362"/>
       <c r="M37" s="363"/>
@@ -32264,7 +32233,7 @@
       <c r="Q37" s="366"/>
       <c r="R37" s="367"/>
       <c r="S37" s="367" t="s">
-        <v>449</v>
+        <v>142</v>
       </c>
       <c r="T37" s="364" t="s">
         <v>135</v>
@@ -32293,7 +32262,7 @@
       <c r="I38" s="362"/>
       <c r="J38" s="362"/>
       <c r="K38" s="362" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L38" s="362"/>
       <c r="M38" s="363"/>
@@ -32305,7 +32274,7 @@
       <c r="Q38" s="366"/>
       <c r="R38" s="367"/>
       <c r="S38" s="367" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="T38" s="364"/>
       <c r="U38" s="368"/>
@@ -32317,73 +32286,80 @@
       <c r="AK38" s="290"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="73" t="n">
-        <f aca="false">VINE!$A$40</f>
-        <v>36</v>
-      </c>
-      <c r="B39" s="74" t="s">
-        <v>450</v>
-      </c>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="370"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="75"/>
-      <c r="T39" s="75"/>
-      <c r="U39" s="75"/>
-      <c r="V39" s="75"/>
-      <c r="W39" s="75"/>
+      <c r="A39" s="357"/>
+      <c r="B39" s="357"/>
+      <c r="C39" s="358" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="359" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="360"/>
+      <c r="F39" s="361"/>
+      <c r="G39" s="362"/>
+      <c r="H39" s="362"/>
+      <c r="I39" s="362"/>
+      <c r="J39" s="362" t="s">
+        <v>449</v>
+      </c>
+      <c r="K39" s="362"/>
+      <c r="L39" s="362"/>
+      <c r="M39" s="363"/>
+      <c r="N39" s="364"/>
+      <c r="O39" s="365" t="s">
+        <v>130</v>
+      </c>
+      <c r="P39" s="365" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q39" s="366"/>
+      <c r="R39" s="367"/>
+      <c r="S39" s="367"/>
+      <c r="T39" s="364"/>
+      <c r="U39" s="368"/>
+      <c r="V39" s="369"/>
+      <c r="W39" s="366"/>
       <c r="X39" s="68"/>
       <c r="Y39" s="293"/>
       <c r="AJ39" s="290"/>
       <c r="AK39" s="290"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="302"/>
-      <c r="B40" s="302"/>
-      <c r="C40" s="303" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="304" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="356"/>
-      <c r="F40" s="306" t="s">
-        <v>425</v>
-      </c>
-      <c r="G40" s="305"/>
-      <c r="H40" s="305"/>
-      <c r="I40" s="305"/>
-      <c r="J40" s="305"/>
-      <c r="K40" s="305"/>
-      <c r="L40" s="305"/>
-      <c r="M40" s="307"/>
-      <c r="N40" s="308"/>
-      <c r="O40" s="309" t="s">
-        <v>225</v>
-      </c>
-      <c r="P40" s="309" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q40" s="310"/>
-      <c r="R40" s="311"/>
-      <c r="S40" s="311"/>
-      <c r="T40" s="308"/>
-      <c r="U40" s="312"/>
-      <c r="V40" s="313"/>
-      <c r="W40" s="310"/>
+      <c r="A40" s="357"/>
+      <c r="B40" s="357"/>
+      <c r="C40" s="358" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="359" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="360"/>
+      <c r="F40" s="361"/>
+      <c r="G40" s="362"/>
+      <c r="H40" s="362"/>
+      <c r="I40" s="362"/>
+      <c r="J40" s="362"/>
+      <c r="K40" s="362" t="s">
+        <v>433</v>
+      </c>
+      <c r="L40" s="362"/>
+      <c r="M40" s="363"/>
+      <c r="N40" s="364" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" s="365"/>
+      <c r="P40" s="365"/>
+      <c r="Q40" s="366"/>
+      <c r="R40" s="367"/>
+      <c r="S40" s="367" t="s">
+        <v>450</v>
+      </c>
+      <c r="T40" s="364" t="s">
+        <v>135</v>
+      </c>
+      <c r="U40" s="368"/>
+      <c r="V40" s="369"/>
+      <c r="W40" s="366"/>
       <c r="X40" s="68"/>
       <c r="Y40" s="293"/>
       <c r="AJ40" s="290"/>
@@ -32400,21 +32376,25 @@
       </c>
       <c r="E41" s="360"/>
       <c r="F41" s="361"/>
-      <c r="G41" s="362" t="s">
-        <v>451</v>
-      </c>
+      <c r="G41" s="362"/>
       <c r="H41" s="362"/>
       <c r="I41" s="362"/>
       <c r="J41" s="362"/>
-      <c r="K41" s="362"/>
+      <c r="K41" s="362" t="s">
+        <v>435</v>
+      </c>
       <c r="L41" s="362"/>
       <c r="M41" s="363"/>
-      <c r="N41" s="364"/>
+      <c r="N41" s="364" t="s">
+        <v>29</v>
+      </c>
       <c r="O41" s="365"/>
       <c r="P41" s="365"/>
       <c r="Q41" s="366"/>
       <c r="R41" s="367"/>
-      <c r="S41" s="367"/>
+      <c r="S41" s="367" t="s">
+        <v>141</v>
+      </c>
       <c r="T41" s="364"/>
       <c r="U41" s="368"/>
       <c r="V41" s="369"/>
@@ -32424,97 +32404,187 @@
       <c r="AJ41" s="290"/>
       <c r="AK41" s="290"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="68"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="68"/>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
-      <c r="T42" s="68"/>
-      <c r="U42" s="68"/>
-      <c r="V42" s="68"/>
-      <c r="W42" s="68"/>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="73" t="n">
+        <f aca="false">VINE!$A$40</f>
+        <v>36</v>
+      </c>
+      <c r="B42" s="74" t="s">
+        <v>451</v>
+      </c>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="370"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="75"/>
+      <c r="R42" s="75"/>
+      <c r="S42" s="75"/>
+      <c r="T42" s="75"/>
+      <c r="U42" s="75"/>
+      <c r="V42" s="75"/>
+      <c r="W42" s="75"/>
       <c r="X42" s="68"/>
       <c r="Y42" s="293"/>
-      <c r="AE42" s="290"/>
-      <c r="AF42" s="290"/>
       <c r="AJ42" s="290"/>
       <c r="AK42" s="290"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="293"/>
-      <c r="B43" s="293"/>
-      <c r="C43" s="352"/>
-      <c r="D43" s="352"/>
-      <c r="E43" s="352"/>
-      <c r="F43" s="353" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="353" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" s="353" t="n">
-        <v>3</v>
-      </c>
-      <c r="J43" s="353" t="n">
-        <v>4</v>
-      </c>
-      <c r="K43" s="353" t="n">
-        <v>5</v>
-      </c>
-      <c r="L43" s="353" t="n">
-        <v>6</v>
-      </c>
-      <c r="M43" s="353" t="n">
-        <v>7</v>
-      </c>
-      <c r="N43" s="354"/>
-      <c r="O43" s="355"/>
-      <c r="P43" s="355"/>
-      <c r="Q43" s="354"/>
-      <c r="R43" s="352"/>
-      <c r="S43" s="293"/>
-      <c r="T43" s="355"/>
-      <c r="U43" s="355"/>
-      <c r="V43" s="355"/>
-      <c r="W43" s="355"/>
-      <c r="X43" s="293"/>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="302"/>
+      <c r="B43" s="302"/>
+      <c r="C43" s="303" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="304" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="356"/>
+      <c r="F43" s="306" t="s">
+        <v>425</v>
+      </c>
+      <c r="G43" s="305"/>
+      <c r="H43" s="305"/>
+      <c r="I43" s="305"/>
+      <c r="J43" s="305"/>
+      <c r="K43" s="305"/>
+      <c r="L43" s="305"/>
+      <c r="M43" s="307"/>
+      <c r="N43" s="308"/>
+      <c r="O43" s="309" t="s">
+        <v>225</v>
+      </c>
+      <c r="P43" s="309" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q43" s="310"/>
+      <c r="R43" s="311"/>
+      <c r="S43" s="311"/>
+      <c r="T43" s="308"/>
+      <c r="U43" s="312"/>
+      <c r="V43" s="313"/>
+      <c r="W43" s="310"/>
+      <c r="X43" s="68"/>
       <c r="Y43" s="293"/>
-      <c r="AE43" s="290"/>
-      <c r="AF43" s="290"/>
       <c r="AJ43" s="290"/>
       <c r="AK43" s="290"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE44" s="290"/>
-      <c r="AF44" s="290"/>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="357"/>
+      <c r="B44" s="357"/>
+      <c r="C44" s="358" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="359" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="360"/>
+      <c r="F44" s="361"/>
+      <c r="G44" s="362" t="s">
+        <v>452</v>
+      </c>
+      <c r="H44" s="362"/>
+      <c r="I44" s="362"/>
+      <c r="J44" s="362"/>
+      <c r="K44" s="362"/>
+      <c r="L44" s="362"/>
+      <c r="M44" s="363"/>
+      <c r="N44" s="364"/>
+      <c r="O44" s="365"/>
+      <c r="P44" s="365"/>
+      <c r="Q44" s="366"/>
+      <c r="R44" s="367"/>
+      <c r="S44" s="367"/>
+      <c r="T44" s="364"/>
+      <c r="U44" s="368"/>
+      <c r="V44" s="369"/>
+      <c r="W44" s="366"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="293"/>
       <c r="AJ44" s="290"/>
       <c r="AK44" s="290"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="68"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="68"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="293"/>
       <c r="AE45" s="290"/>
       <c r="AF45" s="290"/>
       <c r="AJ45" s="290"/>
       <c r="AK45" s="290"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="293"/>
+      <c r="B46" s="293"/>
+      <c r="C46" s="352"/>
+      <c r="D46" s="352"/>
+      <c r="E46" s="352"/>
+      <c r="F46" s="353" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="353" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="353" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" s="353" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" s="353" t="n">
+        <v>4</v>
+      </c>
+      <c r="K46" s="353" t="n">
+        <v>5</v>
+      </c>
+      <c r="L46" s="353" t="n">
+        <v>6</v>
+      </c>
+      <c r="M46" s="353" t="n">
+        <v>7</v>
+      </c>
+      <c r="N46" s="354"/>
+      <c r="O46" s="355"/>
+      <c r="P46" s="355"/>
+      <c r="Q46" s="354"/>
+      <c r="R46" s="352"/>
+      <c r="S46" s="293"/>
+      <c r="T46" s="355"/>
+      <c r="U46" s="355"/>
+      <c r="V46" s="355"/>
+      <c r="W46" s="355"/>
+      <c r="X46" s="293"/>
+      <c r="Y46" s="293"/>
       <c r="AE46" s="290"/>
       <c r="AF46" s="290"/>
       <c r="AJ46" s="290"/>
@@ -32603,6 +32673,24 @@
       <c r="AF60" s="290"/>
       <c r="AJ60" s="290"/>
       <c r="AK60" s="290"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE61" s="290"/>
+      <c r="AF61" s="290"/>
+      <c r="AJ61" s="290"/>
+      <c r="AK61" s="290"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE62" s="290"/>
+      <c r="AF62" s="290"/>
+      <c r="AJ62" s="290"/>
+      <c r="AK62" s="290"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE63" s="290"/>
+      <c r="AF63" s="290"/>
+      <c r="AJ63" s="290"/>
+      <c r="AK63" s="290"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -32696,7 +32784,7 @@
       </c>
       <c r="D1" s="372"/>
       <c r="E1" s="373" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F1" s="373"/>
       <c r="G1" s="373"/>
@@ -32707,7 +32795,7 @@
       <c r="L1" s="373"/>
       <c r="M1" s="373"/>
       <c r="N1" s="373" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O1" s="373"/>
       <c r="P1" s="373"/>
@@ -32716,7 +32804,7 @@
       <c r="S1" s="373"/>
       <c r="T1" s="373"/>
       <c r="U1" s="374" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="V1" s="375" t="s">
         <v>111</v>
@@ -32743,7 +32831,7 @@
       <c r="AN1" s="276"/>
       <c r="AO1" s="276"/>
       <c r="AP1" s="376" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AQ1" s="376"/>
       <c r="AR1" s="376"/>
@@ -32767,7 +32855,7 @@
         <v>116</v>
       </c>
       <c r="E2" s="380" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F2" s="380"/>
       <c r="G2" s="380"/>
@@ -32778,20 +32866,20 @@
       <c r="L2" s="380"/>
       <c r="M2" s="380"/>
       <c r="N2" s="380" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O2" s="380"/>
       <c r="P2" s="373" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q2" s="373"/>
       <c r="R2" s="373"/>
       <c r="S2" s="380" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="T2" s="380"/>
       <c r="U2" s="376" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="V2" s="375" t="s">
         <v>117</v>
@@ -32849,7 +32937,7 @@
       <c r="L3" s="373"/>
       <c r="M3" s="373"/>
       <c r="N3" s="382" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O3" s="382"/>
       <c r="P3" s="373" t="s">
@@ -32859,10 +32947,10 @@
         <v>121</v>
       </c>
       <c r="R3" s="373" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="S3" s="382" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T3" s="382"/>
       <c r="U3" s="374" t="s">
@@ -33002,7 +33090,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="389" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C5" s="390"/>
       <c r="D5" s="390"/>
@@ -33059,7 +33147,7 @@
         <v>127</v>
       </c>
       <c r="D6" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E6" s="400"/>
       <c r="F6" s="400"/>
@@ -33080,7 +33168,7 @@
       <c r="U6" s="405"/>
       <c r="V6" s="406"/>
       <c r="W6" s="407" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="X6" s="407"/>
       <c r="Y6" s="407"/>
@@ -33092,10 +33180,10 @@
       <c r="AE6" s="407"/>
       <c r="AF6" s="408"/>
       <c r="AG6" s="409" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AH6" s="410" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI6" s="411"/>
       <c r="AJ6" s="412"/>
@@ -33120,7 +33208,7 @@
         <v>127</v>
       </c>
       <c r="D7" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E7" s="400"/>
       <c r="F7" s="400"/>
@@ -33161,7 +33249,7 @@
       <c r="AI7" s="411"/>
       <c r="AJ7" s="412"/>
       <c r="AK7" s="210" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL7" s="413"/>
       <c r="AM7" s="414"/>
@@ -33183,7 +33271,7 @@
         <v>127</v>
       </c>
       <c r="D8" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E8" s="400"/>
       <c r="F8" s="400"/>
@@ -33224,7 +33312,7 @@
       <c r="AI8" s="411"/>
       <c r="AJ8" s="412"/>
       <c r="AK8" s="210" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL8" s="413"/>
       <c r="AM8" s="414"/>
@@ -33246,10 +33334,10 @@
         <v>127</v>
       </c>
       <c r="D9" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E9" s="419" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F9" s="419"/>
       <c r="G9" s="419"/>
@@ -33260,10 +33348,10 @@
       <c r="L9" s="419"/>
       <c r="M9" s="419"/>
       <c r="N9" s="401" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O9" s="402" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P9" s="420"/>
       <c r="Q9" s="421"/>
@@ -33309,7 +33397,7 @@
         <v>127</v>
       </c>
       <c r="D10" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E10" s="422" t="s">
         <v>105</v>
@@ -33323,25 +33411,25 @@
       <c r="L10" s="422"/>
       <c r="M10" s="422"/>
       <c r="N10" s="401" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O10" s="402" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P10" s="420" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q10" s="421" t="s">
         <v>190</v>
       </c>
       <c r="R10" s="420" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="S10" s="401" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T10" s="402" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="U10" s="405"/>
       <c r="V10" s="406"/>
@@ -33380,11 +33468,11 @@
         <v>127</v>
       </c>
       <c r="D11" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E11" s="400"/>
       <c r="F11" s="422" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G11" s="422"/>
       <c r="H11" s="422"/>
@@ -33394,19 +33482,19 @@
       <c r="L11" s="422"/>
       <c r="M11" s="422"/>
       <c r="N11" s="401" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O11" s="402" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P11" s="403"/>
       <c r="Q11" s="404"/>
       <c r="R11" s="403"/>
       <c r="S11" s="401" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T11" s="402" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="U11" s="405"/>
       <c r="V11" s="406"/>
@@ -33445,12 +33533,12 @@
         <v>127</v>
       </c>
       <c r="D12" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E12" s="400"/>
       <c r="F12" s="400"/>
       <c r="G12" s="422" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H12" s="422"/>
       <c r="I12" s="422"/>
@@ -33459,19 +33547,19 @@
       <c r="L12" s="422"/>
       <c r="M12" s="422"/>
       <c r="N12" s="401" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O12" s="402" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P12" s="403"/>
       <c r="Q12" s="404"/>
       <c r="R12" s="403"/>
       <c r="S12" s="401" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T12" s="402" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="U12" s="405"/>
       <c r="V12" s="406"/>
@@ -33510,13 +33598,13 @@
         <v>127</v>
       </c>
       <c r="D13" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E13" s="400"/>
       <c r="F13" s="400"/>
       <c r="G13" s="423"/>
       <c r="H13" s="423" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I13" s="423"/>
       <c r="J13" s="423"/>
@@ -33531,7 +33619,7 @@
       <c r="S13" s="401"/>
       <c r="T13" s="402"/>
       <c r="U13" s="424" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="V13" s="406"/>
       <c r="W13" s="418"/>
@@ -33569,7 +33657,7 @@
         <v>127</v>
       </c>
       <c r="D14" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E14" s="400"/>
       <c r="F14" s="400"/>
@@ -33592,7 +33680,7 @@
       <c r="W14" s="418"/>
       <c r="X14" s="418"/>
       <c r="Y14" s="407" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z14" s="407"/>
       <c r="AA14" s="407"/>
@@ -33602,10 +33690,10 @@
       <c r="AE14" s="407"/>
       <c r="AF14" s="408"/>
       <c r="AG14" s="409" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AH14" s="410" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI14" s="411"/>
       <c r="AJ14" s="412"/>
@@ -33630,7 +33718,7 @@
         <v>127</v>
       </c>
       <c r="D15" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E15" s="400"/>
       <c r="F15" s="400"/>
@@ -33656,7 +33744,7 @@
       <c r="X15" s="418"/>
       <c r="Y15" s="418"/>
       <c r="Z15" s="407" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AA15" s="407"/>
       <c r="AB15" s="407"/>
@@ -33693,7 +33781,7 @@
         <v>127</v>
       </c>
       <c r="D16" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E16" s="400"/>
       <c r="F16" s="400"/>
@@ -33718,7 +33806,7 @@
       <c r="Y16" s="418"/>
       <c r="Z16" s="418"/>
       <c r="AA16" s="407" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AB16" s="407"/>
       <c r="AC16" s="407"/>
@@ -33750,7 +33838,7 @@
         <v>127</v>
       </c>
       <c r="D17" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E17" s="400"/>
       <c r="F17" s="400"/>
@@ -33774,7 +33862,7 @@
       <c r="X17" s="418"/>
       <c r="Y17" s="418"/>
       <c r="Z17" s="407" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AA17" s="407"/>
       <c r="AB17" s="407"/>
@@ -33811,7 +33899,7 @@
         <v>127</v>
       </c>
       <c r="D18" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E18" s="400"/>
       <c r="F18" s="400"/>
@@ -33838,7 +33926,7 @@
       <c r="Y18" s="418"/>
       <c r="Z18" s="418"/>
       <c r="AA18" s="407" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AB18" s="407"/>
       <c r="AC18" s="407"/>
@@ -33874,7 +33962,7 @@
         <v>127</v>
       </c>
       <c r="D19" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E19" s="400"/>
       <c r="F19" s="400"/>
@@ -33902,7 +33990,7 @@
       <c r="Z19" s="418"/>
       <c r="AA19" s="418"/>
       <c r="AB19" s="407" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AC19" s="407"/>
       <c r="AD19" s="407"/>
@@ -33915,7 +34003,7 @@
         <v>234</v>
       </c>
       <c r="AK19" s="210" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AL19" s="413"/>
       <c r="AM19" s="414"/>
@@ -33937,7 +34025,7 @@
         <v>127</v>
       </c>
       <c r="D20" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E20" s="400"/>
       <c r="F20" s="400"/>
@@ -33962,7 +34050,7 @@
       <c r="Y20" s="418"/>
       <c r="Z20" s="418"/>
       <c r="AA20" s="407" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AB20" s="407"/>
       <c r="AC20" s="407"/>
@@ -33970,10 +34058,10 @@
       <c r="AE20" s="407"/>
       <c r="AF20" s="408"/>
       <c r="AG20" s="425" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AH20" s="426" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AI20" s="411"/>
       <c r="AJ20" s="412"/>
@@ -33998,7 +34086,7 @@
         <v>127</v>
       </c>
       <c r="D21" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E21" s="400"/>
       <c r="F21" s="400"/>
@@ -34006,16 +34094,16 @@
       <c r="H21" s="400"/>
       <c r="I21" s="400"/>
       <c r="J21" s="422" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K21" s="422"/>
       <c r="L21" s="422"/>
       <c r="M21" s="422"/>
       <c r="N21" s="427" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O21" s="428" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P21" s="32"/>
       <c r="Q21" s="429"/>
@@ -34059,7 +34147,7 @@
         <v>127</v>
       </c>
       <c r="D22" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E22" s="400"/>
       <c r="F22" s="400"/>
@@ -34086,16 +34174,16 @@
       <c r="AA22" s="434"/>
       <c r="AB22" s="434"/>
       <c r="AC22" s="407" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AD22" s="407"/>
       <c r="AE22" s="407"/>
       <c r="AF22" s="435"/>
       <c r="AG22" s="436" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AH22" s="437" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI22" s="438"/>
       <c r="AJ22" s="439"/>
@@ -34120,7 +34208,7 @@
         <v>127</v>
       </c>
       <c r="D23" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E23" s="400"/>
       <c r="F23" s="400"/>
@@ -34150,7 +34238,7 @@
       <c r="AB23" s="434"/>
       <c r="AC23" s="434"/>
       <c r="AD23" s="407" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AE23" s="407"/>
       <c r="AF23" s="435"/>
@@ -34183,7 +34271,7 @@
         <v>127</v>
       </c>
       <c r="D24" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E24" s="400"/>
       <c r="F24" s="400"/>
@@ -34214,7 +34302,7 @@
       <c r="AC24" s="434"/>
       <c r="AD24" s="434"/>
       <c r="AE24" s="407" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF24" s="435"/>
       <c r="AG24" s="436"/>
@@ -34224,7 +34312,7 @@
         <v>234</v>
       </c>
       <c r="AK24" s="271" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AL24" s="413"/>
       <c r="AM24" s="440"/>
@@ -34246,7 +34334,7 @@
         <v>127</v>
       </c>
       <c r="D25" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E25" s="400"/>
       <c r="F25" s="400"/>
@@ -34274,15 +34362,15 @@
       <c r="AB25" s="434"/>
       <c r="AC25" s="434"/>
       <c r="AD25" s="407" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AE25" s="407"/>
       <c r="AF25" s="435"/>
       <c r="AG25" s="425" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AH25" s="426" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AI25" s="438"/>
       <c r="AJ25" s="439"/>
@@ -34307,7 +34395,7 @@
         <v>127</v>
       </c>
       <c r="D26" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E26" s="400"/>
       <c r="F26" s="400"/>
@@ -34318,18 +34406,18 @@
       <c r="K26" s="443"/>
       <c r="L26" s="443"/>
       <c r="M26" s="446" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N26" s="447"/>
       <c r="O26" s="448"/>
       <c r="P26" s="420" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q26" s="421" t="s">
         <v>190</v>
       </c>
       <c r="R26" s="420" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="S26" s="430"/>
       <c r="T26" s="431"/>
@@ -34370,7 +34458,7 @@
         <v>127</v>
       </c>
       <c r="D27" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E27" s="400"/>
       <c r="F27" s="400"/>
@@ -34393,7 +34481,7 @@
       <c r="W27" s="418"/>
       <c r="X27" s="418"/>
       <c r="Y27" s="407" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Z27" s="407"/>
       <c r="AA27" s="407"/>
@@ -34403,10 +34491,10 @@
       <c r="AE27" s="407"/>
       <c r="AF27" s="408"/>
       <c r="AG27" s="409" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AH27" s="410" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI27" s="411"/>
       <c r="AJ27" s="412"/>
@@ -34431,7 +34519,7 @@
         <v>127</v>
       </c>
       <c r="D28" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E28" s="400"/>
       <c r="F28" s="400"/>
@@ -34457,7 +34545,7 @@
       <c r="X28" s="418"/>
       <c r="Y28" s="418"/>
       <c r="Z28" s="407" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AA28" s="407"/>
       <c r="AB28" s="407"/>
@@ -34494,7 +34582,7 @@
         <v>127</v>
       </c>
       <c r="D29" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E29" s="400"/>
       <c r="F29" s="400"/>
@@ -34519,7 +34607,7 @@
       <c r="Y29" s="418"/>
       <c r="Z29" s="418"/>
       <c r="AA29" s="407" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AB29" s="407"/>
       <c r="AC29" s="407"/>
@@ -34551,7 +34639,7 @@
         <v>127</v>
       </c>
       <c r="D30" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E30" s="400"/>
       <c r="F30" s="400"/>
@@ -34575,7 +34663,7 @@
       <c r="X30" s="418"/>
       <c r="Y30" s="418"/>
       <c r="Z30" s="407" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AA30" s="407"/>
       <c r="AB30" s="407"/>
@@ -34612,7 +34700,7 @@
         <v>127</v>
       </c>
       <c r="D31" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E31" s="400"/>
       <c r="F31" s="400"/>
@@ -34639,7 +34727,7 @@
       <c r="Y31" s="418"/>
       <c r="Z31" s="418"/>
       <c r="AA31" s="407" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AB31" s="407"/>
       <c r="AC31" s="407"/>
@@ -34675,7 +34763,7 @@
         <v>127</v>
       </c>
       <c r="D32" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E32" s="400"/>
       <c r="F32" s="400"/>
@@ -34703,7 +34791,7 @@
       <c r="Z32" s="418"/>
       <c r="AA32" s="418"/>
       <c r="AB32" s="407" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AC32" s="407"/>
       <c r="AD32" s="407"/>
@@ -34716,7 +34804,7 @@
         <v>234</v>
       </c>
       <c r="AK32" s="210" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AL32" s="413"/>
       <c r="AM32" s="414"/>
@@ -34738,7 +34826,7 @@
         <v>127</v>
       </c>
       <c r="D33" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E33" s="400"/>
       <c r="F33" s="400"/>
@@ -34763,7 +34851,7 @@
       <c r="Y33" s="418"/>
       <c r="Z33" s="418"/>
       <c r="AA33" s="407" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AB33" s="407"/>
       <c r="AC33" s="407"/>
@@ -34771,10 +34859,10 @@
       <c r="AE33" s="407"/>
       <c r="AF33" s="408"/>
       <c r="AG33" s="425" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AH33" s="426" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AI33" s="411"/>
       <c r="AJ33" s="412"/>
@@ -34799,7 +34887,7 @@
         <v>127</v>
       </c>
       <c r="D34" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E34" s="400"/>
       <c r="F34" s="400"/>
@@ -34807,16 +34895,16 @@
       <c r="H34" s="400"/>
       <c r="I34" s="400"/>
       <c r="J34" s="422" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K34" s="422"/>
       <c r="L34" s="422"/>
       <c r="M34" s="422"/>
       <c r="N34" s="427" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O34" s="428" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P34" s="32"/>
       <c r="Q34" s="429"/>
@@ -34860,7 +34948,7 @@
         <v>127</v>
       </c>
       <c r="D35" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E35" s="400"/>
       <c r="F35" s="400"/>
@@ -34887,16 +34975,16 @@
       <c r="AA35" s="434"/>
       <c r="AB35" s="434"/>
       <c r="AC35" s="407" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AD35" s="407"/>
       <c r="AE35" s="407"/>
       <c r="AF35" s="435"/>
       <c r="AG35" s="436" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AH35" s="437" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI35" s="438"/>
       <c r="AJ35" s="439"/>
@@ -34921,7 +35009,7 @@
         <v>127</v>
       </c>
       <c r="D36" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E36" s="400"/>
       <c r="F36" s="400"/>
@@ -34951,7 +35039,7 @@
       <c r="AB36" s="434"/>
       <c r="AC36" s="434"/>
       <c r="AD36" s="407" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AE36" s="407"/>
       <c r="AF36" s="435"/>
@@ -34984,7 +35072,7 @@
         <v>127</v>
       </c>
       <c r="D37" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E37" s="400"/>
       <c r="F37" s="400"/>
@@ -35015,7 +35103,7 @@
       <c r="AC37" s="434"/>
       <c r="AD37" s="434"/>
       <c r="AE37" s="407" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF37" s="435"/>
       <c r="AG37" s="436"/>
@@ -35025,7 +35113,7 @@
         <v>234</v>
       </c>
       <c r="AK37" s="271" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AL37" s="413"/>
       <c r="AM37" s="440"/>
@@ -35047,7 +35135,7 @@
         <v>127</v>
       </c>
       <c r="D38" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E38" s="400"/>
       <c r="F38" s="400"/>
@@ -35075,15 +35163,15 @@
       <c r="AB38" s="434"/>
       <c r="AC38" s="434"/>
       <c r="AD38" s="407" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AE38" s="407"/>
       <c r="AF38" s="435"/>
       <c r="AG38" s="425" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AH38" s="426" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AI38" s="438"/>
       <c r="AJ38" s="439"/>
@@ -35108,7 +35196,7 @@
         <v>127</v>
       </c>
       <c r="D39" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E39" s="400"/>
       <c r="F39" s="400"/>
@@ -35119,18 +35207,18 @@
       <c r="K39" s="443"/>
       <c r="L39" s="443"/>
       <c r="M39" s="446" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N39" s="447"/>
       <c r="O39" s="448"/>
       <c r="P39" s="420" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q39" s="421" t="s">
         <v>190</v>
       </c>
       <c r="R39" s="420" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="S39" s="430"/>
       <c r="T39" s="431"/>
@@ -35171,11 +35259,11 @@
         <v>127</v>
       </c>
       <c r="D40" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E40" s="400"/>
       <c r="F40" s="422" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G40" s="422"/>
       <c r="H40" s="422"/>
@@ -35185,19 +35273,19 @@
       <c r="L40" s="422"/>
       <c r="M40" s="422"/>
       <c r="N40" s="401" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O40" s="402" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P40" s="403"/>
       <c r="Q40" s="404"/>
       <c r="R40" s="403"/>
       <c r="S40" s="401" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T40" s="402" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="U40" s="405"/>
       <c r="V40" s="406"/>
@@ -35236,12 +35324,12 @@
         <v>127</v>
       </c>
       <c r="D41" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E41" s="400"/>
       <c r="F41" s="422"/>
       <c r="G41" s="422" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H41" s="422"/>
       <c r="I41" s="422"/>
@@ -35257,7 +35345,7 @@
       <c r="S41" s="401"/>
       <c r="T41" s="402"/>
       <c r="U41" s="424" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="V41" s="406"/>
       <c r="W41" s="418"/>
@@ -35295,7 +35383,7 @@
         <v>127</v>
       </c>
       <c r="D42" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E42" s="400"/>
       <c r="F42" s="400"/>
@@ -35318,7 +35406,7 @@
       <c r="W42" s="418"/>
       <c r="X42" s="418"/>
       <c r="Y42" s="407" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Z42" s="407"/>
       <c r="AA42" s="407"/>
@@ -35328,10 +35416,10 @@
       <c r="AE42" s="407"/>
       <c r="AF42" s="408"/>
       <c r="AG42" s="409" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AH42" s="410" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI42" s="411"/>
       <c r="AJ42" s="412"/>
@@ -35356,7 +35444,7 @@
         <v>127</v>
       </c>
       <c r="D43" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E43" s="400"/>
       <c r="F43" s="400"/>
@@ -35382,7 +35470,7 @@
       <c r="X43" s="418"/>
       <c r="Y43" s="418"/>
       <c r="Z43" s="407" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AA43" s="407"/>
       <c r="AB43" s="407"/>
@@ -35419,7 +35507,7 @@
         <v>127</v>
       </c>
       <c r="D44" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E44" s="400"/>
       <c r="F44" s="400"/>
@@ -35444,7 +35532,7 @@
       <c r="Y44" s="418"/>
       <c r="Z44" s="418"/>
       <c r="AA44" s="407" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AB44" s="407"/>
       <c r="AC44" s="407"/>
@@ -35476,7 +35564,7 @@
         <v>127</v>
       </c>
       <c r="D45" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E45" s="400"/>
       <c r="F45" s="400"/>
@@ -35500,7 +35588,7 @@
       <c r="X45" s="418"/>
       <c r="Y45" s="418"/>
       <c r="Z45" s="407" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AA45" s="407"/>
       <c r="AB45" s="407"/>
@@ -35537,7 +35625,7 @@
         <v>127</v>
       </c>
       <c r="D46" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E46" s="400"/>
       <c r="F46" s="400"/>
@@ -35564,7 +35652,7 @@
       <c r="Y46" s="418"/>
       <c r="Z46" s="418"/>
       <c r="AA46" s="407" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AB46" s="407"/>
       <c r="AC46" s="407"/>
@@ -35600,7 +35688,7 @@
         <v>127</v>
       </c>
       <c r="D47" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E47" s="400"/>
       <c r="F47" s="400"/>
@@ -35628,7 +35716,7 @@
       <c r="Z47" s="418"/>
       <c r="AA47" s="418"/>
       <c r="AB47" s="407" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AC47" s="407"/>
       <c r="AD47" s="407"/>
@@ -35641,7 +35729,7 @@
         <v>234</v>
       </c>
       <c r="AK47" s="210" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AL47" s="413"/>
       <c r="AM47" s="414"/>
@@ -35663,7 +35751,7 @@
         <v>127</v>
       </c>
       <c r="D48" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E48" s="400"/>
       <c r="F48" s="400"/>
@@ -35688,7 +35776,7 @@
       <c r="Y48" s="418"/>
       <c r="Z48" s="418"/>
       <c r="AA48" s="407" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AB48" s="407"/>
       <c r="AC48" s="407"/>
@@ -35696,10 +35784,10 @@
       <c r="AE48" s="407"/>
       <c r="AF48" s="408"/>
       <c r="AG48" s="425" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AH48" s="426" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AI48" s="411"/>
       <c r="AJ48" s="412"/>
@@ -35724,7 +35812,7 @@
         <v>127</v>
       </c>
       <c r="D49" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E49" s="400"/>
       <c r="F49" s="400"/>
@@ -35738,10 +35826,10 @@
       <c r="L49" s="422"/>
       <c r="M49" s="422"/>
       <c r="N49" s="427" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O49" s="449" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P49" s="32"/>
       <c r="Q49" s="429"/>
@@ -35785,7 +35873,7 @@
         <v>127</v>
       </c>
       <c r="D50" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E50" s="400"/>
       <c r="F50" s="400"/>
@@ -35812,16 +35900,16 @@
       <c r="AA50" s="434"/>
       <c r="AB50" s="434"/>
       <c r="AC50" s="407" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AD50" s="407"/>
       <c r="AE50" s="407"/>
       <c r="AF50" s="435"/>
       <c r="AG50" s="436" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AH50" s="437" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI50" s="438"/>
       <c r="AJ50" s="439"/>
@@ -35846,7 +35934,7 @@
         <v>127</v>
       </c>
       <c r="D51" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E51" s="400"/>
       <c r="F51" s="400"/>
@@ -35876,7 +35964,7 @@
       <c r="AB51" s="434"/>
       <c r="AC51" s="434"/>
       <c r="AD51" s="407" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AE51" s="407"/>
       <c r="AF51" s="435"/>
@@ -35909,7 +35997,7 @@
         <v>127</v>
       </c>
       <c r="D52" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E52" s="400"/>
       <c r="F52" s="400"/>
@@ -35940,7 +36028,7 @@
       <c r="AC52" s="434"/>
       <c r="AD52" s="434"/>
       <c r="AE52" s="407" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF52" s="435"/>
       <c r="AG52" s="436"/>
@@ -35950,7 +36038,7 @@
         <v>234</v>
       </c>
       <c r="AK52" s="271" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AL52" s="413"/>
       <c r="AM52" s="440"/>
@@ -35972,7 +36060,7 @@
         <v>127</v>
       </c>
       <c r="D53" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E53" s="400"/>
       <c r="F53" s="400"/>
@@ -36000,15 +36088,15 @@
       <c r="AB53" s="434"/>
       <c r="AC53" s="434"/>
       <c r="AD53" s="407" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AE53" s="407"/>
       <c r="AF53" s="435"/>
       <c r="AG53" s="425" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AH53" s="426" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AI53" s="438"/>
       <c r="AJ53" s="439"/>
@@ -36033,7 +36121,7 @@
         <v>127</v>
       </c>
       <c r="D54" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E54" s="400"/>
       <c r="F54" s="400"/>
@@ -36044,18 +36132,18 @@
       <c r="K54" s="443"/>
       <c r="L54" s="443"/>
       <c r="M54" s="446" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N54" s="447"/>
       <c r="O54" s="448"/>
       <c r="P54" s="420" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Q54" s="421" t="s">
         <v>190</v>
       </c>
       <c r="R54" s="420" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="S54" s="430"/>
       <c r="T54" s="431"/>
@@ -36096,7 +36184,7 @@
         <v>127</v>
       </c>
       <c r="D55" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E55" s="400"/>
       <c r="F55" s="400"/>
@@ -36115,10 +36203,10 @@
       <c r="Q55" s="429"/>
       <c r="R55" s="32"/>
       <c r="S55" s="430" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T55" s="431" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="U55" s="432"/>
       <c r="V55" s="433"/>
@@ -36301,12 +36389,12 @@
   </sheetPr>
   <dimension ref="A1:AW10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="13" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U9" activeCellId="0" sqref="U9"/>
+      <selection pane="bottomRight" activeCell="U8" activeCellId="0" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36352,7 +36440,7 @@
       </c>
       <c r="D1" s="372"/>
       <c r="E1" s="373" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F1" s="373"/>
       <c r="G1" s="373"/>
@@ -36363,7 +36451,7 @@
       <c r="L1" s="373"/>
       <c r="M1" s="373"/>
       <c r="N1" s="373" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O1" s="373"/>
       <c r="P1" s="373"/>
@@ -36372,7 +36460,7 @@
       <c r="S1" s="373"/>
       <c r="T1" s="373"/>
       <c r="U1" s="374" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="V1" s="375" t="s">
         <v>111</v>
@@ -36399,7 +36487,7 @@
       <c r="AN1" s="276"/>
       <c r="AO1" s="276"/>
       <c r="AP1" s="376" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AQ1" s="376"/>
       <c r="AR1" s="376"/>
@@ -36423,7 +36511,7 @@
         <v>116</v>
       </c>
       <c r="E2" s="380" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F2" s="380"/>
       <c r="G2" s="380"/>
@@ -36434,20 +36522,20 @@
       <c r="L2" s="380"/>
       <c r="M2" s="380"/>
       <c r="N2" s="380" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O2" s="380"/>
       <c r="P2" s="373" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q2" s="373"/>
       <c r="R2" s="373"/>
       <c r="S2" s="380" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="T2" s="380"/>
       <c r="U2" s="376" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="V2" s="375" t="s">
         <v>117</v>
@@ -36505,7 +36593,7 @@
       <c r="L3" s="373"/>
       <c r="M3" s="373"/>
       <c r="N3" s="382" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O3" s="382"/>
       <c r="P3" s="373" t="s">
@@ -36515,10 +36603,10 @@
         <v>121</v>
       </c>
       <c r="R3" s="373" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="S3" s="382" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T3" s="382"/>
       <c r="U3" s="374" t="s">
@@ -36658,7 +36746,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="389" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C5" s="390"/>
       <c r="D5" s="390"/>
@@ -36715,7 +36803,7 @@
         <v>127</v>
       </c>
       <c r="D6" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E6" s="400"/>
       <c r="F6" s="400"/>
@@ -36736,7 +36824,7 @@
       <c r="U6" s="405"/>
       <c r="V6" s="406"/>
       <c r="W6" s="407" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="X6" s="407"/>
       <c r="Y6" s="407"/>
@@ -36748,10 +36836,10 @@
       <c r="AE6" s="407"/>
       <c r="AF6" s="408"/>
       <c r="AG6" s="409" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AH6" s="410" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI6" s="411"/>
       <c r="AJ6" s="412"/>
@@ -36776,7 +36864,7 @@
         <v>127</v>
       </c>
       <c r="D7" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E7" s="400"/>
       <c r="F7" s="400"/>
@@ -36817,7 +36905,7 @@
       <c r="AI7" s="411"/>
       <c r="AJ7" s="412"/>
       <c r="AK7" s="210" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL7" s="413"/>
       <c r="AM7" s="414"/>
@@ -36839,10 +36927,10 @@
         <v>127</v>
       </c>
       <c r="D8" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E8" s="400" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F8" s="400"/>
       <c r="G8" s="400"/>
@@ -36853,19 +36941,19 @@
       <c r="L8" s="400"/>
       <c r="M8" s="400"/>
       <c r="N8" s="401" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O8" s="402" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P8" s="403"/>
       <c r="Q8" s="404"/>
       <c r="R8" s="403"/>
       <c r="S8" s="401" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T8" s="402" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="U8" s="405"/>
       <c r="V8" s="406"/>
@@ -36904,11 +36992,11 @@
         <v>127</v>
       </c>
       <c r="D9" s="399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E9" s="400"/>
       <c r="F9" s="400" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G9" s="400"/>
       <c r="H9" s="400"/>
@@ -36924,8 +37012,8 @@
       <c r="R9" s="403"/>
       <c r="S9" s="401"/>
       <c r="T9" s="402"/>
-      <c r="U9" s="405" t="s">
-        <v>527</v>
+      <c r="U9" s="421" t="s">
+        <v>528</v>
       </c>
       <c r="V9" s="406"/>
       <c r="W9" s="407"/>
@@ -37310,7 +37398,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
@@ -37345,11 +37433,11 @@
         <v>127</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E6" s="460"/>
       <c r="F6" s="461" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G6" s="461"/>
       <c r="H6" s="461"/>
@@ -37384,12 +37472,12 @@
         <v>127</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E7" s="467"/>
       <c r="F7" s="468"/>
       <c r="G7" s="468" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H7" s="468"/>
       <c r="I7" s="468"/>
@@ -37405,13 +37493,13 @@
       <c r="Q7" s="472"/>
       <c r="R7" s="467"/>
       <c r="S7" s="473" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="T7" s="469"/>
       <c r="U7" s="470"/>
       <c r="V7" s="471"/>
       <c r="W7" s="469" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="X7" s="68"/>
       <c r="Y7" s="57"/>
@@ -37425,12 +37513,12 @@
         <v>127</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E8" s="467"/>
       <c r="F8" s="468"/>
       <c r="G8" s="468" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H8" s="468"/>
       <c r="I8" s="468"/>
@@ -37446,13 +37534,13 @@
       <c r="Q8" s="472"/>
       <c r="R8" s="467"/>
       <c r="S8" s="473" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="T8" s="469"/>
       <c r="U8" s="470"/>
       <c r="V8" s="471"/>
       <c r="W8" s="469" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="X8" s="68"/>
       <c r="Y8" s="57"/>
@@ -37466,12 +37554,12 @@
         <v>127</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E9" s="467"/>
       <c r="F9" s="468"/>
       <c r="G9" s="468" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H9" s="468"/>
       <c r="I9" s="468"/>
@@ -37487,13 +37575,13 @@
       <c r="Q9" s="472"/>
       <c r="R9" s="467"/>
       <c r="S9" s="473" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="T9" s="469"/>
       <c r="U9" s="470"/>
       <c r="V9" s="471"/>
       <c r="W9" s="469" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="X9" s="68"/>
       <c r="Y9" s="57"/>
@@ -37507,12 +37595,12 @@
         <v>127</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E10" s="467"/>
       <c r="F10" s="468"/>
       <c r="G10" s="468" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H10" s="468"/>
       <c r="I10" s="468"/>
@@ -37528,13 +37616,13 @@
       <c r="Q10" s="472"/>
       <c r="R10" s="467"/>
       <c r="S10" s="473" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="T10" s="469"/>
       <c r="U10" s="470"/>
       <c r="V10" s="471"/>
       <c r="W10" s="469" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="X10" s="68"/>
       <c r="Y10" s="57"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -1997,7 +1997,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E9F4"/>
-        <bgColor rgb="FFF3E5F5"/>
+        <bgColor rgb="FFE7F2F7"/>
       </patternFill>
     </fill>
     <fill>
@@ -2056,7 +2056,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFBC3309"/>
+        <fgColor rgb="FFBC2C0B"/>
         <bgColor rgb="FFBF1334"/>
       </patternFill>
     </fill>
@@ -2068,13 +2068,13 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFB5004"/>
-        <bgColor rgb="FFFF6001"/>
+        <fgColor rgb="FFFD5202"/>
+        <bgColor rgb="FFFF5E01"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF019373"/>
+        <fgColor rgb="FF019375"/>
         <bgColor rgb="FF00897B"/>
       </patternFill>
     </fill>
@@ -2086,8 +2086,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC020"/>
-        <bgColor rgb="FFFDE2A6"/>
+        <fgColor rgb="FFFFCA2C"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2104,14 +2104,14 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFF6001"/>
-        <bgColor rgb="FFFB5004"/>
+        <fgColor rgb="FFFF5E01"/>
+        <bgColor rgb="FFFD5202"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFFC020"/>
-        <bgColor rgb="FFFDE2A6"/>
+        <fgColor rgb="FFFFCA2C"/>
+        <bgColor rgb="FFFCE4BC"/>
       </patternFill>
     </fill>
     <fill>
@@ -2129,7 +2129,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0B6C3"/>
-        <bgColor rgb="FFCDCEDD"/>
+        <bgColor rgb="FFCDCCDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -2140,19 +2140,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6001"/>
-        <bgColor rgb="FFFB5004"/>
+        <fgColor rgb="FFFF5E01"/>
+        <bgColor rgb="FFFD5202"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDE2A6"/>
+        <fgColor rgb="FFFCE4BC"/>
         <bgColor rgb="FFF3E5F5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCDCEDD"/>
+        <fgColor rgb="FFCDCCDD"/>
         <bgColor rgb="FFBBDEFB"/>
       </patternFill>
     </fill>
@@ -2164,7 +2164,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF5E5C5D"/>
+        <fgColor rgb="FF606066"/>
         <bgColor rgb="FF29488F"/>
       </patternFill>
     </fill>
@@ -2188,7 +2188,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFE5F4F7"/>
+        <fgColor rgb="FFE7F2F7"/>
         <bgColor rgb="FFE7E9F4"/>
       </patternFill>
     </fill>
@@ -2219,7 +2219,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF006A63"/>
-        <bgColor rgb="FF015F5D"/>
+        <bgColor rgb="FF015F5F"/>
       </patternFill>
     </fill>
     <fill>
@@ -2231,7 +2231,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00897B"/>
-        <bgColor rgb="FF019373"/>
+        <bgColor rgb="FF019375"/>
       </patternFill>
     </fill>
     <fill>
@@ -2278,7 +2278,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF5E5C5D"/>
+        <fgColor rgb="FF606066"/>
         <bgColor rgb="FF78746E"/>
       </patternFill>
     </fill>
@@ -2291,30 +2291,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF558B2F"/>
-        <bgColor rgb="FF61A23B"/>
+        <bgColor rgb="FF5DA43D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF61A23B"/>
+        <fgColor rgb="FF5DA43D"/>
         <bgColor rgb="FF558B2F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF81C445"/>
-        <bgColor rgb="FF61A23B"/>
+        <fgColor rgb="FF77BC42"/>
+        <bgColor rgb="FF5DA43D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF1F8E9"/>
-        <bgColor rgb="FFE5F4F7"/>
+        <bgColor rgb="FFE7F2F7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBC3309"/>
+        <fgColor rgb="FFBC2C0B"/>
         <bgColor rgb="FFBF1334"/>
       </patternFill>
     </fill>
@@ -2327,43 +2327,43 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF029E64"/>
-        <bgColor rgb="FF019373"/>
+        <bgColor rgb="FF019375"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FFFDE2A6"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4BC"/>
         <bgColor rgb="FFF3E5F5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF81C445"/>
-        <bgColor rgb="FF80CBC4"/>
+        <fgColor rgb="FF77BC42"/>
+        <bgColor rgb="FF5DA43D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFCDCEDD"/>
+        <fgColor rgb="FFCDCCDD"/>
         <bgColor rgb="FFC0B6C3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFB5004"/>
-        <bgColor rgb="FFFF6001"/>
+        <fgColor rgb="FFFD5202"/>
+        <bgColor rgb="FFFF5E01"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF015F5D"/>
+        <fgColor rgb="FF015F5F"/>
         <bgColor rgb="FF006A63"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE5F4F7"/>
-        <bgColor rgb="FFF1F8E9"/>
+        <fgColor rgb="FFE7F2F7"/>
+        <bgColor rgb="FFE7E9F4"/>
       </patternFill>
     </fill>
   </fills>
@@ -2418,16 +2418,16 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FFCDCEDD"/>
+        <color rgb="FFCDCCDD"/>
       </left>
       <right style="thin">
-        <color rgb="FFCDCEDD"/>
+        <color rgb="FFCDCCDD"/>
       </right>
       <top style="thin">
-        <color rgb="FFCDCEDD"/>
+        <color rgb="FFCDCCDD"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFCDCEDD"/>
+        <color rgb="FFCDCCDD"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2485,29 +2485,29 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF81C445"/>
+        <color rgb="FF77BC42"/>
       </left>
       <right style="thin">
-        <color rgb="FF81C445"/>
+        <color rgb="FF77BC42"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF81C445"/>
+        <color rgb="FF77BC42"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF5E5C5D"/>
+        <color rgb="FF606066"/>
       </left>
       <right style="thin">
-        <color rgb="FF5E5C5D"/>
+        <color rgb="FF606066"/>
       </right>
       <top style="thin">
-        <color rgb="FF5E5C5D"/>
+        <color rgb="FF606066"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF5E5C5D"/>
+        <color rgb="FF606066"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2616,31 +2616,31 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FFFB5004"/>
+        <color rgb="FFFD5202"/>
       </left>
       <right style="thin">
-        <color rgb="FFFB5004"/>
+        <color rgb="FFFD5202"/>
       </right>
       <top style="thin">
-        <color rgb="FFFB5004"/>
+        <color rgb="FFFD5202"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFB5004"/>
+        <color rgb="FFFD5202"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF81C445"/>
+        <color rgb="FF77BC42"/>
       </left>
       <right style="thin">
-        <color rgb="FF81C445"/>
+        <color rgb="FF77BC42"/>
       </right>
       <top style="thin">
-        <color rgb="FF81C445"/>
+        <color rgb="FF77BC42"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF81C445"/>
+        <color rgb="FF77BC42"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2648,10 +2648,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFFB5004"/>
+        <color rgb="FFFD5202"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFB5004"/>
+        <color rgb="FFFD5202"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2693,16 +2693,16 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FFFDE2A6"/>
+        <color rgb="FFFCE4BC"/>
       </left>
       <right style="thin">
-        <color rgb="FFFDE2A6"/>
+        <color rgb="FFFCE4BC"/>
       </right>
       <top style="thin">
-        <color rgb="FFFDE2A6"/>
+        <color rgb="FFFCE4BC"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFDE2A6"/>
+        <color rgb="FFFCE4BC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5004,10 +5004,10 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FF004D40"/>
-      <rgbColor rgb="FF019373"/>
+      <rgbColor rgb="FF5DA43D"/>
       <rgbColor rgb="FF01579B"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF015F5D"/>
+      <rgbColor rgb="FF015F5F"/>
       <rgbColor rgb="FF1989E6"/>
       <rgbColor rgb="FFA61137"/>
       <rgbColor rgb="FF33691E"/>
@@ -5020,17 +5020,17 @@
       <rgbColor rgb="FF80CBC4"/>
       <rgbColor rgb="FFAB47BC"/>
       <rgbColor rgb="FFF1F8E9"/>
-      <rgbColor rgb="FFE5F4F7"/>
+      <rgbColor rgb="FFE7F2F7"/>
       <rgbColor rgb="FF4A148C"/>
-      <rgbColor rgb="FFFB5004"/>
+      <rgbColor rgb="FF1D639D"/>
       <rgbColor rgb="FF0B72C8"/>
-      <rgbColor rgb="FFCDCEDD"/>
+      <rgbColor rgb="FFCDCCDD"/>
       <rgbColor rgb="FF0D47A1"/>
       <rgbColor rgb="FF006A63"/>
       <rgbColor rgb="FF00796B"/>
-      <rgbColor rgb="FF0777CB"/>
+      <rgbColor rgb="FF019375"/>
       <rgbColor rgb="FF7B1FA2"/>
-      <rgbColor rgb="FF5E5C5D"/>
+      <rgbColor rgb="FF606066"/>
       <rgbColor rgb="FF00897B"/>
       <rgbColor rgb="FF014E52"/>
       <rgbColor rgb="FF1F8FF0"/>
@@ -5038,22 +5038,22 @@
       <rgbColor rgb="FFB3E5FC"/>
       <rgbColor rgb="FFF3E5F5"/>
       <rgbColor rgb="FF80DEEA"/>
-      <rgbColor rgb="FF1D639D"/>
+      <rgbColor rgb="FF0777CB"/>
       <rgbColor rgb="FFBBDEFB"/>
-      <rgbColor rgb="FFFDE2A6"/>
+      <rgbColor rgb="FFFCE4BC"/>
       <rgbColor rgb="FF1565C0"/>
       <rgbColor rgb="FF27C2EF"/>
-      <rgbColor rgb="FF81C445"/>
-      <rgbColor rgb="FFFFC020"/>
-      <rgbColor rgb="FF61A23B"/>
-      <rgbColor rgb="FFFF6001"/>
+      <rgbColor rgb="FF77BC42"/>
+      <rgbColor rgb="FFFFCA2C"/>
+      <rgbColor rgb="FFFD5202"/>
+      <rgbColor rgb="FFFF5E01"/>
       <rgbColor rgb="FF5C6BC0"/>
       <rgbColor rgb="FF78746E"/>
       <rgbColor rgb="FF1A237E"/>
       <rgbColor rgb="FF029E64"/>
       <rgbColor rgb="FF28222A"/>
       <rgbColor rgb="FF2F2730"/>
-      <rgbColor rgb="FFBC3309"/>
+      <rgbColor rgb="FFBC2C0B"/>
       <rgbColor rgb="FFBF1334"/>
       <rgbColor rgb="FF29488F"/>
       <rgbColor rgb="FF322A30"/>
@@ -5181,7 +5181,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="K52" activeCellId="0" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -15518,7 +15518,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16288,7 +16288,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K42" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="J54" activeCellId="0" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -16882,8 +16882,8 @@
   </sheetPr>
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q12" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q12" activeCellId="0" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18267,7 +18267,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
-      <selection pane="bottomRight" activeCell="L16" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -24577,7 +24577,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A117" activeCellId="0" sqref="A117"/>
-      <selection pane="bottomRight" activeCell="K140" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="K140" activeCellId="0" sqref="K140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -30898,7 +30898,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q11" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="Q11" activeCellId="0" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -31518,7 +31518,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
-      <selection pane="bottomRight" activeCell="G92" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="G92" activeCellId="0" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34216,7 +34216,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D17" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35790,7 +35790,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37468,7 +37468,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -16288,7 +16288,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J54" activeCellId="0" sqref="J54"/>
+      <selection pane="bottomRight" activeCell="AA15" activeCellId="0" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3113" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="553">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -1969,7 +1969,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="67">
+  <fills count="65">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1997,13 +1997,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E9F4"/>
-        <bgColor rgb="FFE7F2F7"/>
+        <bgColor rgb="FFE7F0F7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5C6BC0"/>
-        <bgColor rgb="FF837D8C"/>
+        <bgColor rgb="FF60626C"/>
       </patternFill>
     </fill>
     <fill>
@@ -2056,7 +2056,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFBC2C0B"/>
+        <fgColor rgb="FFBC260D"/>
         <bgColor rgb="FFBF1334"/>
       </patternFill>
     </fill>
@@ -2068,13 +2068,13 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFD5202"/>
-        <bgColor rgb="FFFF5E01"/>
+        <fgColor rgb="FFFF5301"/>
+        <bgColor rgb="FFFF5C01"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF019375"/>
+        <fgColor rgb="FF019377"/>
         <bgColor rgb="FF00897B"/>
       </patternFill>
     </fill>
@@ -2086,7 +2086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCA2C"/>
+        <fgColor rgb="FFFFD039"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -2104,14 +2104,14 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFF5E01"/>
-        <bgColor rgb="FFFD5202"/>
+        <fgColor rgb="FFFF5C01"/>
+        <bgColor rgb="FFFF5301"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFFCA2C"/>
-        <bgColor rgb="FFFCE4BC"/>
+        <fgColor rgb="FFFFD039"/>
+        <bgColor rgb="FFFCE4BA"/>
       </patternFill>
     </fill>
     <fill>
@@ -2129,7 +2129,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0B6C3"/>
-        <bgColor rgb="FFCDCCDD"/>
+        <bgColor rgb="FFCDCADD"/>
       </patternFill>
     </fill>
     <fill>
@@ -2140,20 +2140,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF5E01"/>
-        <bgColor rgb="FFFD5202"/>
+        <fgColor rgb="FFFF5C01"/>
+        <bgColor rgb="FFFF5301"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4BC"/>
+        <fgColor rgb="FFFCE4BA"/>
         <bgColor rgb="FFF3E5F5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCDCCDD"/>
-        <bgColor rgb="FFBBDEFB"/>
+        <fgColor rgb="FFCDCADD"/>
+        <bgColor rgb="FFC0B6C3"/>
       </patternFill>
     </fill>
     <fill>
@@ -2164,7 +2164,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF606066"/>
+        <fgColor rgb="FF60626C"/>
         <bgColor rgb="FF29488F"/>
       </patternFill>
     </fill>
@@ -2188,7 +2188,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFE7F2F7"/>
+        <fgColor rgb="FFE7F0F7"/>
         <bgColor rgb="FFE7E9F4"/>
       </patternFill>
     </fill>
@@ -2219,7 +2219,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF006A63"/>
-        <bgColor rgb="FF015F5F"/>
+        <bgColor rgb="FF015F61"/>
       </patternFill>
     </fill>
     <fill>
@@ -2231,7 +2231,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00897B"/>
-        <bgColor rgb="FF019375"/>
+        <bgColor rgb="FF019377"/>
       </patternFill>
     </fill>
     <fill>
@@ -2278,7 +2278,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF606066"/>
+        <fgColor rgb="FF60626C"/>
         <bgColor rgb="FF78746E"/>
       </patternFill>
     </fill>
@@ -2291,30 +2291,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF558B2F"/>
-        <bgColor rgb="FF5DA43D"/>
+        <bgColor rgb="FF5AA63F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5DA43D"/>
-        <bgColor rgb="FF558B2F"/>
+        <fgColor rgb="FF5AA63F"/>
+        <bgColor rgb="FF73B841"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FF77BC42"/>
-        <bgColor rgb="FF5DA43D"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73B841"/>
+        <bgColor rgb="FF5AA63F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF1F8E9"/>
-        <bgColor rgb="FFE7F2F7"/>
+        <bgColor rgb="FFE7F0F7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBC2C0B"/>
+        <fgColor rgb="FFBC260D"/>
         <bgColor rgb="FFBF1334"/>
       </patternFill>
     </fill>
@@ -2327,42 +2327,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF029E64"/>
-        <bgColor rgb="FF019375"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4BC"/>
-        <bgColor rgb="FFF3E5F5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF77BC42"/>
-        <bgColor rgb="FF5DA43D"/>
+        <bgColor rgb="FF019377"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFCDCCDD"/>
+        <fgColor rgb="FFCDCADD"/>
         <bgColor rgb="FFC0B6C3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFD5202"/>
-        <bgColor rgb="FFFF5E01"/>
+        <fgColor rgb="FFFF5301"/>
+        <bgColor rgb="FFFF5C01"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF015F5F"/>
+        <fgColor rgb="FF015F61"/>
         <bgColor rgb="FF006A63"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE7F2F7"/>
+        <fgColor rgb="FFE7F0F7"/>
         <bgColor rgb="FFE7E9F4"/>
       </patternFill>
     </fill>
@@ -2418,16 +2406,16 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FFCDCCDD"/>
+        <color rgb="FFCDCADD"/>
       </left>
       <right style="thin">
-        <color rgb="FFCDCCDD"/>
+        <color rgb="FFCDCADD"/>
       </right>
       <top style="thin">
-        <color rgb="FFCDCCDD"/>
+        <color rgb="FFCDCADD"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFCDCCDD"/>
+        <color rgb="FFCDCADD"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2485,29 +2473,29 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF77BC42"/>
+        <color rgb="FF73B841"/>
       </left>
       <right style="thin">
-        <color rgb="FF77BC42"/>
+        <color rgb="FF73B841"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF77BC42"/>
+        <color rgb="FF73B841"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF606066"/>
+        <color rgb="FF60626C"/>
       </left>
       <right style="thin">
-        <color rgb="FF606066"/>
+        <color rgb="FF60626C"/>
       </right>
       <top style="thin">
-        <color rgb="FF606066"/>
+        <color rgb="FF60626C"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF606066"/>
+        <color rgb="FF60626C"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2616,31 +2604,31 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FFFD5202"/>
+        <color rgb="FFFF5301"/>
       </left>
       <right style="thin">
-        <color rgb="FFFD5202"/>
+        <color rgb="FFFF5301"/>
       </right>
       <top style="thin">
-        <color rgb="FFFD5202"/>
+        <color rgb="FFFF5301"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFD5202"/>
+        <color rgb="FFFF5301"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF77BC42"/>
+        <color rgb="FF73B841"/>
       </left>
       <right style="thin">
-        <color rgb="FF77BC42"/>
+        <color rgb="FF73B841"/>
       </right>
       <top style="thin">
-        <color rgb="FF77BC42"/>
+        <color rgb="FF73B841"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF77BC42"/>
+        <color rgb="FF73B841"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2648,10 +2636,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFFD5202"/>
+        <color rgb="FFFF5301"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFD5202"/>
+        <color rgb="FFFF5301"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2693,16 +2681,16 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FFFCE4BC"/>
+        <color rgb="FFFCE4BA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFCE4BC"/>
+        <color rgb="FFFCE4BA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFCE4BC"/>
+        <color rgb="FFFCE4BA"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFCE4BC"/>
+        <color rgb="FFFCE4BA"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2802,7 +2790,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="544">
+  <cellXfs count="543">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4719,7 +4707,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="61" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="30" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4727,12 +4715,88 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="62" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="56" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="62" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="56" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="56" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="56" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="56" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="31" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="61" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="33" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="35" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="62" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="62" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="59" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="62" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="23" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="23" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="62" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -4743,83 +4807,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="62" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="31" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="63" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="33" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="35" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="56" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="64" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="61" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="61" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="64" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="59" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="64" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="23" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="23" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="20" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="20" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="64" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="64" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="60" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4827,7 +4819,91 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="60" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="59" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="58" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="30" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4835,147 +4911,55 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="63" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="63" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="59" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="63" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="63" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="63" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="63" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="58" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="64" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="64" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="20" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="20" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="61" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="61" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="61" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="20" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="20" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="13" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="64" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="13" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="64" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="61" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="61" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="65" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="65" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="65" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="64" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="65" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="64" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="65" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="65" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="65" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="66" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="66" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="66" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="66" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="66" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="66" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="66" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="64" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5004,10 +4988,10 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FF004D40"/>
-      <rgbColor rgb="FF5DA43D"/>
+      <rgbColor rgb="FF029E64"/>
       <rgbColor rgb="FF01579B"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF015F5F"/>
+      <rgbColor rgb="FF015F61"/>
       <rgbColor rgb="FF1989E6"/>
       <rgbColor rgb="FFA61137"/>
       <rgbColor rgb="FF33691E"/>
@@ -5020,17 +5004,17 @@
       <rgbColor rgb="FF80CBC4"/>
       <rgbColor rgb="FFAB47BC"/>
       <rgbColor rgb="FFF1F8E9"/>
-      <rgbColor rgb="FFE7F2F7"/>
+      <rgbColor rgb="FFE7F0F7"/>
       <rgbColor rgb="FF4A148C"/>
       <rgbColor rgb="FF1D639D"/>
       <rgbColor rgb="FF0B72C8"/>
-      <rgbColor rgb="FFCDCCDD"/>
+      <rgbColor rgb="FFCDCADD"/>
       <rgbColor rgb="FF0D47A1"/>
       <rgbColor rgb="FF006A63"/>
       <rgbColor rgb="FF00796B"/>
-      <rgbColor rgb="FF019375"/>
+      <rgbColor rgb="FF019377"/>
       <rgbColor rgb="FF7B1FA2"/>
-      <rgbColor rgb="FF606066"/>
+      <rgbColor rgb="FF60626C"/>
       <rgbColor rgb="FF00897B"/>
       <rgbColor rgb="FF014E52"/>
       <rgbColor rgb="FF1F8FF0"/>
@@ -5040,20 +5024,20 @@
       <rgbColor rgb="FF80DEEA"/>
       <rgbColor rgb="FF0777CB"/>
       <rgbColor rgb="FFBBDEFB"/>
-      <rgbColor rgb="FFFCE4BC"/>
+      <rgbColor rgb="FFFCE4BA"/>
       <rgbColor rgb="FF1565C0"/>
       <rgbColor rgb="FF27C2EF"/>
-      <rgbColor rgb="FF77BC42"/>
-      <rgbColor rgb="FFFFCA2C"/>
-      <rgbColor rgb="FFFD5202"/>
-      <rgbColor rgb="FFFF5E01"/>
+      <rgbColor rgb="FF73B841"/>
+      <rgbColor rgb="FFFFD039"/>
+      <rgbColor rgb="FFFF5301"/>
+      <rgbColor rgb="FFFF5C01"/>
       <rgbColor rgb="FF5C6BC0"/>
       <rgbColor rgb="FF78746E"/>
       <rgbColor rgb="FF1A237E"/>
-      <rgbColor rgb="FF029E64"/>
+      <rgbColor rgb="FF5AA63F"/>
       <rgbColor rgb="FF28222A"/>
       <rgbColor rgb="FF2F2730"/>
-      <rgbColor rgb="FFBC2C0B"/>
+      <rgbColor rgb="FFBC260D"/>
       <rgbColor rgb="FFBF1334"/>
       <rgbColor rgb="FF29488F"/>
       <rgbColor rgb="FF322A30"/>
@@ -5176,12 +5160,12 @@
   </sheetPr>
   <dimension ref="A1:DM68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K52" activeCellId="0" sqref="K52"/>
+      <selection pane="bottomRight" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -5305,7 +5289,9 @@
         <v>0</v>
       </c>
       <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="M1" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -15434,10 +15420,11 @@
       <c r="V68" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="60">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:S1"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="AB1:AE1"/>
@@ -15958,7 +15945,7 @@
       <c r="AJ6" s="32"/>
       <c r="AK6" s="477"/>
       <c r="AL6" s="478"/>
-      <c r="AM6" s="528"/>
+      <c r="AM6" s="527"/>
       <c r="BH6" s="489"/>
       <c r="BI6" s="490"/>
       <c r="BJ6" s="489"/>
@@ -16015,7 +16002,7 @@
       <c r="AJ7" s="32"/>
       <c r="AK7" s="477"/>
       <c r="AL7" s="478"/>
-      <c r="AM7" s="528"/>
+      <c r="AM7" s="527"/>
       <c r="BH7" s="489"/>
       <c r="BI7" s="490"/>
       <c r="BJ7" s="489"/>
@@ -16074,7 +16061,7 @@
       <c r="AL8" s="478" t="s">
         <v>485</v>
       </c>
-      <c r="AM8" s="528"/>
+      <c r="AM8" s="527"/>
       <c r="BH8" s="489"/>
       <c r="BI8" s="490"/>
       <c r="BJ8" s="489"/>
@@ -16125,7 +16112,7 @@
       <c r="AJ9" s="32"/>
       <c r="AK9" s="477"/>
       <c r="AL9" s="478"/>
-      <c r="AM9" s="529" t="s">
+      <c r="AM9" s="528" t="s">
         <v>543</v>
       </c>
       <c r="BH9" s="489"/>
@@ -16141,74 +16128,74 @@
       <c r="A10" s="387"/>
       <c r="B10" s="387"/>
       <c r="C10" s="434"/>
-      <c r="D10" s="523" t="n">
+      <c r="D10" s="522" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="523" t="n">
+      <c r="E10" s="522" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="523" t="n">
+      <c r="F10" s="522" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="523" t="n">
+      <c r="G10" s="522" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="523" t="n">
+      <c r="H10" s="522" t="n">
         <v>4</v>
       </c>
-      <c r="I10" s="523" t="n">
+      <c r="I10" s="522" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="523" t="n">
+      <c r="J10" s="522" t="n">
         <v>6</v>
       </c>
-      <c r="K10" s="523" t="n">
+      <c r="K10" s="522" t="n">
         <v>7</v>
       </c>
-      <c r="L10" s="523" t="n">
+      <c r="L10" s="522" t="n">
         <v>8</v>
       </c>
-      <c r="M10" s="524"/>
-      <c r="N10" s="525"/>
-      <c r="O10" s="524"/>
-      <c r="P10" s="524"/>
+      <c r="M10" s="523"/>
+      <c r="N10" s="524"/>
+      <c r="O10" s="523"/>
+      <c r="P10" s="523"/>
       <c r="Q10" s="434"/>
       <c r="R10" s="387"/>
-      <c r="S10" s="526"/>
-      <c r="T10" s="526"/>
-      <c r="U10" s="526"/>
-      <c r="V10" s="526"/>
-      <c r="W10" s="519" t="n">
+      <c r="S10" s="525"/>
+      <c r="T10" s="525"/>
+      <c r="U10" s="525"/>
+      <c r="V10" s="525"/>
+      <c r="W10" s="518" t="n">
         <v>0</v>
       </c>
-      <c r="X10" s="519" t="n">
+      <c r="X10" s="518" t="n">
         <v>1</v>
       </c>
-      <c r="Y10" s="519" t="n">
+      <c r="Y10" s="518" t="n">
         <v>2</v>
       </c>
-      <c r="Z10" s="519" t="n">
+      <c r="Z10" s="518" t="n">
         <v>3</v>
       </c>
-      <c r="AA10" s="519" t="n">
+      <c r="AA10" s="518" t="n">
         <v>4</v>
       </c>
-      <c r="AB10" s="519" t="n">
+      <c r="AB10" s="518" t="n">
         <v>5</v>
       </c>
-      <c r="AC10" s="519" t="n">
+      <c r="AC10" s="518" t="n">
         <v>6</v>
       </c>
-      <c r="AD10" s="519" t="n">
+      <c r="AD10" s="518" t="n">
         <v>7</v>
       </c>
-      <c r="AE10" s="519" t="n">
+      <c r="AE10" s="518" t="n">
         <v>8</v>
       </c>
-      <c r="AF10" s="520"/>
-      <c r="AG10" s="521"/>
+      <c r="AF10" s="519"/>
+      <c r="AG10" s="520"/>
       <c r="AH10" s="387"/>
-      <c r="AI10" s="522"/>
+      <c r="AI10" s="521"/>
       <c r="AJ10" s="387"/>
       <c r="AK10" s="435"/>
       <c r="AL10" s="435"/>
@@ -16219,8 +16206,8 @@
       <c r="BK10" s="437"/>
       <c r="BL10" s="437"/>
       <c r="BM10" s="437"/>
-      <c r="BN10" s="527"/>
-      <c r="BO10" s="527"/>
+      <c r="BN10" s="526"/>
+      <c r="BO10" s="526"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -16283,7 +16270,7 @@
   </sheetPr>
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -16500,31 +16487,31 @@
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="72"/>
       <c r="B6" s="73"/>
-      <c r="C6" s="530"/>
-      <c r="D6" s="531" t="s">
+      <c r="C6" s="529"/>
+      <c r="D6" s="530" t="s">
         <v>525</v>
       </c>
-      <c r="E6" s="531"/>
-      <c r="F6" s="531"/>
-      <c r="G6" s="531"/>
-      <c r="H6" s="531"/>
-      <c r="I6" s="531"/>
-      <c r="J6" s="531"/>
-      <c r="K6" s="531"/>
-      <c r="L6" s="532"/>
-      <c r="M6" s="533" t="s">
+      <c r="E6" s="530"/>
+      <c r="F6" s="530"/>
+      <c r="G6" s="530"/>
+      <c r="H6" s="530"/>
+      <c r="I6" s="530"/>
+      <c r="J6" s="530"/>
+      <c r="K6" s="530"/>
+      <c r="L6" s="531"/>
+      <c r="M6" s="532" t="s">
         <v>134</v>
       </c>
-      <c r="N6" s="534" t="s">
+      <c r="N6" s="533" t="s">
         <v>135</v>
       </c>
-      <c r="O6" s="535"/>
-      <c r="P6" s="530"/>
-      <c r="Q6" s="536"/>
-      <c r="R6" s="532"/>
-      <c r="S6" s="533"/>
-      <c r="T6" s="534"/>
-      <c r="U6" s="532"/>
+      <c r="O6" s="534"/>
+      <c r="P6" s="529"/>
+      <c r="Q6" s="535"/>
+      <c r="R6" s="531"/>
+      <c r="S6" s="532"/>
+      <c r="T6" s="533"/>
+      <c r="U6" s="531"/>
       <c r="V6" s="62"/>
       <c r="W6" s="52"/>
       <c r="X6" s="83"/>
@@ -16533,31 +16520,31 @@
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="72"/>
       <c r="B7" s="73"/>
-      <c r="C7" s="537"/>
-      <c r="D7" s="538"/>
-      <c r="E7" s="538" t="s">
+      <c r="C7" s="536"/>
+      <c r="D7" s="537"/>
+      <c r="E7" s="537" t="s">
         <v>545</v>
       </c>
-      <c r="F7" s="538"/>
-      <c r="G7" s="538"/>
-      <c r="H7" s="538"/>
-      <c r="I7" s="538"/>
-      <c r="J7" s="538"/>
-      <c r="K7" s="538"/>
-      <c r="L7" s="539" t="s">
+      <c r="F7" s="537"/>
+      <c r="G7" s="537"/>
+      <c r="H7" s="537"/>
+      <c r="I7" s="537"/>
+      <c r="J7" s="537"/>
+      <c r="K7" s="537"/>
+      <c r="L7" s="538" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="540"/>
-      <c r="N7" s="541"/>
-      <c r="O7" s="542"/>
-      <c r="P7" s="537"/>
-      <c r="Q7" s="543" t="s">
+      <c r="M7" s="539"/>
+      <c r="N7" s="540"/>
+      <c r="O7" s="541"/>
+      <c r="P7" s="536"/>
+      <c r="Q7" s="542" t="s">
         <v>546</v>
       </c>
-      <c r="R7" s="539"/>
-      <c r="S7" s="540"/>
-      <c r="T7" s="541"/>
-      <c r="U7" s="539" t="s">
+      <c r="R7" s="538"/>
+      <c r="S7" s="539"/>
+      <c r="T7" s="540"/>
+      <c r="U7" s="538" t="s">
         <v>547</v>
       </c>
       <c r="V7" s="62"/>
@@ -16568,31 +16555,31 @@
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="72"/>
       <c r="B8" s="73"/>
-      <c r="C8" s="537"/>
-      <c r="D8" s="538"/>
-      <c r="E8" s="538" t="s">
+      <c r="C8" s="536"/>
+      <c r="D8" s="537"/>
+      <c r="E8" s="537" t="s">
         <v>548</v>
       </c>
-      <c r="F8" s="538"/>
-      <c r="G8" s="538"/>
-      <c r="H8" s="538"/>
-      <c r="I8" s="538"/>
-      <c r="J8" s="538"/>
-      <c r="K8" s="538"/>
-      <c r="L8" s="539" t="s">
+      <c r="F8" s="537"/>
+      <c r="G8" s="537"/>
+      <c r="H8" s="537"/>
+      <c r="I8" s="537"/>
+      <c r="J8" s="537"/>
+      <c r="K8" s="537"/>
+      <c r="L8" s="538" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="540"/>
-      <c r="N8" s="541"/>
-      <c r="O8" s="542"/>
-      <c r="P8" s="537"/>
-      <c r="Q8" s="543" t="s">
+      <c r="M8" s="539"/>
+      <c r="N8" s="540"/>
+      <c r="O8" s="541"/>
+      <c r="P8" s="536"/>
+      <c r="Q8" s="542" t="s">
         <v>549</v>
       </c>
-      <c r="R8" s="539"/>
-      <c r="S8" s="540"/>
-      <c r="T8" s="541"/>
-      <c r="U8" s="539" t="s">
+      <c r="R8" s="538"/>
+      <c r="S8" s="539"/>
+      <c r="T8" s="540"/>
+      <c r="U8" s="538" t="s">
         <v>547</v>
       </c>
       <c r="V8" s="62"/>
@@ -16603,31 +16590,31 @@
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="72"/>
       <c r="B9" s="73"/>
-      <c r="C9" s="537"/>
-      <c r="D9" s="538"/>
-      <c r="E9" s="538" t="s">
+      <c r="C9" s="536"/>
+      <c r="D9" s="537"/>
+      <c r="E9" s="537" t="s">
         <v>550</v>
       </c>
-      <c r="F9" s="538"/>
-      <c r="G9" s="538"/>
-      <c r="H9" s="538"/>
-      <c r="I9" s="538"/>
-      <c r="J9" s="538"/>
-      <c r="K9" s="538"/>
-      <c r="L9" s="539" t="s">
+      <c r="F9" s="537"/>
+      <c r="G9" s="537"/>
+      <c r="H9" s="537"/>
+      <c r="I9" s="537"/>
+      <c r="J9" s="537"/>
+      <c r="K9" s="537"/>
+      <c r="L9" s="538" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="540"/>
-      <c r="N9" s="541"/>
-      <c r="O9" s="542"/>
-      <c r="P9" s="537"/>
-      <c r="Q9" s="543" t="s">
+      <c r="M9" s="539"/>
+      <c r="N9" s="540"/>
+      <c r="O9" s="541"/>
+      <c r="P9" s="536"/>
+      <c r="Q9" s="542" t="s">
         <v>551</v>
       </c>
-      <c r="R9" s="539"/>
-      <c r="S9" s="540"/>
-      <c r="T9" s="541"/>
-      <c r="U9" s="539" t="s">
+      <c r="R9" s="538"/>
+      <c r="S9" s="539"/>
+      <c r="T9" s="540"/>
+      <c r="U9" s="538" t="s">
         <v>547</v>
       </c>
       <c r="V9" s="62"/>
@@ -16638,31 +16625,31 @@
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="72"/>
       <c r="B10" s="73"/>
-      <c r="C10" s="537"/>
-      <c r="D10" s="538"/>
-      <c r="E10" s="538" t="s">
+      <c r="C10" s="536"/>
+      <c r="D10" s="537"/>
+      <c r="E10" s="537" t="s">
         <v>552</v>
       </c>
-      <c r="F10" s="538"/>
-      <c r="G10" s="538"/>
-      <c r="H10" s="538"/>
-      <c r="I10" s="538"/>
-      <c r="J10" s="538"/>
-      <c r="K10" s="538"/>
-      <c r="L10" s="539" t="s">
+      <c r="F10" s="537"/>
+      <c r="G10" s="537"/>
+      <c r="H10" s="537"/>
+      <c r="I10" s="537"/>
+      <c r="J10" s="537"/>
+      <c r="K10" s="537"/>
+      <c r="L10" s="538" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="540"/>
-      <c r="N10" s="541"/>
-      <c r="O10" s="542"/>
-      <c r="P10" s="537"/>
-      <c r="Q10" s="543" t="s">
+      <c r="M10" s="539"/>
+      <c r="N10" s="540"/>
+      <c r="O10" s="541"/>
+      <c r="P10" s="536"/>
+      <c r="Q10" s="542" t="s">
         <v>551</v>
       </c>
-      <c r="R10" s="539"/>
-      <c r="S10" s="540"/>
-      <c r="T10" s="541"/>
-      <c r="U10" s="539" t="s">
+      <c r="R10" s="538"/>
+      <c r="S10" s="539"/>
+      <c r="T10" s="540"/>
+      <c r="U10" s="538" t="s">
         <v>547</v>
       </c>
       <c r="V10" s="62"/>
@@ -37931,7 +37918,7 @@
       <c r="T7" s="480" t="s">
         <v>195</v>
       </c>
-      <c r="U7" s="492"/>
+      <c r="U7" s="481"/>
       <c r="V7" s="481" t="s">
         <v>396</v>
       </c>
@@ -37988,7 +37975,7 @@
       <c r="T8" s="480" t="s">
         <v>195</v>
       </c>
-      <c r="U8" s="492"/>
+      <c r="U8" s="481"/>
       <c r="V8" s="481" t="s">
         <v>369</v>
       </c>
@@ -38025,41 +38012,41 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="475"/>
       <c r="B9" s="475"/>
-      <c r="C9" s="493" t="s">
+      <c r="C9" s="492" t="s">
         <v>483</v>
       </c>
-      <c r="D9" s="493"/>
-      <c r="E9" s="493"/>
-      <c r="F9" s="493"/>
-      <c r="G9" s="493"/>
-      <c r="H9" s="493"/>
-      <c r="I9" s="493"/>
-      <c r="J9" s="493"/>
-      <c r="K9" s="493"/>
+      <c r="D9" s="492"/>
+      <c r="E9" s="492"/>
+      <c r="F9" s="492"/>
+      <c r="G9" s="492"/>
+      <c r="H9" s="492"/>
+      <c r="I9" s="492"/>
+      <c r="J9" s="492"/>
+      <c r="K9" s="492"/>
       <c r="L9" s="477" t="s">
         <v>484</v>
       </c>
       <c r="M9" s="478" t="s">
         <v>485</v>
       </c>
-      <c r="N9" s="494"/>
-      <c r="O9" s="495"/>
-      <c r="P9" s="494" t="s">
+      <c r="N9" s="493"/>
+      <c r="O9" s="494"/>
+      <c r="P9" s="493" t="s">
         <v>113</v>
       </c>
       <c r="Q9" s="477"/>
       <c r="R9" s="478"/>
       <c r="S9" s="479"/>
       <c r="T9" s="480"/>
-      <c r="U9" s="492"/>
-      <c r="V9" s="492"/>
-      <c r="W9" s="492"/>
-      <c r="X9" s="492"/>
-      <c r="Y9" s="492"/>
-      <c r="Z9" s="492"/>
-      <c r="AA9" s="492"/>
-      <c r="AB9" s="492"/>
-      <c r="AC9" s="492"/>
+      <c r="U9" s="481"/>
+      <c r="V9" s="481"/>
+      <c r="W9" s="481"/>
+      <c r="X9" s="481"/>
+      <c r="Y9" s="481"/>
+      <c r="Z9" s="481"/>
+      <c r="AA9" s="481"/>
+      <c r="AB9" s="481"/>
+      <c r="AC9" s="481"/>
       <c r="AD9" s="482"/>
       <c r="AE9" s="483"/>
       <c r="AF9" s="484"/>
@@ -38082,30 +38069,30 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="475"/>
       <c r="B10" s="475"/>
-      <c r="C10" s="496" t="s">
+      <c r="C10" s="495" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="496"/>
-      <c r="E10" s="496"/>
-      <c r="F10" s="496"/>
-      <c r="G10" s="496"/>
-      <c r="H10" s="496"/>
-      <c r="I10" s="496"/>
-      <c r="J10" s="496"/>
-      <c r="K10" s="496"/>
+      <c r="D10" s="495"/>
+      <c r="E10" s="495"/>
+      <c r="F10" s="495"/>
+      <c r="G10" s="495"/>
+      <c r="H10" s="495"/>
+      <c r="I10" s="495"/>
+      <c r="J10" s="495"/>
+      <c r="K10" s="495"/>
       <c r="L10" s="477" t="s">
         <v>484</v>
       </c>
       <c r="M10" s="478" t="s">
         <v>485</v>
       </c>
-      <c r="N10" s="494" t="s">
+      <c r="N10" s="493" t="s">
         <v>486</v>
       </c>
-      <c r="O10" s="495" t="s">
+      <c r="O10" s="494" t="s">
         <v>196</v>
       </c>
-      <c r="P10" s="494" t="s">
+      <c r="P10" s="493" t="s">
         <v>487</v>
       </c>
       <c r="Q10" s="477" t="s">
@@ -38116,15 +38103,15 @@
       </c>
       <c r="S10" s="479"/>
       <c r="T10" s="480"/>
-      <c r="U10" s="492"/>
-      <c r="V10" s="492"/>
-      <c r="W10" s="492"/>
-      <c r="X10" s="492"/>
-      <c r="Y10" s="492"/>
-      <c r="Z10" s="492"/>
-      <c r="AA10" s="492"/>
-      <c r="AB10" s="492"/>
-      <c r="AC10" s="492"/>
+      <c r="U10" s="481"/>
+      <c r="V10" s="481"/>
+      <c r="W10" s="481"/>
+      <c r="X10" s="481"/>
+      <c r="Y10" s="481"/>
+      <c r="Z10" s="481"/>
+      <c r="AA10" s="481"/>
+      <c r="AB10" s="481"/>
+      <c r="AC10" s="481"/>
       <c r="AD10" s="482"/>
       <c r="AE10" s="483"/>
       <c r="AF10" s="484"/>
@@ -38148,16 +38135,16 @@
       <c r="A11" s="475"/>
       <c r="B11" s="475"/>
       <c r="C11" s="476"/>
-      <c r="D11" s="496" t="s">
+      <c r="D11" s="495" t="s">
         <v>489</v>
       </c>
-      <c r="E11" s="496"/>
-      <c r="F11" s="496"/>
-      <c r="G11" s="496"/>
-      <c r="H11" s="496"/>
-      <c r="I11" s="496"/>
-      <c r="J11" s="496"/>
-      <c r="K11" s="496"/>
+      <c r="E11" s="495"/>
+      <c r="F11" s="495"/>
+      <c r="G11" s="495"/>
+      <c r="H11" s="495"/>
+      <c r="I11" s="495"/>
+      <c r="J11" s="495"/>
+      <c r="K11" s="495"/>
       <c r="L11" s="477" t="s">
         <v>484</v>
       </c>
@@ -38175,15 +38162,15 @@
       </c>
       <c r="S11" s="479"/>
       <c r="T11" s="480"/>
-      <c r="U11" s="492"/>
-      <c r="V11" s="492"/>
-      <c r="W11" s="492"/>
-      <c r="X11" s="492"/>
-      <c r="Y11" s="492"/>
-      <c r="Z11" s="492"/>
-      <c r="AA11" s="492"/>
-      <c r="AB11" s="492"/>
-      <c r="AC11" s="492"/>
+      <c r="U11" s="481"/>
+      <c r="V11" s="481"/>
+      <c r="W11" s="481"/>
+      <c r="X11" s="481"/>
+      <c r="Y11" s="481"/>
+      <c r="Z11" s="481"/>
+      <c r="AA11" s="481"/>
+      <c r="AB11" s="481"/>
+      <c r="AC11" s="481"/>
       <c r="AD11" s="482"/>
       <c r="AE11" s="483"/>
       <c r="AF11" s="484"/>
@@ -38208,15 +38195,15 @@
       <c r="B12" s="475"/>
       <c r="C12" s="476"/>
       <c r="D12" s="476"/>
-      <c r="E12" s="496" t="s">
+      <c r="E12" s="495" t="s">
         <v>490</v>
       </c>
-      <c r="F12" s="496"/>
-      <c r="G12" s="496"/>
-      <c r="H12" s="496"/>
-      <c r="I12" s="496"/>
-      <c r="J12" s="496"/>
-      <c r="K12" s="496"/>
+      <c r="F12" s="495"/>
+      <c r="G12" s="495"/>
+      <c r="H12" s="495"/>
+      <c r="I12" s="495"/>
+      <c r="J12" s="495"/>
+      <c r="K12" s="495"/>
       <c r="L12" s="477" t="s">
         <v>484</v>
       </c>
@@ -38234,15 +38221,15 @@
       </c>
       <c r="S12" s="479"/>
       <c r="T12" s="480"/>
-      <c r="U12" s="492"/>
-      <c r="V12" s="492"/>
-      <c r="W12" s="492"/>
-      <c r="X12" s="492"/>
-      <c r="Y12" s="492"/>
-      <c r="Z12" s="492"/>
-      <c r="AA12" s="492"/>
-      <c r="AB12" s="492"/>
-      <c r="AC12" s="492"/>
+      <c r="U12" s="481"/>
+      <c r="V12" s="481"/>
+      <c r="W12" s="481"/>
+      <c r="X12" s="481"/>
+      <c r="Y12" s="481"/>
+      <c r="Z12" s="481"/>
+      <c r="AA12" s="481"/>
+      <c r="AB12" s="481"/>
+      <c r="AC12" s="481"/>
       <c r="AD12" s="482"/>
       <c r="AE12" s="483"/>
       <c r="AF12" s="484"/>
@@ -38267,15 +38254,15 @@
       <c r="B13" s="475"/>
       <c r="C13" s="476"/>
       <c r="D13" s="476"/>
-      <c r="E13" s="497"/>
-      <c r="F13" s="497" t="s">
+      <c r="E13" s="496"/>
+      <c r="F13" s="496" t="s">
         <v>491</v>
       </c>
-      <c r="G13" s="497"/>
-      <c r="H13" s="497"/>
-      <c r="I13" s="497"/>
-      <c r="J13" s="497"/>
-      <c r="K13" s="497"/>
+      <c r="G13" s="496"/>
+      <c r="H13" s="496"/>
+      <c r="I13" s="496"/>
+      <c r="J13" s="496"/>
+      <c r="K13" s="496"/>
       <c r="L13" s="477"/>
       <c r="M13" s="478"/>
       <c r="N13" s="32"/>
@@ -38283,19 +38270,19 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="477"/>
       <c r="R13" s="478"/>
-      <c r="S13" s="498" t="s">
+      <c r="S13" s="497" t="s">
         <v>492</v>
       </c>
       <c r="T13" s="480"/>
-      <c r="U13" s="492"/>
-      <c r="V13" s="492"/>
-      <c r="W13" s="492"/>
-      <c r="X13" s="492"/>
-      <c r="Y13" s="492"/>
-      <c r="Z13" s="492"/>
-      <c r="AA13" s="492"/>
-      <c r="AB13" s="492"/>
-      <c r="AC13" s="492"/>
+      <c r="U13" s="481"/>
+      <c r="V13" s="481"/>
+      <c r="W13" s="481"/>
+      <c r="X13" s="481"/>
+      <c r="Y13" s="481"/>
+      <c r="Z13" s="481"/>
+      <c r="AA13" s="481"/>
+      <c r="AB13" s="481"/>
+      <c r="AC13" s="481"/>
       <c r="AD13" s="482"/>
       <c r="AE13" s="483"/>
       <c r="AF13" s="484"/>
@@ -38336,8 +38323,8 @@
       <c r="R14" s="478"/>
       <c r="S14" s="479"/>
       <c r="T14" s="480"/>
-      <c r="U14" s="492"/>
-      <c r="V14" s="492"/>
+      <c r="U14" s="481"/>
+      <c r="V14" s="481"/>
       <c r="W14" s="481" t="s">
         <v>493</v>
       </c>
@@ -38393,9 +38380,9 @@
       <c r="T15" s="480" t="s">
         <v>331</v>
       </c>
-      <c r="U15" s="492"/>
-      <c r="V15" s="492"/>
-      <c r="W15" s="492"/>
+      <c r="U15" s="481"/>
+      <c r="V15" s="481"/>
+      <c r="W15" s="481"/>
       <c r="X15" s="481" t="s">
         <v>494</v>
       </c>
@@ -38448,10 +38435,10 @@
       <c r="R16" s="478"/>
       <c r="S16" s="479"/>
       <c r="T16" s="480"/>
-      <c r="U16" s="492"/>
-      <c r="V16" s="492"/>
-      <c r="W16" s="492"/>
-      <c r="X16" s="492"/>
+      <c r="U16" s="481"/>
+      <c r="V16" s="481"/>
+      <c r="W16" s="481"/>
+      <c r="X16" s="481"/>
       <c r="Y16" s="481" t="s">
         <v>495</v>
       </c>
@@ -38499,9 +38486,9 @@
       <c r="R17" s="478"/>
       <c r="S17" s="479"/>
       <c r="T17" s="480"/>
-      <c r="U17" s="492"/>
-      <c r="V17" s="492"/>
-      <c r="W17" s="492"/>
+      <c r="U17" s="481"/>
+      <c r="V17" s="481"/>
+      <c r="W17" s="481"/>
       <c r="X17" s="481" t="s">
         <v>496</v>
       </c>
@@ -38556,10 +38543,10 @@
       <c r="T18" s="480" t="s">
         <v>237</v>
       </c>
-      <c r="U18" s="492"/>
-      <c r="V18" s="492"/>
-      <c r="W18" s="492"/>
-      <c r="X18" s="492"/>
+      <c r="U18" s="481"/>
+      <c r="V18" s="481"/>
+      <c r="W18" s="481"/>
+      <c r="X18" s="481"/>
       <c r="Y18" s="481" t="s">
         <v>497</v>
       </c>
@@ -38613,11 +38600,11 @@
       <c r="T19" s="480" t="s">
         <v>195</v>
       </c>
-      <c r="U19" s="492"/>
-      <c r="V19" s="492"/>
-      <c r="W19" s="492"/>
-      <c r="X19" s="492"/>
-      <c r="Y19" s="492"/>
+      <c r="U19" s="481"/>
+      <c r="V19" s="481"/>
+      <c r="W19" s="481"/>
+      <c r="X19" s="481"/>
+      <c r="Y19" s="481"/>
       <c r="Z19" s="481" t="s">
         <v>498</v>
       </c>
@@ -38668,10 +38655,10 @@
       <c r="R20" s="478"/>
       <c r="S20" s="479"/>
       <c r="T20" s="480"/>
-      <c r="U20" s="492"/>
-      <c r="V20" s="492"/>
-      <c r="W20" s="492"/>
-      <c r="X20" s="492"/>
+      <c r="U20" s="481"/>
+      <c r="V20" s="481"/>
+      <c r="W20" s="481"/>
+      <c r="X20" s="481"/>
       <c r="Y20" s="481" t="s">
         <v>499</v>
       </c>
@@ -38680,10 +38667,10 @@
       <c r="AB20" s="481"/>
       <c r="AC20" s="481"/>
       <c r="AD20" s="482"/>
-      <c r="AE20" s="499" t="s">
+      <c r="AE20" s="498" t="s">
         <v>500</v>
       </c>
-      <c r="AF20" s="500" t="s">
+      <c r="AF20" s="499" t="s">
         <v>501</v>
       </c>
       <c r="AG20" s="485"/>
@@ -38710,51 +38697,51 @@
       <c r="E21" s="476"/>
       <c r="F21" s="476"/>
       <c r="G21" s="476"/>
-      <c r="H21" s="496" t="s">
+      <c r="H21" s="495" t="s">
         <v>502</v>
       </c>
-      <c r="I21" s="496"/>
-      <c r="J21" s="496"/>
-      <c r="K21" s="496"/>
-      <c r="L21" s="501" t="s">
+      <c r="I21" s="495"/>
+      <c r="J21" s="495"/>
+      <c r="K21" s="495"/>
+      <c r="L21" s="500" t="s">
         <v>484</v>
       </c>
-      <c r="M21" s="502" t="s">
+      <c r="M21" s="501" t="s">
         <v>485</v>
       </c>
       <c r="N21" s="32"/>
       <c r="O21" s="34"/>
       <c r="P21" s="32"/>
-      <c r="Q21" s="503"/>
-      <c r="R21" s="504"/>
+      <c r="Q21" s="502"/>
+      <c r="R21" s="503"/>
       <c r="S21" s="30"/>
-      <c r="T21" s="505"/>
-      <c r="U21" s="506"/>
-      <c r="V21" s="506"/>
-      <c r="W21" s="506"/>
-      <c r="X21" s="506"/>
-      <c r="Y21" s="506"/>
-      <c r="Z21" s="506"/>
-      <c r="AA21" s="506"/>
-      <c r="AB21" s="506"/>
-      <c r="AC21" s="506"/>
+      <c r="T21" s="504"/>
+      <c r="U21" s="505"/>
+      <c r="V21" s="505"/>
+      <c r="W21" s="505"/>
+      <c r="X21" s="505"/>
+      <c r="Y21" s="505"/>
+      <c r="Z21" s="505"/>
+      <c r="AA21" s="505"/>
+      <c r="AB21" s="505"/>
+      <c r="AC21" s="505"/>
       <c r="AD21" s="482"/>
       <c r="AE21" s="483"/>
       <c r="AF21" s="484"/>
       <c r="AG21" s="485"/>
-      <c r="AH21" s="507"/>
+      <c r="AH21" s="506"/>
       <c r="AI21" s="253"/>
       <c r="AJ21" s="487"/>
-      <c r="AK21" s="508"/>
-      <c r="AL21" s="508"/>
-      <c r="AM21" s="508"/>
-      <c r="AN21" s="509"/>
+      <c r="AK21" s="507"/>
+      <c r="AL21" s="507"/>
+      <c r="AM21" s="507"/>
+      <c r="AN21" s="508"/>
       <c r="AO21" s="489"/>
-      <c r="AP21" s="509"/>
+      <c r="AP21" s="508"/>
       <c r="AQ21" s="489"/>
-      <c r="AR21" s="509"/>
+      <c r="AR21" s="508"/>
       <c r="AS21" s="489"/>
-      <c r="AT21" s="510"/>
+      <c r="AT21" s="509"/>
       <c r="AU21" s="474"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38765,25 +38752,25 @@
       <c r="E22" s="476"/>
       <c r="F22" s="476"/>
       <c r="G22" s="476"/>
-      <c r="H22" s="511"/>
-      <c r="I22" s="511"/>
-      <c r="J22" s="511"/>
-      <c r="K22" s="511"/>
-      <c r="L22" s="512"/>
-      <c r="M22" s="513"/>
+      <c r="H22" s="510"/>
+      <c r="I22" s="510"/>
+      <c r="J22" s="510"/>
+      <c r="K22" s="510"/>
+      <c r="L22" s="511"/>
+      <c r="M22" s="512"/>
       <c r="N22" s="32"/>
       <c r="O22" s="34"/>
       <c r="P22" s="32"/>
-      <c r="Q22" s="503"/>
-      <c r="R22" s="504"/>
+      <c r="Q22" s="502"/>
+      <c r="R22" s="503"/>
       <c r="S22" s="30"/>
-      <c r="T22" s="505"/>
-      <c r="U22" s="506"/>
-      <c r="V22" s="506"/>
-      <c r="W22" s="506"/>
-      <c r="X22" s="506"/>
-      <c r="Y22" s="506"/>
-      <c r="Z22" s="506"/>
+      <c r="T22" s="504"/>
+      <c r="U22" s="505"/>
+      <c r="V22" s="505"/>
+      <c r="W22" s="505"/>
+      <c r="X22" s="505"/>
+      <c r="Y22" s="505"/>
+      <c r="Z22" s="505"/>
       <c r="AA22" s="481" t="s">
         <v>503</v>
       </c>
@@ -38797,19 +38784,19 @@
         <v>480</v>
       </c>
       <c r="AG22" s="485"/>
-      <c r="AH22" s="507"/>
+      <c r="AH22" s="506"/>
       <c r="AI22" s="253"/>
       <c r="AJ22" s="487"/>
-      <c r="AK22" s="508"/>
-      <c r="AL22" s="508"/>
-      <c r="AM22" s="508"/>
-      <c r="AN22" s="509"/>
+      <c r="AK22" s="507"/>
+      <c r="AL22" s="507"/>
+      <c r="AM22" s="507"/>
+      <c r="AN22" s="508"/>
       <c r="AO22" s="489"/>
-      <c r="AP22" s="509"/>
+      <c r="AP22" s="508"/>
       <c r="AQ22" s="489"/>
-      <c r="AR22" s="509"/>
+      <c r="AR22" s="508"/>
       <c r="AS22" s="489"/>
-      <c r="AT22" s="510"/>
+      <c r="AT22" s="509"/>
       <c r="AU22" s="474"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38820,28 +38807,28 @@
       <c r="E23" s="476"/>
       <c r="F23" s="476"/>
       <c r="G23" s="476"/>
-      <c r="H23" s="511"/>
-      <c r="I23" s="511"/>
-      <c r="J23" s="511"/>
-      <c r="K23" s="511"/>
-      <c r="L23" s="512"/>
-      <c r="M23" s="513"/>
+      <c r="H23" s="510"/>
+      <c r="I23" s="510"/>
+      <c r="J23" s="510"/>
+      <c r="K23" s="510"/>
+      <c r="L23" s="511"/>
+      <c r="M23" s="512"/>
       <c r="N23" s="32"/>
       <c r="O23" s="34"/>
       <c r="P23" s="32"/>
-      <c r="Q23" s="503"/>
-      <c r="R23" s="504"/>
+      <c r="Q23" s="502"/>
+      <c r="R23" s="503"/>
       <c r="S23" s="30"/>
-      <c r="T23" s="505" t="s">
+      <c r="T23" s="504" t="s">
         <v>237</v>
       </c>
-      <c r="U23" s="506"/>
-      <c r="V23" s="506"/>
-      <c r="W23" s="506"/>
-      <c r="X23" s="506"/>
-      <c r="Y23" s="506"/>
-      <c r="Z23" s="506"/>
-      <c r="AA23" s="506"/>
+      <c r="U23" s="505"/>
+      <c r="V23" s="505"/>
+      <c r="W23" s="505"/>
+      <c r="X23" s="505"/>
+      <c r="Y23" s="505"/>
+      <c r="Z23" s="505"/>
+      <c r="AA23" s="505"/>
       <c r="AB23" s="481" t="s">
         <v>504</v>
       </c>
@@ -38854,19 +38841,19 @@
         <v>232</v>
       </c>
       <c r="AG23" s="485"/>
-      <c r="AH23" s="507"/>
+      <c r="AH23" s="506"/>
       <c r="AI23" s="253"/>
       <c r="AJ23" s="487"/>
-      <c r="AK23" s="508"/>
-      <c r="AL23" s="508"/>
-      <c r="AM23" s="508"/>
-      <c r="AN23" s="509"/>
+      <c r="AK23" s="507"/>
+      <c r="AL23" s="507"/>
+      <c r="AM23" s="507"/>
+      <c r="AN23" s="508"/>
       <c r="AO23" s="489"/>
-      <c r="AP23" s="509"/>
+      <c r="AP23" s="508"/>
       <c r="AQ23" s="489"/>
-      <c r="AR23" s="509"/>
+      <c r="AR23" s="508"/>
       <c r="AS23" s="489"/>
-      <c r="AT23" s="510"/>
+      <c r="AT23" s="509"/>
       <c r="AU23" s="474"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38877,29 +38864,29 @@
       <c r="E24" s="476"/>
       <c r="F24" s="476"/>
       <c r="G24" s="476"/>
-      <c r="H24" s="511"/>
-      <c r="I24" s="511"/>
-      <c r="J24" s="511"/>
-      <c r="K24" s="511"/>
-      <c r="L24" s="512"/>
-      <c r="M24" s="513"/>
+      <c r="H24" s="510"/>
+      <c r="I24" s="510"/>
+      <c r="J24" s="510"/>
+      <c r="K24" s="510"/>
+      <c r="L24" s="511"/>
+      <c r="M24" s="512"/>
       <c r="N24" s="32"/>
       <c r="O24" s="34"/>
       <c r="P24" s="32"/>
-      <c r="Q24" s="503"/>
-      <c r="R24" s="504"/>
+      <c r="Q24" s="502"/>
+      <c r="R24" s="503"/>
       <c r="S24" s="30"/>
-      <c r="T24" s="505" t="s">
+      <c r="T24" s="504" t="s">
         <v>195</v>
       </c>
-      <c r="U24" s="506"/>
-      <c r="V24" s="506"/>
-      <c r="W24" s="506"/>
-      <c r="X24" s="506"/>
-      <c r="Y24" s="506"/>
-      <c r="Z24" s="506"/>
-      <c r="AA24" s="506"/>
-      <c r="AB24" s="506"/>
+      <c r="U24" s="505"/>
+      <c r="V24" s="505"/>
+      <c r="W24" s="505"/>
+      <c r="X24" s="505"/>
+      <c r="Y24" s="505"/>
+      <c r="Z24" s="505"/>
+      <c r="AA24" s="505"/>
+      <c r="AB24" s="505"/>
       <c r="AC24" s="481" t="s">
         <v>505</v>
       </c>
@@ -38907,23 +38894,23 @@
       <c r="AE24" s="483"/>
       <c r="AF24" s="484"/>
       <c r="AG24" s="485"/>
-      <c r="AH24" s="507" t="s">
+      <c r="AH24" s="506" t="s">
         <v>240</v>
       </c>
       <c r="AI24" s="253" t="s">
         <v>506</v>
       </c>
       <c r="AJ24" s="487"/>
-      <c r="AK24" s="508"/>
-      <c r="AL24" s="508"/>
-      <c r="AM24" s="508"/>
-      <c r="AN24" s="509"/>
+      <c r="AK24" s="507"/>
+      <c r="AL24" s="507"/>
+      <c r="AM24" s="507"/>
+      <c r="AN24" s="508"/>
       <c r="AO24" s="489"/>
-      <c r="AP24" s="509"/>
+      <c r="AP24" s="508"/>
       <c r="AQ24" s="489"/>
-      <c r="AR24" s="509"/>
+      <c r="AR24" s="508"/>
       <c r="AS24" s="489"/>
-      <c r="AT24" s="510"/>
+      <c r="AT24" s="509"/>
       <c r="AU24" s="474"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38934,51 +38921,51 @@
       <c r="E25" s="476"/>
       <c r="F25" s="476"/>
       <c r="G25" s="476"/>
-      <c r="H25" s="511"/>
-      <c r="I25" s="511"/>
-      <c r="J25" s="511"/>
-      <c r="K25" s="511"/>
-      <c r="L25" s="512"/>
-      <c r="M25" s="513"/>
+      <c r="H25" s="510"/>
+      <c r="I25" s="510"/>
+      <c r="J25" s="510"/>
+      <c r="K25" s="510"/>
+      <c r="L25" s="511"/>
+      <c r="M25" s="512"/>
       <c r="N25" s="32"/>
       <c r="O25" s="34"/>
       <c r="P25" s="32"/>
-      <c r="Q25" s="503"/>
-      <c r="R25" s="504"/>
+      <c r="Q25" s="502"/>
+      <c r="R25" s="503"/>
       <c r="S25" s="30"/>
-      <c r="T25" s="505"/>
-      <c r="U25" s="506"/>
-      <c r="V25" s="506"/>
-      <c r="W25" s="506"/>
-      <c r="X25" s="506"/>
-      <c r="Y25" s="506"/>
-      <c r="Z25" s="506"/>
-      <c r="AA25" s="506"/>
+      <c r="T25" s="504"/>
+      <c r="U25" s="505"/>
+      <c r="V25" s="505"/>
+      <c r="W25" s="505"/>
+      <c r="X25" s="505"/>
+      <c r="Y25" s="505"/>
+      <c r="Z25" s="505"/>
+      <c r="AA25" s="505"/>
       <c r="AB25" s="481" t="s">
         <v>507</v>
       </c>
       <c r="AC25" s="481"/>
       <c r="AD25" s="482"/>
-      <c r="AE25" s="499" t="s">
+      <c r="AE25" s="498" t="s">
         <v>500</v>
       </c>
-      <c r="AF25" s="500" t="s">
+      <c r="AF25" s="499" t="s">
         <v>501</v>
       </c>
       <c r="AG25" s="485"/>
-      <c r="AH25" s="507"/>
+      <c r="AH25" s="506"/>
       <c r="AI25" s="253"/>
       <c r="AJ25" s="487"/>
-      <c r="AK25" s="508"/>
-      <c r="AL25" s="508"/>
-      <c r="AM25" s="508"/>
-      <c r="AN25" s="509"/>
+      <c r="AK25" s="507"/>
+      <c r="AL25" s="507"/>
+      <c r="AM25" s="507"/>
+      <c r="AN25" s="508"/>
       <c r="AO25" s="489"/>
-      <c r="AP25" s="509"/>
+      <c r="AP25" s="508"/>
       <c r="AQ25" s="489"/>
-      <c r="AR25" s="509"/>
+      <c r="AR25" s="508"/>
       <c r="AS25" s="489"/>
-      <c r="AT25" s="510"/>
+      <c r="AT25" s="509"/>
       <c r="AU25" s="474"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38989,53 +38976,53 @@
       <c r="E26" s="476"/>
       <c r="F26" s="476"/>
       <c r="G26" s="476"/>
-      <c r="H26" s="511"/>
-      <c r="I26" s="511"/>
-      <c r="J26" s="511"/>
-      <c r="K26" s="514" t="s">
+      <c r="H26" s="510"/>
+      <c r="I26" s="510"/>
+      <c r="J26" s="510"/>
+      <c r="K26" s="513" t="s">
         <v>503</v>
       </c>
-      <c r="L26" s="515"/>
-      <c r="M26" s="516"/>
-      <c r="N26" s="494" t="s">
+      <c r="L26" s="514"/>
+      <c r="M26" s="515"/>
+      <c r="N26" s="493" t="s">
         <v>508</v>
       </c>
-      <c r="O26" s="495" t="s">
+      <c r="O26" s="494" t="s">
         <v>196</v>
       </c>
-      <c r="P26" s="494" t="s">
+      <c r="P26" s="493" t="s">
         <v>509</v>
       </c>
-      <c r="Q26" s="503"/>
-      <c r="R26" s="504"/>
+      <c r="Q26" s="502"/>
+      <c r="R26" s="503"/>
       <c r="S26" s="30"/>
-      <c r="T26" s="505"/>
-      <c r="U26" s="506"/>
-      <c r="V26" s="506"/>
-      <c r="W26" s="506"/>
-      <c r="X26" s="506"/>
-      <c r="Y26" s="506"/>
-      <c r="Z26" s="506"/>
-      <c r="AA26" s="506"/>
-      <c r="AB26" s="506"/>
-      <c r="AC26" s="506"/>
+      <c r="T26" s="504"/>
+      <c r="U26" s="505"/>
+      <c r="V26" s="505"/>
+      <c r="W26" s="505"/>
+      <c r="X26" s="505"/>
+      <c r="Y26" s="505"/>
+      <c r="Z26" s="505"/>
+      <c r="AA26" s="505"/>
+      <c r="AB26" s="505"/>
+      <c r="AC26" s="505"/>
       <c r="AD26" s="482"/>
       <c r="AE26" s="483"/>
       <c r="AF26" s="484"/>
       <c r="AG26" s="485"/>
-      <c r="AH26" s="507"/>
+      <c r="AH26" s="506"/>
       <c r="AI26" s="253"/>
       <c r="AJ26" s="487"/>
-      <c r="AK26" s="508"/>
-      <c r="AL26" s="508"/>
-      <c r="AM26" s="508"/>
-      <c r="AN26" s="509"/>
+      <c r="AK26" s="507"/>
+      <c r="AL26" s="507"/>
+      <c r="AM26" s="507"/>
+      <c r="AN26" s="508"/>
       <c r="AO26" s="489"/>
-      <c r="AP26" s="509"/>
+      <c r="AP26" s="508"/>
       <c r="AQ26" s="489"/>
-      <c r="AR26" s="509"/>
+      <c r="AR26" s="508"/>
       <c r="AS26" s="489"/>
-      <c r="AT26" s="510"/>
+      <c r="AT26" s="509"/>
       <c r="AU26" s="474"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39059,8 +39046,8 @@
       <c r="R27" s="478"/>
       <c r="S27" s="479"/>
       <c r="T27" s="480"/>
-      <c r="U27" s="492"/>
-      <c r="V27" s="492"/>
+      <c r="U27" s="481"/>
+      <c r="V27" s="481"/>
       <c r="W27" s="481" t="s">
         <v>510</v>
       </c>
@@ -39116,9 +39103,9 @@
       <c r="T28" s="480" t="s">
         <v>331</v>
       </c>
-      <c r="U28" s="492"/>
-      <c r="V28" s="492"/>
-      <c r="W28" s="492"/>
+      <c r="U28" s="481"/>
+      <c r="V28" s="481"/>
+      <c r="W28" s="481"/>
       <c r="X28" s="481" t="s">
         <v>511</v>
       </c>
@@ -39171,10 +39158,10 @@
       <c r="R29" s="478"/>
       <c r="S29" s="479"/>
       <c r="T29" s="480"/>
-      <c r="U29" s="492"/>
-      <c r="V29" s="492"/>
-      <c r="W29" s="492"/>
-      <c r="X29" s="492"/>
+      <c r="U29" s="481"/>
+      <c r="V29" s="481"/>
+      <c r="W29" s="481"/>
+      <c r="X29" s="481"/>
       <c r="Y29" s="481" t="s">
         <v>512</v>
       </c>
@@ -39222,9 +39209,9 @@
       <c r="R30" s="478"/>
       <c r="S30" s="479"/>
       <c r="T30" s="480"/>
-      <c r="U30" s="492"/>
-      <c r="V30" s="492"/>
-      <c r="W30" s="492"/>
+      <c r="U30" s="481"/>
+      <c r="V30" s="481"/>
+      <c r="W30" s="481"/>
       <c r="X30" s="481" t="s">
         <v>513</v>
       </c>
@@ -39279,10 +39266,10 @@
       <c r="T31" s="480" t="s">
         <v>237</v>
       </c>
-      <c r="U31" s="492"/>
-      <c r="V31" s="492"/>
-      <c r="W31" s="492"/>
-      <c r="X31" s="492"/>
+      <c r="U31" s="481"/>
+      <c r="V31" s="481"/>
+      <c r="W31" s="481"/>
+      <c r="X31" s="481"/>
       <c r="Y31" s="481" t="s">
         <v>514</v>
       </c>
@@ -39336,11 +39323,11 @@
       <c r="T32" s="480" t="s">
         <v>195</v>
       </c>
-      <c r="U32" s="492"/>
-      <c r="V32" s="492"/>
-      <c r="W32" s="492"/>
-      <c r="X32" s="492"/>
-      <c r="Y32" s="492"/>
+      <c r="U32" s="481"/>
+      <c r="V32" s="481"/>
+      <c r="W32" s="481"/>
+      <c r="X32" s="481"/>
+      <c r="Y32" s="481"/>
       <c r="Z32" s="481" t="s">
         <v>515</v>
       </c>
@@ -39391,10 +39378,10 @@
       <c r="R33" s="478"/>
       <c r="S33" s="479"/>
       <c r="T33" s="480"/>
-      <c r="U33" s="492"/>
-      <c r="V33" s="492"/>
-      <c r="W33" s="492"/>
-      <c r="X33" s="492"/>
+      <c r="U33" s="481"/>
+      <c r="V33" s="481"/>
+      <c r="W33" s="481"/>
+      <c r="X33" s="481"/>
       <c r="Y33" s="481" t="s">
         <v>516</v>
       </c>
@@ -39403,10 +39390,10 @@
       <c r="AB33" s="481"/>
       <c r="AC33" s="481"/>
       <c r="AD33" s="482"/>
-      <c r="AE33" s="499" t="s">
+      <c r="AE33" s="498" t="s">
         <v>500</v>
       </c>
-      <c r="AF33" s="500" t="s">
+      <c r="AF33" s="499" t="s">
         <v>501</v>
       </c>
       <c r="AG33" s="485"/>
@@ -39433,51 +39420,51 @@
       <c r="E34" s="476"/>
       <c r="F34" s="476"/>
       <c r="G34" s="476"/>
-      <c r="H34" s="496" t="s">
+      <c r="H34" s="495" t="s">
         <v>517</v>
       </c>
-      <c r="I34" s="496"/>
-      <c r="J34" s="496"/>
-      <c r="K34" s="496"/>
-      <c r="L34" s="501" t="s">
+      <c r="I34" s="495"/>
+      <c r="J34" s="495"/>
+      <c r="K34" s="495"/>
+      <c r="L34" s="500" t="s">
         <v>484</v>
       </c>
-      <c r="M34" s="502" t="s">
+      <c r="M34" s="501" t="s">
         <v>485</v>
       </c>
       <c r="N34" s="32"/>
       <c r="O34" s="34"/>
       <c r="P34" s="32"/>
-      <c r="Q34" s="503"/>
-      <c r="R34" s="504"/>
+      <c r="Q34" s="502"/>
+      <c r="R34" s="503"/>
       <c r="S34" s="30"/>
-      <c r="T34" s="505"/>
-      <c r="U34" s="506"/>
-      <c r="V34" s="506"/>
-      <c r="W34" s="506"/>
-      <c r="X34" s="506"/>
-      <c r="Y34" s="506"/>
-      <c r="Z34" s="506"/>
-      <c r="AA34" s="506"/>
-      <c r="AB34" s="506"/>
-      <c r="AC34" s="506"/>
+      <c r="T34" s="504"/>
+      <c r="U34" s="505"/>
+      <c r="V34" s="505"/>
+      <c r="W34" s="505"/>
+      <c r="X34" s="505"/>
+      <c r="Y34" s="505"/>
+      <c r="Z34" s="505"/>
+      <c r="AA34" s="505"/>
+      <c r="AB34" s="505"/>
+      <c r="AC34" s="505"/>
       <c r="AD34" s="482"/>
       <c r="AE34" s="483"/>
       <c r="AF34" s="484"/>
       <c r="AG34" s="485"/>
-      <c r="AH34" s="507"/>
+      <c r="AH34" s="506"/>
       <c r="AI34" s="253"/>
       <c r="AJ34" s="487"/>
-      <c r="AK34" s="508"/>
-      <c r="AL34" s="508"/>
-      <c r="AM34" s="508"/>
-      <c r="AN34" s="509"/>
+      <c r="AK34" s="507"/>
+      <c r="AL34" s="507"/>
+      <c r="AM34" s="507"/>
+      <c r="AN34" s="508"/>
       <c r="AO34" s="489"/>
-      <c r="AP34" s="509"/>
+      <c r="AP34" s="508"/>
       <c r="AQ34" s="489"/>
-      <c r="AR34" s="509"/>
+      <c r="AR34" s="508"/>
       <c r="AS34" s="489"/>
-      <c r="AT34" s="510"/>
+      <c r="AT34" s="509"/>
       <c r="AU34" s="474"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39488,25 +39475,25 @@
       <c r="E35" s="476"/>
       <c r="F35" s="476"/>
       <c r="G35" s="476"/>
-      <c r="H35" s="511"/>
-      <c r="I35" s="511"/>
-      <c r="J35" s="511"/>
-      <c r="K35" s="511"/>
-      <c r="L35" s="512"/>
-      <c r="M35" s="513"/>
+      <c r="H35" s="510"/>
+      <c r="I35" s="510"/>
+      <c r="J35" s="510"/>
+      <c r="K35" s="510"/>
+      <c r="L35" s="511"/>
+      <c r="M35" s="512"/>
       <c r="N35" s="32"/>
       <c r="O35" s="34"/>
       <c r="P35" s="32"/>
-      <c r="Q35" s="503"/>
-      <c r="R35" s="504"/>
+      <c r="Q35" s="502"/>
+      <c r="R35" s="503"/>
       <c r="S35" s="30"/>
-      <c r="T35" s="505"/>
-      <c r="U35" s="506"/>
-      <c r="V35" s="506"/>
-      <c r="W35" s="506"/>
-      <c r="X35" s="506"/>
-      <c r="Y35" s="506"/>
-      <c r="Z35" s="506"/>
+      <c r="T35" s="504"/>
+      <c r="U35" s="505"/>
+      <c r="V35" s="505"/>
+      <c r="W35" s="505"/>
+      <c r="X35" s="505"/>
+      <c r="Y35" s="505"/>
+      <c r="Z35" s="505"/>
       <c r="AA35" s="481" t="s">
         <v>518</v>
       </c>
@@ -39520,19 +39507,19 @@
         <v>480</v>
       </c>
       <c r="AG35" s="485"/>
-      <c r="AH35" s="507"/>
+      <c r="AH35" s="506"/>
       <c r="AI35" s="253"/>
       <c r="AJ35" s="487"/>
-      <c r="AK35" s="508"/>
-      <c r="AL35" s="508"/>
-      <c r="AM35" s="508"/>
-      <c r="AN35" s="509"/>
+      <c r="AK35" s="507"/>
+      <c r="AL35" s="507"/>
+      <c r="AM35" s="507"/>
+      <c r="AN35" s="508"/>
       <c r="AO35" s="489"/>
-      <c r="AP35" s="509"/>
+      <c r="AP35" s="508"/>
       <c r="AQ35" s="489"/>
-      <c r="AR35" s="509"/>
+      <c r="AR35" s="508"/>
       <c r="AS35" s="489"/>
-      <c r="AT35" s="510"/>
+      <c r="AT35" s="509"/>
       <c r="AU35" s="474"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39543,28 +39530,28 @@
       <c r="E36" s="476"/>
       <c r="F36" s="476"/>
       <c r="G36" s="476"/>
-      <c r="H36" s="511"/>
-      <c r="I36" s="511"/>
-      <c r="J36" s="511"/>
-      <c r="K36" s="511"/>
-      <c r="L36" s="512"/>
-      <c r="M36" s="513"/>
+      <c r="H36" s="510"/>
+      <c r="I36" s="510"/>
+      <c r="J36" s="510"/>
+      <c r="K36" s="510"/>
+      <c r="L36" s="511"/>
+      <c r="M36" s="512"/>
       <c r="N36" s="32"/>
       <c r="O36" s="34"/>
       <c r="P36" s="32"/>
-      <c r="Q36" s="503"/>
-      <c r="R36" s="504"/>
+      <c r="Q36" s="502"/>
+      <c r="R36" s="503"/>
       <c r="S36" s="30"/>
-      <c r="T36" s="505" t="s">
+      <c r="T36" s="504" t="s">
         <v>237</v>
       </c>
-      <c r="U36" s="506"/>
-      <c r="V36" s="506"/>
-      <c r="W36" s="506"/>
-      <c r="X36" s="506"/>
-      <c r="Y36" s="506"/>
-      <c r="Z36" s="506"/>
-      <c r="AA36" s="506"/>
+      <c r="U36" s="505"/>
+      <c r="V36" s="505"/>
+      <c r="W36" s="505"/>
+      <c r="X36" s="505"/>
+      <c r="Y36" s="505"/>
+      <c r="Z36" s="505"/>
+      <c r="AA36" s="505"/>
       <c r="AB36" s="481" t="s">
         <v>519</v>
       </c>
@@ -39577,19 +39564,19 @@
         <v>232</v>
       </c>
       <c r="AG36" s="485"/>
-      <c r="AH36" s="507"/>
+      <c r="AH36" s="506"/>
       <c r="AI36" s="253"/>
       <c r="AJ36" s="487"/>
-      <c r="AK36" s="508"/>
-      <c r="AL36" s="508"/>
-      <c r="AM36" s="508"/>
-      <c r="AN36" s="509"/>
+      <c r="AK36" s="507"/>
+      <c r="AL36" s="507"/>
+      <c r="AM36" s="507"/>
+      <c r="AN36" s="508"/>
       <c r="AO36" s="489"/>
-      <c r="AP36" s="509"/>
+      <c r="AP36" s="508"/>
       <c r="AQ36" s="489"/>
-      <c r="AR36" s="509"/>
+      <c r="AR36" s="508"/>
       <c r="AS36" s="489"/>
-      <c r="AT36" s="510"/>
+      <c r="AT36" s="509"/>
       <c r="AU36" s="474"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39600,29 +39587,29 @@
       <c r="E37" s="476"/>
       <c r="F37" s="476"/>
       <c r="G37" s="476"/>
-      <c r="H37" s="511"/>
-      <c r="I37" s="511"/>
-      <c r="J37" s="511"/>
-      <c r="K37" s="511"/>
-      <c r="L37" s="512"/>
-      <c r="M37" s="513"/>
+      <c r="H37" s="510"/>
+      <c r="I37" s="510"/>
+      <c r="J37" s="510"/>
+      <c r="K37" s="510"/>
+      <c r="L37" s="511"/>
+      <c r="M37" s="512"/>
       <c r="N37" s="32"/>
       <c r="O37" s="34"/>
       <c r="P37" s="32"/>
-      <c r="Q37" s="503"/>
-      <c r="R37" s="504"/>
+      <c r="Q37" s="502"/>
+      <c r="R37" s="503"/>
       <c r="S37" s="30"/>
-      <c r="T37" s="505" t="s">
+      <c r="T37" s="504" t="s">
         <v>195</v>
       </c>
-      <c r="U37" s="506"/>
-      <c r="V37" s="506"/>
-      <c r="W37" s="506"/>
-      <c r="X37" s="506"/>
-      <c r="Y37" s="506"/>
-      <c r="Z37" s="506"/>
-      <c r="AA37" s="506"/>
-      <c r="AB37" s="506"/>
+      <c r="U37" s="505"/>
+      <c r="V37" s="505"/>
+      <c r="W37" s="505"/>
+      <c r="X37" s="505"/>
+      <c r="Y37" s="505"/>
+      <c r="Z37" s="505"/>
+      <c r="AA37" s="505"/>
+      <c r="AB37" s="505"/>
       <c r="AC37" s="481" t="s">
         <v>520</v>
       </c>
@@ -39630,23 +39617,23 @@
       <c r="AE37" s="483"/>
       <c r="AF37" s="484"/>
       <c r="AG37" s="485"/>
-      <c r="AH37" s="507" t="s">
+      <c r="AH37" s="506" t="s">
         <v>240</v>
       </c>
       <c r="AI37" s="253" t="s">
         <v>521</v>
       </c>
       <c r="AJ37" s="487"/>
-      <c r="AK37" s="508"/>
-      <c r="AL37" s="508"/>
-      <c r="AM37" s="508"/>
-      <c r="AN37" s="509"/>
+      <c r="AK37" s="507"/>
+      <c r="AL37" s="507"/>
+      <c r="AM37" s="507"/>
+      <c r="AN37" s="508"/>
       <c r="AO37" s="489"/>
-      <c r="AP37" s="509"/>
+      <c r="AP37" s="508"/>
       <c r="AQ37" s="489"/>
-      <c r="AR37" s="509"/>
+      <c r="AR37" s="508"/>
       <c r="AS37" s="489"/>
-      <c r="AT37" s="510"/>
+      <c r="AT37" s="509"/>
       <c r="AU37" s="474"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39657,51 +39644,51 @@
       <c r="E38" s="476"/>
       <c r="F38" s="476"/>
       <c r="G38" s="476"/>
-      <c r="H38" s="511"/>
-      <c r="I38" s="511"/>
-      <c r="J38" s="511"/>
-      <c r="K38" s="511"/>
-      <c r="L38" s="512"/>
-      <c r="M38" s="513"/>
+      <c r="H38" s="510"/>
+      <c r="I38" s="510"/>
+      <c r="J38" s="510"/>
+      <c r="K38" s="510"/>
+      <c r="L38" s="511"/>
+      <c r="M38" s="512"/>
       <c r="N38" s="32"/>
       <c r="O38" s="34"/>
       <c r="P38" s="32"/>
-      <c r="Q38" s="503"/>
-      <c r="R38" s="504"/>
+      <c r="Q38" s="502"/>
+      <c r="R38" s="503"/>
       <c r="S38" s="30"/>
-      <c r="T38" s="505"/>
-      <c r="U38" s="506"/>
-      <c r="V38" s="506"/>
-      <c r="W38" s="506"/>
-      <c r="X38" s="506"/>
-      <c r="Y38" s="506"/>
-      <c r="Z38" s="506"/>
-      <c r="AA38" s="506"/>
+      <c r="T38" s="504"/>
+      <c r="U38" s="505"/>
+      <c r="V38" s="505"/>
+      <c r="W38" s="505"/>
+      <c r="X38" s="505"/>
+      <c r="Y38" s="505"/>
+      <c r="Z38" s="505"/>
+      <c r="AA38" s="505"/>
       <c r="AB38" s="481" t="s">
         <v>522</v>
       </c>
       <c r="AC38" s="481"/>
       <c r="AD38" s="482"/>
-      <c r="AE38" s="499" t="s">
+      <c r="AE38" s="498" t="s">
         <v>500</v>
       </c>
-      <c r="AF38" s="500" t="s">
+      <c r="AF38" s="499" t="s">
         <v>501</v>
       </c>
       <c r="AG38" s="485"/>
-      <c r="AH38" s="507"/>
+      <c r="AH38" s="506"/>
       <c r="AI38" s="253"/>
       <c r="AJ38" s="487"/>
-      <c r="AK38" s="508"/>
-      <c r="AL38" s="508"/>
-      <c r="AM38" s="508"/>
-      <c r="AN38" s="509"/>
+      <c r="AK38" s="507"/>
+      <c r="AL38" s="507"/>
+      <c r="AM38" s="507"/>
+      <c r="AN38" s="508"/>
       <c r="AO38" s="489"/>
-      <c r="AP38" s="509"/>
+      <c r="AP38" s="508"/>
       <c r="AQ38" s="489"/>
-      <c r="AR38" s="509"/>
+      <c r="AR38" s="508"/>
       <c r="AS38" s="489"/>
-      <c r="AT38" s="510"/>
+      <c r="AT38" s="509"/>
       <c r="AU38" s="474"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39712,69 +39699,69 @@
       <c r="E39" s="476"/>
       <c r="F39" s="476"/>
       <c r="G39" s="476"/>
-      <c r="H39" s="511"/>
-      <c r="I39" s="511"/>
-      <c r="J39" s="511"/>
-      <c r="K39" s="514" t="s">
+      <c r="H39" s="510"/>
+      <c r="I39" s="510"/>
+      <c r="J39" s="510"/>
+      <c r="K39" s="513" t="s">
         <v>518</v>
       </c>
-      <c r="L39" s="515"/>
-      <c r="M39" s="516"/>
-      <c r="N39" s="494" t="s">
+      <c r="L39" s="514"/>
+      <c r="M39" s="515"/>
+      <c r="N39" s="493" t="s">
         <v>523</v>
       </c>
-      <c r="O39" s="495" t="s">
+      <c r="O39" s="494" t="s">
         <v>196</v>
       </c>
-      <c r="P39" s="494" t="s">
+      <c r="P39" s="493" t="s">
         <v>524</v>
       </c>
-      <c r="Q39" s="503"/>
-      <c r="R39" s="504"/>
+      <c r="Q39" s="502"/>
+      <c r="R39" s="503"/>
       <c r="S39" s="30"/>
-      <c r="T39" s="505"/>
-      <c r="U39" s="506"/>
-      <c r="V39" s="506"/>
-      <c r="W39" s="506"/>
-      <c r="X39" s="506"/>
-      <c r="Y39" s="506"/>
-      <c r="Z39" s="506"/>
-      <c r="AA39" s="506"/>
-      <c r="AB39" s="506"/>
-      <c r="AC39" s="506"/>
+      <c r="T39" s="504"/>
+      <c r="U39" s="505"/>
+      <c r="V39" s="505"/>
+      <c r="W39" s="505"/>
+      <c r="X39" s="505"/>
+      <c r="Y39" s="505"/>
+      <c r="Z39" s="505"/>
+      <c r="AA39" s="505"/>
+      <c r="AB39" s="505"/>
+      <c r="AC39" s="505"/>
       <c r="AD39" s="482"/>
       <c r="AE39" s="483"/>
       <c r="AF39" s="484"/>
       <c r="AG39" s="485"/>
-      <c r="AH39" s="507"/>
+      <c r="AH39" s="506"/>
       <c r="AI39" s="253"/>
       <c r="AJ39" s="487"/>
-      <c r="AK39" s="508"/>
-      <c r="AL39" s="508"/>
-      <c r="AM39" s="508"/>
-      <c r="AN39" s="509"/>
+      <c r="AK39" s="507"/>
+      <c r="AL39" s="507"/>
+      <c r="AM39" s="507"/>
+      <c r="AN39" s="508"/>
       <c r="AO39" s="489"/>
-      <c r="AP39" s="509"/>
+      <c r="AP39" s="508"/>
       <c r="AQ39" s="489"/>
-      <c r="AR39" s="509"/>
+      <c r="AR39" s="508"/>
       <c r="AS39" s="489"/>
-      <c r="AT39" s="510"/>
+      <c r="AT39" s="509"/>
       <c r="AU39" s="474"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="475"/>
       <c r="B40" s="475"/>
       <c r="C40" s="476"/>
-      <c r="D40" s="496" t="s">
+      <c r="D40" s="495" t="s">
         <v>525</v>
       </c>
-      <c r="E40" s="496"/>
-      <c r="F40" s="496"/>
-      <c r="G40" s="496"/>
-      <c r="H40" s="496"/>
-      <c r="I40" s="496"/>
-      <c r="J40" s="496"/>
-      <c r="K40" s="496"/>
+      <c r="E40" s="495"/>
+      <c r="F40" s="495"/>
+      <c r="G40" s="495"/>
+      <c r="H40" s="495"/>
+      <c r="I40" s="495"/>
+      <c r="J40" s="495"/>
+      <c r="K40" s="495"/>
       <c r="L40" s="477" t="s">
         <v>484</v>
       </c>
@@ -39792,15 +39779,15 @@
       </c>
       <c r="S40" s="479"/>
       <c r="T40" s="480"/>
-      <c r="U40" s="492"/>
-      <c r="V40" s="492"/>
-      <c r="W40" s="492"/>
-      <c r="X40" s="492"/>
-      <c r="Y40" s="492"/>
-      <c r="Z40" s="492"/>
-      <c r="AA40" s="492"/>
-      <c r="AB40" s="492"/>
-      <c r="AC40" s="492"/>
+      <c r="U40" s="481"/>
+      <c r="V40" s="481"/>
+      <c r="W40" s="481"/>
+      <c r="X40" s="481"/>
+      <c r="Y40" s="481"/>
+      <c r="Z40" s="481"/>
+      <c r="AA40" s="481"/>
+      <c r="AB40" s="481"/>
+      <c r="AC40" s="481"/>
       <c r="AD40" s="482"/>
       <c r="AE40" s="483"/>
       <c r="AF40" s="484"/>
@@ -39824,16 +39811,16 @@
       <c r="A41" s="475"/>
       <c r="B41" s="475"/>
       <c r="C41" s="476"/>
-      <c r="D41" s="496"/>
-      <c r="E41" s="496" t="s">
+      <c r="D41" s="495"/>
+      <c r="E41" s="495" t="s">
         <v>491</v>
       </c>
-      <c r="F41" s="496"/>
-      <c r="G41" s="496"/>
-      <c r="H41" s="496"/>
-      <c r="I41" s="496"/>
-      <c r="J41" s="496"/>
-      <c r="K41" s="496"/>
+      <c r="F41" s="495"/>
+      <c r="G41" s="495"/>
+      <c r="H41" s="495"/>
+      <c r="I41" s="495"/>
+      <c r="J41" s="495"/>
+      <c r="K41" s="495"/>
       <c r="L41" s="477"/>
       <c r="M41" s="478"/>
       <c r="N41" s="32"/>
@@ -39841,12 +39828,12 @@
       <c r="P41" s="32"/>
       <c r="Q41" s="477"/>
       <c r="R41" s="478"/>
-      <c r="S41" s="498" t="s">
+      <c r="S41" s="497" t="s">
         <v>526</v>
       </c>
       <c r="T41" s="480"/>
-      <c r="U41" s="492"/>
-      <c r="V41" s="492"/>
+      <c r="U41" s="481"/>
+      <c r="V41" s="481"/>
       <c r="W41" s="481"/>
       <c r="X41" s="481"/>
       <c r="Y41" s="481"/>
@@ -39894,8 +39881,8 @@
       <c r="R42" s="478"/>
       <c r="S42" s="479"/>
       <c r="T42" s="480"/>
-      <c r="U42" s="492"/>
-      <c r="V42" s="492"/>
+      <c r="U42" s="481"/>
+      <c r="V42" s="481"/>
       <c r="W42" s="481" t="s">
         <v>527</v>
       </c>
@@ -39951,9 +39938,9 @@
       <c r="T43" s="480" t="s">
         <v>331</v>
       </c>
-      <c r="U43" s="492"/>
-      <c r="V43" s="492"/>
-      <c r="W43" s="492"/>
+      <c r="U43" s="481"/>
+      <c r="V43" s="481"/>
+      <c r="W43" s="481"/>
       <c r="X43" s="481" t="s">
         <v>528</v>
       </c>
@@ -40006,10 +39993,10 @@
       <c r="R44" s="478"/>
       <c r="S44" s="479"/>
       <c r="T44" s="480"/>
-      <c r="U44" s="492"/>
-      <c r="V44" s="492"/>
-      <c r="W44" s="492"/>
-      <c r="X44" s="492"/>
+      <c r="U44" s="481"/>
+      <c r="V44" s="481"/>
+      <c r="W44" s="481"/>
+      <c r="X44" s="481"/>
       <c r="Y44" s="481" t="s">
         <v>529</v>
       </c>
@@ -40057,9 +40044,9 @@
       <c r="R45" s="478"/>
       <c r="S45" s="479"/>
       <c r="T45" s="480"/>
-      <c r="U45" s="492"/>
-      <c r="V45" s="492"/>
-      <c r="W45" s="492"/>
+      <c r="U45" s="481"/>
+      <c r="V45" s="481"/>
+      <c r="W45" s="481"/>
       <c r="X45" s="481" t="s">
         <v>530</v>
       </c>
@@ -40114,10 +40101,10 @@
       <c r="T46" s="480" t="s">
         <v>237</v>
       </c>
-      <c r="U46" s="492"/>
-      <c r="V46" s="492"/>
-      <c r="W46" s="492"/>
-      <c r="X46" s="492"/>
+      <c r="U46" s="481"/>
+      <c r="V46" s="481"/>
+      <c r="W46" s="481"/>
+      <c r="X46" s="481"/>
       <c r="Y46" s="481" t="s">
         <v>531</v>
       </c>
@@ -40171,11 +40158,11 @@
       <c r="T47" s="480" t="s">
         <v>195</v>
       </c>
-      <c r="U47" s="492"/>
-      <c r="V47" s="492"/>
-      <c r="W47" s="492"/>
-      <c r="X47" s="492"/>
-      <c r="Y47" s="492"/>
+      <c r="U47" s="481"/>
+      <c r="V47" s="481"/>
+      <c r="W47" s="481"/>
+      <c r="X47" s="481"/>
+      <c r="Y47" s="481"/>
       <c r="Z47" s="481" t="s">
         <v>532</v>
       </c>
@@ -40226,10 +40213,10 @@
       <c r="R48" s="478"/>
       <c r="S48" s="479"/>
       <c r="T48" s="480"/>
-      <c r="U48" s="492"/>
-      <c r="V48" s="492"/>
-      <c r="W48" s="492"/>
-      <c r="X48" s="492"/>
+      <c r="U48" s="481"/>
+      <c r="V48" s="481"/>
+      <c r="W48" s="481"/>
+      <c r="X48" s="481"/>
       <c r="Y48" s="481" t="s">
         <v>533</v>
       </c>
@@ -40238,10 +40225,10 @@
       <c r="AB48" s="481"/>
       <c r="AC48" s="481"/>
       <c r="AD48" s="482"/>
-      <c r="AE48" s="499" t="s">
+      <c r="AE48" s="498" t="s">
         <v>500</v>
       </c>
-      <c r="AF48" s="500" t="s">
+      <c r="AF48" s="499" t="s">
         <v>501</v>
       </c>
       <c r="AG48" s="485"/>
@@ -40268,51 +40255,51 @@
       <c r="E49" s="476"/>
       <c r="F49" s="476"/>
       <c r="G49" s="476"/>
-      <c r="H49" s="496" t="s">
+      <c r="H49" s="495" t="s">
         <v>202</v>
       </c>
-      <c r="I49" s="496"/>
-      <c r="J49" s="496"/>
-      <c r="K49" s="496"/>
-      <c r="L49" s="501" t="s">
+      <c r="I49" s="495"/>
+      <c r="J49" s="495"/>
+      <c r="K49" s="495"/>
+      <c r="L49" s="500" t="s">
         <v>484</v>
       </c>
-      <c r="M49" s="517" t="s">
+      <c r="M49" s="516" t="s">
         <v>485</v>
       </c>
       <c r="N49" s="32"/>
       <c r="O49" s="34"/>
       <c r="P49" s="32"/>
-      <c r="Q49" s="503"/>
-      <c r="R49" s="504"/>
+      <c r="Q49" s="502"/>
+      <c r="R49" s="503"/>
       <c r="S49" s="30"/>
-      <c r="T49" s="505"/>
-      <c r="U49" s="506"/>
-      <c r="V49" s="506"/>
-      <c r="W49" s="506"/>
-      <c r="X49" s="506"/>
-      <c r="Y49" s="506"/>
-      <c r="Z49" s="506"/>
-      <c r="AA49" s="506"/>
-      <c r="AB49" s="506"/>
-      <c r="AC49" s="506"/>
+      <c r="T49" s="504"/>
+      <c r="U49" s="505"/>
+      <c r="V49" s="505"/>
+      <c r="W49" s="505"/>
+      <c r="X49" s="505"/>
+      <c r="Y49" s="505"/>
+      <c r="Z49" s="505"/>
+      <c r="AA49" s="505"/>
+      <c r="AB49" s="505"/>
+      <c r="AC49" s="505"/>
       <c r="AD49" s="482"/>
       <c r="AE49" s="483"/>
       <c r="AF49" s="484"/>
       <c r="AG49" s="485"/>
-      <c r="AH49" s="507"/>
+      <c r="AH49" s="506"/>
       <c r="AI49" s="253"/>
       <c r="AJ49" s="487"/>
-      <c r="AK49" s="508"/>
-      <c r="AL49" s="508"/>
-      <c r="AM49" s="508"/>
-      <c r="AN49" s="509"/>
+      <c r="AK49" s="507"/>
+      <c r="AL49" s="507"/>
+      <c r="AM49" s="507"/>
+      <c r="AN49" s="508"/>
       <c r="AO49" s="489"/>
-      <c r="AP49" s="509"/>
+      <c r="AP49" s="508"/>
       <c r="AQ49" s="489"/>
-      <c r="AR49" s="509"/>
+      <c r="AR49" s="508"/>
       <c r="AS49" s="489"/>
-      <c r="AT49" s="510"/>
+      <c r="AT49" s="509"/>
       <c r="AU49" s="474"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40323,25 +40310,25 @@
       <c r="E50" s="476"/>
       <c r="F50" s="476"/>
       <c r="G50" s="476"/>
-      <c r="H50" s="511"/>
-      <c r="I50" s="511"/>
-      <c r="J50" s="511"/>
-      <c r="K50" s="511"/>
-      <c r="L50" s="512"/>
-      <c r="M50" s="513"/>
+      <c r="H50" s="510"/>
+      <c r="I50" s="510"/>
+      <c r="J50" s="510"/>
+      <c r="K50" s="510"/>
+      <c r="L50" s="511"/>
+      <c r="M50" s="512"/>
       <c r="N50" s="32"/>
       <c r="O50" s="34"/>
       <c r="P50" s="32"/>
-      <c r="Q50" s="503"/>
-      <c r="R50" s="504"/>
+      <c r="Q50" s="502"/>
+      <c r="R50" s="503"/>
       <c r="S50" s="30"/>
-      <c r="T50" s="505"/>
-      <c r="U50" s="506"/>
-      <c r="V50" s="506"/>
-      <c r="W50" s="506"/>
-      <c r="X50" s="506"/>
-      <c r="Y50" s="506"/>
-      <c r="Z50" s="506"/>
+      <c r="T50" s="504"/>
+      <c r="U50" s="505"/>
+      <c r="V50" s="505"/>
+      <c r="W50" s="505"/>
+      <c r="X50" s="505"/>
+      <c r="Y50" s="505"/>
+      <c r="Z50" s="505"/>
       <c r="AA50" s="481" t="s">
         <v>534</v>
       </c>
@@ -40355,19 +40342,19 @@
         <v>480</v>
       </c>
       <c r="AG50" s="485"/>
-      <c r="AH50" s="507"/>
+      <c r="AH50" s="506"/>
       <c r="AI50" s="253"/>
       <c r="AJ50" s="487"/>
-      <c r="AK50" s="508"/>
-      <c r="AL50" s="508"/>
-      <c r="AM50" s="508"/>
-      <c r="AN50" s="509"/>
+      <c r="AK50" s="507"/>
+      <c r="AL50" s="507"/>
+      <c r="AM50" s="507"/>
+      <c r="AN50" s="508"/>
       <c r="AO50" s="489"/>
-      <c r="AP50" s="509"/>
+      <c r="AP50" s="508"/>
       <c r="AQ50" s="489"/>
-      <c r="AR50" s="509"/>
+      <c r="AR50" s="508"/>
       <c r="AS50" s="489"/>
-      <c r="AT50" s="510"/>
+      <c r="AT50" s="509"/>
       <c r="AU50" s="474"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40378,28 +40365,28 @@
       <c r="E51" s="476"/>
       <c r="F51" s="476"/>
       <c r="G51" s="476"/>
-      <c r="H51" s="511"/>
-      <c r="I51" s="511"/>
-      <c r="J51" s="511"/>
-      <c r="K51" s="511"/>
-      <c r="L51" s="512"/>
-      <c r="M51" s="513"/>
+      <c r="H51" s="510"/>
+      <c r="I51" s="510"/>
+      <c r="J51" s="510"/>
+      <c r="K51" s="510"/>
+      <c r="L51" s="511"/>
+      <c r="M51" s="512"/>
       <c r="N51" s="32"/>
       <c r="O51" s="34"/>
       <c r="P51" s="32"/>
-      <c r="Q51" s="503"/>
-      <c r="R51" s="504"/>
+      <c r="Q51" s="502"/>
+      <c r="R51" s="503"/>
       <c r="S51" s="30"/>
-      <c r="T51" s="505" t="s">
+      <c r="T51" s="504" t="s">
         <v>237</v>
       </c>
-      <c r="U51" s="506"/>
-      <c r="V51" s="506"/>
-      <c r="W51" s="506"/>
-      <c r="X51" s="506"/>
-      <c r="Y51" s="506"/>
-      <c r="Z51" s="506"/>
-      <c r="AA51" s="506"/>
+      <c r="U51" s="505"/>
+      <c r="V51" s="505"/>
+      <c r="W51" s="505"/>
+      <c r="X51" s="505"/>
+      <c r="Y51" s="505"/>
+      <c r="Z51" s="505"/>
+      <c r="AA51" s="505"/>
       <c r="AB51" s="481" t="s">
         <v>535</v>
       </c>
@@ -40412,19 +40399,19 @@
         <v>232</v>
       </c>
       <c r="AG51" s="485"/>
-      <c r="AH51" s="507"/>
+      <c r="AH51" s="506"/>
       <c r="AI51" s="253"/>
       <c r="AJ51" s="487"/>
-      <c r="AK51" s="508"/>
-      <c r="AL51" s="508"/>
-      <c r="AM51" s="508"/>
-      <c r="AN51" s="509"/>
+      <c r="AK51" s="507"/>
+      <c r="AL51" s="507"/>
+      <c r="AM51" s="507"/>
+      <c r="AN51" s="508"/>
       <c r="AO51" s="489"/>
-      <c r="AP51" s="509"/>
+      <c r="AP51" s="508"/>
       <c r="AQ51" s="489"/>
-      <c r="AR51" s="509"/>
+      <c r="AR51" s="508"/>
       <c r="AS51" s="489"/>
-      <c r="AT51" s="510"/>
+      <c r="AT51" s="509"/>
       <c r="AU51" s="474"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40435,29 +40422,29 @@
       <c r="E52" s="476"/>
       <c r="F52" s="476"/>
       <c r="G52" s="476"/>
-      <c r="H52" s="511"/>
-      <c r="I52" s="511"/>
-      <c r="J52" s="511"/>
-      <c r="K52" s="511"/>
-      <c r="L52" s="512"/>
-      <c r="M52" s="513"/>
+      <c r="H52" s="510"/>
+      <c r="I52" s="510"/>
+      <c r="J52" s="510"/>
+      <c r="K52" s="510"/>
+      <c r="L52" s="511"/>
+      <c r="M52" s="512"/>
       <c r="N52" s="32"/>
       <c r="O52" s="34"/>
       <c r="P52" s="32"/>
-      <c r="Q52" s="503"/>
-      <c r="R52" s="504"/>
+      <c r="Q52" s="502"/>
+      <c r="R52" s="503"/>
       <c r="S52" s="30"/>
-      <c r="T52" s="505" t="s">
+      <c r="T52" s="504" t="s">
         <v>195</v>
       </c>
-      <c r="U52" s="506"/>
-      <c r="V52" s="506"/>
-      <c r="W52" s="506"/>
-      <c r="X52" s="506"/>
-      <c r="Y52" s="506"/>
-      <c r="Z52" s="506"/>
-      <c r="AA52" s="506"/>
-      <c r="AB52" s="506"/>
+      <c r="U52" s="505"/>
+      <c r="V52" s="505"/>
+      <c r="W52" s="505"/>
+      <c r="X52" s="505"/>
+      <c r="Y52" s="505"/>
+      <c r="Z52" s="505"/>
+      <c r="AA52" s="505"/>
+      <c r="AB52" s="505"/>
       <c r="AC52" s="481" t="s">
         <v>536</v>
       </c>
@@ -40465,23 +40452,23 @@
       <c r="AE52" s="483"/>
       <c r="AF52" s="484"/>
       <c r="AG52" s="485"/>
-      <c r="AH52" s="507" t="s">
+      <c r="AH52" s="506" t="s">
         <v>240</v>
       </c>
       <c r="AI52" s="253" t="s">
         <v>537</v>
       </c>
       <c r="AJ52" s="487"/>
-      <c r="AK52" s="508"/>
-      <c r="AL52" s="508"/>
-      <c r="AM52" s="508"/>
-      <c r="AN52" s="509"/>
+      <c r="AK52" s="507"/>
+      <c r="AL52" s="507"/>
+      <c r="AM52" s="507"/>
+      <c r="AN52" s="508"/>
       <c r="AO52" s="489"/>
-      <c r="AP52" s="509"/>
+      <c r="AP52" s="508"/>
       <c r="AQ52" s="489"/>
-      <c r="AR52" s="509"/>
+      <c r="AR52" s="508"/>
       <c r="AS52" s="489"/>
-      <c r="AT52" s="510"/>
+      <c r="AT52" s="509"/>
       <c r="AU52" s="474"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40492,51 +40479,51 @@
       <c r="E53" s="476"/>
       <c r="F53" s="476"/>
       <c r="G53" s="476"/>
-      <c r="H53" s="511"/>
-      <c r="I53" s="511"/>
-      <c r="J53" s="511"/>
-      <c r="K53" s="511"/>
-      <c r="L53" s="512"/>
-      <c r="M53" s="513"/>
+      <c r="H53" s="510"/>
+      <c r="I53" s="510"/>
+      <c r="J53" s="510"/>
+      <c r="K53" s="510"/>
+      <c r="L53" s="511"/>
+      <c r="M53" s="512"/>
       <c r="N53" s="32"/>
       <c r="O53" s="34"/>
       <c r="P53" s="32"/>
-      <c r="Q53" s="503"/>
-      <c r="R53" s="504"/>
+      <c r="Q53" s="502"/>
+      <c r="R53" s="503"/>
       <c r="S53" s="30"/>
-      <c r="T53" s="505"/>
-      <c r="U53" s="506"/>
-      <c r="V53" s="506"/>
-      <c r="W53" s="506"/>
-      <c r="X53" s="506"/>
-      <c r="Y53" s="506"/>
-      <c r="Z53" s="506"/>
-      <c r="AA53" s="506"/>
+      <c r="T53" s="504"/>
+      <c r="U53" s="505"/>
+      <c r="V53" s="505"/>
+      <c r="W53" s="505"/>
+      <c r="X53" s="505"/>
+      <c r="Y53" s="505"/>
+      <c r="Z53" s="505"/>
+      <c r="AA53" s="505"/>
       <c r="AB53" s="481" t="s">
         <v>538</v>
       </c>
       <c r="AC53" s="481"/>
       <c r="AD53" s="482"/>
-      <c r="AE53" s="499" t="s">
+      <c r="AE53" s="498" t="s">
         <v>500</v>
       </c>
-      <c r="AF53" s="500" t="s">
+      <c r="AF53" s="499" t="s">
         <v>501</v>
       </c>
       <c r="AG53" s="485"/>
-      <c r="AH53" s="507"/>
+      <c r="AH53" s="506"/>
       <c r="AI53" s="253"/>
       <c r="AJ53" s="487"/>
-      <c r="AK53" s="508"/>
-      <c r="AL53" s="508"/>
-      <c r="AM53" s="508"/>
-      <c r="AN53" s="509"/>
+      <c r="AK53" s="507"/>
+      <c r="AL53" s="507"/>
+      <c r="AM53" s="507"/>
+      <c r="AN53" s="508"/>
       <c r="AO53" s="489"/>
-      <c r="AP53" s="509"/>
+      <c r="AP53" s="508"/>
       <c r="AQ53" s="489"/>
-      <c r="AR53" s="509"/>
+      <c r="AR53" s="508"/>
       <c r="AS53" s="489"/>
-      <c r="AT53" s="510"/>
+      <c r="AT53" s="509"/>
       <c r="AU53" s="474"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40547,53 +40534,53 @@
       <c r="E54" s="476"/>
       <c r="F54" s="476"/>
       <c r="G54" s="476"/>
-      <c r="H54" s="511"/>
-      <c r="I54" s="511"/>
-      <c r="J54" s="511"/>
-      <c r="K54" s="514" t="s">
+      <c r="H54" s="510"/>
+      <c r="I54" s="510"/>
+      <c r="J54" s="510"/>
+      <c r="K54" s="513" t="s">
         <v>534</v>
       </c>
-      <c r="L54" s="515"/>
-      <c r="M54" s="516"/>
-      <c r="N54" s="494" t="s">
+      <c r="L54" s="514"/>
+      <c r="M54" s="515"/>
+      <c r="N54" s="493" t="s">
         <v>539</v>
       </c>
-      <c r="O54" s="495" t="s">
+      <c r="O54" s="494" t="s">
         <v>196</v>
       </c>
-      <c r="P54" s="494" t="s">
+      <c r="P54" s="493" t="s">
         <v>540</v>
       </c>
-      <c r="Q54" s="503"/>
-      <c r="R54" s="504"/>
+      <c r="Q54" s="502"/>
+      <c r="R54" s="503"/>
       <c r="S54" s="30"/>
-      <c r="T54" s="505"/>
-      <c r="U54" s="506"/>
-      <c r="V54" s="506"/>
-      <c r="W54" s="506"/>
-      <c r="X54" s="506"/>
-      <c r="Y54" s="506"/>
-      <c r="Z54" s="506"/>
-      <c r="AA54" s="506"/>
-      <c r="AB54" s="506"/>
-      <c r="AC54" s="506"/>
+      <c r="T54" s="504"/>
+      <c r="U54" s="505"/>
+      <c r="V54" s="505"/>
+      <c r="W54" s="505"/>
+      <c r="X54" s="505"/>
+      <c r="Y54" s="505"/>
+      <c r="Z54" s="505"/>
+      <c r="AA54" s="505"/>
+      <c r="AB54" s="505"/>
+      <c r="AC54" s="505"/>
       <c r="AD54" s="482"/>
       <c r="AE54" s="483"/>
       <c r="AF54" s="484"/>
       <c r="AG54" s="485"/>
-      <c r="AH54" s="507"/>
+      <c r="AH54" s="506"/>
       <c r="AI54" s="253"/>
       <c r="AJ54" s="487"/>
-      <c r="AK54" s="508"/>
-      <c r="AL54" s="508"/>
-      <c r="AM54" s="508"/>
-      <c r="AN54" s="509"/>
+      <c r="AK54" s="507"/>
+      <c r="AL54" s="507"/>
+      <c r="AM54" s="507"/>
+      <c r="AN54" s="508"/>
       <c r="AO54" s="489"/>
-      <c r="AP54" s="509"/>
+      <c r="AP54" s="508"/>
       <c r="AQ54" s="489"/>
-      <c r="AR54" s="509"/>
+      <c r="AR54" s="508"/>
       <c r="AS54" s="489"/>
-      <c r="AT54" s="510"/>
+      <c r="AT54" s="509"/>
       <c r="AU54" s="474"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40604,137 +40591,137 @@
       <c r="E55" s="476"/>
       <c r="F55" s="476"/>
       <c r="G55" s="476"/>
-      <c r="H55" s="511" t="s">
+      <c r="H55" s="510" t="s">
         <v>202</v>
       </c>
-      <c r="I55" s="511"/>
-      <c r="J55" s="511"/>
-      <c r="K55" s="511"/>
-      <c r="L55" s="518"/>
-      <c r="M55" s="502"/>
+      <c r="I55" s="510"/>
+      <c r="J55" s="510"/>
+      <c r="K55" s="510"/>
+      <c r="L55" s="517"/>
+      <c r="M55" s="501"/>
       <c r="N55" s="32"/>
       <c r="O55" s="34"/>
       <c r="P55" s="32"/>
-      <c r="Q55" s="503" t="s">
+      <c r="Q55" s="502" t="s">
         <v>488</v>
       </c>
-      <c r="R55" s="504" t="s">
+      <c r="R55" s="503" t="s">
         <v>485</v>
       </c>
       <c r="S55" s="30"/>
-      <c r="T55" s="505"/>
-      <c r="U55" s="506"/>
-      <c r="V55" s="506"/>
-      <c r="W55" s="506"/>
-      <c r="X55" s="506"/>
-      <c r="Y55" s="506"/>
-      <c r="Z55" s="506"/>
-      <c r="AA55" s="506"/>
-      <c r="AB55" s="506"/>
-      <c r="AC55" s="506"/>
+      <c r="T55" s="504"/>
+      <c r="U55" s="505"/>
+      <c r="V55" s="505"/>
+      <c r="W55" s="505"/>
+      <c r="X55" s="505"/>
+      <c r="Y55" s="505"/>
+      <c r="Z55" s="505"/>
+      <c r="AA55" s="505"/>
+      <c r="AB55" s="505"/>
+      <c r="AC55" s="505"/>
       <c r="AD55" s="482"/>
       <c r="AE55" s="483"/>
       <c r="AF55" s="484"/>
       <c r="AG55" s="485"/>
-      <c r="AH55" s="507"/>
+      <c r="AH55" s="506"/>
       <c r="AI55" s="253"/>
       <c r="AJ55" s="487"/>
-      <c r="AK55" s="508"/>
-      <c r="AL55" s="508"/>
-      <c r="AM55" s="508"/>
-      <c r="AN55" s="509"/>
+      <c r="AK55" s="507"/>
+      <c r="AL55" s="507"/>
+      <c r="AM55" s="507"/>
+      <c r="AN55" s="508"/>
       <c r="AO55" s="489"/>
-      <c r="AP55" s="509"/>
+      <c r="AP55" s="508"/>
       <c r="AQ55" s="489"/>
-      <c r="AR55" s="509"/>
+      <c r="AR55" s="508"/>
       <c r="AS55" s="489"/>
-      <c r="AT55" s="510"/>
+      <c r="AT55" s="509"/>
       <c r="AU55" s="474"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="387"/>
       <c r="B56" s="387"/>
-      <c r="C56" s="519" t="n">
+      <c r="C56" s="518" t="n">
         <v>0</v>
       </c>
-      <c r="D56" s="519" t="n">
+      <c r="D56" s="518" t="n">
         <v>1</v>
       </c>
-      <c r="E56" s="519" t="n">
+      <c r="E56" s="518" t="n">
         <v>2</v>
       </c>
-      <c r="F56" s="519" t="n">
+      <c r="F56" s="518" t="n">
         <v>3</v>
       </c>
-      <c r="G56" s="519" t="n">
+      <c r="G56" s="518" t="n">
         <v>4</v>
       </c>
-      <c r="H56" s="519" t="n">
+      <c r="H56" s="518" t="n">
         <v>5</v>
       </c>
-      <c r="I56" s="519" t="n">
+      <c r="I56" s="518" t="n">
         <v>6</v>
       </c>
-      <c r="J56" s="519" t="n">
+      <c r="J56" s="518" t="n">
         <v>7</v>
       </c>
-      <c r="K56" s="519" t="n">
+      <c r="K56" s="518" t="n">
         <v>8</v>
       </c>
-      <c r="L56" s="520"/>
-      <c r="M56" s="521"/>
+      <c r="L56" s="519"/>
+      <c r="M56" s="520"/>
       <c r="N56" s="387"/>
-      <c r="O56" s="522"/>
+      <c r="O56" s="521"/>
       <c r="P56" s="387"/>
       <c r="Q56" s="435"/>
       <c r="R56" s="435"/>
       <c r="S56" s="437"/>
       <c r="T56" s="434"/>
-      <c r="U56" s="523" t="n">
+      <c r="U56" s="522" t="n">
         <v>0</v>
       </c>
-      <c r="V56" s="523" t="n">
+      <c r="V56" s="522" t="n">
         <v>1</v>
       </c>
-      <c r="W56" s="523" t="n">
+      <c r="W56" s="522" t="n">
         <v>2</v>
       </c>
-      <c r="X56" s="523" t="n">
+      <c r="X56" s="522" t="n">
         <v>3</v>
       </c>
-      <c r="Y56" s="523" t="n">
+      <c r="Y56" s="522" t="n">
         <v>4</v>
       </c>
-      <c r="Z56" s="523" t="n">
+      <c r="Z56" s="522" t="n">
         <v>5</v>
       </c>
-      <c r="AA56" s="523" t="n">
+      <c r="AA56" s="522" t="n">
         <v>6</v>
       </c>
-      <c r="AB56" s="523" t="n">
+      <c r="AB56" s="522" t="n">
         <v>7</v>
       </c>
-      <c r="AC56" s="523" t="n">
+      <c r="AC56" s="522" t="n">
         <v>8</v>
       </c>
-      <c r="AD56" s="524"/>
-      <c r="AE56" s="525"/>
-      <c r="AF56" s="524"/>
-      <c r="AG56" s="524"/>
+      <c r="AD56" s="523"/>
+      <c r="AE56" s="524"/>
+      <c r="AF56" s="523"/>
+      <c r="AG56" s="523"/>
       <c r="AH56" s="434"/>
       <c r="AI56" s="387"/>
-      <c r="AJ56" s="526"/>
-      <c r="AK56" s="526"/>
-      <c r="AL56" s="526"/>
-      <c r="AM56" s="526"/>
+      <c r="AJ56" s="525"/>
+      <c r="AK56" s="525"/>
+      <c r="AL56" s="525"/>
+      <c r="AM56" s="525"/>
       <c r="AN56" s="437"/>
       <c r="AO56" s="437"/>
       <c r="AP56" s="437"/>
       <c r="AQ56" s="437"/>
       <c r="AR56" s="437"/>
       <c r="AS56" s="437"/>
-      <c r="AT56" s="527"/>
-      <c r="AU56" s="527"/>
+      <c r="AT56" s="526"/>
+      <c r="AU56" s="526"/>
     </row>
   </sheetData>
   <mergeCells count="40">

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="VERS_Packages" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="VERS_Packages" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="VERS_Piler_Config" sheetId="3" state="hidden" r:id="rId5"/>
     <sheet name="VERS_Pilers" sheetId="4" state="hidden" r:id="rId6"/>
     <sheet name="VERS_Processor_Config" sheetId="5" state="hidden" r:id="rId7"/>
@@ -2006,7 +2006,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5C6BC0"/>
-        <bgColor rgb="FF636670"/>
+        <bgColor rgb="FF666870"/>
       </patternFill>
     </fill>
     <fill>
@@ -2059,7 +2059,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFBC1F0E"/>
+        <fgColor rgb="FFBC1E0E"/>
         <bgColor rgb="FFBF1334"/>
       </patternFill>
     </fill>
@@ -2071,13 +2071,13 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFF5A01"/>
+        <fgColor rgb="FFFF5901"/>
         <bgColor rgb="FFFE5101"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF01937A"/>
+        <fgColor rgb="FF01937B"/>
         <bgColor rgb="FF00897B"/>
       </patternFill>
     </fill>
@@ -2089,8 +2089,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD74B"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFD951"/>
+        <bgColor rgb="FFFCE4BA"/>
       </patternFill>
     </fill>
     <fill>
@@ -2107,13 +2107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF5A01"/>
+        <fgColor rgb="FFFF5901"/>
         <bgColor rgb="FFFE5101"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFFD74B"/>
+        <fgColor rgb="FFFFD951"/>
         <bgColor rgb="FFFCE4BA"/>
       </patternFill>
     </fill>
@@ -2161,7 +2161,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF636670"/>
+        <fgColor rgb="FF666870"/>
         <bgColor rgb="FF78746E"/>
       </patternFill>
     </fill>
@@ -2216,7 +2216,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF006A65"/>
-        <bgColor rgb="FF015F60"/>
+        <bgColor rgb="FF015F61"/>
       </patternFill>
     </fill>
     <fill>
@@ -2228,7 +2228,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00897B"/>
-        <bgColor rgb="FF01937A"/>
+        <bgColor rgb="FF01937B"/>
       </patternFill>
     </fill>
     <fill>
@@ -2275,7 +2275,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF636670"/>
+        <fgColor rgb="FF666870"/>
         <bgColor rgb="FF78746E"/>
       </patternFill>
     </fill>
@@ -2288,19 +2288,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF558B2F"/>
-        <bgColor rgb="FF57A942"/>
+        <bgColor rgb="FF56AA43"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF57A942"/>
+        <fgColor rgb="FF56AA43"/>
         <bgColor rgb="FF73B841"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF73B841"/>
-        <bgColor rgb="FF57A942"/>
+        <bgColor rgb="FF56AA43"/>
       </patternFill>
     </fill>
     <fill>
@@ -2311,7 +2311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBC1F0E"/>
+        <fgColor rgb="FFBC1E0E"/>
         <bgColor rgb="FFBF1334"/>
       </patternFill>
     </fill>
@@ -2324,7 +2324,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF029E64"/>
-        <bgColor rgb="FF01937A"/>
+        <bgColor rgb="FF01937B"/>
       </patternFill>
     </fill>
     <fill>
@@ -2336,12 +2336,12 @@
     <fill>
       <patternFill patternType="darkGray">
         <fgColor rgb="FFFE5101"/>
-        <bgColor rgb="FFFF5A01"/>
+        <bgColor rgb="FFFF5901"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF015F60"/>
+        <fgColor rgb="FF015F61"/>
         <bgColor rgb="FF006A65"/>
       </patternFill>
     </fill>
@@ -2483,16 +2483,16 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF636670"/>
+        <color rgb="FF666870"/>
       </left>
       <right style="thin">
-        <color rgb="FF636670"/>
+        <color rgb="FF666870"/>
       </right>
       <top style="thin">
-        <color rgb="FF636670"/>
+        <color rgb="FF666870"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF636670"/>
+        <color rgb="FF666870"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4984,7 +4984,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FF015F60"/>
+      <rgbColor rgb="FF015F61"/>
       <rgbColor rgb="FF029E64"/>
       <rgbColor rgb="FF01579B"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -5009,7 +5009,7 @@
       <rgbColor rgb="FF0D47A1"/>
       <rgbColor rgb="FF006A65"/>
       <rgbColor rgb="FF00796B"/>
-      <rgbColor rgb="FF01937A"/>
+      <rgbColor rgb="FF01937B"/>
       <rgbColor rgb="FF7B1FA2"/>
       <rgbColor rgb="FF004D40"/>
       <rgbColor rgb="FF00897B"/>
@@ -5025,16 +5025,16 @@
       <rgbColor rgb="FF1565C0"/>
       <rgbColor rgb="FF27C2EF"/>
       <rgbColor rgb="FF73B841"/>
-      <rgbColor rgb="FFFFD74B"/>
+      <rgbColor rgb="FFFFD951"/>
       <rgbColor rgb="FFFE5101"/>
-      <rgbColor rgb="FFFF5A01"/>
-      <rgbColor rgb="FF636670"/>
+      <rgbColor rgb="FFFF5901"/>
+      <rgbColor rgb="FF666870"/>
       <rgbColor rgb="FF78746E"/>
       <rgbColor rgb="FF1A237E"/>
-      <rgbColor rgb="FF57A942"/>
+      <rgbColor rgb="FF56AA43"/>
       <rgbColor rgb="FF28222A"/>
       <rgbColor rgb="FF2F2730"/>
-      <rgbColor rgb="FFBC1F0E"/>
+      <rgbColor rgb="FFBC1E0E"/>
       <rgbColor rgb="FFBF1334"/>
       <rgbColor rgb="FF29488F"/>
       <rgbColor rgb="FF322A30"/>
@@ -5157,7 +5157,7 @@
   </sheetPr>
   <dimension ref="A1:DM69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="10" ySplit="3" topLeftCell="K39" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
@@ -17005,8 +17005,8 @@
   </sheetPr>
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q12" activeCellId="0" sqref="Q12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q33" activeCellId="0" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="VERS_Packages" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="VERS_Packages" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="VERS_Piler_Config" sheetId="3" state="hidden" r:id="rId5"/>
     <sheet name="VERS_Pilers" sheetId="4" state="hidden" r:id="rId6"/>
     <sheet name="VERS_Processor_Config" sheetId="5" state="hidden" r:id="rId7"/>
@@ -2006,7 +2006,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5C6BC0"/>
-        <bgColor rgb="FF666870"/>
+        <bgColor rgb="FF686970"/>
       </patternFill>
     </fill>
     <fill>
@@ -2059,7 +2059,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFBC1E0E"/>
+        <fgColor rgb="FFBC1D0E"/>
         <bgColor rgb="FFBF1334"/>
       </patternFill>
     </fill>
@@ -2077,7 +2077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF01937B"/>
+        <fgColor rgb="FF01937C"/>
         <bgColor rgb="FF00897B"/>
       </patternFill>
     </fill>
@@ -2089,7 +2089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD951"/>
+        <fgColor rgb="FFFFDA56"/>
         <bgColor rgb="FFFCE4BA"/>
       </patternFill>
     </fill>
@@ -2113,7 +2113,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFFD951"/>
+        <fgColor rgb="FFFFDA56"/>
         <bgColor rgb="FFFCE4BA"/>
       </patternFill>
     </fill>
@@ -2161,7 +2161,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF666870"/>
+        <fgColor rgb="FF686970"/>
         <bgColor rgb="FF78746E"/>
       </patternFill>
     </fill>
@@ -2174,7 +2174,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF78746E"/>
-        <bgColor rgb="FF837D8C"/>
+        <bgColor rgb="FF686970"/>
       </patternFill>
     </fill>
     <fill>
@@ -2228,7 +2228,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00897B"/>
-        <bgColor rgb="FF01937B"/>
+        <bgColor rgb="FF01937C"/>
       </patternFill>
     </fill>
     <fill>
@@ -2275,7 +2275,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF666870"/>
+        <fgColor rgb="FF686970"/>
         <bgColor rgb="FF78746E"/>
       </patternFill>
     </fill>
@@ -2288,19 +2288,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF558B2F"/>
-        <bgColor rgb="FF56AA43"/>
+        <bgColor rgb="FF55AA44"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF56AA43"/>
+        <fgColor rgb="FF55AA44"/>
         <bgColor rgb="FF73B841"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF73B841"/>
-        <bgColor rgb="FF56AA43"/>
+        <bgColor rgb="FF55AA44"/>
       </patternFill>
     </fill>
     <fill>
@@ -2311,7 +2311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBC1E0E"/>
+        <fgColor rgb="FFBC1D0E"/>
         <bgColor rgb="FFBF1334"/>
       </patternFill>
     </fill>
@@ -2324,7 +2324,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF029E64"/>
-        <bgColor rgb="FF01937B"/>
+        <bgColor rgb="FF01937C"/>
       </patternFill>
     </fill>
     <fill>
@@ -2483,16 +2483,16 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF666870"/>
+        <color rgb="FF686970"/>
       </left>
       <right style="thin">
-        <color rgb="FF666870"/>
+        <color rgb="FF686970"/>
       </right>
       <top style="thin">
-        <color rgb="FF666870"/>
+        <color rgb="FF686970"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF666870"/>
+        <color rgb="FF686970"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5009,7 +5009,7 @@
       <rgbColor rgb="FF0D47A1"/>
       <rgbColor rgb="FF006A65"/>
       <rgbColor rgb="FF00796B"/>
-      <rgbColor rgb="FF01937B"/>
+      <rgbColor rgb="FF01937C"/>
       <rgbColor rgb="FF7B1FA2"/>
       <rgbColor rgb="FF004D40"/>
       <rgbColor rgb="FF00897B"/>
@@ -5025,16 +5025,16 @@
       <rgbColor rgb="FF1565C0"/>
       <rgbColor rgb="FF27C2EF"/>
       <rgbColor rgb="FF73B841"/>
-      <rgbColor rgb="FFFFD951"/>
+      <rgbColor rgb="FFFFDA56"/>
       <rgbColor rgb="FFFE5101"/>
       <rgbColor rgb="FFFF5901"/>
-      <rgbColor rgb="FF666870"/>
+      <rgbColor rgb="FF686970"/>
       <rgbColor rgb="FF78746E"/>
       <rgbColor rgb="FF1A237E"/>
-      <rgbColor rgb="FF56AA43"/>
+      <rgbColor rgb="FF55AA44"/>
       <rgbColor rgb="FF28222A"/>
       <rgbColor rgb="FF2F2730"/>
-      <rgbColor rgb="FFBC1E0E"/>
+      <rgbColor rgb="FFBC1D0E"/>
       <rgbColor rgb="FFBF1334"/>
       <rgbColor rgb="FF29488F"/>
       <rgbColor rgb="FF322A30"/>
@@ -5157,12 +5157,12 @@
   </sheetPr>
   <dimension ref="A1:DM69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="K39" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
-      <selection pane="bottomRight" activeCell="R68" activeCellId="0" sqref="R68"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="K33" activeCellId="0" sqref="K33:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -15641,7 +15641,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="C5" activeCellId="1" sqref="K33:L33 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16411,7 +16411,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AA15" activeCellId="0" sqref="AA15"/>
+      <selection pane="bottomRight" activeCell="AA15" activeCellId="1" sqref="K33:L33 AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -17005,8 +17005,8 @@
   </sheetPr>
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q33" activeCellId="0" sqref="Q33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q33" activeCellId="1" sqref="K33:L33 Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18390,7 +18390,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
-      <selection pane="bottomRight" activeCell="L16" activeCellId="0" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="L16" activeCellId="1" sqref="K33:L33 L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -24700,7 +24700,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A117" activeCellId="0" sqref="A117"/>
-      <selection pane="bottomRight" activeCell="K140" activeCellId="0" sqref="K140"/>
+      <selection pane="bottomRight" activeCell="K140" activeCellId="1" sqref="K33:L33 K140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -31021,7 +31021,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q11" activeCellId="0" sqref="Q11"/>
+      <selection pane="bottomRight" activeCell="Q11" activeCellId="1" sqref="K33:L33 Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -31641,7 +31641,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
-      <selection pane="bottomRight" activeCell="G92" activeCellId="0" sqref="G92"/>
+      <selection pane="bottomRight" activeCell="G92" activeCellId="1" sqref="K33:L33 G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34339,7 +34339,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="D17" activeCellId="1" sqref="K33:L33 D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35913,7 +35913,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A8" activeCellId="1" sqref="K33:L33 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37591,7 +37591,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="K33:L33 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -2006,7 +2006,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5C6BC0"/>
-        <bgColor rgb="FF686970"/>
+        <bgColor rgb="FF6C6B70"/>
       </patternFill>
     </fill>
     <fill>
@@ -2059,7 +2059,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFBC1D0E"/>
+        <fgColor rgb="FFBC1B0E"/>
         <bgColor rgb="FFBF1334"/>
       </patternFill>
     </fill>
@@ -2077,7 +2077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF01937C"/>
+        <fgColor rgb="FF01937E"/>
         <bgColor rgb="FF00897B"/>
       </patternFill>
     </fill>
@@ -2089,7 +2089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDA56"/>
+        <fgColor rgb="FFFFDC5C"/>
         <bgColor rgb="FFFCE4BA"/>
       </patternFill>
     </fill>
@@ -2113,7 +2113,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFFDA56"/>
+        <fgColor rgb="FFFFDC5C"/>
         <bgColor rgb="FFFCE4BA"/>
       </patternFill>
     </fill>
@@ -2161,7 +2161,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF686970"/>
+        <fgColor rgb="FF6C6B70"/>
         <bgColor rgb="FF78746E"/>
       </patternFill>
     </fill>
@@ -2174,7 +2174,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF78746E"/>
-        <bgColor rgb="FF686970"/>
+        <bgColor rgb="FF6C6B70"/>
       </patternFill>
     </fill>
     <fill>
@@ -2228,7 +2228,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00897B"/>
-        <bgColor rgb="FF01937C"/>
+        <bgColor rgb="FF01937E"/>
       </patternFill>
     </fill>
     <fill>
@@ -2275,7 +2275,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF686970"/>
+        <fgColor rgb="FF6C6B70"/>
         <bgColor rgb="FF78746E"/>
       </patternFill>
     </fill>
@@ -2288,19 +2288,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF558B2F"/>
-        <bgColor rgb="FF55AA44"/>
+        <bgColor rgb="FF53AA46"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF55AA44"/>
+        <fgColor rgb="FF53AA46"/>
         <bgColor rgb="FF73B841"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF73B841"/>
-        <bgColor rgb="FF55AA44"/>
+        <bgColor rgb="FF53AA46"/>
       </patternFill>
     </fill>
     <fill>
@@ -2311,7 +2311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBC1D0E"/>
+        <fgColor rgb="FFBC1B0E"/>
         <bgColor rgb="FFBF1334"/>
       </patternFill>
     </fill>
@@ -2324,7 +2324,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF029E64"/>
-        <bgColor rgb="FF01937C"/>
+        <bgColor rgb="FF01937E"/>
       </patternFill>
     </fill>
     <fill>
@@ -2483,16 +2483,16 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF686970"/>
+        <color rgb="FF6C6B70"/>
       </left>
       <right style="thin">
-        <color rgb="FF686970"/>
+        <color rgb="FF6C6B70"/>
       </right>
       <top style="thin">
-        <color rgb="FF686970"/>
+        <color rgb="FF6C6B70"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF686970"/>
+        <color rgb="FF6C6B70"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5009,7 +5009,7 @@
       <rgbColor rgb="FF0D47A1"/>
       <rgbColor rgb="FF006A65"/>
       <rgbColor rgb="FF00796B"/>
-      <rgbColor rgb="FF01937C"/>
+      <rgbColor rgb="FF01937E"/>
       <rgbColor rgb="FF7B1FA2"/>
       <rgbColor rgb="FF004D40"/>
       <rgbColor rgb="FF00897B"/>
@@ -5025,16 +5025,16 @@
       <rgbColor rgb="FF1565C0"/>
       <rgbColor rgb="FF27C2EF"/>
       <rgbColor rgb="FF73B841"/>
-      <rgbColor rgb="FFFFDA56"/>
+      <rgbColor rgb="FFFFDC5C"/>
       <rgbColor rgb="FFFE5101"/>
       <rgbColor rgb="FFFF5901"/>
-      <rgbColor rgb="FF686970"/>
+      <rgbColor rgb="FF6C6B70"/>
       <rgbColor rgb="FF78746E"/>
       <rgbColor rgb="FF1A237E"/>
-      <rgbColor rgb="FF55AA44"/>
+      <rgbColor rgb="FF53AA46"/>
       <rgbColor rgb="FF28222A"/>
       <rgbColor rgb="FF2F2730"/>
-      <rgbColor rgb="FFBC1D0E"/>
+      <rgbColor rgb="FFBC1B0E"/>
       <rgbColor rgb="FFBF1334"/>
       <rgbColor rgb="FF29488F"/>
       <rgbColor rgb="FF322A30"/>
@@ -5162,7 +5162,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K33" activeCellId="0" sqref="K33:L33"/>
+      <selection pane="bottomRight" activeCell="K37" activeCellId="0" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -15641,7 +15641,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" activeCellId="1" sqref="K33:L33 C5"/>
+      <selection pane="bottomRight" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16411,7 +16411,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AA15" activeCellId="1" sqref="K33:L33 AA15"/>
+      <selection pane="bottomRight" activeCell="AA15" activeCellId="0" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -17006,7 +17006,7 @@
   <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q33" activeCellId="1" sqref="K33:L33 Q33"/>
+      <selection pane="topLeft" activeCell="Q33" activeCellId="0" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18390,7 +18390,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
-      <selection pane="bottomRight" activeCell="L16" activeCellId="1" sqref="K33:L33 L16"/>
+      <selection pane="bottomRight" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -24700,7 +24700,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A117" activeCellId="0" sqref="A117"/>
-      <selection pane="bottomRight" activeCell="K140" activeCellId="1" sqref="K33:L33 K140"/>
+      <selection pane="bottomRight" activeCell="K140" activeCellId="0" sqref="K140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -31021,7 +31021,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q11" activeCellId="1" sqref="K33:L33 Q11"/>
+      <selection pane="bottomRight" activeCell="Q11" activeCellId="0" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -31641,7 +31641,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
-      <selection pane="bottomRight" activeCell="G92" activeCellId="1" sqref="K33:L33 G92"/>
+      <selection pane="bottomRight" activeCell="G92" activeCellId="0" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34339,7 +34339,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D17" activeCellId="1" sqref="K33:L33 D17"/>
+      <selection pane="bottomRight" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35913,7 +35913,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A8" activeCellId="1" sqref="K33:L33 A8"/>
+      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37591,7 +37591,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="K33:L33 C1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -2006,7 +2006,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5C6BC0"/>
-        <bgColor rgb="FF6C6B70"/>
+        <bgColor rgb="FF6D6C70"/>
       </patternFill>
     </fill>
     <fill>
@@ -2054,12 +2054,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBF1334"/>
-        <bgColor rgb="FFA61137"/>
+        <bgColor rgb="FFBC1A0E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFBC1B0E"/>
+        <fgColor rgb="FFBC1A0E"/>
         <bgColor rgb="FFBF1334"/>
       </patternFill>
     </fill>
@@ -2077,7 +2077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF01937E"/>
+        <fgColor rgb="FF01937F"/>
         <bgColor rgb="FF00897B"/>
       </patternFill>
     </fill>
@@ -2089,7 +2089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDC5C"/>
+        <fgColor rgb="FFFFDC5E"/>
         <bgColor rgb="FFFCE4BA"/>
       </patternFill>
     </fill>
@@ -2113,7 +2113,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFFDC5C"/>
+        <fgColor rgb="FFFFDC5E"/>
         <bgColor rgb="FFFCE4BA"/>
       </patternFill>
     </fill>
@@ -2161,7 +2161,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6C6B70"/>
+        <fgColor rgb="FF6D6C70"/>
         <bgColor rgb="FF78746E"/>
       </patternFill>
     </fill>
@@ -2174,7 +2174,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF78746E"/>
-        <bgColor rgb="FF6C6B70"/>
+        <bgColor rgb="FF6D6C70"/>
       </patternFill>
     </fill>
     <fill>
@@ -2228,7 +2228,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00897B"/>
-        <bgColor rgb="FF01937E"/>
+        <bgColor rgb="FF01937F"/>
       </patternFill>
     </fill>
     <fill>
@@ -2275,7 +2275,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF6C6B70"/>
+        <fgColor rgb="FF6D6C70"/>
         <bgColor rgb="FF78746E"/>
       </patternFill>
     </fill>
@@ -2288,19 +2288,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF558B2F"/>
-        <bgColor rgb="FF53AA46"/>
+        <bgColor rgb="FF52AA47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF53AA46"/>
+        <fgColor rgb="FF52AA47"/>
         <bgColor rgb="FF73B841"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF73B841"/>
-        <bgColor rgb="FF53AA46"/>
+        <bgColor rgb="FF52AA47"/>
       </patternFill>
     </fill>
     <fill>
@@ -2311,7 +2311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBC1B0E"/>
+        <fgColor rgb="FFBC1A0E"/>
         <bgColor rgb="FFBF1334"/>
       </patternFill>
     </fill>
@@ -2324,7 +2324,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF029E64"/>
-        <bgColor rgb="FF01937E"/>
+        <bgColor rgb="FF01937F"/>
       </patternFill>
     </fill>
     <fill>
@@ -2483,16 +2483,16 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF6C6B70"/>
+        <color rgb="FF6D6C70"/>
       </left>
       <right style="thin">
-        <color rgb="FF6C6B70"/>
+        <color rgb="FF6D6C70"/>
       </right>
       <top style="thin">
-        <color rgb="FF6C6B70"/>
+        <color rgb="FF6D6C70"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF6C6B70"/>
+        <color rgb="FF6D6C70"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4988,7 +4988,7 @@
       <rgbColor rgb="FF029E64"/>
       <rgbColor rgb="FF01579B"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF0777CB"/>
+      <rgbColor rgb="FF1D639D"/>
       <rgbColor rgb="FF1989E6"/>
       <rgbColor rgb="FFA61137"/>
       <rgbColor rgb="FF33691E"/>
@@ -5003,13 +5003,13 @@
       <rgbColor rgb="FFF1F8E9"/>
       <rgbColor rgb="FFE7EDF7"/>
       <rgbColor rgb="FF4A148C"/>
-      <rgbColor rgb="FF5C6BC0"/>
+      <rgbColor rgb="FF6D6C70"/>
       <rgbColor rgb="FF0B72C8"/>
       <rgbColor rgb="FFCDCADD"/>
       <rgbColor rgb="FF0D47A1"/>
+      <rgbColor rgb="FF0777CB"/>
       <rgbColor rgb="FF006A65"/>
-      <rgbColor rgb="FF00796B"/>
-      <rgbColor rgb="FF01937E"/>
+      <rgbColor rgb="FF01937F"/>
       <rgbColor rgb="FF7B1FA2"/>
       <rgbColor rgb="FF004D40"/>
       <rgbColor rgb="FF00897B"/>
@@ -5017,24 +5017,24 @@
       <rgbColor rgb="FF1F8FF0"/>
       <rgbColor rgb="FFE7E9F4"/>
       <rgbColor rgb="FFB3E5FC"/>
+      <rgbColor rgb="FFFFDC5E"/>
+      <rgbColor rgb="FF80DEEA"/>
       <rgbColor rgb="FFF3E5F5"/>
-      <rgbColor rgb="FF80DEEA"/>
-      <rgbColor rgb="FF1D639D"/>
       <rgbColor rgb="FFBBDEFB"/>
       <rgbColor rgb="FFFCE4BA"/>
       <rgbColor rgb="FF1565C0"/>
       <rgbColor rgb="FF27C2EF"/>
       <rgbColor rgb="FF73B841"/>
-      <rgbColor rgb="FFFFDC5C"/>
+      <rgbColor rgb="FF00796B"/>
       <rgbColor rgb="FFFE5101"/>
       <rgbColor rgb="FFFF5901"/>
-      <rgbColor rgb="FF6C6B70"/>
+      <rgbColor rgb="FF5C6BC0"/>
       <rgbColor rgb="FF78746E"/>
       <rgbColor rgb="FF1A237E"/>
-      <rgbColor rgb="FF53AA46"/>
+      <rgbColor rgb="FF52AA47"/>
       <rgbColor rgb="FF28222A"/>
       <rgbColor rgb="FF2F2730"/>
-      <rgbColor rgb="FFBC1B0E"/>
+      <rgbColor rgb="FFBC1A0E"/>
       <rgbColor rgb="FFBF1334"/>
       <rgbColor rgb="FF29488F"/>
       <rgbColor rgb="FF322A30"/>
@@ -5162,7 +5162,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K37" activeCellId="0" sqref="K37"/>
+      <selection pane="bottomRight" activeCell="S11" activeCellId="0" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -2006,7 +2006,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5C6BC0"/>
-        <bgColor rgb="FF6D6C70"/>
+        <bgColor rgb="FF6E6D70"/>
       </patternFill>
     </fill>
     <fill>
@@ -2054,12 +2054,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBF1334"/>
-        <bgColor rgb="FFBC1A0E"/>
+        <bgColor rgb="FFBC190E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFBC1A0E"/>
+        <fgColor rgb="FFBC190E"/>
         <bgColor rgb="FFBF1334"/>
       </patternFill>
     </fill>
@@ -2077,7 +2077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF01937F"/>
+        <fgColor rgb="FF019380"/>
         <bgColor rgb="FF00897B"/>
       </patternFill>
     </fill>
@@ -2089,7 +2089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDC5E"/>
+        <fgColor rgb="FFFFDC60"/>
         <bgColor rgb="FFFCE4BA"/>
       </patternFill>
     </fill>
@@ -2113,7 +2113,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFFDC5E"/>
+        <fgColor rgb="FFFFDC60"/>
         <bgColor rgb="FFFCE4BA"/>
       </patternFill>
     </fill>
@@ -2161,7 +2161,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6D6C70"/>
+        <fgColor rgb="FF6E6D70"/>
         <bgColor rgb="FF78746E"/>
       </patternFill>
     </fill>
@@ -2174,7 +2174,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF78746E"/>
-        <bgColor rgb="FF6D6C70"/>
+        <bgColor rgb="FF6E6D70"/>
       </patternFill>
     </fill>
     <fill>
@@ -2228,7 +2228,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00897B"/>
-        <bgColor rgb="FF01937F"/>
+        <bgColor rgb="FF019380"/>
       </patternFill>
     </fill>
     <fill>
@@ -2275,7 +2275,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF6D6C70"/>
+        <fgColor rgb="FF6E6D70"/>
         <bgColor rgb="FF78746E"/>
       </patternFill>
     </fill>
@@ -2288,19 +2288,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF558B2F"/>
-        <bgColor rgb="FF52AA47"/>
+        <bgColor rgb="FF51AA48"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF52AA47"/>
+        <fgColor rgb="FF51AA48"/>
         <bgColor rgb="FF73B841"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF73B841"/>
-        <bgColor rgb="FF52AA47"/>
+        <bgColor rgb="FF51AA48"/>
       </patternFill>
     </fill>
     <fill>
@@ -2311,7 +2311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBC1A0E"/>
+        <fgColor rgb="FFBC190E"/>
         <bgColor rgb="FFBF1334"/>
       </patternFill>
     </fill>
@@ -2324,7 +2324,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF029E64"/>
-        <bgColor rgb="FF01937F"/>
+        <bgColor rgb="FF019380"/>
       </patternFill>
     </fill>
     <fill>
@@ -2483,16 +2483,16 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF6D6C70"/>
+        <color rgb="FF6E6D70"/>
       </left>
       <right style="thin">
-        <color rgb="FF6D6C70"/>
+        <color rgb="FF6E6D70"/>
       </right>
       <top style="thin">
-        <color rgb="FF6D6C70"/>
+        <color rgb="FF6E6D70"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF6D6C70"/>
+        <color rgb="FF6E6D70"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5003,13 +5003,13 @@
       <rgbColor rgb="FFF1F8E9"/>
       <rgbColor rgb="FFE7EDF7"/>
       <rgbColor rgb="FF4A148C"/>
-      <rgbColor rgb="FF6D6C70"/>
+      <rgbColor rgb="FF6E6D70"/>
       <rgbColor rgb="FF0B72C8"/>
       <rgbColor rgb="FFCDCADD"/>
       <rgbColor rgb="FF0D47A1"/>
       <rgbColor rgb="FF0777CB"/>
       <rgbColor rgb="FF006A65"/>
-      <rgbColor rgb="FF01937F"/>
+      <rgbColor rgb="FF019380"/>
       <rgbColor rgb="FF7B1FA2"/>
       <rgbColor rgb="FF004D40"/>
       <rgbColor rgb="FF00897B"/>
@@ -5017,7 +5017,7 @@
       <rgbColor rgb="FF1F8FF0"/>
       <rgbColor rgb="FFE7E9F4"/>
       <rgbColor rgb="FFB3E5FC"/>
-      <rgbColor rgb="FFFFDC5E"/>
+      <rgbColor rgb="FFFFDC60"/>
       <rgbColor rgb="FF80DEEA"/>
       <rgbColor rgb="FFF3E5F5"/>
       <rgbColor rgb="FFBBDEFB"/>
@@ -5031,10 +5031,10 @@
       <rgbColor rgb="FF5C6BC0"/>
       <rgbColor rgb="FF78746E"/>
       <rgbColor rgb="FF1A237E"/>
-      <rgbColor rgb="FF52AA47"/>
+      <rgbColor rgb="FF51AA48"/>
       <rgbColor rgb="FF28222A"/>
       <rgbColor rgb="FF2F2730"/>
-      <rgbColor rgb="FFBC1A0E"/>
+      <rgbColor rgb="FFBC190E"/>
       <rgbColor rgb="FFBF1334"/>
       <rgbColor rgb="FF29488F"/>
       <rgbColor rgb="FF322A30"/>
@@ -5162,7 +5162,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S11" activeCellId="0" sqref="S11"/>
+      <selection pane="bottomRight" activeCell="L43" activeCellId="0" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -2006,7 +2006,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5C6BC0"/>
-        <bgColor rgb="FF6E6D70"/>
+        <bgColor rgb="FF717070"/>
       </patternFill>
     </fill>
     <fill>
@@ -2054,12 +2054,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBF1334"/>
-        <bgColor rgb="FFBC190E"/>
+        <bgColor rgb="FFBC170E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFBC190E"/>
+        <fgColor rgb="FFBC170E"/>
         <bgColor rgb="FFBF1334"/>
       </patternFill>
     </fill>
@@ -2077,7 +2077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF019380"/>
+        <fgColor rgb="FF019381"/>
         <bgColor rgb="FF00897B"/>
       </patternFill>
     </fill>
@@ -2089,7 +2089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDC60"/>
+        <fgColor rgb="FFFFDC63"/>
         <bgColor rgb="FFFCE4BA"/>
       </patternFill>
     </fill>
@@ -2113,7 +2113,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFFDC60"/>
+        <fgColor rgb="FFFFDC63"/>
         <bgColor rgb="FFFCE4BA"/>
       </patternFill>
     </fill>
@@ -2161,7 +2161,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6E6D70"/>
+        <fgColor rgb="FF717070"/>
         <bgColor rgb="FF78746E"/>
       </patternFill>
     </fill>
@@ -2174,7 +2174,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF78746E"/>
-        <bgColor rgb="FF6E6D70"/>
+        <bgColor rgb="FF717070"/>
       </patternFill>
     </fill>
     <fill>
@@ -2228,7 +2228,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00897B"/>
-        <bgColor rgb="FF019380"/>
+        <bgColor rgb="FF019381"/>
       </patternFill>
     </fill>
     <fill>
@@ -2275,7 +2275,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF6E6D70"/>
+        <fgColor rgb="FF717070"/>
         <bgColor rgb="FF78746E"/>
       </patternFill>
     </fill>
@@ -2288,19 +2288,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF558B2F"/>
-        <bgColor rgb="FF51AA48"/>
+        <bgColor rgb="FF51AA4B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF51AA48"/>
+        <fgColor rgb="FF51AA4B"/>
         <bgColor rgb="FF73B841"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF73B841"/>
-        <bgColor rgb="FF51AA48"/>
+        <bgColor rgb="FF51AA4B"/>
       </patternFill>
     </fill>
     <fill>
@@ -2311,7 +2311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBC190E"/>
+        <fgColor rgb="FFBC170E"/>
         <bgColor rgb="FFBF1334"/>
       </patternFill>
     </fill>
@@ -2324,7 +2324,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF029E64"/>
-        <bgColor rgb="FF019380"/>
+        <bgColor rgb="FF019381"/>
       </patternFill>
     </fill>
     <fill>
@@ -2483,16 +2483,16 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF6E6D70"/>
+        <color rgb="FF717070"/>
       </left>
       <right style="thin">
-        <color rgb="FF6E6D70"/>
+        <color rgb="FF717070"/>
       </right>
       <top style="thin">
-        <color rgb="FF6E6D70"/>
+        <color rgb="FF717070"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF6E6D70"/>
+        <color rgb="FF717070"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5003,13 +5003,13 @@
       <rgbColor rgb="FFF1F8E9"/>
       <rgbColor rgb="FFE7EDF7"/>
       <rgbColor rgb="FF4A148C"/>
-      <rgbColor rgb="FF6E6D70"/>
+      <rgbColor rgb="FF717070"/>
       <rgbColor rgb="FF0B72C8"/>
       <rgbColor rgb="FFCDCADD"/>
       <rgbColor rgb="FF0D47A1"/>
       <rgbColor rgb="FF0777CB"/>
       <rgbColor rgb="FF006A65"/>
-      <rgbColor rgb="FF019380"/>
+      <rgbColor rgb="FF019381"/>
       <rgbColor rgb="FF7B1FA2"/>
       <rgbColor rgb="FF004D40"/>
       <rgbColor rgb="FF00897B"/>
@@ -5017,7 +5017,7 @@
       <rgbColor rgb="FF1F8FF0"/>
       <rgbColor rgb="FFE7E9F4"/>
       <rgbColor rgb="FFB3E5FC"/>
-      <rgbColor rgb="FFFFDC60"/>
+      <rgbColor rgb="FFFFDC63"/>
       <rgbColor rgb="FF80DEEA"/>
       <rgbColor rgb="FFF3E5F5"/>
       <rgbColor rgb="FFBBDEFB"/>
@@ -5031,10 +5031,10 @@
       <rgbColor rgb="FF5C6BC0"/>
       <rgbColor rgb="FF78746E"/>
       <rgbColor rgb="FF1A237E"/>
-      <rgbColor rgb="FF51AA48"/>
+      <rgbColor rgb="FF51AA4B"/>
       <rgbColor rgb="FF28222A"/>
       <rgbColor rgb="FF2F2730"/>
-      <rgbColor rgb="FFBC190E"/>
+      <rgbColor rgb="FFBC170E"/>
       <rgbColor rgb="FFBF1334"/>
       <rgbColor rgb="FF29488F"/>
       <rgbColor rgb="FF322A30"/>
@@ -5162,7 +5162,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L43" activeCellId="0" sqref="L43"/>
+      <selection pane="bottomRight" activeCell="J56" activeCellId="0" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -5155,10 +5155,10 @@
   <dimension ref="A1:DM68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="K38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="3" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
       <selection pane="bottomRight" activeCell="A62" activeCellId="0" sqref="A62"/>
     </sheetView>
   </sheetViews>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="VERS_Packages" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="VERS_Packages" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="VERS_Piler_Config" sheetId="3" state="hidden" r:id="rId5"/>
     <sheet name="VERS_Pilers" sheetId="4" state="hidden" r:id="rId6"/>
     <sheet name="VERS_Processor_Config" sheetId="5" state="hidden" r:id="rId7"/>
@@ -2003,7 +2003,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5C6BC0"/>
-        <bgColor rgb="FF727070"/>
+        <bgColor rgb="FF737070"/>
       </patternFill>
     </fill>
     <fill>
@@ -2086,7 +2086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDC64"/>
+        <fgColor rgb="FFFFDC65"/>
         <bgColor rgb="FFFCE4BA"/>
       </patternFill>
     </fill>
@@ -2110,7 +2110,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFFDC64"/>
+        <fgColor rgb="FFFFDC65"/>
         <bgColor rgb="FFFCE4BA"/>
       </patternFill>
     </fill>
@@ -2158,7 +2158,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF727070"/>
+        <fgColor rgb="FF737070"/>
         <bgColor rgb="FF78746E"/>
       </patternFill>
     </fill>
@@ -2171,7 +2171,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF78746E"/>
-        <bgColor rgb="FF727070"/>
+        <bgColor rgb="FF737070"/>
       </patternFill>
     </fill>
     <fill>
@@ -2272,7 +2272,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF727070"/>
+        <fgColor rgb="FF737070"/>
         <bgColor rgb="FF78746E"/>
       </patternFill>
     </fill>
@@ -2480,16 +2480,16 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF727070"/>
+        <color rgb="FF737070"/>
       </left>
       <right style="thin">
-        <color rgb="FF727070"/>
+        <color rgb="FF737070"/>
       </right>
       <top style="thin">
-        <color rgb="FF727070"/>
+        <color rgb="FF737070"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF727070"/>
+        <color rgb="FF737070"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5000,7 +5000,7 @@
       <rgbColor rgb="FFF1F8E9"/>
       <rgbColor rgb="FFE7EDF7"/>
       <rgbColor rgb="FF4A148C"/>
-      <rgbColor rgb="FF727070"/>
+      <rgbColor rgb="FF737070"/>
       <rgbColor rgb="FF0B72C8"/>
       <rgbColor rgb="FFCDCADD"/>
       <rgbColor rgb="FF0D47A1"/>
@@ -5018,7 +5018,7 @@
       <rgbColor rgb="FF80DEEA"/>
       <rgbColor rgb="FFF3E5F5"/>
       <rgbColor rgb="FFBBDEFB"/>
-      <rgbColor rgb="FFFFDC64"/>
+      <rgbColor rgb="FFFFDC65"/>
       <rgbColor rgb="FF1565C0"/>
       <rgbColor rgb="FF27C2EF"/>
       <rgbColor rgb="FF73B841"/>
@@ -5154,12 +5154,12 @@
   </sheetPr>
   <dimension ref="A1:DM68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
-      <selection pane="bottomRight" activeCell="A62" activeCellId="0" sqref="A62"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="U34" activeCellId="0" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -16863,8 +16863,8 @@
   </sheetPr>
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q33" activeCellId="0" sqref="Q33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -2003,7 +2003,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5C6BC0"/>
-        <bgColor rgb="FF737070"/>
+        <bgColor rgb="FF747070"/>
       </patternFill>
     </fill>
     <fill>
@@ -2158,7 +2158,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF737070"/>
+        <fgColor rgb="FF747070"/>
         <bgColor rgb="FF78746E"/>
       </patternFill>
     </fill>
@@ -2171,7 +2171,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF78746E"/>
-        <bgColor rgb="FF737070"/>
+        <bgColor rgb="FF747070"/>
       </patternFill>
     </fill>
     <fill>
@@ -2272,7 +2272,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF737070"/>
+        <fgColor rgb="FF747070"/>
         <bgColor rgb="FF78746E"/>
       </patternFill>
     </fill>
@@ -2480,16 +2480,16 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF737070"/>
+        <color rgb="FF747070"/>
       </left>
       <right style="thin">
-        <color rgb="FF737070"/>
+        <color rgb="FF747070"/>
       </right>
       <top style="thin">
-        <color rgb="FF737070"/>
+        <color rgb="FF747070"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF737070"/>
+        <color rgb="FF747070"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5000,7 +5000,7 @@
       <rgbColor rgb="FFF1F8E9"/>
       <rgbColor rgb="FFE7EDF7"/>
       <rgbColor rgb="FF4A148C"/>
-      <rgbColor rgb="FF737070"/>
+      <rgbColor rgb="FF747070"/>
       <rgbColor rgb="FF0B72C8"/>
       <rgbColor rgb="FFCDCADD"/>
       <rgbColor rgb="FF0D47A1"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
@@ -5154,12 +5154,12 @@
   </sheetPr>
   <dimension ref="A1:DM68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U34" activeCellId="0" sqref="U34"/>
+      <selection pane="bottomRight" activeCell="V46" activeCellId="0" sqref="V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -16863,7 +16863,7 @@
   </sheetPr>
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -5159,7 +5159,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
-      <selection pane="bottomRight" activeCell="K62" activeCellId="0" sqref="K62"/>
+      <selection pane="bottomRight" activeCell="C61" activeCellId="0" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -5,20 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="VERS_Packages" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="VERS_Piler_Config" sheetId="3" state="hidden" r:id="rId5"/>
-    <sheet name="VERS_Pilers" sheetId="4" state="hidden" r:id="rId6"/>
-    <sheet name="VERS_Processor_Config" sheetId="5" state="hidden" r:id="rId7"/>
-    <sheet name="VERS_Processors" sheetId="6" state="hidden" r:id="rId8"/>
-    <sheet name="VERS_Docubase_Application" sheetId="7" state="hidden" r:id="rId9"/>
-    <sheet name="VERS_Docubase_Pages" sheetId="8" state="hidden" r:id="rId10"/>
-    <sheet name="VIEW_Docubase_Page_Templates" sheetId="9" state="hidden" r:id="rId11"/>
-    <sheet name="VIEW_Docubase_Pages" sheetId="10" state="hidden" r:id="rId12"/>
-    <sheet name="VELI_Docubase_Page_Styles" sheetId="11" state="hidden" r:id="rId13"/>
+    <sheet name="VERS_Piler_Config" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="VERS_Pilers" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="VERS_Processor_Config" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="VERS_Processors" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="VERS_Docubase_Application" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="VERS_Docubase_Pages" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="VIEW_Docubase_Page_Templates" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="VIEW_Docubase_Pages" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="VELI_Docubase_Page_Styles" sheetId="11" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="AREA" vbProcedure="false">VINE!$A$1:$DK$61</definedName>
@@ -5154,7 +5154,7 @@
   </sheetPr>
   <dimension ref="A1:DM68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="10" ySplit="3" topLeftCell="K41" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
@@ -16262,7 +16262,7 @@
   </sheetPr>
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -5,20 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="VERS_Packages" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="VERS_Piler_Config" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="VERS_Pilers" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="VERS_Processor_Config" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="VERS_Processors" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="VERS_Docubase_Application" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="VERS_Docubase_Pages" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="VIEW_Docubase_Page_Templates" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="VIEW_Docubase_Pages" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="VELI_Docubase_Page_Styles" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="VERS_Pilers" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="VERS_Processor_Config" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="VERS_Processors" sheetId="6" state="hidden" r:id="rId8"/>
+    <sheet name="VERS_Docubase_Application" sheetId="7" state="hidden" r:id="rId9"/>
+    <sheet name="VERS_Docubase_Pages" sheetId="8" state="hidden" r:id="rId10"/>
+    <sheet name="VIEW_Docubase_Page_Templates" sheetId="9" state="hidden" r:id="rId11"/>
+    <sheet name="VIEW_Docubase_Pages" sheetId="10" state="hidden" r:id="rId12"/>
+    <sheet name="VELI_Docubase_Page_Styles" sheetId="11" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="AREA" vbProcedure="false">VINE!$A$1:$DK$61</definedName>
@@ -5155,11 +5155,11 @@
   <dimension ref="A1:DM68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="K41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
-      <selection pane="bottomRight" activeCell="J61" activeCellId="0" sqref="J61"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G44" activeCellId="0" sqref="40:185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -15497,7 +15497,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="C5" activeCellId="1" sqref="40:185 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16262,12 +16262,12 @@
   </sheetPr>
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AA15" activeCellId="0" sqref="AA15"/>
+      <selection pane="bottomRight" activeCell="AA15" activeCellId="1" sqref="40:185 AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -16862,7 +16862,7 @@
   <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
+      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="40:185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18241,15 +18241,15 @@
   </sheetPr>
   <dimension ref="A1:Y190"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E82" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
-      <selection pane="bottomRight" activeCell="L16" activeCellId="0" sqref="L16"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E186" activeCellId="1" sqref="40:185 E186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="3.03"/>
@@ -18423,7 +18423,7 @@
       <c r="X4" s="64"/>
       <c r="Y4" s="64"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A5" s="67" t="n">
         <f aca="false">VINE!$A$28</f>
         <v>24</v>
@@ -18455,7 +18455,7 @@
       <c r="X5" s="71"/>
       <c r="Y5" s="71"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A6" s="72"/>
       <c r="B6" s="73"/>
       <c r="C6" s="110" t="s">
@@ -18494,7 +18494,7 @@
       </c>
       <c r="Y6" s="83"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="111"/>
@@ -18529,7 +18529,7 @@
       <c r="X7" s="83"/>
       <c r="Y7" s="83"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A8" s="95"/>
       <c r="B8" s="96"/>
       <c r="C8" s="112"/>
@@ -18562,7 +18562,7 @@
       <c r="X8" s="83"/>
       <c r="Y8" s="83"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A9" s="113"/>
       <c r="B9" s="114"/>
       <c r="C9" s="115"/>
@@ -18597,7 +18597,7 @@
       <c r="X9" s="83"/>
       <c r="Y9" s="83"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A10" s="113"/>
       <c r="B10" s="114"/>
       <c r="C10" s="115"/>
@@ -18632,7 +18632,7 @@
       <c r="X10" s="83"/>
       <c r="Y10" s="83"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A11" s="113"/>
       <c r="B11" s="114"/>
       <c r="C11" s="115"/>
@@ -18671,7 +18671,7 @@
       </c>
       <c r="Y11" s="83"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A12" s="125"/>
       <c r="B12" s="126"/>
       <c r="C12" s="127"/>
@@ -18702,7 +18702,7 @@
       <c r="X12" s="83"/>
       <c r="Y12" s="83"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A13" s="125"/>
       <c r="B13" s="126"/>
       <c r="C13" s="127"/>
@@ -18733,7 +18733,7 @@
       <c r="X13" s="83"/>
       <c r="Y13" s="83"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A14" s="125"/>
       <c r="B14" s="126"/>
       <c r="C14" s="127"/>
@@ -18764,7 +18764,7 @@
       <c r="X14" s="83"/>
       <c r="Y14" s="83"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A15" s="125"/>
       <c r="B15" s="126"/>
       <c r="C15" s="127"/>
@@ -18793,7 +18793,7 @@
       <c r="X15" s="83"/>
       <c r="Y15" s="83"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A16" s="113"/>
       <c r="B16" s="114"/>
       <c r="C16" s="115"/>
@@ -18828,7 +18828,7 @@
       <c r="X16" s="83"/>
       <c r="Y16" s="83"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="113"/>
       <c r="B17" s="114"/>
       <c r="C17" s="115"/>
@@ -18863,7 +18863,7 @@
       <c r="X17" s="83"/>
       <c r="Y17" s="83"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="113"/>
       <c r="B18" s="114"/>
       <c r="C18" s="115"/>
@@ -19588,7 +19588,7 @@
       <c r="X39" s="83"/>
       <c r="Y39" s="83"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A40" s="67" t="n">
         <f aca="false">VINE!$A$30</f>
         <v>26</v>
@@ -19620,7 +19620,7 @@
       <c r="X40" s="71"/>
       <c r="Y40" s="71"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A41" s="72"/>
       <c r="B41" s="73"/>
       <c r="C41" s="110" t="s">
@@ -19661,7 +19661,7 @@
       <c r="X41" s="83"/>
       <c r="Y41" s="83"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A42" s="72"/>
       <c r="B42" s="73"/>
       <c r="C42" s="110"/>
@@ -19694,7 +19694,7 @@
       <c r="X42" s="83"/>
       <c r="Y42" s="83"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
       <c r="C43" s="111"/>
@@ -19725,7 +19725,7 @@
       <c r="X43" s="83"/>
       <c r="Y43" s="83"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
       <c r="C44" s="111"/>
@@ -19754,7 +19754,7 @@
       <c r="X44" s="83"/>
       <c r="Y44" s="83"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A45" s="72"/>
       <c r="B45" s="73"/>
       <c r="C45" s="110" t="s">
@@ -19793,7 +19793,7 @@
       </c>
       <c r="Y45" s="83"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A46" s="72"/>
       <c r="B46" s="73"/>
       <c r="C46" s="110"/>
@@ -19822,7 +19822,7 @@
       <c r="X46" s="83"/>
       <c r="Y46" s="83"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A47" s="72"/>
       <c r="B47" s="73"/>
       <c r="C47" s="110" t="s">
@@ -19857,7 +19857,7 @@
       <c r="X47" s="83"/>
       <c r="Y47" s="83"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A48" s="84"/>
       <c r="B48" s="85"/>
       <c r="C48" s="111" t="s">
@@ -19892,7 +19892,7 @@
       <c r="X48" s="83"/>
       <c r="Y48" s="83"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A49" s="72"/>
       <c r="B49" s="73"/>
       <c r="C49" s="110"/>
@@ -19925,7 +19925,7 @@
       <c r="X49" s="83"/>
       <c r="Y49" s="83"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A50" s="84"/>
       <c r="B50" s="85"/>
       <c r="C50" s="111" t="s">
@@ -19964,7 +19964,7 @@
       <c r="X50" s="83"/>
       <c r="Y50" s="83"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A51" s="95"/>
       <c r="B51" s="96"/>
       <c r="C51" s="97"/>
@@ -19993,7 +19993,7 @@
       <c r="X51" s="83"/>
       <c r="Y51" s="83"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
       <c r="C52" s="111" t="s">
@@ -20028,7 +20028,7 @@
       <c r="X52" s="83"/>
       <c r="Y52" s="83"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
       <c r="C53" s="111" t="s">
@@ -20063,7 +20063,7 @@
       <c r="X53" s="83"/>
       <c r="Y53" s="83"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A54" s="84"/>
       <c r="B54" s="85"/>
       <c r="C54" s="111"/>
@@ -20096,7 +20096,7 @@
       <c r="X54" s="83"/>
       <c r="Y54" s="83"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A55" s="95"/>
       <c r="B55" s="96"/>
       <c r="C55" s="97"/>
@@ -20125,7 +20125,7 @@
       <c r="X55" s="83"/>
       <c r="Y55" s="83"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A56" s="84"/>
       <c r="B56" s="85"/>
       <c r="C56" s="111"/>
@@ -20154,7 +20154,7 @@
       <c r="X56" s="83"/>
       <c r="Y56" s="83"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A57" s="84"/>
       <c r="B57" s="85"/>
       <c r="C57" s="111"/>
@@ -20187,7 +20187,7 @@
       <c r="X57" s="83"/>
       <c r="Y57" s="83"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A58" s="95"/>
       <c r="B58" s="96"/>
       <c r="C58" s="97"/>
@@ -20218,7 +20218,7 @@
       <c r="X58" s="83"/>
       <c r="Y58" s="83"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A59" s="95"/>
       <c r="B59" s="96"/>
       <c r="C59" s="97"/>
@@ -20249,7 +20249,7 @@
       <c r="X59" s="83"/>
       <c r="Y59" s="83"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A60" s="95"/>
       <c r="B60" s="96"/>
       <c r="C60" s="97"/>
@@ -20280,7 +20280,7 @@
       <c r="X60" s="83"/>
       <c r="Y60" s="83"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A61" s="95"/>
       <c r="B61" s="96"/>
       <c r="C61" s="97"/>
@@ -20309,7 +20309,7 @@
       <c r="X61" s="83"/>
       <c r="Y61" s="83"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A62" s="84"/>
       <c r="B62" s="85"/>
       <c r="C62" s="111"/>
@@ -20342,7 +20342,7 @@
       <c r="X62" s="83"/>
       <c r="Y62" s="83"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A63" s="84"/>
       <c r="B63" s="85"/>
       <c r="C63" s="111"/>
@@ -20375,7 +20375,7 @@
       <c r="X63" s="83"/>
       <c r="Y63" s="83"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A64" s="95"/>
       <c r="B64" s="96"/>
       <c r="C64" s="97"/>
@@ -20404,7 +20404,7 @@
       <c r="X64" s="83"/>
       <c r="Y64" s="83"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A65" s="84"/>
       <c r="B65" s="85"/>
       <c r="C65" s="111" t="s">
@@ -20439,7 +20439,7 @@
       <c r="X65" s="83"/>
       <c r="Y65" s="83"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A66" s="84"/>
       <c r="B66" s="85"/>
       <c r="C66" s="111" t="s">
@@ -20474,7 +20474,7 @@
       <c r="X66" s="83"/>
       <c r="Y66" s="83"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A67" s="84"/>
       <c r="B67" s="85"/>
       <c r="C67" s="111" t="s">
@@ -20511,7 +20511,7 @@
       <c r="X67" s="83"/>
       <c r="Y67" s="83"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A68" s="95"/>
       <c r="B68" s="96"/>
       <c r="C68" s="97"/>
@@ -20548,7 +20548,7 @@
       </c>
       <c r="Y68" s="83"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A69" s="95"/>
       <c r="B69" s="96"/>
       <c r="C69" s="97"/>
@@ -20585,7 +20585,7 @@
       <c r="X69" s="83"/>
       <c r="Y69" s="83"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A70" s="113"/>
       <c r="B70" s="114"/>
       <c r="C70" s="115"/>
@@ -20622,7 +20622,7 @@
       </c>
       <c r="Y70" s="83"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A71" s="113"/>
       <c r="B71" s="114"/>
       <c r="C71" s="115"/>
@@ -20659,7 +20659,7 @@
       </c>
       <c r="Y71" s="83"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A72" s="113"/>
       <c r="B72" s="114"/>
       <c r="C72" s="115"/>
@@ -20694,7 +20694,7 @@
       </c>
       <c r="Y72" s="83"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A73" s="95"/>
       <c r="B73" s="96"/>
       <c r="C73" s="97"/>
@@ -20733,7 +20733,7 @@
       </c>
       <c r="Y73" s="83"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A74" s="113"/>
       <c r="B74" s="114"/>
       <c r="C74" s="115"/>
@@ -20770,7 +20770,7 @@
       </c>
       <c r="Y74" s="83"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A75" s="95"/>
       <c r="B75" s="96"/>
       <c r="C75" s="97"/>
@@ -20805,7 +20805,7 @@
       <c r="X75" s="83"/>
       <c r="Y75" s="83"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A76" s="113"/>
       <c r="B76" s="114"/>
       <c r="C76" s="137"/>
@@ -20840,7 +20840,7 @@
       <c r="X76" s="83"/>
       <c r="Y76" s="83"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A77" s="147"/>
       <c r="B77" s="148"/>
       <c r="C77" s="149"/>
@@ -20875,7 +20875,7 @@
       <c r="X77" s="83"/>
       <c r="Y77" s="83"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A78" s="147"/>
       <c r="B78" s="148"/>
       <c r="C78" s="149"/>
@@ -20908,7 +20908,7 @@
       <c r="X78" s="83"/>
       <c r="Y78" s="83"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A79" s="84"/>
       <c r="B79" s="85"/>
       <c r="C79" s="111"/>
@@ -20941,7 +20941,7 @@
       <c r="X79" s="83"/>
       <c r="Y79" s="83"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A80" s="95"/>
       <c r="B80" s="96"/>
       <c r="C80" s="97"/>
@@ -20970,7 +20970,7 @@
       <c r="X80" s="83"/>
       <c r="Y80" s="83"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A81" s="67" t="n">
         <f aca="false">VINE!$A$31</f>
         <v>27</v>
@@ -21002,7 +21002,7 @@
       <c r="X81" s="83"/>
       <c r="Y81" s="83"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A82" s="72"/>
       <c r="B82" s="73"/>
       <c r="C82" s="110" t="s">
@@ -21043,7 +21043,7 @@
       <c r="X82" s="83"/>
       <c r="Y82" s="83"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A83" s="72"/>
       <c r="B83" s="73"/>
       <c r="C83" s="110"/>
@@ -21076,7 +21076,7 @@
       <c r="X83" s="83"/>
       <c r="Y83" s="83"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A84" s="84"/>
       <c r="B84" s="85"/>
       <c r="C84" s="111"/>
@@ -21107,7 +21107,7 @@
       <c r="X84" s="83"/>
       <c r="Y84" s="83"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A85" s="84"/>
       <c r="B85" s="85"/>
       <c r="C85" s="111"/>
@@ -21136,7 +21136,7 @@
       <c r="X85" s="83"/>
       <c r="Y85" s="83"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A86" s="72"/>
       <c r="B86" s="73"/>
       <c r="C86" s="110" t="s">
@@ -21173,7 +21173,7 @@
       <c r="X86" s="83"/>
       <c r="Y86" s="83"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A87" s="72"/>
       <c r="B87" s="73"/>
       <c r="C87" s="110"/>
@@ -21202,7 +21202,7 @@
       <c r="X87" s="83"/>
       <c r="Y87" s="83"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A88" s="72"/>
       <c r="B88" s="73"/>
       <c r="C88" s="110" t="s">
@@ -21237,7 +21237,7 @@
       <c r="X88" s="83"/>
       <c r="Y88" s="83"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A89" s="84"/>
       <c r="B89" s="85"/>
       <c r="C89" s="111" t="s">
@@ -21272,7 +21272,7 @@
       <c r="X89" s="83"/>
       <c r="Y89" s="83"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A90" s="72"/>
       <c r="B90" s="73"/>
       <c r="C90" s="110"/>
@@ -21305,7 +21305,7 @@
       <c r="X90" s="83"/>
       <c r="Y90" s="83"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A91" s="84"/>
       <c r="B91" s="85"/>
       <c r="C91" s="111" t="s">
@@ -21344,7 +21344,7 @@
       <c r="X91" s="83"/>
       <c r="Y91" s="83"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A92" s="95"/>
       <c r="B92" s="96"/>
       <c r="C92" s="97"/>
@@ -21373,7 +21373,7 @@
       <c r="X92" s="83"/>
       <c r="Y92" s="83"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A93" s="84"/>
       <c r="B93" s="85"/>
       <c r="C93" s="111" t="s">
@@ -21408,7 +21408,7 @@
       <c r="X93" s="83"/>
       <c r="Y93" s="83"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A94" s="84"/>
       <c r="B94" s="85"/>
       <c r="C94" s="111" t="s">
@@ -21443,7 +21443,7 @@
       <c r="X94" s="83"/>
       <c r="Y94" s="83"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A95" s="84"/>
       <c r="B95" s="85"/>
       <c r="C95" s="111"/>
@@ -21476,7 +21476,7 @@
       <c r="X95" s="83"/>
       <c r="Y95" s="83"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A96" s="95"/>
       <c r="B96" s="96"/>
       <c r="C96" s="97"/>
@@ -21505,7 +21505,7 @@
       <c r="X96" s="83"/>
       <c r="Y96" s="83"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A97" s="84"/>
       <c r="B97" s="85"/>
       <c r="C97" s="111"/>
@@ -21534,7 +21534,7 @@
       <c r="X97" s="83"/>
       <c r="Y97" s="83"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A98" s="84"/>
       <c r="B98" s="85"/>
       <c r="C98" s="111"/>
@@ -21567,7 +21567,7 @@
       <c r="X98" s="83"/>
       <c r="Y98" s="83"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A99" s="95"/>
       <c r="B99" s="96"/>
       <c r="C99" s="97"/>
@@ -21598,7 +21598,7 @@
       <c r="X99" s="83"/>
       <c r="Y99" s="83"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A100" s="95"/>
       <c r="B100" s="96"/>
       <c r="C100" s="97"/>
@@ -21629,7 +21629,7 @@
       <c r="X100" s="83"/>
       <c r="Y100" s="83"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A101" s="95"/>
       <c r="B101" s="96"/>
       <c r="C101" s="97"/>
@@ -21660,7 +21660,7 @@
       <c r="X101" s="83"/>
       <c r="Y101" s="83"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A102" s="95"/>
       <c r="B102" s="96"/>
       <c r="C102" s="97"/>
@@ -21689,7 +21689,7 @@
       <c r="X102" s="83"/>
       <c r="Y102" s="83"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A103" s="84"/>
       <c r="B103" s="85"/>
       <c r="C103" s="111"/>
@@ -21722,7 +21722,7 @@
       <c r="X103" s="83"/>
       <c r="Y103" s="83"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A104" s="84"/>
       <c r="B104" s="85"/>
       <c r="C104" s="111"/>
@@ -21755,7 +21755,7 @@
       <c r="X104" s="83"/>
       <c r="Y104" s="83"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A105" s="95"/>
       <c r="B105" s="96"/>
       <c r="C105" s="97"/>
@@ -21784,7 +21784,7 @@
       <c r="X105" s="83"/>
       <c r="Y105" s="83"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A106" s="84"/>
       <c r="B106" s="85"/>
       <c r="C106" s="111" t="s">
@@ -21823,7 +21823,7 @@
       <c r="X106" s="83"/>
       <c r="Y106" s="83"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A107" s="95"/>
       <c r="B107" s="96"/>
       <c r="C107" s="97"/>
@@ -21854,7 +21854,7 @@
       <c r="X107" s="83"/>
       <c r="Y107" s="83"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A108" s="95"/>
       <c r="B108" s="96"/>
       <c r="C108" s="97"/>
@@ -21887,7 +21887,7 @@
       <c r="X108" s="83"/>
       <c r="Y108" s="83"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A109" s="95"/>
       <c r="B109" s="96"/>
       <c r="C109" s="137"/>
@@ -21918,7 +21918,7 @@
       <c r="X109" s="83"/>
       <c r="Y109" s="83"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A110" s="95"/>
       <c r="B110" s="96"/>
       <c r="C110" s="137"/>
@@ -21947,7 +21947,7 @@
       <c r="X110" s="83"/>
       <c r="Y110" s="83"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A111" s="84"/>
       <c r="B111" s="85"/>
       <c r="C111" s="111" t="s">
@@ -21984,7 +21984,7 @@
       <c r="X111" s="83"/>
       <c r="Y111" s="83"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A112" s="84"/>
       <c r="B112" s="85"/>
       <c r="C112" s="111" t="s">
@@ -22021,7 +22021,7 @@
       <c r="X112" s="83"/>
       <c r="Y112" s="83"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A113" s="95"/>
       <c r="B113" s="96"/>
       <c r="C113" s="97"/>
@@ -22052,7 +22052,7 @@
       <c r="X113" s="83"/>
       <c r="Y113" s="83"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A114" s="95"/>
       <c r="B114" s="96"/>
       <c r="C114" s="97"/>
@@ -22083,7 +22083,7 @@
       <c r="X114" s="83"/>
       <c r="Y114" s="83"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A115" s="95"/>
       <c r="B115" s="96"/>
       <c r="C115" s="97"/>
@@ -22120,7 +22120,7 @@
       <c r="X115" s="83"/>
       <c r="Y115" s="83"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A116" s="113"/>
       <c r="B116" s="114"/>
       <c r="C116" s="137"/>
@@ -22155,7 +22155,7 @@
       <c r="X116" s="83"/>
       <c r="Y116" s="83"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A117" s="95"/>
       <c r="B117" s="96"/>
       <c r="C117" s="97"/>
@@ -22190,7 +22190,7 @@
       <c r="X117" s="83"/>
       <c r="Y117" s="83"/>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A118" s="113"/>
       <c r="B118" s="114"/>
       <c r="C118" s="137"/>
@@ -22225,7 +22225,7 @@
       <c r="X118" s="83"/>
       <c r="Y118" s="83"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A119" s="147"/>
       <c r="B119" s="148"/>
       <c r="C119" s="149"/>
@@ -22260,7 +22260,7 @@
       <c r="X119" s="83"/>
       <c r="Y119" s="83"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A120" s="147"/>
       <c r="B120" s="148"/>
       <c r="C120" s="149"/>
@@ -22293,7 +22293,7 @@
       <c r="X120" s="83"/>
       <c r="Y120" s="83"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A121" s="84"/>
       <c r="B121" s="85"/>
       <c r="C121" s="111"/>
@@ -22326,7 +22326,7 @@
       <c r="X121" s="83"/>
       <c r="Y121" s="83"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A122" s="95"/>
       <c r="B122" s="96"/>
       <c r="C122" s="97"/>
@@ -22355,7 +22355,7 @@
       <c r="X122" s="83"/>
       <c r="Y122" s="83"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A123" s="67" t="n">
         <f aca="false">VINE!$A$32</f>
         <v>28</v>
@@ -22387,7 +22387,7 @@
       <c r="X123" s="83"/>
       <c r="Y123" s="83"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A124" s="72"/>
       <c r="B124" s="73"/>
       <c r="C124" s="110" t="s">
@@ -22428,7 +22428,7 @@
       <c r="X124" s="83"/>
       <c r="Y124" s="83"/>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A125" s="72"/>
       <c r="B125" s="73"/>
       <c r="C125" s="110"/>
@@ -22461,7 +22461,7 @@
       <c r="X125" s="83"/>
       <c r="Y125" s="83"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A126" s="84"/>
       <c r="B126" s="85"/>
       <c r="C126" s="111"/>
@@ -22492,7 +22492,7 @@
       <c r="X126" s="83"/>
       <c r="Y126" s="83"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A127" s="84"/>
       <c r="B127" s="85"/>
       <c r="C127" s="111"/>
@@ -22523,7 +22523,7 @@
       <c r="X127" s="83"/>
       <c r="Y127" s="83"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A128" s="84"/>
       <c r="B128" s="85"/>
       <c r="C128" s="111"/>
@@ -22554,7 +22554,7 @@
       <c r="X128" s="83"/>
       <c r="Y128" s="83"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A129" s="84"/>
       <c r="B129" s="85"/>
       <c r="C129" s="111"/>
@@ -22583,7 +22583,7 @@
       <c r="X129" s="83"/>
       <c r="Y129" s="83"/>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A130" s="72"/>
       <c r="B130" s="73"/>
       <c r="C130" s="110" t="s">
@@ -22620,7 +22620,7 @@
       <c r="X130" s="83"/>
       <c r="Y130" s="83"/>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A131" s="72"/>
       <c r="B131" s="73"/>
       <c r="C131" s="110"/>
@@ -22649,7 +22649,7 @@
       <c r="X131" s="83"/>
       <c r="Y131" s="83"/>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A132" s="72"/>
       <c r="B132" s="73"/>
       <c r="C132" s="110" t="s">
@@ -22684,7 +22684,7 @@
       <c r="X132" s="83"/>
       <c r="Y132" s="83"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A133" s="84"/>
       <c r="B133" s="85"/>
       <c r="C133" s="111" t="s">
@@ -22719,7 +22719,7 @@
       <c r="X133" s="83"/>
       <c r="Y133" s="83"/>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A134" s="72"/>
       <c r="B134" s="73"/>
       <c r="C134" s="110"/>
@@ -22752,7 +22752,7 @@
       <c r="X134" s="83"/>
       <c r="Y134" s="83"/>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A135" s="84"/>
       <c r="B135" s="85"/>
       <c r="C135" s="111" t="s">
@@ -22791,7 +22791,7 @@
       <c r="X135" s="83"/>
       <c r="Y135" s="83"/>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A136" s="95"/>
       <c r="B136" s="96"/>
       <c r="C136" s="97"/>
@@ -22820,7 +22820,7 @@
       <c r="X136" s="83"/>
       <c r="Y136" s="83"/>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A137" s="84"/>
       <c r="B137" s="85"/>
       <c r="C137" s="111" t="s">
@@ -22859,7 +22859,7 @@
       <c r="X137" s="83"/>
       <c r="Y137" s="83"/>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A138" s="84"/>
       <c r="B138" s="85"/>
       <c r="C138" s="111"/>
@@ -22890,7 +22890,7 @@
       <c r="X138" s="83"/>
       <c r="Y138" s="83"/>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A139" s="84"/>
       <c r="B139" s="85"/>
       <c r="C139" s="111"/>
@@ -22919,7 +22919,7 @@
       <c r="X139" s="83"/>
       <c r="Y139" s="83"/>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A140" s="84"/>
       <c r="B140" s="85"/>
       <c r="C140" s="111"/>
@@ -22954,7 +22954,7 @@
       <c r="X140" s="83"/>
       <c r="Y140" s="83"/>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A141" s="84"/>
       <c r="B141" s="85"/>
       <c r="C141" s="111"/>
@@ -22983,7 +22983,7 @@
       <c r="X141" s="83"/>
       <c r="Y141" s="83"/>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A142" s="84"/>
       <c r="B142" s="85"/>
       <c r="C142" s="111" t="s">
@@ -23022,7 +23022,7 @@
       <c r="X142" s="83"/>
       <c r="Y142" s="83"/>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A143" s="84"/>
       <c r="B143" s="85"/>
       <c r="C143" s="111"/>
@@ -23053,7 +23053,7 @@
       <c r="X143" s="83"/>
       <c r="Y143" s="83"/>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A144" s="84"/>
       <c r="B144" s="85"/>
       <c r="C144" s="111"/>
@@ -23082,7 +23082,7 @@
       <c r="X144" s="83"/>
       <c r="Y144" s="83"/>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A145" s="84"/>
       <c r="B145" s="85"/>
       <c r="C145" s="111"/>
@@ -23117,7 +23117,7 @@
       <c r="X145" s="83"/>
       <c r="Y145" s="83"/>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A146" s="84"/>
       <c r="B146" s="85"/>
       <c r="C146" s="111"/>
@@ -23146,7 +23146,7 @@
       <c r="X146" s="83"/>
       <c r="Y146" s="83"/>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A147" s="84"/>
       <c r="B147" s="85"/>
       <c r="C147" s="111" t="s">
@@ -23185,7 +23185,7 @@
       <c r="X147" s="83"/>
       <c r="Y147" s="83"/>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A148" s="84"/>
       <c r="B148" s="85"/>
       <c r="C148" s="111"/>
@@ -23216,7 +23216,7 @@
       <c r="X148" s="83"/>
       <c r="Y148" s="83"/>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A149" s="84"/>
       <c r="B149" s="85"/>
       <c r="C149" s="111"/>
@@ -23245,7 +23245,7 @@
       <c r="X149" s="83"/>
       <c r="Y149" s="83"/>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A150" s="84"/>
       <c r="B150" s="85"/>
       <c r="C150" s="111"/>
@@ -23280,7 +23280,7 @@
       <c r="X150" s="83"/>
       <c r="Y150" s="83"/>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A151" s="84"/>
       <c r="B151" s="85"/>
       <c r="C151" s="111"/>
@@ -23309,7 +23309,7 @@
       <c r="X151" s="83"/>
       <c r="Y151" s="83"/>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A152" s="84"/>
       <c r="B152" s="85"/>
       <c r="C152" s="111" t="s">
@@ -23344,7 +23344,7 @@
       <c r="X152" s="83"/>
       <c r="Y152" s="83"/>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A153" s="84"/>
       <c r="B153" s="85"/>
       <c r="C153" s="111"/>
@@ -23377,7 +23377,7 @@
       <c r="X153" s="83"/>
       <c r="Y153" s="83"/>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A154" s="95"/>
       <c r="B154" s="96"/>
       <c r="C154" s="97"/>
@@ -23406,7 +23406,7 @@
       <c r="X154" s="83"/>
       <c r="Y154" s="83"/>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A155" s="84"/>
       <c r="B155" s="85"/>
       <c r="C155" s="111"/>
@@ -23435,7 +23435,7 @@
       <c r="X155" s="83"/>
       <c r="Y155" s="83"/>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A156" s="84"/>
       <c r="B156" s="85"/>
       <c r="C156" s="111"/>
@@ -23468,7 +23468,7 @@
       <c r="X156" s="83"/>
       <c r="Y156" s="83"/>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A157" s="95"/>
       <c r="B157" s="96"/>
       <c r="C157" s="97"/>
@@ -23499,7 +23499,7 @@
       <c r="X157" s="83"/>
       <c r="Y157" s="83"/>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A158" s="95"/>
       <c r="B158" s="96"/>
       <c r="C158" s="97"/>
@@ -23530,7 +23530,7 @@
       <c r="X158" s="83"/>
       <c r="Y158" s="83"/>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A159" s="95"/>
       <c r="B159" s="96"/>
       <c r="C159" s="97"/>
@@ -23561,7 +23561,7 @@
       <c r="X159" s="83"/>
       <c r="Y159" s="83"/>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A160" s="95"/>
       <c r="B160" s="96"/>
       <c r="C160" s="97"/>
@@ -23590,7 +23590,7 @@
       <c r="X160" s="83"/>
       <c r="Y160" s="83"/>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A161" s="84"/>
       <c r="B161" s="85"/>
       <c r="C161" s="111"/>
@@ -23623,7 +23623,7 @@
       <c r="X161" s="83"/>
       <c r="Y161" s="83"/>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A162" s="84"/>
       <c r="B162" s="85"/>
       <c r="C162" s="111"/>
@@ -23656,7 +23656,7 @@
       <c r="X162" s="83"/>
       <c r="Y162" s="83"/>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A163" s="95"/>
       <c r="B163" s="96"/>
       <c r="C163" s="97"/>
@@ -23685,7 +23685,7 @@
       <c r="X163" s="83"/>
       <c r="Y163" s="83"/>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A164" s="95"/>
       <c r="B164" s="96"/>
       <c r="C164" s="161" t="s">
@@ -23724,7 +23724,7 @@
       <c r="X164" s="83"/>
       <c r="Y164" s="83"/>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A165" s="95"/>
       <c r="B165" s="96"/>
       <c r="C165" s="161"/>
@@ -23755,7 +23755,7 @@
       <c r="X165" s="83"/>
       <c r="Y165" s="83"/>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A166" s="95"/>
       <c r="B166" s="96"/>
       <c r="C166" s="161"/>
@@ -23784,7 +23784,7 @@
       <c r="X166" s="83"/>
       <c r="Y166" s="83"/>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A167" s="95"/>
       <c r="B167" s="96"/>
       <c r="C167" s="161" t="s">
@@ -23823,7 +23823,7 @@
       <c r="X167" s="83"/>
       <c r="Y167" s="83"/>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A168" s="95"/>
       <c r="B168" s="96"/>
       <c r="C168" s="161"/>
@@ -23852,7 +23852,7 @@
       <c r="X168" s="83"/>
       <c r="Y168" s="83"/>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A169" s="84"/>
       <c r="B169" s="85"/>
       <c r="C169" s="111" t="s">
@@ -23889,7 +23889,7 @@
       <c r="X169" s="83"/>
       <c r="Y169" s="83"/>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A170" s="95"/>
       <c r="B170" s="96"/>
       <c r="C170" s="97"/>
@@ -23926,7 +23926,7 @@
       <c r="X170" s="83"/>
       <c r="Y170" s="83"/>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A171" s="95"/>
       <c r="B171" s="96"/>
       <c r="C171" s="97"/>
@@ -23957,7 +23957,7 @@
       <c r="X171" s="83"/>
       <c r="Y171" s="83"/>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A172" s="95"/>
       <c r="B172" s="96"/>
       <c r="C172" s="97"/>
@@ -23988,7 +23988,7 @@
       <c r="X172" s="83"/>
       <c r="Y172" s="83"/>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A173" s="95"/>
       <c r="B173" s="96"/>
       <c r="C173" s="97"/>
@@ -24017,7 +24017,7 @@
       <c r="X173" s="83"/>
       <c r="Y173" s="83"/>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A174" s="95"/>
       <c r="B174" s="96"/>
       <c r="C174" s="97"/>
@@ -24052,7 +24052,7 @@
       <c r="X174" s="83"/>
       <c r="Y174" s="83"/>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A175" s="95"/>
       <c r="B175" s="96"/>
       <c r="C175" s="97"/>
@@ -24089,7 +24089,7 @@
       <c r="X175" s="83"/>
       <c r="Y175" s="83"/>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A176" s="113"/>
       <c r="B176" s="114"/>
       <c r="C176" s="137"/>
@@ -24124,7 +24124,7 @@
       <c r="X176" s="83"/>
       <c r="Y176" s="83"/>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A177" s="147"/>
       <c r="B177" s="148"/>
       <c r="C177" s="149"/>
@@ -24159,7 +24159,7 @@
       <c r="X177" s="83"/>
       <c r="Y177" s="83"/>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A178" s="147"/>
       <c r="B178" s="148"/>
       <c r="C178" s="149"/>
@@ -24192,7 +24192,7 @@
       <c r="X178" s="83"/>
       <c r="Y178" s="83"/>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A179" s="95"/>
       <c r="B179" s="96"/>
       <c r="C179" s="97"/>
@@ -24227,7 +24227,7 @@
       <c r="X179" s="83"/>
       <c r="Y179" s="83"/>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A180" s="95"/>
       <c r="B180" s="96"/>
       <c r="C180" s="97"/>
@@ -24264,7 +24264,7 @@
       <c r="X180" s="83"/>
       <c r="Y180" s="83"/>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A181" s="95"/>
       <c r="B181" s="96"/>
       <c r="C181" s="97"/>
@@ -24293,7 +24293,7 @@
       <c r="X181" s="83"/>
       <c r="Y181" s="83"/>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A182" s="95"/>
       <c r="B182" s="96"/>
       <c r="C182" s="97"/>
@@ -24328,7 +24328,7 @@
       <c r="X182" s="83"/>
       <c r="Y182" s="83"/>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="183" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A183" s="95"/>
       <c r="B183" s="96"/>
       <c r="C183" s="97"/>
@@ -24361,7 +24361,7 @@
       <c r="X183" s="83"/>
       <c r="Y183" s="83"/>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A184" s="84"/>
       <c r="B184" s="85"/>
       <c r="C184" s="111"/>
@@ -24394,7 +24394,7 @@
       <c r="X184" s="83"/>
       <c r="Y184" s="83"/>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A185" s="95"/>
       <c r="B185" s="96"/>
       <c r="C185" s="97"/>
@@ -24556,7 +24556,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A117" activeCellId="0" sqref="A117"/>
-      <selection pane="bottomRight" activeCell="K140" activeCellId="0" sqref="K140"/>
+      <selection pane="bottomRight" activeCell="K140" activeCellId="0" sqref="40:185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -30877,7 +30877,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q11" activeCellId="0" sqref="Q11"/>
+      <selection pane="bottomRight" activeCell="Q11" activeCellId="1" sqref="40:185 Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -31497,7 +31497,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
-      <selection pane="bottomRight" activeCell="G92" activeCellId="0" sqref="G92"/>
+      <selection pane="bottomRight" activeCell="G92" activeCellId="0" sqref="40:185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34195,7 +34195,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="D17" activeCellId="1" sqref="40:185 D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35769,7 +35769,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A8" activeCellId="1" sqref="40:185 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37447,7 +37447,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="40:185 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -5,16 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="VERS_Packages" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="VERS_Piler_Config" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="VERS_Piler_Config" sheetId="3" state="hidden" r:id="rId5"/>
     <sheet name="VERS_Pilers" sheetId="4" state="hidden" r:id="rId6"/>
     <sheet name="VERS_Processor_Config" sheetId="5" state="hidden" r:id="rId7"/>
     <sheet name="VERS_Processors" sheetId="6" state="hidden" r:id="rId8"/>
-    <sheet name="VERS_Docubase_Application" sheetId="7" state="hidden" r:id="rId9"/>
+    <sheet name="VERS_Docubase_Application" sheetId="7" state="visible" r:id="rId9"/>
     <sheet name="VERS_Docubase_Pages" sheetId="8" state="hidden" r:id="rId10"/>
     <sheet name="VIEW_Docubase_Page_Templates" sheetId="9" state="hidden" r:id="rId11"/>
     <sheet name="VIEW_Docubase_Pages" sheetId="10" state="hidden" r:id="rId12"/>
@@ -5137,14 +5137,14 @@
     <tabColor rgb="FFBF360C"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DM63"/>
+  <dimension ref="A1:DM66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="M66" activeCellId="0" sqref="M66"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14698,6 +14698,9 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V63" s="57"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M66" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="60">
@@ -16149,7 +16152,7 @@
   </sheetPr>
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -33483,7 +33486,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="VERS_Packages" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="VERS_Packages" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="VERS_Piler_Config" sheetId="3" state="hidden" r:id="rId5"/>
     <sheet name="VERS_Pilers" sheetId="4" state="hidden" r:id="rId6"/>
     <sheet name="VERS_Processor_Config" sheetId="5" state="hidden" r:id="rId7"/>
@@ -5140,14 +5140,14 @@
   <dimension ref="A1:DM66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="AN33" activeCellId="0" sqref="AN33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="3.09"/>
@@ -5933,7 +5933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A4" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>0</v>
@@ -6074,7 +6074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A5" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>1</v>
@@ -6224,7 +6224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A6" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>2</v>
@@ -6370,7 +6370,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A7" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>3</v>
@@ -6522,7 +6522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A8" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>4</v>
@@ -6675,7 +6675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A9" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>5</v>
@@ -6831,7 +6831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A10" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>6</v>
@@ -6983,7 +6983,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A11" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>7</v>
@@ -7132,7 +7132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A12" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>8</v>
@@ -7288,7 +7288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A13" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>9</v>
@@ -7447,7 +7447,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A14" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>10</v>
@@ -7598,7 +7598,7 @@
       <c r="DK14" s="16"/>
       <c r="DL14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A15" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>11</v>
@@ -7760,7 +7760,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A16" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>12</v>
@@ -7924,7 +7924,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>13</v>
@@ -8090,7 +8090,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>14</v>
@@ -8252,7 +8252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A19" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>15</v>
@@ -8409,7 +8409,7 @@
       <c r="DK19" s="16"/>
       <c r="DL19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A20" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>16</v>
@@ -8577,7 +8577,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A21" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>17</v>
@@ -8747,7 +8747,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A22" s="10" t="n">
         <f aca="false">ROW() - 4</f>
         <v>18</v>
@@ -8917,7 +8917,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A23" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>19</v>
@@ -9093,7 +9093,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A24" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>20</v>
@@ -9266,7 +9266,7 @@
       <c r="DK24" s="16"/>
       <c r="DL24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A25" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>21</v>
@@ -9453,7 +9453,7 @@
       <c r="DK25" s="16"/>
       <c r="DL25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A26" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>22</v>
@@ -9642,7 +9642,7 @@
       <c r="DK26" s="16"/>
       <c r="DL26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A27" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>23</v>
@@ -9833,7 +9833,7 @@
       <c r="DK27" s="16"/>
       <c r="DL27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A28" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>24</v>
@@ -10275,7 +10275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A30" s="40" t="n">
         <f aca="false">ROW() - 4</f>
         <v>26</v>
@@ -10438,7 +10438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A31" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>27</v>
@@ -10615,7 +10615,7 @@
       <c r="DK31" s="16"/>
       <c r="DL31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A32" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>28</v>
@@ -10798,7 +10798,7 @@
       <c r="DK32" s="16"/>
       <c r="DL32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A33" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>29</v>
@@ -10993,7 +10993,7 @@
       <c r="DK33" s="16"/>
       <c r="DL33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A34" s="40" t="n">
         <f aca="false">ROW() - 4</f>
         <v>30</v>
@@ -11152,7 +11152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A35" s="40" t="n">
         <f aca="false">ROW() - 4</f>
         <v>31</v>
@@ -11309,7 +11309,7 @@
       <c r="DK35" s="16"/>
       <c r="DL35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A36" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>32</v>
@@ -11476,7 +11476,7 @@
       <c r="DK36" s="16"/>
       <c r="DL36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A37" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>33</v>
@@ -11657,7 +11657,7 @@
       <c r="DK37" s="16"/>
       <c r="DL37" s="6"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A38" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>34</v>
@@ -11854,7 +11854,7 @@
       <c r="DK38" s="16"/>
       <c r="DL38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A39" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>35</v>
@@ -12051,7 +12051,7 @@
       <c r="DK39" s="16"/>
       <c r="DL39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A40" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>36</v>
@@ -12254,7 +12254,7 @@
       <c r="DK40" s="16"/>
       <c r="DL40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A41" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>37</v>
@@ -12427,7 +12427,7 @@
       <c r="DK41" s="16"/>
       <c r="DL41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A42" s="40" t="n">
         <f aca="false">ROW() - 4</f>
         <v>38</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A43" s="40" t="n">
         <f aca="false">ROW() - 4</f>
         <v>39</v>
@@ -12709,7 +12709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A44" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>40</v>
@@ -12854,7 +12854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A45" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>41</v>
@@ -12999,7 +12999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A46" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>42</v>
@@ -13144,7 +13144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A47" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>43</v>
@@ -13289,7 +13289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A48" s="40" t="n">
         <f aca="false">ROW() - 4</f>
         <v>44</v>
@@ -13430,7 +13430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A49" s="40" t="n">
         <f aca="false">ROW() - 4</f>
         <v>45</v>
@@ -13571,7 +13571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A50" s="40" t="n">
         <f aca="false">ROW() - 4</f>
         <v>46</v>
@@ -13710,7 +13710,7 @@
       <c r="DK50" s="16"/>
       <c r="DL50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A51" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>47</v>
@@ -13853,7 +13853,7 @@
       <c r="DK51" s="16"/>
       <c r="DL51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A52" s="40" t="n">
         <f aca="false">ROW() - 4</f>
         <v>48</v>
@@ -13994,7 +13994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A53" s="40" t="n">
         <f aca="false">ROW() - 4</f>
         <v>49</v>
@@ -14135,7 +14135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A54" s="40" t="n">
         <f aca="false">ROW() - 4</f>
         <v>50</v>
@@ -14274,7 +14274,7 @@
       <c r="DK54" s="16"/>
       <c r="DL54" s="6"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A55" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>51</v>
@@ -14419,7 +14419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A56" s="29" t="n">
         <f aca="false">ROW() - 4</f>
         <v>52</v>
@@ -16152,8 +16152,8 @@
   </sheetPr>
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q46" activeCellId="0" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33481,12 +33481,12 @@
   </sheetPr>
   <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -5,16 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="VERS_Packages" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="VERS_Piler_Config" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="VERS_Piler_Config" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="VERS_Pilers" sheetId="4" state="hidden" r:id="rId6"/>
     <sheet name="VERS_Processor_Config" sheetId="5" state="hidden" r:id="rId7"/>
     <sheet name="VERS_Processors" sheetId="6" state="hidden" r:id="rId8"/>
-    <sheet name="VERS_Docubase_Application" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="VERS_Docubase_Application" sheetId="7" state="hidden" r:id="rId9"/>
     <sheet name="VERS_Docubase_Pages" sheetId="8" state="hidden" r:id="rId10"/>
     <sheet name="VIEW_Docubase_Page_Templates" sheetId="9" state="hidden" r:id="rId11"/>
     <sheet name="VIEW_Docubase_Pages" sheetId="10" state="hidden" r:id="rId12"/>
@@ -5140,10 +5140,10 @@
   <dimension ref="A1:DM66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="3" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
       <selection pane="bottomRight" activeCell="AN33" activeCellId="0" sqref="AN33"/>
     </sheetView>
   </sheetViews>
@@ -17532,12 +17532,12 @@
   </sheetPr>
   <dimension ref="A1:Y190"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E186" activeCellId="0" sqref="E186"/>
+      <selection pane="bottomRight" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
@@ -17714,7 +17714,7 @@
       <c r="X4" s="64"/>
       <c r="Y4" s="64"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A5" s="67" t="n">
         <f aca="false">VINE!$A$23</f>
         <v>19</v>
@@ -17746,7 +17746,7 @@
       <c r="X5" s="71"/>
       <c r="Y5" s="71"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A6" s="72"/>
       <c r="B6" s="73"/>
       <c r="C6" s="110" t="s">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="Y6" s="83"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="111"/>
@@ -17820,7 +17820,7 @@
       <c r="X7" s="83"/>
       <c r="Y7" s="83"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A8" s="95"/>
       <c r="B8" s="96"/>
       <c r="C8" s="112"/>
@@ -17853,7 +17853,7 @@
       <c r="X8" s="83"/>
       <c r="Y8" s="83"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A9" s="113"/>
       <c r="B9" s="114"/>
       <c r="C9" s="115"/>
@@ -17888,7 +17888,7 @@
       <c r="X9" s="83"/>
       <c r="Y9" s="83"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A10" s="113"/>
       <c r="B10" s="114"/>
       <c r="C10" s="115"/>
@@ -17923,7 +17923,7 @@
       <c r="X10" s="83"/>
       <c r="Y10" s="83"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A11" s="113"/>
       <c r="B11" s="114"/>
       <c r="C11" s="115"/>
@@ -17962,7 +17962,7 @@
       </c>
       <c r="Y11" s="83"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A12" s="125"/>
       <c r="B12" s="126"/>
       <c r="C12" s="127"/>
@@ -17993,7 +17993,7 @@
       <c r="X12" s="83"/>
       <c r="Y12" s="83"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A13" s="125"/>
       <c r="B13" s="126"/>
       <c r="C13" s="127"/>
@@ -18024,7 +18024,7 @@
       <c r="X13" s="83"/>
       <c r="Y13" s="83"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A14" s="125"/>
       <c r="B14" s="126"/>
       <c r="C14" s="127"/>
@@ -18055,7 +18055,7 @@
       <c r="X14" s="83"/>
       <c r="Y14" s="83"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A15" s="125"/>
       <c r="B15" s="126"/>
       <c r="C15" s="127"/>
@@ -18084,7 +18084,7 @@
       <c r="X15" s="83"/>
       <c r="Y15" s="83"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A16" s="113"/>
       <c r="B16" s="114"/>
       <c r="C16" s="115"/>
@@ -18119,7 +18119,7 @@
       <c r="X16" s="83"/>
       <c r="Y16" s="83"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="113"/>
       <c r="B17" s="114"/>
       <c r="C17" s="115"/>
@@ -18154,7 +18154,7 @@
       <c r="X17" s="83"/>
       <c r="Y17" s="83"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="113"/>
       <c r="B18" s="114"/>
       <c r="C18" s="115"/>
@@ -33481,12 +33481,12 @@
   </sheetPr>
   <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
@@ -14,7 +14,7 @@
     <sheet name="VERS_Pilers" sheetId="4" state="hidden" r:id="rId6"/>
     <sheet name="VERS_Processor_Config" sheetId="5" state="hidden" r:id="rId7"/>
     <sheet name="VERS_Processors" sheetId="6" state="hidden" r:id="rId8"/>
-    <sheet name="VERS_Docubase_Application" sheetId="7" state="hidden" r:id="rId9"/>
+    <sheet name="VERS_Docubase_Application" sheetId="7" state="visible" r:id="rId9"/>
     <sheet name="VERS_Docubase_Pages" sheetId="8" state="hidden" r:id="rId10"/>
     <sheet name="VIEW_Docubase_Page_Templates" sheetId="9" state="hidden" r:id="rId11"/>
     <sheet name="VIEW_Docubase_Pages" sheetId="10" state="hidden" r:id="rId12"/>
@@ -17532,12 +17532,12 @@
   </sheetPr>
   <dimension ref="A1:Y190"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="K29" activeCellId="0" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
@@ -33481,12 +33481,12 @@
   </sheetPr>
   <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="O14" activeCellId="0" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -33486,7 +33486,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O14" activeCellId="0" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="L39" activeCellId="0" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/designment/projects/001/docubase/docubase.xlsx
+++ b/designment/projects/001/docubase/docubase.xlsx
@@ -5140,11 +5140,11 @@
   <dimension ref="A1:DM66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="3" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AN33" activeCellId="0" sqref="AN33"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="A57" activeCellId="0" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
